--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -22,6 +22,12 @@
     <t>Active cases</t>
   </si>
   <si>
+    <t>Unnamed: 2</t>
+  </si>
+  <si>
+    <t>Unnamed: 3</t>
+  </si>
+  <si>
     <t>21 Moore Street Apartment Complex Moonee Ponds</t>
   </si>
   <si>
@@ -82,9 +88,6 @@
     <t>Coles Broadmeadows Central Shopping Centre</t>
   </si>
   <si>
-    <t>Coles Campbellfield Plaza Campbellfield</t>
-  </si>
-  <si>
     <t>Coles Coburg North Village Aug</t>
   </si>
   <si>
@@ -136,12 +139,18 @@
     <t>Industrial Galvanizers Valmont Coatings Campbellfield</t>
   </si>
   <si>
+    <t>Islamic College of Melbourne Tarneit</t>
+  </si>
+  <si>
     <t>KFC Fawkner</t>
   </si>
   <si>
     <t>Kasr Sweets Coolaroo</t>
   </si>
   <si>
+    <t>Kids House Early Learning Cheltenham</t>
+  </si>
+  <si>
     <t>Learning Nest Early Learning Centre Meadow Heights</t>
   </si>
   <si>
@@ -151,9 +160,6 @@
     <t>Metricon Homes Lot 1815 Canning Dr Mickleham</t>
   </si>
   <si>
-    <t>Mill Park Superclinic</t>
-  </si>
-  <si>
     <t>Montessori Beginnings Greenvale</t>
   </si>
   <si>
@@ -175,6 +181,9 @@
     <t>Northern Health Northern Hospital Epping Emergency Department Tier 1B</t>
   </si>
   <si>
+    <t>OnQ Plumbing and Excavations Cragieburn</t>
+  </si>
+  <si>
     <t>Oporto Coolaroo</t>
   </si>
   <si>
@@ -208,9 +217,6 @@
     <t>The Homestead Child and Family Centre Roxburgh Park</t>
   </si>
   <si>
-    <t>The Northern Hospital Epping</t>
-  </si>
-  <si>
     <t>The Royal Children's Hospital Melbourne Emergency Department Parkville Tier 1B</t>
   </si>
   <si>
@@ -220,10 +226,7 @@
     <t>Total Window Concepts Hoppers Crossing</t>
   </si>
   <si>
-    <t>Trilogy 201 High St Apartment Complex Prahran</t>
-  </si>
-  <si>
-    <t>Tunstall Fresh Tunstall Square Shopping Centre Doncaster East</t>
+    <t>Turnstall Fresh Turnstall Square Shopping Centre Donaster East</t>
   </si>
   <si>
     <t>Victorian Civil and Administrative Tribunal Melbourne</t>
@@ -233,9 +236,6 @@
   </si>
   <si>
     <t>Western Health Footscray Hospital Emergency Department</t>
-  </si>
-  <si>
-    <t>Western Health Sunshine Hospital Emergency Department</t>
   </si>
   <si>
     <t>Woolworths Coburg Station</t>
@@ -602,143 +602,149 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B76"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
       <c r="B9">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B13">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B15">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B16">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B17">
         <v>5</v>
@@ -746,7 +752,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B18">
         <v>8</v>
@@ -754,15 +760,15 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B19">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -770,7 +776,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B21">
         <v>9</v>
@@ -778,199 +784,199 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B22">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B23">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B24">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B25">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B26">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B27">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B28">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B29">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B30">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B31">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B32">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B33">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B34">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B35">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B36">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B37">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B38">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B39">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B40">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B41">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B42">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B43">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B44">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B45">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B46">
         <v>6</v>
@@ -978,23 +984,23 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B47">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B48">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B49">
         <v>7</v>
@@ -1002,15 +1008,15 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B50">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B51">
         <v>5</v>
@@ -1018,135 +1024,135 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B52">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B53">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B54">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B55">
-        <v>84</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B56">
-        <v>13</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B57">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B58">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B59">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B60">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B61">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B62">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B63">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B64">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B65">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B66">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B67">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B68">
         <v>5</v>
@@ -1154,7 +1160,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B69">
         <v>5</v>
@@ -1162,58 +1168,42 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B70">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B71">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B72">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B73">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B74">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
-        <v>75</v>
-      </c>
-      <c r="B75">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
-        <v>76</v>
-      </c>
-      <c r="B76">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>Cluster name</t>
   </si>
@@ -22,19 +22,10 @@
     <t>Active cases</t>
   </si>
   <si>
-    <t>Unnamed: 2</t>
-  </si>
-  <si>
-    <t>Unnamed: 3</t>
-  </si>
-  <si>
-    <t>21 Moore Street Apartment Complex Moonee Ponds</t>
-  </si>
-  <si>
     <t>574 Plummer Street Building B1 &amp; B2 Port Melbourne</t>
   </si>
   <si>
-    <t>A Treat of France Cafe Carlton North</t>
+    <t>A1 Bakery Brunswick</t>
   </si>
   <si>
     <t>Acquire BPO Southbank</t>
@@ -49,13 +40,16 @@
     <t>Amiga Montessori Craigieburn</t>
   </si>
   <si>
+    <t>Broadmeadows Medical Centre Broadmeadows</t>
+  </si>
+  <si>
     <t>CMV Truck and Bus Dealership Springvale</t>
   </si>
   <si>
     <t>CS Square Caroline Springs</t>
   </si>
   <si>
-    <t>Campbellfield Heights Primary School Campbellfield</t>
+    <t>Campbellfield Heights Primary School</t>
   </si>
   <si>
     <t>Can Panel Cambellfield</t>
@@ -64,18 +58,12 @@
     <t>Cedars Medical Clinic Coburg</t>
   </si>
   <si>
-    <t>Chemist Warehouse Campbellfield DC</t>
-  </si>
-  <si>
     <t>City of Greater Shepparton Community</t>
   </si>
   <si>
     <t>City of Hobsons Bay Community</t>
   </si>
   <si>
-    <t>City of Moreland Social Network</t>
-  </si>
-  <si>
     <t>City of Wyndham Community</t>
   </si>
   <si>
@@ -88,12 +76,18 @@
     <t>Coles Broadmeadows Central Shopping Centre</t>
   </si>
   <si>
-    <t>Coles Coburg North Village Aug</t>
+    <t>Coles Campbellfield Plaza Campbellfield</t>
+  </si>
+  <si>
+    <t>Coles Coburg North Village August</t>
   </si>
   <si>
     <t>Coles Greenvale Shopping Centre</t>
   </si>
   <si>
+    <t>Coles Pakenham Place Shopping Centre</t>
+  </si>
+  <si>
     <t>Coles Roxburgh Village Roxburgh Park</t>
   </si>
   <si>
@@ -112,7 +106,7 @@
     <t>Croydon Orthodontics</t>
   </si>
   <si>
-    <t>Ernst and Young 8 Exhibition Street Melbourne</t>
+    <t>Elite Smart Community Care Campbellfield</t>
   </si>
   <si>
     <t>Fitzroy Community School Fitzroy North</t>
@@ -154,10 +148,19 @@
     <t>Learning Nest Early Learning Centre Meadow Heights</t>
   </si>
   <si>
+    <t>Louis Vuitton Melbourne Crown Southbank</t>
+  </si>
+  <si>
     <t>Malvern Health and Fitness Clinic Malvern</t>
   </si>
   <si>
-    <t>Metricon Homes Lot 1815 Canning Dr Mickleham</t>
+    <t>Melbourne Metropolitan Remand Centre Ravenhall</t>
+  </si>
+  <si>
+    <t>Melbourne Truck Repairs Campbellfield</t>
+  </si>
+  <si>
+    <t>Mercy Hospital for Women Heidelberg</t>
   </si>
   <si>
     <t>Montessori Beginnings Greenvale</t>
@@ -181,7 +184,7 @@
     <t>Northern Health Northern Hospital Epping Emergency Department Tier 1B</t>
   </si>
   <si>
-    <t>OnQ Plumbing and Excavations Cragieburn</t>
+    <t>OnQ Plumbing and Excavations Craigieburn</t>
   </si>
   <si>
     <t>Oporto Coolaroo</t>
@@ -226,7 +229,7 @@
     <t>Total Window Concepts Hoppers Crossing</t>
   </si>
   <si>
-    <t>Turnstall Fresh Turnstall Square Shopping Centre Donaster East</t>
+    <t>Tunstall Fresh Tunstall Square Shopping Centre Doncaster East</t>
   </si>
   <si>
     <t>Victorian Civil and Administrative Tribunal Melbourne</t>
@@ -602,205 +605,199 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:B77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="B3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
+      <c r="B4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
+      <c r="B10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
         <v>11</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>13</v>
       </c>
       <c r="B11">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
+      <c r="B15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
       <c r="B16">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B18">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B19">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B21">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B22">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>17</v>
@@ -808,7 +805,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>22</v>
@@ -816,7 +813,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>5</v>
@@ -824,7 +821,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>18</v>
@@ -832,15 +829,15 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B28">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B29">
         <v>8</v>
@@ -848,23 +845,23 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B30">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B31">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B32">
         <v>7</v>
@@ -872,7 +869,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B33">
         <v>5</v>
@@ -880,7 +877,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B34">
         <v>12</v>
@@ -888,15 +885,15 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B35">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B36">
         <v>25</v>
@@ -904,7 +901,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B37">
         <v>14</v>
@@ -912,7 +909,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B38">
         <v>13</v>
@@ -920,15 +917,15 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B39">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B40">
         <v>21</v>
@@ -936,207 +933,207 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B41">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B42">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B43">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B44">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B45">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B46">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B47">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B48">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B49">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B50">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B51">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B52">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B53">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B54">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B55">
-        <v>7</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B56">
-        <v>76</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B57">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B58">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B59">
-        <v>5</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B60">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B61">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B62">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B63">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B64">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B65">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B66">
         <v>9</v>
@@ -1144,15 +1141,15 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B67">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B68">
         <v>5</v>
@@ -1160,15 +1157,15 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B69">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B70">
         <v>7</v>
@@ -1176,15 +1173,15 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B71">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B72">
         <v>5</v>
@@ -1192,18 +1189,42 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B73">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
         <v>76</v>
       </c>
-      <c r="B74">
-        <v>31</v>
+      <c r="B76">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="85">
   <si>
     <t>Cluster name</t>
   </si>
@@ -25,6 +25,9 @@
     <t>574 Plummer Street Building B1 &amp; B2 Port Melbourne</t>
   </si>
   <si>
+    <t>7 Chefs Fawkner</t>
+  </si>
+  <si>
     <t>A1 Bakery Brunswick</t>
   </si>
   <si>
@@ -43,27 +46,30 @@
     <t>Broadmeadows Medical Centre Broadmeadows</t>
   </si>
   <si>
-    <t>CMV Truck and Bus Dealership Springvale</t>
-  </si>
-  <si>
-    <t>CS Square Caroline Springs</t>
-  </si>
-  <si>
-    <t>Campbellfield Heights Primary School</t>
+    <t>Budget Car and Truck Rentals Campbellfield</t>
+  </si>
+  <si>
+    <t>Campbellfield Heights Primary School Campbellfield</t>
   </si>
   <si>
     <t>Can Panel Cambellfield</t>
   </si>
   <si>
+    <t>Cannie Road Construction Site Cannie</t>
+  </si>
+  <si>
+    <t>Caroline Springs Police Station</t>
+  </si>
+  <si>
     <t>Cedars Medical Clinic Coburg</t>
   </si>
   <si>
-    <t>City of Greater Shepparton Community</t>
-  </si>
-  <si>
     <t>City of Hobsons Bay Community</t>
   </si>
   <si>
+    <t>City of Moreland Community</t>
+  </si>
+  <si>
     <t>City of Wyndham Community</t>
   </si>
   <si>
@@ -79,6 +85,9 @@
     <t>Coles Campbellfield Plaza Campbellfield</t>
   </si>
   <si>
+    <t>Coles Coburg North Village</t>
+  </si>
+  <si>
     <t>Coles Coburg North Village August</t>
   </si>
   <si>
@@ -127,6 +136,9 @@
     <t>Ilim College Glenroy Campus Hadfield</t>
   </si>
   <si>
+    <t>Ilim College Kiewa Campus Boys Secondary Dallas</t>
+  </si>
+  <si>
     <t>Ilim Learning Sanctuary Glenroy</t>
   </si>
   <si>
@@ -148,6 +160,9 @@
     <t>Learning Nest Early Learning Centre Meadow Heights</t>
   </si>
   <si>
+    <t>Level Crossing Removal Project Lilydale Construction Site John Street</t>
+  </si>
+  <si>
     <t>Louis Vuitton Melbourne Crown Southbank</t>
   </si>
   <si>
@@ -160,6 +175,9 @@
     <t>Melbourne Truck Repairs Campbellfield</t>
   </si>
   <si>
+    <t>Melbourne West Police Station Docklands</t>
+  </si>
+  <si>
     <t>Mercy Hospital for Women Heidelberg</t>
   </si>
   <si>
@@ -175,6 +193,9 @@
     <t>Newport Football Club Altona North</t>
   </si>
   <si>
+    <t>Newport Gardens Early Years Centre Newport</t>
+  </si>
+  <si>
     <t>Nido Early School Moonee Ponds</t>
   </si>
   <si>
@@ -196,13 +217,10 @@
     <t>Panorama Construction Site Whitehorse Rd Box Hill</t>
   </si>
   <si>
-    <t>Pascoe Vale Primary School Pascoe Vale</t>
-  </si>
-  <si>
     <t>Pearl Street Child Care Centre Glenroy</t>
   </si>
   <si>
-    <t>People First Healthcare Home Residence Disability Support Taylors Lakes</t>
+    <t>Salta Drive Construction Site Rangedale Drainage Altona North</t>
   </si>
   <si>
     <t>Serco Mill Park</t>
@@ -241,7 +259,10 @@
     <t>Western Health Footscray Hospital Emergency Department</t>
   </si>
   <si>
-    <t>Woolworths Coburg Station</t>
+    <t>Western Health Sunshine Hospital Emergency Department</t>
+  </si>
+  <si>
+    <t>Who is Bunker Spreckels Cafe Elwood</t>
   </si>
   <si>
     <t>Woolworths Greenvale Lakes Roxburgh Park</t>
@@ -605,7 +626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B77"/>
+  <dimension ref="A1:B85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -624,7 +645,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -632,7 +653,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -640,7 +661,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -648,7 +669,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>71</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -656,7 +677,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>28</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -664,7 +685,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -672,7 +693,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -712,7 +733,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>44</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -720,7 +741,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -728,7 +749,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -736,7 +757,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -744,7 +765,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -760,7 +781,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -768,7 +789,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -776,7 +797,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -784,7 +805,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -792,7 +813,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -800,7 +821,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -808,7 +829,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -816,7 +837,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -824,7 +845,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -832,7 +853,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -840,7 +861,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -848,7 +869,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -856,7 +877,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -880,7 +901,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -896,7 +917,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -904,7 +925,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -912,7 +933,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -920,7 +941,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -928,7 +949,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -936,7 +957,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -944,7 +965,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -952,7 +973,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -960,7 +981,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -968,7 +989,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -976,7 +997,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -984,7 +1005,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -992,7 +1013,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1000,7 +1021,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1008,7 +1029,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1016,7 +1037,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1024,7 +1045,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1032,7 +1053,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1040,7 +1061,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1048,7 +1069,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>42</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1056,7 +1077,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1064,7 +1085,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1072,7 +1093,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1080,7 +1101,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>67</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1088,7 +1109,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1096,12 +1117,12 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62">
         <v>5</v>
@@ -1109,71 +1130,71 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67">
-        <v>17</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71">
         <v>5</v>
@@ -1181,31 +1202,31 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B74">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B75">
         <v>5</v>
@@ -1213,18 +1234,82 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B76">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
         <v>77</v>
       </c>
-      <c r="B77">
-        <v>30</v>
+      <c r="B78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>Cluster name</t>
   </si>
@@ -22,6 +22,9 @@
     <t>Active cases</t>
   </si>
   <si>
+    <t>3535 Opal Meadow Heights Aged Care Community Meadow Heights</t>
+  </si>
+  <si>
     <t>574 Plummer Street Building B1 &amp; B2 Port Melbourne</t>
   </si>
   <si>
@@ -43,6 +46,9 @@
     <t>Amiga Montessori Craigieburn</t>
   </si>
   <si>
+    <t>Best&amp;Less Fountain Gate Narre Warren</t>
+  </si>
+  <si>
     <t>Broadmeadows Medical Centre Broadmeadows</t>
   </si>
   <si>
@@ -64,6 +70,9 @@
     <t>Cedars Medical Clinic Coburg</t>
   </si>
   <si>
+    <t>Central Plaster 236 &amp; 259 Jasper Road McKinnon</t>
+  </si>
+  <si>
     <t>City of Hobsons Bay Community</t>
   </si>
   <si>
@@ -88,7 +97,7 @@
     <t>Coles Coburg North Village</t>
   </si>
   <si>
-    <t>Coles Coburg North Village August</t>
+    <t>Coles Coburg North Village Aug</t>
   </si>
   <si>
     <t>Coles Greenvale Shopping Centre</t>
@@ -103,7 +112,7 @@
     <t>Community Kids Meadow Heights</t>
   </si>
   <si>
-    <t>Concept Caravans Campbellfield</t>
+    <t>Construction Site Olea Apartment Caulfield North</t>
   </si>
   <si>
     <t>Costco Wholesale Epping</t>
@@ -118,6 +127,9 @@
     <t>Elite Smart Community Care Campbellfield</t>
   </si>
   <si>
+    <t>Ernst and Young 8 Exhibition Street Melbourne</t>
+  </si>
+  <si>
     <t>Fitzroy Community School Fitzroy North</t>
   </si>
   <si>
@@ -163,7 +175,7 @@
     <t>Level Crossing Removal Project Lilydale Construction Site John Street</t>
   </si>
   <si>
-    <t>Louis Vuitton Melbourne Crown Southbank</t>
+    <t>Linfox Somerton National Distribution Centre Somerton</t>
   </si>
   <si>
     <t>Malvern Health and Fitness Clinic Malvern</t>
@@ -178,9 +190,15 @@
     <t>Melbourne West Police Station Docklands</t>
   </si>
   <si>
+    <t>Melbourne Youth Justice Centre Parkville</t>
+  </si>
+  <si>
     <t>Mercy Hospital for Women Heidelberg</t>
   </si>
   <si>
+    <t>Mernda YMCA Early Learning Centre Mernda</t>
+  </si>
+  <si>
     <t>Montessori Beginnings Greenvale</t>
   </si>
   <si>
@@ -217,7 +235,7 @@
     <t>Panorama Construction Site Whitehorse Rd Box Hill</t>
   </si>
   <si>
-    <t>Pearl Street Child Care Centre Glenroy</t>
+    <t>People First Healthcare Home Residence Disability Support Taylors Lakes</t>
   </si>
   <si>
     <t>Salta Drive Construction Site Rangedale Drainage Altona North</t>
@@ -250,19 +268,19 @@
     <t>Tunstall Fresh Tunstall Square Shopping Centre Doncaster East</t>
   </si>
   <si>
+    <t>Unilodge College Square Student Accommodation 570 Lygon Street Carlton</t>
+  </si>
+  <si>
     <t>Victorian Civil and Administrative Tribunal Melbourne</t>
   </si>
   <si>
-    <t>Werribee Mercy Hospital Emergency Department</t>
-  </si>
-  <si>
-    <t>Western Health Footscray Hospital Emergency Department</t>
-  </si>
-  <si>
     <t>Western Health Sunshine Hospital Emergency Department</t>
   </si>
   <si>
     <t>Who is Bunker Spreckels Cafe Elwood</t>
+  </si>
+  <si>
+    <t>Woodlands Long Day Care and Kindergarten Roxburgh Park</t>
   </si>
   <si>
     <t>Woolworths Greenvale Lakes Roxburgh Park</t>
@@ -626,7 +644,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B85"/>
+  <dimension ref="A1:B90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -645,7 +663,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -669,7 +687,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>31</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -677,7 +695,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>72</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -685,7 +703,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>23</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -693,7 +711,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -701,7 +719,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -709,7 +727,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -717,7 +735,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -725,7 +743,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -733,7 +751,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -741,7 +759,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -749,7 +767,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>43</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -757,7 +775,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -765,7 +783,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>9</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -773,7 +791,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -781,7 +799,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -789,7 +807,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -797,7 +815,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -805,7 +823,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -813,7 +831,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -821,7 +839,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -829,7 +847,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -837,7 +855,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -845,7 +863,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -853,7 +871,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -861,7 +879,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -869,7 +887,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -877,7 +895,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -885,7 +903,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -893,7 +911,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -901,7 +919,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>52</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -909,7 +927,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -925,7 +943,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -933,7 +951,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>6</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -941,7 +959,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -949,7 +967,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -957,7 +975,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -965,7 +983,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -973,7 +991,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -981,7 +999,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -989,7 +1007,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -997,7 +1015,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1005,7 +1023,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1013,7 +1031,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1021,7 +1039,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1029,7 +1047,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1037,7 +1055,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1045,7 +1063,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1053,7 +1071,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1069,7 +1087,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1077,7 +1095,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1085,7 +1103,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1093,7 +1111,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1101,7 +1119,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1109,7 +1127,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1117,156 +1135,156 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B62">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B63">
-        <v>47</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B64">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B65">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B66">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B67">
-        <v>56</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B68">
-        <v>6</v>
+        <v>48</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B69">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B70">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B71">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B72">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B73">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B74">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B75">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B76">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B77">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B78">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B79">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B80">
         <v>6</v>
@@ -1274,23 +1292,23 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B81">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B82">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B83">
         <v>5</v>
@@ -1298,18 +1316,58 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B84">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B85">
-        <v>27</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>88</v>
+      </c>
+      <c r="B88">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>89</v>
+      </c>
+      <c r="B89">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>90</v>
+      </c>
+      <c r="B90">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>Cluster name</t>
   </si>
@@ -25,9 +25,6 @@
     <t>3535 Opal Meadow Heights Aged Care Community Meadow Heights</t>
   </si>
   <si>
-    <t>574 Plummer Street Building B1 &amp; B2 Port Melbourne</t>
-  </si>
-  <si>
     <t>7 Chefs Fawkner</t>
   </si>
   <si>
@@ -58,7 +55,7 @@
     <t>Campbellfield Heights Primary School Campbellfield</t>
   </si>
   <si>
-    <t>Can Panel Cambellfield</t>
+    <t>Can Panel Campbellfield</t>
   </si>
   <si>
     <t>Cannie Road Construction Site Cannie</t>
@@ -70,7 +67,7 @@
     <t>Cedars Medical Clinic Coburg</t>
   </si>
   <si>
-    <t>Central Plaster 236 &amp; 259 Jasper Road McKinnon</t>
+    <t>Chemist Warehouse Fillo Drive Somerton</t>
   </si>
   <si>
     <t>City of Hobsons Bay Community</t>
@@ -79,12 +76,12 @@
     <t>City of Moreland Community</t>
   </si>
   <si>
-    <t>City of Wyndham Community</t>
-  </si>
-  <si>
     <t>Classy Cabinets and Kitchens Craigieburn</t>
   </si>
   <si>
+    <t>Coles Aurora Village Epping</t>
+  </si>
+  <si>
     <t>Coles Barkly Square Brunswick August</t>
   </si>
   <si>
@@ -118,12 +115,12 @@
     <t>Costco Wholesale Epping</t>
   </si>
   <si>
-    <t>Crossroads Logistics Sunshine North</t>
-  </si>
-  <si>
     <t>Croydon Orthodontics</t>
   </si>
   <si>
+    <t>Direct Freight Express Campbellield</t>
+  </si>
+  <si>
     <t>Elite Smart Community Care Campbellfield</t>
   </si>
   <si>
@@ -136,7 +133,7 @@
     <t>Glenroy West Primary School</t>
   </si>
   <si>
-    <t>Gloria Jeans Coffees Broadmeadows Central</t>
+    <t>Hamilton Marino 236 Jasper Road McKinnon</t>
   </si>
   <si>
     <t>Health Care Providers Association South Melbourne</t>
@@ -151,7 +148,7 @@
     <t>Ilim College Kiewa Campus Boys Secondary Dallas</t>
   </si>
   <si>
-    <t>Ilim Learning Sanctuary Glenroy</t>
+    <t>Ilim Leaning Sanctuary Glenroy</t>
   </si>
   <si>
     <t>Industrial Galvanizers Valmont Coatings Campbellfield</t>
@@ -175,12 +172,18 @@
     <t>Level Crossing Removal Project Lilydale Construction Site John Street</t>
   </si>
   <si>
+    <t>Lineage Logistics Laverton North</t>
+  </si>
+  <si>
     <t>Linfox Somerton National Distribution Centre Somerton</t>
   </si>
   <si>
     <t>Malvern Health and Fitness Clinic Malvern</t>
   </si>
   <si>
+    <t>McDonalds Thomastown II</t>
+  </si>
+  <si>
     <t>Melbourne Metropolitan Remand Centre Ravenhall</t>
   </si>
   <si>
@@ -193,6 +196,9 @@
     <t>Melbourne Youth Justice Centre Parkville</t>
   </si>
   <si>
+    <t>Melton Police Station Melton</t>
+  </si>
+  <si>
     <t>Mercy Hospital for Women Heidelberg</t>
   </si>
   <si>
@@ -220,6 +226,9 @@
     <t>Nino Early Learning Adventures Lalor</t>
   </si>
   <si>
+    <t>North Geelong House Party</t>
+  </si>
+  <si>
     <t>Northern Health Northern Hospital Epping Emergency Department Tier 1B</t>
   </si>
   <si>
@@ -238,15 +247,15 @@
     <t>People First Healthcare Home Residence Disability Support Taylors Lakes</t>
   </si>
   <si>
+    <t>Ramsay Health Care Warringal Private Hospital Heidelberg</t>
+  </si>
+  <si>
     <t>Salta Drive Construction Site Rangedale Drainage Altona North</t>
   </si>
   <si>
     <t>Serco Mill Park</t>
   </si>
   <si>
-    <t>Southern Cross Station Crew Room Tissue Box Docklands</t>
-  </si>
-  <si>
     <t>St Vincents Hospital Emergency Department Melbourne</t>
   </si>
   <si>
@@ -262,16 +271,13 @@
     <t>Tip Top Warehouse Dandenong</t>
   </si>
   <si>
-    <t>Total Window Concepts Hoppers Crossing</t>
-  </si>
-  <si>
     <t>Tunstall Fresh Tunstall Square Shopping Centre Doncaster East</t>
   </si>
   <si>
     <t>Unilodge College Square Student Accommodation 570 Lygon Street Carlton</t>
   </si>
   <si>
-    <t>Victorian Civil and Administrative Tribunal Melbourne</t>
+    <t>Werribee Mercy Hospistal Emergency Department</t>
   </si>
   <si>
     <t>Western Health Sunshine Hospital Emergency Department</t>
@@ -286,7 +292,7 @@
     <t>Woolworths Greenvale Lakes Roxburgh Park</t>
   </si>
   <si>
-    <t>Yara Childcare Centre Truganina</t>
+    <t>Yarra Childcare Centre Truganina</t>
   </si>
 </sst>
 </file>
@@ -644,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B90"/>
+  <dimension ref="A1:B92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -671,7 +677,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -679,7 +685,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -687,7 +693,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -695,7 +701,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>15</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -703,7 +709,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -711,7 +717,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -719,7 +725,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -727,7 +733,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -735,7 +741,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -743,7 +749,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -751,7 +757,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -759,7 +765,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -767,7 +773,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -775,7 +781,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -783,7 +789,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>49</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -791,7 +797,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -799,7 +805,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -807,7 +813,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -823,7 +829,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -831,7 +837,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -839,7 +845,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -847,7 +853,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -855,7 +861,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -863,7 +869,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -871,7 +877,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -879,7 +885,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -887,7 +893,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -895,7 +901,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -903,7 +909,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -911,7 +917,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -919,7 +925,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -927,7 +933,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -943,7 +949,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -951,7 +957,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>57</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -959,7 +965,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -967,7 +973,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -975,7 +981,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -983,7 +989,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -991,7 +997,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -999,7 +1005,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1007,7 +1013,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1015,7 +1021,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1023,7 +1029,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1031,7 +1037,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1039,7 +1045,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1047,7 +1053,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1055,7 +1061,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1063,7 +1069,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1071,7 +1077,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1079,7 +1085,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1087,7 +1093,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1095,7 +1101,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1111,7 +1117,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1119,7 +1125,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1143,7 +1149,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1151,7 +1157,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1159,7 +1165,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1167,7 +1173,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1175,7 +1181,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1191,7 +1197,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1199,7 +1205,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1207,7 +1213,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1215,7 +1221,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>10</v>
+        <v>52</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1223,7 +1229,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1231,7 +1237,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1239,7 +1245,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1247,7 +1253,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1263,7 +1269,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1271,7 +1277,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1279,7 +1285,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1295,7 +1301,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1303,7 +1309,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1311,7 +1317,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1335,7 +1341,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1343,7 +1349,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1351,7 +1357,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1359,7 +1365,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1367,7 +1373,23 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>26</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>92</v>
+      </c>
+      <c r="B92">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>Cluster name</t>
   </si>
@@ -46,16 +46,16 @@
     <t>Best&amp;Less Fountain Gate Narre Warren</t>
   </si>
   <si>
-    <t>Broadmeadows Medical Centre Broadmeadows</t>
-  </si>
-  <si>
     <t>Budget Car and Truck Rentals Campbellfield</t>
   </si>
   <si>
+    <t>CS Square Caroline Springs</t>
+  </si>
+  <si>
     <t>Campbellfield Heights Primary School Campbellfield</t>
   </si>
   <si>
-    <t>Can Panel Campbellfield</t>
+    <t>Can Panel Cambellfield</t>
   </si>
   <si>
     <t>Cannie Road Construction Site Cannie</t>
@@ -76,15 +76,15 @@
     <t>City of Moreland Community</t>
   </si>
   <si>
+    <t>City of Wyndham Community</t>
+  </si>
+  <si>
     <t>Classy Cabinets and Kitchens Craigieburn</t>
   </si>
   <si>
     <t>Coles Aurora Village Epping</t>
   </si>
   <si>
-    <t>Coles Barkly Square Brunswick August</t>
-  </si>
-  <si>
     <t>Coles Broadmeadows Central Shopping Centre</t>
   </si>
   <si>
@@ -94,9 +94,6 @@
     <t>Coles Coburg North Village</t>
   </si>
   <si>
-    <t>Coles Coburg North Village Aug</t>
-  </si>
-  <si>
     <t>Coles Greenvale Shopping Centre</t>
   </si>
   <si>
@@ -118,15 +115,15 @@
     <t>Croydon Orthodontics</t>
   </si>
   <si>
-    <t>Direct Freight Express Campbellield</t>
+    <t>DRC Laverton Automotive Repairs Laverton North</t>
+  </si>
+  <si>
+    <t>Direct Freight Express Cambellfield</t>
   </si>
   <si>
     <t>Elite Smart Community Care Campbellfield</t>
   </si>
   <si>
-    <t>Ernst and Young 8 Exhibition Street Melbourne</t>
-  </si>
-  <si>
     <t>Fitzroy Community School Fitzroy North</t>
   </si>
   <si>
@@ -145,10 +142,7 @@
     <t>Ilim College Glenroy Campus Hadfield</t>
   </si>
   <si>
-    <t>Ilim College Kiewa Campus Boys Secondary Dallas</t>
-  </si>
-  <si>
-    <t>Ilim Leaning Sanctuary Glenroy</t>
+    <t>Ilim Learning Sanctuary Glenroy</t>
   </si>
   <si>
     <t>Industrial Galvanizers Valmont Coatings Campbellfield</t>
@@ -178,9 +172,6 @@
     <t>Linfox Somerton National Distribution Centre Somerton</t>
   </si>
   <si>
-    <t>Malvern Health and Fitness Clinic Malvern</t>
-  </si>
-  <si>
     <t>McDonalds Thomastown II</t>
   </si>
   <si>
@@ -211,15 +202,15 @@
     <t>MyCentre Childcare Broadmeadows</t>
   </si>
   <si>
+    <t>National Gallery of Victoria Melbourne</t>
+  </si>
+  <si>
     <t>Newbury Child and Community Centre Craigieburn</t>
   </si>
   <si>
     <t>Newport Football Club Altona North</t>
   </si>
   <si>
-    <t>Newport Gardens Early Years Centre Newport</t>
-  </si>
-  <si>
     <t>Nido Early School Moonee Ponds</t>
   </si>
   <si>
@@ -250,12 +241,12 @@
     <t>Ramsay Health Care Warringal Private Hospital Heidelberg</t>
   </si>
   <si>
+    <t>Richmond Quarter 261-271 Bridge Road Construction Site Richmond</t>
+  </si>
+  <si>
     <t>Salta Drive Construction Site Rangedale Drainage Altona North</t>
   </si>
   <si>
-    <t>Serco Mill Park</t>
-  </si>
-  <si>
     <t>St Vincents Hospital Emergency Department Melbourne</t>
   </si>
   <si>
@@ -277,22 +268,22 @@
     <t>Unilodge College Square Student Accommodation 570 Lygon Street Carlton</t>
   </si>
   <si>
-    <t>Werribee Mercy Hospistal Emergency Department</t>
+    <t>Werribee Mercy Hospital Emergency Department</t>
+  </si>
+  <si>
+    <t>Western Health Footscray Hospital Emergency Department</t>
   </si>
   <si>
     <t>Western Health Sunshine Hospital Emergency Department</t>
   </si>
   <si>
-    <t>Who is Bunker Spreckels Cafe Elwood</t>
-  </si>
-  <si>
     <t>Woodlands Long Day Care and Kindergarten Roxburgh Park</t>
   </si>
   <si>
     <t>Woolworths Greenvale Lakes Roxburgh Park</t>
   </si>
   <si>
-    <t>Yarra Childcare Centre Truganina</t>
+    <t>Yara Childcare Centre Truganina</t>
   </si>
 </sst>
 </file>
@@ -650,7 +641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B92"/>
+  <dimension ref="A1:B89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -669,7 +660,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -693,7 +684,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -701,7 +692,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -709,7 +700,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -733,7 +724,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -741,7 +732,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -797,7 +788,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -805,7 +796,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -813,7 +804,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -821,7 +812,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -829,7 +820,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -845,7 +836,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -853,7 +844,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -869,7 +860,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -877,7 +868,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -885,7 +876,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -893,7 +884,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -901,7 +892,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -909,7 +900,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -925,7 +916,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -941,7 +932,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -949,7 +940,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>55</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -957,7 +948,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -965,7 +956,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -973,7 +964,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -981,7 +972,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -989,7 +980,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -997,7 +988,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1005,7 +996,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1013,7 +1004,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1021,7 +1012,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1029,7 +1020,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1045,7 +1036,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1053,7 +1044,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1061,7 +1052,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1077,7 +1068,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1085,7 +1076,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1101,7 +1092,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1109,7 +1100,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1133,7 +1124,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1141,7 +1132,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1149,7 +1140,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1157,7 +1148,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1165,7 +1156,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1173,7 +1164,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1189,7 +1180,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1197,7 +1188,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>18</v>
+        <v>52</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1205,7 +1196,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1213,7 +1204,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1221,7 +1212,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>52</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1229,7 +1220,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1237,7 +1228,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1245,7 +1236,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1253,7 +1244,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1261,7 +1252,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1269,7 +1260,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1277,7 +1268,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1285,7 +1276,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1293,7 +1284,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1301,7 +1292,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1309,7 +1300,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1317,7 +1308,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1325,7 +1316,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1341,7 +1332,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1349,7 +1340,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1357,7 +1348,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1365,31 +1356,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" t="s">
-        <v>90</v>
-      </c>
-      <c r="B90">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" t="s">
-        <v>91</v>
-      </c>
-      <c r="B91">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="s">
-        <v>92</v>
-      </c>
-      <c r="B92">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>Cluster name</t>
   </si>
@@ -22,12 +22,12 @@
     <t>Active cases</t>
   </si>
   <si>
+    <t>253 Hoddle Street Apartment Complex Collingwood</t>
+  </si>
+  <si>
     <t>3535 Opal Meadow Heights Aged Care Community Meadow Heights</t>
   </si>
   <si>
-    <t>7 Chefs Fawkner</t>
-  </si>
-  <si>
     <t>A1 Bakery Brunswick</t>
   </si>
   <si>
@@ -55,9 +55,6 @@
     <t>Campbellfield Heights Primary School Campbellfield</t>
   </si>
   <si>
-    <t>Can Panel Cambellfield</t>
-  </si>
-  <si>
     <t>Cannie Road Construction Site Cannie</t>
   </si>
   <si>
@@ -112,13 +109,10 @@
     <t>Costco Wholesale Epping</t>
   </si>
   <si>
-    <t>Croydon Orthodontics</t>
-  </si>
-  <si>
     <t>DRC Laverton Automotive Repairs Laverton North</t>
   </si>
   <si>
-    <t>Direct Freight Express Cambellfield</t>
+    <t>Direct Freight Express Campbellfield</t>
   </si>
   <si>
     <t>Elite Smart Community Care Campbellfield</t>
@@ -127,6 +121,9 @@
     <t>Fitzroy Community School Fitzroy North</t>
   </si>
   <si>
+    <t>Fonterra Manufacturing Workplace Campbellfield</t>
+  </si>
+  <si>
     <t>Glenroy West Primary School</t>
   </si>
   <si>
@@ -139,6 +136,9 @@
     <t>IGA Meadow Heights Shopping Centre Meadow Heights</t>
   </si>
   <si>
+    <t>ISS Factory Level 1 Terminal 2 Melbourne Airport Tullamarine</t>
+  </si>
+  <si>
     <t>Ilim College Glenroy Campus Hadfield</t>
   </si>
   <si>
@@ -208,9 +208,6 @@
     <t>Newbury Child and Community Centre Craigieburn</t>
   </si>
   <si>
-    <t>Newport Football Club Altona North</t>
-  </si>
-  <si>
     <t>Nido Early School Moonee Ponds</t>
   </si>
   <si>
@@ -229,6 +226,9 @@
     <t>Oporto Coolaroo</t>
   </si>
   <si>
+    <t>Oscar Romero Catholic Primary School Craigieburn</t>
+  </si>
+  <si>
     <t>Paisley Park Early Learning Centre Bundoora</t>
   </si>
   <si>
@@ -247,6 +247,9 @@
     <t>Salta Drive Construction Site Rangedale Drainage Altona North</t>
   </si>
   <si>
+    <t>Serco Mill Park</t>
+  </si>
+  <si>
     <t>St Vincents Hospital Emergency Department Melbourne</t>
   </si>
   <si>
@@ -259,7 +262,13 @@
     <t>The Royal Children's Hospital Melbourne Emergency Department Parkville Tier 1B</t>
   </si>
   <si>
+    <t>ThorwestenCabinets Pakenham</t>
+  </si>
+  <si>
     <t>Tip Top Warehouse Dandenong</t>
+  </si>
+  <si>
+    <t>Total Window Concepts Hoppers Crossing</t>
   </si>
   <si>
     <t>Tunstall Fresh Tunstall Square Shopping Centre Doncaster East</t>
@@ -641,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B89"/>
+  <dimension ref="A1:B92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -660,7 +669,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -668,7 +677,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -684,7 +693,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -692,7 +701,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -732,7 +741,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -748,7 +757,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -756,7 +765,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -764,7 +773,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -772,7 +781,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>44</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -780,7 +789,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -788,7 +797,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -804,7 +813,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -812,7 +821,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -820,7 +829,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -836,7 +845,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -844,7 +853,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -852,7 +861,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -860,7 +869,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -868,7 +877,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -876,7 +885,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -884,7 +893,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -892,7 +901,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -900,7 +909,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -916,7 +925,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -932,7 +941,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>49</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -940,7 +949,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -948,7 +957,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -956,7 +965,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1004,7 +1013,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1012,7 +1021,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1028,7 +1037,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1044,7 +1053,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1052,7 +1061,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1068,7 +1077,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1076,7 +1085,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1092,7 +1101,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1108,7 +1117,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1148,7 +1157,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1156,7 +1165,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1164,7 +1173,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1172,7 +1181,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1180,7 +1189,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>7</v>
+        <v>46</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1188,7 +1197,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>52</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1204,7 +1213,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1220,7 +1229,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1260,7 +1269,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1268,7 +1277,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1276,7 +1285,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1284,7 +1293,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1292,7 +1301,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1300,7 +1309,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1308,7 +1317,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1316,7 +1325,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1332,7 +1341,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1340,7 +1349,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1348,7 +1357,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1356,7 +1365,31 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>13</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>90</v>
+      </c>
+      <c r="B90">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>92</v>
+      </c>
+      <c r="B92">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="90">
   <si>
     <t>Cluster name</t>
   </si>
@@ -28,7 +28,7 @@
     <t>3535 Opal Meadow Heights Aged Care Community Meadow Heights</t>
   </si>
   <si>
-    <t>A1 Bakery Brunswick</t>
+    <t>ABD Group 512 Melbourne Road Construction Site Spotswood</t>
   </si>
   <si>
     <t>Acquire BPO Southbank</t>
@@ -52,9 +52,6 @@
     <t>CS Square Caroline Springs</t>
   </si>
   <si>
-    <t>Campbellfield Heights Primary School Campbellfield</t>
-  </si>
-  <si>
     <t>Cannie Road Construction Site Cannie</t>
   </si>
   <si>
@@ -109,15 +106,15 @@
     <t>Costco Wholesale Epping</t>
   </si>
   <si>
+    <t>Crusader Caravans Epping</t>
+  </si>
+  <si>
     <t>DRC Laverton Automotive Repairs Laverton North</t>
   </si>
   <si>
     <t>Direct Freight Express Campbellfield</t>
   </si>
   <si>
-    <t>Elite Smart Community Care Campbellfield</t>
-  </si>
-  <si>
     <t>Fitzroy Community School Fitzroy North</t>
   </si>
   <si>
@@ -127,6 +124,9 @@
     <t>Glenroy West Primary School</t>
   </si>
   <si>
+    <t>Gumboots Early Learning Centre South Morang</t>
+  </si>
+  <si>
     <t>Hamilton Marino 236 Jasper Road McKinnon</t>
   </si>
   <si>
@@ -139,6 +139,9 @@
     <t>ISS Factory Level 1 Terminal 2 Melbourne Airport Tullamarine</t>
   </si>
   <si>
+    <t>Ibis Kingsgate Hotel Melbourne</t>
+  </si>
+  <si>
     <t>Ilim College Glenroy Campus Hadfield</t>
   </si>
   <si>
@@ -226,9 +229,6 @@
     <t>Oporto Coolaroo</t>
   </si>
   <si>
-    <t>Oscar Romero Catholic Primary School Craigieburn</t>
-  </si>
-  <si>
     <t>Paisley Park Early Learning Centre Bundoora</t>
   </si>
   <si>
@@ -247,9 +247,6 @@
     <t>Salta Drive Construction Site Rangedale Drainage Altona North</t>
   </si>
   <si>
-    <t>Serco Mill Park</t>
-  </si>
-  <si>
     <t>St Vincents Hospital Emergency Department Melbourne</t>
   </si>
   <si>
@@ -265,13 +262,7 @@
     <t>ThorwestenCabinets Pakenham</t>
   </si>
   <si>
-    <t>Tip Top Warehouse Dandenong</t>
-  </si>
-  <si>
     <t>Total Window Concepts Hoppers Crossing</t>
-  </si>
-  <si>
-    <t>Tunstall Fresh Tunstall Square Shopping Centre Doncaster East</t>
   </si>
   <si>
     <t>Unilodge College Square Student Accommodation 570 Lygon Street Carlton</t>
@@ -650,7 +641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B92"/>
+  <dimension ref="A1:B90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -677,7 +668,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -693,7 +684,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -701,7 +692,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -709,7 +700,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -725,7 +716,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -749,7 +740,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -757,7 +748,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -765,7 +756,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -773,7 +764,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>44</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -789,7 +780,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -805,7 +796,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -813,7 +804,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -821,7 +812,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -829,7 +820,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -837,7 +828,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -845,7 +836,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -853,7 +844,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -861,7 +852,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -869,7 +860,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -877,7 +868,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -885,7 +876,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -893,7 +884,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -909,7 +900,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -917,7 +908,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -925,7 +916,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>45</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -949,7 +940,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -981,7 +972,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -989,7 +980,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -997,7 +988,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1005,7 +996,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1013,7 +1004,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1021,7 +1012,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1029,7 +1020,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1037,7 +1028,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1045,7 +1036,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1053,7 +1044,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1061,7 +1052,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1069,7 +1060,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1077,7 +1068,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1085,7 +1076,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1093,7 +1084,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1101,7 +1092,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1133,7 +1124,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1141,7 +1132,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1149,7 +1140,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1165,7 +1156,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1173,84 +1164,84 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67">
-        <v>46</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B74">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B75">
         <v>9</v>
@@ -1258,31 +1249,31 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B76">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B77">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B78">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B79">
         <v>13</v>
@@ -1290,63 +1281,63 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B80">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B81">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B83">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B84">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B85">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B86">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B87">
         <v>7</v>
@@ -1354,7 +1345,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B88">
         <v>5</v>
@@ -1362,33 +1353,17 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B89">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B90">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" t="s">
-        <v>91</v>
-      </c>
-      <c r="B91">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="s">
-        <v>92</v>
-      </c>
-      <c r="B92">
         <v>10</v>
       </c>
     </row>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="95">
   <si>
     <t>Cluster name</t>
   </si>
@@ -22,9 +22,6 @@
     <t>Active cases</t>
   </si>
   <si>
-    <t>253 Hoddle Street Apartment Complex Collingwood</t>
-  </si>
-  <si>
     <t>3535 Opal Meadow Heights Aged Care Community Meadow Heights</t>
   </si>
   <si>
@@ -34,15 +31,15 @@
     <t>Acquire BPO Southbank</t>
   </si>
   <si>
+    <t>Adorn Cosmetics Clayton</t>
+  </si>
+  <si>
     <t>Al Haj Halal Meats Glenroy</t>
   </si>
   <si>
     <t>Al-Taqwa College Truganina</t>
   </si>
   <si>
-    <t>Amiga Montessori Craigieburn</t>
-  </si>
-  <si>
     <t>Best&amp;Less Fountain Gate Narre Warren</t>
   </si>
   <si>
@@ -61,12 +58,12 @@
     <t>Cedars Medical Clinic Coburg</t>
   </si>
   <si>
+    <t>Chemist Warehouse Campbellfield DC</t>
+  </si>
+  <si>
     <t>Chemist Warehouse Fillo Drive Somerton</t>
   </si>
   <si>
-    <t>City of Hobsons Bay Community</t>
-  </si>
-  <si>
     <t>City of Moreland Community</t>
   </si>
   <si>
@@ -112,7 +109,10 @@
     <t>DRC Laverton Automotive Repairs Laverton North</t>
   </si>
   <si>
-    <t>Direct Freight Express Campbellfield</t>
+    <t>Direct Freight Express Cambellfield</t>
+  </si>
+  <si>
+    <t>Epworth Healthcare Epworth Richmond Emergency Department</t>
   </si>
   <si>
     <t>Fitzroy Community School Fitzroy North</t>
@@ -124,6 +124,12 @@
     <t>Glenroy West Primary School</t>
   </si>
   <si>
+    <t>Goodstart Early Learning Altona</t>
+  </si>
+  <si>
+    <t>Green Leaves Early Learning Centre Highlands Craigieburn</t>
+  </si>
+  <si>
     <t>Gumboots Early Learning Centre South Morang</t>
   </si>
   <si>
@@ -148,6 +154,9 @@
     <t>Ilim Learning Sanctuary Glenroy</t>
   </si>
   <si>
+    <t>Impact Designer Homes Epping</t>
+  </si>
+  <si>
     <t>Industrial Galvanizers Valmont Coatings Campbellfield</t>
   </si>
   <si>
@@ -214,28 +223,31 @@
     <t>Nido Early School Moonee Ponds</t>
   </si>
   <si>
-    <t>Nino Early Learning Adventures Lalor</t>
-  </si>
-  <si>
     <t>North Geelong House Party</t>
   </si>
   <si>
     <t>Northern Health Northern Hospital Epping Emergency Department Tier 1B</t>
   </si>
   <si>
+    <t>Northern Health The Northern Hospital Epping</t>
+  </si>
+  <si>
     <t>OnQ Plumbing and Excavations Craigieburn</t>
   </si>
   <si>
     <t>Oporto Coolaroo</t>
   </si>
   <si>
+    <t>Our Lady Help of Christian's Primary School Brunswick East</t>
+  </si>
+  <si>
     <t>Paisley Park Early Learning Centre Bundoora</t>
   </si>
   <si>
     <t>Panorama Construction Site Whitehorse Rd Box Hill</t>
   </si>
   <si>
-    <t>People First Healthcare Home Residence Disability Support Taylors Lakes</t>
+    <t>Private Residence Northern Community Services Fawkner</t>
   </si>
   <si>
     <t>Ramsay Health Care Warringal Private Hospital Heidelberg</t>
@@ -245,6 +257,9 @@
   </si>
   <si>
     <t>Salta Drive Construction Site Rangedale Drainage Altona North</t>
+  </si>
+  <si>
+    <t>Sharpline Stainless Steel Coburg North</t>
   </si>
   <si>
     <t>St Vincents Hospital Emergency Department Melbourne</t>
@@ -641,7 +656,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B90"/>
+  <dimension ref="A1:B95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -660,7 +675,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -668,7 +683,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -676,7 +691,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -684,7 +699,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -692,7 +707,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -700,7 +715,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -708,7 +723,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -716,7 +731,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -724,7 +739,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -740,7 +755,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -748,20 +763,20 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>5</v>
@@ -769,7 +784,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -777,23 +792,23 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>10</v>
@@ -801,7 +816,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>6</v>
@@ -809,7 +824,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>9</v>
@@ -817,23 +832,23 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>7</v>
@@ -841,55 +856,55 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31">
         <v>5</v>
@@ -897,7 +912,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32">
         <v>13</v>
@@ -905,231 +920,231 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61">
         <v>5</v>
@@ -1137,34 +1152,34 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1172,7 +1187,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1180,7 +1195,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1188,7 +1203,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1196,7 +1211,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1204,7 +1219,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1212,7 +1227,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>13</v>
+        <v>47</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1220,7 +1235,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1228,7 +1243,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1236,7 +1251,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1244,7 +1259,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1252,7 +1267,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1260,7 +1275,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1276,7 +1291,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1284,7 +1299,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1292,7 +1307,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1300,7 +1315,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1308,7 +1323,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1316,7 +1331,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1324,7 +1339,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1332,7 +1347,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1340,7 +1355,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1348,7 +1363,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1356,7 +1371,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1364,6 +1379,46 @@
         <v>89</v>
       </c>
       <c r="B90">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95">
         <v>10</v>
       </c>
     </row>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>Cluster name</t>
   </si>
@@ -25,9 +25,6 @@
     <t>3535 Opal Meadow Heights Aged Care Community Meadow Heights</t>
   </si>
   <si>
-    <t>ABD Group 512 Melbourne Road Construction Site Spotswood</t>
-  </si>
-  <si>
     <t>Acquire BPO Southbank</t>
   </si>
   <si>
@@ -40,6 +37,12 @@
     <t>Al-Taqwa College Truganina</t>
   </si>
   <si>
+    <t>Amiga Montessori Craigieburn</t>
+  </si>
+  <si>
+    <t>Anglicare Home Princes Hwy Dandenong</t>
+  </si>
+  <si>
     <t>Best&amp;Less Fountain Gate Narre Warren</t>
   </si>
   <si>
@@ -49,6 +52,9 @@
     <t>CS Square Caroline Springs</t>
   </si>
   <si>
+    <t>Campbellfield Ford Complex Vaccination Clinic Campbellfield</t>
+  </si>
+  <si>
     <t>Cannie Road Construction Site Cannie</t>
   </si>
   <si>
@@ -64,6 +70,9 @@
     <t>Chemist Warehouse Fillo Drive Somerton</t>
   </si>
   <si>
+    <t>City of Hobsons Bay Community</t>
+  </si>
+  <si>
     <t>City of Moreland Community</t>
   </si>
   <si>
@@ -88,7 +97,7 @@
     <t>Coles Greenvale Shopping Centre</t>
   </si>
   <si>
-    <t>Coles Pakenham Place Shopping Centre</t>
+    <t>Coles Pakenham Place Shopping</t>
   </si>
   <si>
     <t>Coles Roxburgh Village Roxburgh Park</t>
@@ -109,18 +118,27 @@
     <t>DRC Laverton Automotive Repairs Laverton North</t>
   </si>
   <si>
-    <t>Direct Freight Express Cambellfield</t>
+    <t>Direct Freight Express Campbellfield</t>
+  </si>
+  <si>
+    <t>Don Watson Coldstore Derrimut</t>
   </si>
   <si>
     <t>Epworth Healthcare Epworth Richmond Emergency Department</t>
   </si>
   <si>
+    <t>Fine Food Holdings Pty Ltd Dandenong South</t>
+  </si>
+  <si>
     <t>Fitzroy Community School Fitzroy North</t>
   </si>
   <si>
     <t>Fonterra Manufacturing Workplace Campbellfield</t>
   </si>
   <si>
+    <t>General foods Campbellfield</t>
+  </si>
+  <si>
     <t>Glenroy West Primary School</t>
   </si>
   <si>
@@ -160,9 +178,6 @@
     <t>Industrial Galvanizers Valmont Coatings Campbellfield</t>
   </si>
   <si>
-    <t>Islamic College of Melbourne Tarneit</t>
-  </si>
-  <si>
     <t>KFC Fawkner</t>
   </si>
   <si>
@@ -172,9 +187,6 @@
     <t>Kids House Early Learning Cheltenham</t>
   </si>
   <si>
-    <t>Learning Nest Early Learning Centre Meadow Heights</t>
-  </si>
-  <si>
     <t>Level Crossing Removal Project Lilydale Construction Site John Street</t>
   </si>
   <si>
@@ -199,27 +211,18 @@
     <t>Melbourne Youth Justice Centre Parkville</t>
   </si>
   <si>
-    <t>Melton Police Station Melton</t>
-  </si>
-  <si>
     <t>Mercy Hospital for Women Heidelberg</t>
   </si>
   <si>
     <t>Mernda YMCA Early Learning Centre Mernda</t>
   </si>
   <si>
-    <t>Montessori Beginnings Greenvale</t>
-  </si>
-  <si>
     <t>MyCentre Childcare Broadmeadows</t>
   </si>
   <si>
     <t>National Gallery of Victoria Melbourne</t>
   </si>
   <si>
-    <t>Newbury Child and Community Centre Craigieburn</t>
-  </si>
-  <si>
     <t>Nido Early School Moonee Ponds</t>
   </si>
   <si>
@@ -253,7 +256,10 @@
     <t>Ramsay Health Care Warringal Private Hospital Heidelberg</t>
   </si>
   <si>
-    <t>Richmond Quarter 261-271 Bridge Road Construction Site Richmond</t>
+    <t>Richmond Quarter 261-271 Bridge Road Construction Site</t>
+  </si>
+  <si>
+    <t>Sacca's Fruit World Broadmeadows Central Shopping Centre</t>
   </si>
   <si>
     <t>Salta Drive Construction Site Rangedale Drainage Altona North</t>
@@ -262,6 +268,9 @@
     <t>Sharpline Stainless Steel Coburg North</t>
   </si>
   <si>
+    <t>St Margaret's Primary School Maribyrnong</t>
+  </si>
+  <si>
     <t>St Vincents Hospital Emergency Department Melbourne</t>
   </si>
   <si>
@@ -271,6 +280,9 @@
     <t>The Homestead Child and Family Centre Roxburgh Park</t>
   </si>
   <si>
+    <t>The Huntly-Goornong Rail Works</t>
+  </si>
+  <si>
     <t>The Royal Children's Hospital Melbourne Emergency Department Parkville Tier 1B</t>
   </si>
   <si>
@@ -280,7 +292,7 @@
     <t>Total Window Concepts Hoppers Crossing</t>
   </si>
   <si>
-    <t>Unilodge College Square Student Accommodation 570 Lygon Street Carlton</t>
+    <t>Unilodge College Square Student Accommodation 570 Lygon Street</t>
   </si>
   <si>
     <t>Werribee Mercy Hospital Emergency Department</t>
@@ -656,7 +668,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B95"/>
+  <dimension ref="A1:B98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -683,7 +695,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -691,7 +703,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -699,7 +711,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -707,7 +719,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -715,7 +727,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -723,7 +735,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -731,7 +743,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -739,7 +751,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -747,7 +759,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -763,60 +775,60 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>6</v>
@@ -824,7 +836,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>9</v>
@@ -832,95 +844,95 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33">
         <v>5</v>
@@ -928,23 +940,23 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36">
         <v>6</v>
@@ -952,31 +964,31 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40">
         <v>12</v>
@@ -984,191 +996,191 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B52">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B53">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B54">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B57">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B61">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B62">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B63">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B64">
         <v>5</v>
@@ -1176,7 +1188,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B65">
         <v>5</v>
@@ -1184,39 +1196,39 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B66">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B67">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B68">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B69">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B70">
         <v>7</v>
@@ -1224,23 +1236,23 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B71">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B72">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B73">
         <v>18</v>
@@ -1248,39 +1260,39 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B74">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B75">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B76">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B77">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B78">
         <v>5</v>
@@ -1288,7 +1300,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B79">
         <v>9</v>
@@ -1296,31 +1308,31 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B80">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B81">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B82">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B83">
         <v>5</v>
@@ -1328,63 +1340,63 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B84">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B85">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B86">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B87">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B88">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B89">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B90">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B91">
         <v>6</v>
@@ -1392,34 +1404,58 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B92">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B93">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B94">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B95">
-        <v>10</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="100">
   <si>
     <t>Cluster name</t>
   </si>
@@ -25,9 +25,6 @@
     <t>3535 Opal Meadow Heights Aged Care Community Meadow Heights</t>
   </si>
   <si>
-    <t>Acquire BPO Southbank</t>
-  </si>
-  <si>
     <t>Adorn Cosmetics Clayton</t>
   </si>
   <si>
@@ -70,9 +67,6 @@
     <t>Chemist Warehouse Fillo Drive Somerton</t>
   </si>
   <si>
-    <t>City of Hobsons Bay Community</t>
-  </si>
-  <si>
     <t>City of Moreland Community</t>
   </si>
   <si>
@@ -97,12 +91,15 @@
     <t>Coles Greenvale Shopping Centre</t>
   </si>
   <si>
-    <t>Coles Pakenham Place Shopping</t>
+    <t>Coles Pakenham Place Shopping Centre</t>
   </si>
   <si>
     <t>Coles Roxburgh Village Roxburgh Park</t>
   </si>
   <si>
+    <t>Community Kids Bayswater Early Education Centre Bayswater North</t>
+  </si>
+  <si>
     <t>Community Kids Meadow Heights</t>
   </si>
   <si>
@@ -118,7 +115,7 @@
     <t>DRC Laverton Automotive Repairs Laverton North</t>
   </si>
   <si>
-    <t>Direct Freight Express Campbellfield</t>
+    <t>Direct Freight Express Cambellfield</t>
   </si>
   <si>
     <t>Don Watson Coldstore Derrimut</t>
@@ -136,7 +133,7 @@
     <t>Fonterra Manufacturing Workplace Campbellfield</t>
   </si>
   <si>
-    <t>General foods Campbellfield</t>
+    <t>General Foods Campbellfield</t>
   </si>
   <si>
     <t>Glenroy West Primary School</t>
@@ -157,6 +154,9 @@
     <t>Health Care Providers Association South Melbourne</t>
   </si>
   <si>
+    <t>Hello Fresh Warehouse Ravenhall</t>
+  </si>
+  <si>
     <t>IGA Meadow Heights Shopping Centre Meadow Heights</t>
   </si>
   <si>
@@ -172,9 +172,6 @@
     <t>Ilim Learning Sanctuary Glenroy</t>
   </si>
   <si>
-    <t>Impact Designer Homes Epping</t>
-  </si>
-  <si>
     <t>Industrial Galvanizers Valmont Coatings Campbellfield</t>
   </si>
   <si>
@@ -187,6 +184,9 @@
     <t>Kids House Early Learning Cheltenham</t>
   </si>
   <si>
+    <t>Kippers Seafood Werribee</t>
+  </si>
+  <si>
     <t>Level Crossing Removal Project Lilydale Construction Site John Street</t>
   </si>
   <si>
@@ -196,7 +196,10 @@
     <t>Linfox Somerton National Distribution Centre Somerton</t>
   </si>
   <si>
-    <t>McDonalds Thomastown II</t>
+    <t>Mecca D.C Warehouse Melbourne Airport</t>
+  </si>
+  <si>
+    <t>Melbourne Assessment Prison West Melbourne</t>
   </si>
   <si>
     <t>Melbourne Metropolitan Remand Centre Ravenhall</t>
@@ -208,15 +211,15 @@
     <t>Melbourne West Police Station Docklands</t>
   </si>
   <si>
-    <t>Melbourne Youth Justice Centre Parkville</t>
-  </si>
-  <si>
     <t>Mercy Hospital for Women Heidelberg</t>
   </si>
   <si>
     <t>Mernda YMCA Early Learning Centre Mernda</t>
   </si>
   <si>
+    <t>Mill Park Police Station Mill Park</t>
+  </si>
+  <si>
     <t>MyCentre Childcare Broadmeadows</t>
   </si>
   <si>
@@ -226,9 +229,6 @@
     <t>Nido Early School Moonee Ponds</t>
   </si>
   <si>
-    <t>North Geelong House Party</t>
-  </si>
-  <si>
     <t>Northern Health Northern Hospital Epping Emergency Department Tier 1B</t>
   </si>
   <si>
@@ -241,6 +241,9 @@
     <t>Oporto Coolaroo</t>
   </si>
   <si>
+    <t>Oscar Romero Catholic Primary School Craigieburn</t>
+  </si>
+  <si>
     <t>Our Lady Help of Christian's Primary School Brunswick East</t>
   </si>
   <si>
@@ -256,7 +259,7 @@
     <t>Ramsay Health Care Warringal Private Hospital Heidelberg</t>
   </si>
   <si>
-    <t>Richmond Quarter 261-271 Bridge Road Construction Site</t>
+    <t>Richmond Quarter 261-271 Bridge Road Construction Site Richmond</t>
   </si>
   <si>
     <t>Sacca's Fruit World Broadmeadows Central Shopping Centre</t>
@@ -268,7 +271,7 @@
     <t>Sharpline Stainless Steel Coburg North</t>
   </si>
   <si>
-    <t>St Margaret's Primary School Maribyrnong</t>
+    <t>St Margaret's Primary School OSHC Maribyrnong</t>
   </si>
   <si>
     <t>St Vincents Hospital Emergency Department Melbourne</t>
@@ -292,7 +295,7 @@
     <t>Total Window Concepts Hoppers Crossing</t>
   </si>
   <si>
-    <t>Unilodge College Square Student Accommodation 570 Lygon Street</t>
+    <t>Unilodge College Square Student Accommodation 570 Lygon Street Carlton</t>
   </si>
   <si>
     <t>Werribee Mercy Hospital Emergency Department</t>
@@ -668,7 +671,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B98"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -687,7 +690,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -695,7 +698,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -703,7 +706,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -711,7 +714,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -719,7 +722,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -727,7 +730,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -735,7 +738,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -743,7 +746,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -751,7 +754,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -759,7 +762,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -767,7 +770,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -775,7 +778,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -783,7 +786,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -791,7 +794,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>39</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -799,7 +802,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -807,7 +810,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -815,7 +818,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -823,7 +826,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -839,7 +842,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -847,7 +850,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -855,7 +858,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -863,7 +866,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -871,7 +874,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -879,7 +882,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -887,7 +890,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -895,7 +898,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -903,7 +906,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -911,7 +914,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -919,20 +922,20 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33">
         <v>5</v>
@@ -940,7 +943,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34">
         <v>13</v>
@@ -948,7 +951,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35">
         <v>5</v>
@@ -956,7 +959,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36">
         <v>6</v>
@@ -964,31 +967,31 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40">
         <v>12</v>
@@ -996,7 +999,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41">
         <v>6</v>
@@ -1004,23 +1007,23 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44">
         <v>5</v>
@@ -1028,7 +1031,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45">
         <v>13</v>
@@ -1036,63 +1039,63 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53">
         <v>22</v>
@@ -1100,15 +1103,15 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55">
         <v>5</v>
@@ -1116,23 +1119,23 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58">
         <v>8</v>
@@ -1140,63 +1143,63 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66">
         <v>5</v>
@@ -1204,151 +1207,151 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71">
-        <v>48</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72">
-        <v>8</v>
+        <v>52</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B74">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B75">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B76">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B77">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B78">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B79">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B80">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B81">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B83">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B84">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B85">
         <v>5</v>
@@ -1356,106 +1359,130 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B86">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B87">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B88">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B89">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B90">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B91">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B92">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B93">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B94">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B95">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B96">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B97">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
         <v>98</v>
       </c>
-      <c r="B98">
-        <v>9</v>
+      <c r="B100">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="110">
   <si>
     <t>Cluster name</t>
   </si>
@@ -25,6 +25,9 @@
     <t>3535 Opal Meadow Heights Aged Care Community Meadow Heights</t>
   </si>
   <si>
+    <t>95 Napier Street Apartment Complex Fitzroy</t>
+  </si>
+  <si>
     <t>Adorn Cosmetics Clayton</t>
   </si>
   <si>
@@ -37,7 +40,10 @@
     <t>Amiga Montessori Craigieburn</t>
   </si>
   <si>
-    <t>Anglicare Home Princes Hwy Dandenong</t>
+    <t>Australia Post Distribution Centre Sunshine West</t>
+  </si>
+  <si>
+    <t>Baxter Foods Australia Campbellfield</t>
   </si>
   <si>
     <t>Best&amp;Less Fountain Gate Narre Warren</t>
@@ -112,7 +118,7 @@
     <t>Crusader Caravans Epping</t>
   </si>
   <si>
-    <t>DRC Laverton Automotive Repairs Laverton North</t>
+    <t>DayHab Rehabilitation Treatment Centre Ringwood East</t>
   </si>
   <si>
     <t>Direct Freight Express Cambellfield</t>
@@ -142,6 +148,9 @@
     <t>Goodstart Early Learning Altona</t>
   </si>
   <si>
+    <t>Green Leaves Early Learning Cairnlea</t>
+  </si>
+  <si>
     <t>Green Leaves Early Learning Centre Highlands Craigieburn</t>
   </si>
   <si>
@@ -187,6 +196,12 @@
     <t>Kippers Seafood Werribee</t>
   </si>
   <si>
+    <t>Kool Kidz Childcare Narre Warren</t>
+  </si>
+  <si>
+    <t>Learning Nest Early Learning Centre Meadow Heights</t>
+  </si>
+  <si>
     <t>Level Crossing Removal Project Lilydale Construction Site John Street</t>
   </si>
   <si>
@@ -196,6 +211,9 @@
     <t>Linfox Somerton National Distribution Centre Somerton</t>
   </si>
   <si>
+    <t>McDonald's Craigieburn North</t>
+  </si>
+  <si>
     <t>Mecca D.C Warehouse Melbourne Airport</t>
   </si>
   <si>
@@ -226,6 +244,12 @@
     <t>National Gallery of Victoria Melbourne</t>
   </si>
   <si>
+    <t>Nido Early School Ascot Vale</t>
+  </si>
+  <si>
+    <t>Nido Early School Glenroy</t>
+  </si>
+  <si>
     <t>Nido Early School Moonee Ponds</t>
   </si>
   <si>
@@ -268,15 +292,15 @@
     <t>Salta Drive Construction Site Rangedale Drainage Altona North</t>
   </si>
   <si>
-    <t>Sharpline Stainless Steel Coburg North</t>
-  </si>
-  <si>
     <t>St Margaret's Primary School OSHC Maribyrnong</t>
   </si>
   <si>
     <t>St Vincents Hospital Emergency Department Melbourne</t>
   </si>
   <si>
+    <t>Sultan Halal Meats &amp; Poultry Campbellfield</t>
+  </si>
+  <si>
     <t>Tek Foods Somerton</t>
   </si>
   <si>
@@ -289,6 +313,9 @@
     <t>The Royal Children's Hospital Melbourne Emergency Department Parkville Tier 1B</t>
   </si>
   <si>
+    <t>The Royal Melbourne Hospital AMU Ward Parkville</t>
+  </si>
+  <si>
     <t>ThorwestenCabinets Pakenham</t>
   </si>
   <si>
@@ -296,6 +323,9 @@
   </si>
   <si>
     <t>Unilodge College Square Student Accommodation 570 Lygon Street Carlton</t>
+  </si>
+  <si>
+    <t>Wallaby Childcare Wollert</t>
   </si>
   <si>
     <t>Werribee Mercy Hospital Emergency Department</t>
@@ -671,7 +701,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -706,7 +736,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -714,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -722,7 +752,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -730,7 +760,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -746,7 +776,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -754,7 +784,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -762,7 +792,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -770,7 +800,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -778,7 +808,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -786,12 +816,12 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>6</v>
@@ -799,7 +829,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>11</v>
@@ -807,15 +837,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>6</v>
@@ -823,106 +853,106 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -930,7 +960,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -938,7 +968,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -946,7 +976,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -962,7 +992,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -970,7 +1000,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -978,7 +1008,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -986,7 +1016,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -994,7 +1024,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1002,7 +1032,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1010,7 +1040,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1018,7 +1048,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1026,7 +1056,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1034,7 +1064,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1042,7 +1072,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1058,7 +1088,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1066,7 +1096,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1074,7 +1104,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1082,7 +1112,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1090,7 +1120,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1098,7 +1128,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1106,7 +1136,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1114,7 +1144,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1122,7 +1152,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1138,7 +1168,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1146,7 +1176,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1154,7 +1184,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1162,7 +1192,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1178,7 +1208,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1186,7 +1216,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1194,7 +1224,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1210,7 +1240,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1226,7 +1256,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1234,7 +1264,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1242,7 +1272,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1250,7 +1280,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>52</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1258,7 +1288,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1266,7 +1296,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1274,7 +1304,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1282,7 +1312,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1290,7 +1320,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1298,7 +1328,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1306,7 +1336,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1314,7 +1344,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1322,7 +1352,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1330,7 +1360,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1338,7 +1368,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1354,7 +1384,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1362,7 +1392,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1370,7 +1400,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1378,7 +1408,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1386,7 +1416,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1394,7 +1424,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1402,7 +1432,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1410,7 +1440,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1418,7 +1448,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1426,62 +1456,134 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B95">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B96">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B97">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B98">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B99">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B100">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B101">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110">
         <v>8</v>
       </c>
     </row>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t>Cluster name</t>
   </si>
@@ -28,9 +28,6 @@
     <t>95 Napier Street Apartment Complex Fitzroy</t>
   </si>
   <si>
-    <t>Adorn Cosmetics Clayton</t>
-  </si>
-  <si>
     <t>Al Haj Halal Meats Glenroy</t>
   </si>
   <si>
@@ -46,15 +43,15 @@
     <t>Baxter Foods Australia Campbellfield</t>
   </si>
   <si>
-    <t>Best&amp;Less Fountain Gate Narre Warren</t>
-  </si>
-  <si>
     <t>Budget Car and Truck Rentals Campbellfield</t>
   </si>
   <si>
     <t>CS Square Caroline Springs</t>
   </si>
   <si>
+    <t>Cafe Roco Dandenong</t>
+  </si>
+  <si>
     <t>Campbellfield Ford Complex Vaccination Clinic Campbellfield</t>
   </si>
   <si>
@@ -73,18 +70,9 @@
     <t>Chemist Warehouse Fillo Drive Somerton</t>
   </si>
   <si>
-    <t>City of Moreland Community</t>
-  </si>
-  <si>
     <t>City of Wyndham Community</t>
   </si>
   <si>
-    <t>Classy Cabinets and Kitchens Craigieburn</t>
-  </si>
-  <si>
-    <t>Coles Aurora Village Epping</t>
-  </si>
-  <si>
     <t>Coles Broadmeadows Central Shopping Centre</t>
   </si>
   <si>
@@ -94,9 +82,6 @@
     <t>Coles Coburg North Village</t>
   </si>
   <si>
-    <t>Coles Greenvale Shopping Centre</t>
-  </si>
-  <si>
     <t>Coles Pakenham Place Shopping Centre</t>
   </si>
   <si>
@@ -109,6 +94,9 @@
     <t>Community Kids Meadow Heights</t>
   </si>
   <si>
+    <t>Construction Site 1 Warde Street Footscray</t>
+  </si>
+  <si>
     <t>Construction Site Olea Apartment Caulfield North</t>
   </si>
   <si>
@@ -124,12 +112,18 @@
     <t>Direct Freight Express Cambellfield</t>
   </si>
   <si>
+    <t>Disability Residence Life without Barriers Ashwood</t>
+  </si>
+  <si>
     <t>Don Watson Coldstore Derrimut</t>
   </si>
   <si>
     <t>Epworth Healthcare Epworth Richmond Emergency Department</t>
   </si>
   <si>
+    <t>FedEx Station Melbourne Airport</t>
+  </si>
+  <si>
     <t>Fine Food Holdings Pty Ltd Dandenong South</t>
   </si>
   <si>
@@ -142,7 +136,7 @@
     <t>General Foods Campbellfield</t>
   </si>
   <si>
-    <t>Glenroy West Primary School</t>
+    <t>Gladstone Parade Early Learning &amp; Kinder Glenroy</t>
   </si>
   <si>
     <t>Goodstart Early Learning Altona</t>
@@ -154,18 +148,15 @@
     <t>Green Leaves Early Learning Centre Highlands Craigieburn</t>
   </si>
   <si>
-    <t>Gumboots Early Learning Centre South Morang</t>
-  </si>
-  <si>
     <t>Hamilton Marino 236 Jasper Road McKinnon</t>
   </si>
   <si>
-    <t>Health Care Providers Association South Melbourne</t>
-  </si>
-  <si>
     <t>Hello Fresh Warehouse Ravenhall</t>
   </si>
   <si>
+    <t>Hickory Construction Site Chadstone Car Park Malvern East</t>
+  </si>
+  <si>
     <t>IGA Meadow Heights Shopping Centre Meadow Heights</t>
   </si>
   <si>
@@ -175,15 +166,15 @@
     <t>Ibis Kingsgate Hotel Melbourne</t>
   </si>
   <si>
-    <t>Ilim College Glenroy Campus Hadfield</t>
-  </si>
-  <si>
     <t>Ilim Learning Sanctuary Glenroy</t>
   </si>
   <si>
     <t>Industrial Galvanizers Valmont Coatings Campbellfield</t>
   </si>
   <si>
+    <t>Inghams Enterprises Thomastown</t>
+  </si>
+  <si>
     <t>KFC Fawkner</t>
   </si>
   <si>
@@ -199,9 +190,6 @@
     <t>Kool Kidz Childcare Narre Warren</t>
   </si>
   <si>
-    <t>Learning Nest Early Learning Centre Meadow Heights</t>
-  </si>
-  <si>
     <t>Level Crossing Removal Project Lilydale Construction Site John Street</t>
   </si>
   <si>
@@ -223,18 +211,9 @@
     <t>Melbourne Metropolitan Remand Centre Ravenhall</t>
   </si>
   <si>
-    <t>Melbourne Truck Repairs Campbellfield</t>
-  </si>
-  <si>
     <t>Melbourne West Police Station Docklands</t>
   </si>
   <si>
-    <t>Mercy Hospital for Women Heidelberg</t>
-  </si>
-  <si>
-    <t>Mernda YMCA Early Learning Centre Mernda</t>
-  </si>
-  <si>
     <t>Mill Park Police Station Mill Park</t>
   </si>
   <si>
@@ -271,7 +250,7 @@
     <t>Our Lady Help of Christian's Primary School Brunswick East</t>
   </si>
   <si>
-    <t>Paisley Park Early Learning Centre Bundoora</t>
+    <t>Pacific Meat Thomastown</t>
   </si>
   <si>
     <t>Panorama Construction Site Whitehorse Rd Box Hill</t>
@@ -283,6 +262,9 @@
     <t>Ramsay Health Care Warringal Private Hospital Heidelberg</t>
   </si>
   <si>
+    <t>Ravenhall Correctional Centre Ravenhall</t>
+  </si>
+  <si>
     <t>Richmond Quarter 261-271 Bridge Road Construction Site Richmond</t>
   </si>
   <si>
@@ -304,9 +286,6 @@
     <t>Tek Foods Somerton</t>
   </si>
   <si>
-    <t>The Homestead Child and Family Centre Roxburgh Park</t>
-  </si>
-  <si>
     <t>The Huntly-Goornong Rail Works</t>
   </si>
   <si>
@@ -338,9 +317,6 @@
   </si>
   <si>
     <t>Woodlands Long Day Care and Kindergarten Roxburgh Park</t>
-  </si>
-  <si>
-    <t>Woolworths Greenvale Lakes Roxburgh Park</t>
   </si>
   <si>
     <t>Yara Childcare Centre Truganina</t>
@@ -701,7 +677,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B110"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -736,7 +712,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -744,7 +720,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -752,7 +728,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -760,7 +736,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -784,7 +760,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -792,7 +768,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -800,7 +776,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -808,7 +784,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -816,36 +792,36 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>6</v>
@@ -853,103 +829,103 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31">
         <v>11</v>
@@ -957,103 +933,103 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40">
-        <v>33</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44">
         <v>11</v>
@@ -1061,7 +1037,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45">
         <v>5</v>
@@ -1069,103 +1045,103 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B52">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B53">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B54">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B57">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58">
         <v>7</v>
@@ -1173,7 +1149,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59">
         <v>9</v>
@@ -1181,31 +1157,31 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B61">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B62">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B63">
         <v>7</v>
@@ -1213,7 +1189,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B64">
         <v>8</v>
@@ -1221,151 +1197,151 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B65">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B66">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B67">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B68">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B69">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B70">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B71">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B72">
-        <v>5</v>
+        <v>62</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B73">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B74">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B75">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B76">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B77">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B78">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B79">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B80">
-        <v>55</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B81">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B82">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B83">
         <v>11</v>
@@ -1373,7 +1349,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B84">
         <v>6</v>
@@ -1381,31 +1357,31 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B85">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B86">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B87">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B88">
         <v>5</v>
@@ -1413,178 +1389,106 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B89">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B90">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B91">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B92">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B93">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B94">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B95">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B96">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B97">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B98">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B99">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B100">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B101">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" t="s">
-        <v>101</v>
-      </c>
-      <c r="B102">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" t="s">
-        <v>102</v>
-      </c>
-      <c r="B103">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" t="s">
-        <v>103</v>
-      </c>
-      <c r="B104">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" t="s">
-        <v>104</v>
-      </c>
-      <c r="B105">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" t="s">
-        <v>105</v>
-      </c>
-      <c r="B106">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" t="s">
-        <v>106</v>
-      </c>
-      <c r="B107">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" t="s">
-        <v>107</v>
-      </c>
-      <c r="B108">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" t="s">
-        <v>108</v>
-      </c>
-      <c r="B109">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" t="s">
-        <v>109</v>
-      </c>
-      <c r="B110">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>Cluster name</t>
   </si>
@@ -22,6 +22,9 @@
     <t>Active cases</t>
   </si>
   <si>
+    <t>126 Racecourse Road Public Housing Tower Flemington</t>
+  </si>
+  <si>
     <t>3535 Opal Meadow Heights Aged Care Community Meadow Heights</t>
   </si>
   <si>
@@ -37,15 +40,24 @@
     <t>Amiga Montessori Craigieburn</t>
   </si>
   <si>
+    <t>Apartment Complex 120 Racecourse Road North Melbourne</t>
+  </si>
+  <si>
     <t>Australia Post Distribution Centre Sunshine West</t>
   </si>
   <si>
+    <t>Australian Lamb Colac East</t>
+  </si>
+  <si>
     <t>Baxter Foods Australia Campbellfield</t>
   </si>
   <si>
     <t>Budget Car and Truck Rentals Campbellfield</t>
   </si>
   <si>
+    <t>CFMEU Melbourne Office</t>
+  </si>
+  <si>
     <t>CS Square Caroline Springs</t>
   </si>
   <si>
@@ -55,9 +67,6 @@
     <t>Campbellfield Ford Complex Vaccination Clinic Campbellfield</t>
   </si>
   <si>
-    <t>Cannie Road Construction Site Cannie</t>
-  </si>
-  <si>
     <t>Caroline Springs Police Station</t>
   </si>
   <si>
@@ -73,9 +82,6 @@
     <t>City of Wyndham Community</t>
   </si>
   <si>
-    <t>Coles Broadmeadows Central Shopping Centre</t>
-  </si>
-  <si>
     <t>Coles Campbellfield Plaza Campbellfield</t>
   </si>
   <si>
@@ -91,9 +97,6 @@
     <t>Community Kids Bayswater Early Education Centre Bayswater North</t>
   </si>
   <si>
-    <t>Community Kids Meadow Heights</t>
-  </si>
-  <si>
     <t>Construction Site 1 Warde Street Footscray</t>
   </si>
   <si>
@@ -106,10 +109,13 @@
     <t>Crusader Caravans Epping</t>
   </si>
   <si>
+    <t>Dandenong Police Station Dandenong</t>
+  </si>
+  <si>
     <t>DayHab Rehabilitation Treatment Centre Ringwood East</t>
   </si>
   <si>
-    <t>Direct Freight Express Cambellfield</t>
+    <t>Direct Freight Express Campbellfield</t>
   </si>
   <si>
     <t>Disability Residence Life without Barriers Ashwood</t>
@@ -121,6 +127,9 @@
     <t>Epworth Healthcare Epworth Richmond Emergency Department</t>
   </si>
   <si>
+    <t>Ermha365 Ltd Doveton</t>
+  </si>
+  <si>
     <t>FedEx Station Melbourne Airport</t>
   </si>
   <si>
@@ -148,6 +157,9 @@
     <t>Green Leaves Early Learning Centre Highlands Craigieburn</t>
   </si>
   <si>
+    <t>Greenvale Primary School</t>
+  </si>
+  <si>
     <t>Hamilton Marino 236 Jasper Road McKinnon</t>
   </si>
   <si>
@@ -175,15 +187,9 @@
     <t>Inghams Enterprises Thomastown</t>
   </si>
   <si>
-    <t>KFC Fawkner</t>
-  </si>
-  <si>
     <t>Kasr Sweets Coolaroo</t>
   </si>
   <si>
-    <t>Kids House Early Learning Cheltenham</t>
-  </si>
-  <si>
     <t>Kippers Seafood Werribee</t>
   </si>
   <si>
@@ -229,9 +235,6 @@
     <t>Nido Early School Glenroy</t>
   </si>
   <si>
-    <t>Nido Early School Moonee Ponds</t>
-  </si>
-  <si>
     <t>Northern Health Northern Hospital Epping Emergency Department Tier 1B</t>
   </si>
   <si>
@@ -256,9 +259,6 @@
     <t>Panorama Construction Site Whitehorse Rd Box Hill</t>
   </si>
   <si>
-    <t>Private Residence Northern Community Services Fawkner</t>
-  </si>
-  <si>
     <t>Ramsay Health Care Warringal Private Hospital Heidelberg</t>
   </si>
   <si>
@@ -271,7 +271,7 @@
     <t>Sacca's Fruit World Broadmeadows Central Shopping Centre</t>
   </si>
   <si>
-    <t>Salta Drive Construction Site Rangedale Drainage Altona North</t>
+    <t>Sharpline Stainless Steel Coburg North</t>
   </si>
   <si>
     <t>St Margaret's Primary School OSHC Maribyrnong</t>
@@ -280,9 +280,6 @@
     <t>St Vincents Hospital Emergency Department Melbourne</t>
   </si>
   <si>
-    <t>Sultan Halal Meats &amp; Poultry Campbellfield</t>
-  </si>
-  <si>
     <t>Tek Foods Somerton</t>
   </si>
   <si>
@@ -295,10 +292,13 @@
     <t>The Royal Melbourne Hospital AMU Ward Parkville</t>
   </si>
   <si>
+    <t>The Royal Talbot Rehabilitation Centre Kew</t>
+  </si>
+  <si>
     <t>ThorwestenCabinets Pakenham</t>
   </si>
   <si>
-    <t>Total Window Concepts Hoppers Crossing</t>
+    <t>Truganina Early Learning Centre Truganina</t>
   </si>
   <si>
     <t>Unilodge College Square Student Accommodation 570 Lygon Street Carlton</t>
@@ -310,13 +310,10 @@
     <t>Werribee Mercy Hospital Emergency Department</t>
   </si>
   <si>
-    <t>Western Health Footscray Hospital Emergency Department</t>
+    <t>Western Health Footscray Hospital Ward 3B Footscray</t>
   </si>
   <si>
     <t>Western Health Sunshine Hospital Emergency Department</t>
-  </si>
-  <si>
-    <t>Woodlands Long Day Care and Kindergarten Roxburgh Park</t>
   </si>
   <si>
     <t>Yara Childcare Centre Truganina</t>
@@ -677,7 +674,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -696,7 +693,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -704,7 +701,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -712,7 +709,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -720,7 +717,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -736,7 +733,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -760,7 +757,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -776,7 +773,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -792,7 +789,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -800,7 +797,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -808,7 +805,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -816,7 +813,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -824,7 +821,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -832,7 +829,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -840,7 +837,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -848,7 +845,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -856,7 +853,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -864,7 +861,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -872,7 +869,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -880,7 +877,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -888,7 +885,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -896,7 +893,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -904,7 +901,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -912,7 +909,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -920,7 +917,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -928,7 +925,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -936,7 +933,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -944,7 +941,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -952,7 +949,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -960,7 +957,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -968,7 +965,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -984,7 +981,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -992,7 +989,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1000,7 +997,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1008,7 +1005,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1016,7 +1013,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1024,7 +1021,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1048,7 +1045,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1056,7 +1053,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1080,7 +1077,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1088,7 +1085,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1096,7 +1093,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1120,7 +1117,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1136,7 +1133,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1144,7 +1141,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1152,7 +1149,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1160,7 +1157,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1168,7 +1165,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1176,7 +1173,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1184,7 +1181,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1200,7 +1197,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1208,7 +1205,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1216,7 +1213,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1224,7 +1221,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1232,7 +1229,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1240,7 +1237,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1256,7 +1253,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>62</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1264,7 +1261,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>13</v>
+        <v>66</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1272,7 +1269,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1280,7 +1277,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1288,7 +1285,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1296,7 +1293,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1304,7 +1301,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1312,7 +1309,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1336,7 +1333,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1344,7 +1341,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1360,7 +1357,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1368,7 +1365,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1376,7 +1373,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1384,7 +1381,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1392,7 +1389,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1400,7 +1397,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1408,7 +1405,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1416,7 +1413,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1432,7 +1429,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1440,7 +1437,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1448,7 +1445,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1456,7 +1453,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1464,7 +1461,7 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1480,14 +1477,6 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" t="s">
-        <v>101</v>
-      </c>
-      <c r="B101">
         <v>7</v>
       </c>
     </row>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="90">
   <si>
     <t>Cluster name</t>
   </si>
@@ -28,18 +28,12 @@
     <t>3535 Opal Meadow Heights Aged Care Community Meadow Heights</t>
   </si>
   <si>
-    <t>95 Napier Street Apartment Complex Fitzroy</t>
-  </si>
-  <si>
     <t>Al Haj Halal Meats Glenroy</t>
   </si>
   <si>
     <t>Al-Taqwa College Truganina</t>
   </si>
   <si>
-    <t>Amiga Montessori Craigieburn</t>
-  </si>
-  <si>
     <t>Apartment Complex 120 Racecourse Road North Melbourne</t>
   </si>
   <si>
@@ -52,9 +46,6 @@
     <t>Baxter Foods Australia Campbellfield</t>
   </si>
   <si>
-    <t>Budget Car and Truck Rentals Campbellfield</t>
-  </si>
-  <si>
     <t>CFMEU Melbourne Office</t>
   </si>
   <si>
@@ -67,12 +58,12 @@
     <t>Campbellfield Ford Complex Vaccination Clinic Campbellfield</t>
   </si>
   <si>
+    <t>Cardinia Lakes Early Learning Centre Pakenham</t>
+  </si>
+  <si>
     <t>Caroline Springs Police Station</t>
   </si>
   <si>
-    <t>Cedars Medical Clinic Coburg</t>
-  </si>
-  <si>
     <t>Chemist Warehouse Campbellfield DC</t>
   </si>
   <si>
@@ -91,9 +82,6 @@
     <t>Coles Pakenham Place Shopping Centre</t>
   </si>
   <si>
-    <t>Coles Roxburgh Village Roxburgh Park</t>
-  </si>
-  <si>
     <t>Community Kids Bayswater Early Education Centre Bayswater North</t>
   </si>
   <si>
@@ -121,7 +109,7 @@
     <t>Disability Residence Life without Barriers Ashwood</t>
   </si>
   <si>
-    <t>Don Watson Coldstore Derrimut</t>
+    <t>Don Watson Coldstore Derrimutg</t>
   </si>
   <si>
     <t>Epworth Healthcare Epworth Richmond Emergency Department</t>
@@ -130,15 +118,9 @@
     <t>Ermha365 Ltd Doveton</t>
   </si>
   <si>
-    <t>FedEx Station Melbourne Airport</t>
-  </si>
-  <si>
     <t>Fine Food Holdings Pty Ltd Dandenong South</t>
   </si>
   <si>
-    <t>Fitzroy Community School Fitzroy North</t>
-  </si>
-  <si>
     <t>Fonterra Manufacturing Workplace Campbellfield</t>
   </si>
   <si>
@@ -163,22 +145,13 @@
     <t>Hamilton Marino 236 Jasper Road McKinnon</t>
   </si>
   <si>
-    <t>Hello Fresh Warehouse Ravenhall</t>
-  </si>
-  <si>
-    <t>Hickory Construction Site Chadstone Car Park Malvern East</t>
-  </si>
-  <si>
-    <t>IGA Meadow Heights Shopping Centre Meadow Heights</t>
-  </si>
-  <si>
     <t>ISS Factory Level 1 Terminal 2 Melbourne Airport Tullamarine</t>
   </si>
   <si>
     <t>Ibis Kingsgate Hotel Melbourne</t>
   </si>
   <si>
-    <t>Ilim Learning Sanctuary Glenroy</t>
+    <t>Ilim College Kiewa Campus Boys Secondary Dallas</t>
   </si>
   <si>
     <t>Industrial Galvanizers Valmont Coatings Campbellfield</t>
@@ -187,9 +160,6 @@
     <t>Inghams Enterprises Thomastown</t>
   </si>
   <si>
-    <t>Kasr Sweets Coolaroo</t>
-  </si>
-  <si>
     <t>Kippers Seafood Werribee</t>
   </si>
   <si>
@@ -205,9 +175,6 @@
     <t>Linfox Somerton National Distribution Centre Somerton</t>
   </si>
   <si>
-    <t>McDonald's Craigieburn North</t>
-  </si>
-  <si>
     <t>Mecca D.C Warehouse Melbourne Airport</t>
   </si>
   <si>
@@ -256,10 +223,10 @@
     <t>Pacific Meat Thomastown</t>
   </si>
   <si>
-    <t>Panorama Construction Site Whitehorse Rd Box Hill</t>
-  </si>
-  <si>
-    <t>Ramsay Health Care Warringal Private Hospital Heidelberg</t>
+    <t>Private Residence Daycare Allumba Way Wollert</t>
+  </si>
+  <si>
+    <t>Ramsay Health Care Warrigal Private Hospital</t>
   </si>
   <si>
     <t>Ravenhall Correctional Centre Ravenhall</t>
@@ -289,7 +256,7 @@
     <t>The Royal Children's Hospital Melbourne Emergency Department Parkville Tier 1B</t>
   </si>
   <si>
-    <t>The Royal Melbourne Hospital AMU Ward Parkville</t>
+    <t>The Royal Melbourne Hospital Ward 6SE Parkville</t>
   </si>
   <si>
     <t>The Royal Talbot Rehabilitation Centre Kew</t>
@@ -310,13 +277,13 @@
     <t>Werribee Mercy Hospital Emergency Department</t>
   </si>
   <si>
-    <t>Western Health Footscray Hospital Ward 3B Footscray</t>
+    <t>Western Health Footscray Hospital Emergency Department</t>
   </si>
   <si>
     <t>Western Health Sunshine Hospital Emergency Department</t>
   </si>
   <si>
-    <t>Yara Childcare Centre Truganina</t>
+    <t>Yarra Childcare Centre Truganina</t>
   </si>
 </sst>
 </file>
@@ -674,7 +641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:B90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -693,7 +660,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -709,7 +676,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -717,7 +684,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -725,7 +692,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -733,7 +700,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -765,7 +732,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -773,7 +740,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -781,7 +748,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -789,7 +756,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -797,7 +764,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -805,7 +772,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -813,7 +780,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -821,7 +788,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -829,7 +796,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -837,7 +804,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -845,7 +812,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -853,7 +820,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -861,7 +828,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -869,7 +836,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -877,7 +844,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -885,7 +852,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -893,7 +860,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -901,7 +868,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -909,7 +876,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -917,7 +884,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -941,7 +908,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -949,7 +916,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -957,7 +924,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -965,28 +932,28 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39">
         <v>9</v>
@@ -994,7 +961,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40">
         <v>5</v>
@@ -1002,87 +969,87 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51">
         <v>6</v>
@@ -1090,47 +1057,47 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57">
         <v>5</v>
@@ -1138,71 +1105,71 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63">
-        <v>5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66">
         <v>8</v>
@@ -1210,7 +1177,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67">
         <v>5</v>
@@ -1218,87 +1185,87 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73">
-        <v>66</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B74">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B75">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B76">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B77">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B78">
         <v>10</v>
@@ -1306,47 +1273,47 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B79">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B80">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B81">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B83">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B84">
         <v>6</v>
@@ -1354,7 +1321,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B85">
         <v>6</v>
@@ -1362,122 +1329,42 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B86">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B87">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B88">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B89">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B90">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" t="s">
-        <v>91</v>
-      </c>
-      <c r="B91">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="s">
-        <v>92</v>
-      </c>
-      <c r="B92">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" t="s">
-        <v>93</v>
-      </c>
-      <c r="B93">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" t="s">
-        <v>94</v>
-      </c>
-      <c r="B94">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" t="s">
-        <v>95</v>
-      </c>
-      <c r="B95">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" t="s">
-        <v>96</v>
-      </c>
-      <c r="B96">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" t="s">
-        <v>97</v>
-      </c>
-      <c r="B97">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" t="s">
-        <v>98</v>
-      </c>
-      <c r="B98">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" t="s">
-        <v>99</v>
-      </c>
-      <c r="B99">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" t="s">
-        <v>100</v>
-      </c>
-      <c r="B100">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>Cluster name</t>
   </si>
@@ -43,6 +43,9 @@
     <t>Australian Lamb Colac East</t>
   </si>
   <si>
+    <t>Baker Bleu Caulfield North</t>
+  </si>
+  <si>
     <t>Baxter Foods Australia Campbellfield</t>
   </si>
   <si>
@@ -61,6 +64,9 @@
     <t>Cardinia Lakes Early Learning Centre Pakenham</t>
   </si>
   <si>
+    <t>Carlton Finishing Pty. Ltd. Campbellfield</t>
+  </si>
+  <si>
     <t>Caroline Springs Police Station</t>
   </si>
   <si>
@@ -115,12 +121,18 @@
     <t>Epworth Healthcare Epworth Richmond Emergency Department</t>
   </si>
   <si>
-    <t>Ermha365 Ltd Doveton</t>
+    <t>Ermha365 Residential Disability Care Services Paperbark St Doveton</t>
+  </si>
+  <si>
+    <t>FedEx Station Melbourne Airport</t>
   </si>
   <si>
     <t>Fine Food Holdings Pty Ltd Dandenong South</t>
   </si>
   <si>
+    <t>Fitzroy St Precinct St Kilda</t>
+  </si>
+  <si>
     <t>Fonterra Manufacturing Workplace Campbellfield</t>
   </si>
   <si>
@@ -133,7 +145,7 @@
     <t>Goodstart Early Learning Altona</t>
   </si>
   <si>
-    <t>Green Leaves Early Learning Cairnlea</t>
+    <t>Green Leaves Early Leaning Cairnlea</t>
   </si>
   <si>
     <t>Green Leaves Early Learning Centre Highlands Craigieburn</t>
@@ -142,18 +154,18 @@
     <t>Greenvale Primary School</t>
   </si>
   <si>
+    <t>HEI Schools Emerald Early Learning Centre Emerald</t>
+  </si>
+  <si>
     <t>Hamilton Marino 236 Jasper Road McKinnon</t>
   </si>
   <si>
+    <t>Hello Fresh Warehouse Ravenhall</t>
+  </si>
+  <si>
     <t>ISS Factory Level 1 Terminal 2 Melbourne Airport Tullamarine</t>
   </si>
   <si>
-    <t>Ibis Kingsgate Hotel Melbourne</t>
-  </si>
-  <si>
-    <t>Ilim College Kiewa Campus Boys Secondary Dallas</t>
-  </si>
-  <si>
     <t>Industrial Galvanizers Valmont Coatings Campbellfield</t>
   </si>
   <si>
@@ -166,16 +178,13 @@
     <t>Kool Kidz Childcare Narre Warren</t>
   </si>
   <si>
-    <t>Level Crossing Removal Project Lilydale Construction Site John Street</t>
-  </si>
-  <si>
     <t>Lineage Logistics Laverton North</t>
   </si>
   <si>
     <t>Linfox Somerton National Distribution Centre Somerton</t>
   </si>
   <si>
-    <t>Mecca D.C Warehouse Melbourne Airport</t>
+    <t>Mecca Distribution Centre Warehouse Melbourne Airport</t>
   </si>
   <si>
     <t>Melbourne Assessment Prison West Melbourne</t>
@@ -226,9 +235,6 @@
     <t>Private Residence Daycare Allumba Way Wollert</t>
   </si>
   <si>
-    <t>Ramsay Health Care Warrigal Private Hospital</t>
-  </si>
-  <si>
     <t>Ravenhall Correctional Centre Ravenhall</t>
   </si>
   <si>
@@ -256,6 +262,12 @@
     <t>The Royal Children's Hospital Melbourne Emergency Department Parkville Tier 1B</t>
   </si>
   <si>
+    <t>The Royal Melbourne Hospital Parkville</t>
+  </si>
+  <si>
+    <t>The Royal Melbourne Hospital Parkville Emergency Department</t>
+  </si>
+  <si>
     <t>The Royal Melbourne Hospital Ward 6SE Parkville</t>
   </si>
   <si>
@@ -268,7 +280,7 @@
     <t>Truganina Early Learning Centre Truganina</t>
   </si>
   <si>
-    <t>Unilodge College Square Student Accommodation 570 Lygon Street Carlton</t>
+    <t>Visy Recycling Springvale</t>
   </si>
   <si>
     <t>Wallaby Childcare Wollert</t>
@@ -281,6 +293,9 @@
   </si>
   <si>
     <t>Western Health Sunshine Hospital Emergency Department</t>
+  </si>
+  <si>
+    <t>Western Health Sunshine Hospital GEM Ward St Albans</t>
   </si>
   <si>
     <t>Yarra Childcare Centre Truganina</t>
@@ -641,7 +656,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B90"/>
+  <dimension ref="A1:B94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -660,7 +675,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -668,7 +683,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -716,7 +731,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -732,7 +747,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -740,7 +755,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -748,7 +763,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -756,7 +771,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -764,7 +779,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -772,7 +787,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -780,7 +795,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -788,7 +803,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -796,7 +811,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -804,7 +819,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -812,7 +827,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -820,7 +835,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -828,7 +843,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -836,7 +851,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -844,7 +859,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -852,7 +867,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -860,7 +875,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -868,7 +883,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -876,7 +891,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -884,7 +899,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -900,7 +915,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -908,7 +923,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -916,7 +931,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -932,20 +947,20 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38">
         <v>7</v>
@@ -953,7 +968,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39">
         <v>9</v>
@@ -961,55 +976,55 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46">
         <v>5</v>
@@ -1017,39 +1032,39 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51">
         <v>6</v>
@@ -1057,7 +1072,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B52">
         <v>6</v>
@@ -1065,63 +1080,63 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B53">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B54">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B57">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60">
         <v>8</v>
@@ -1129,71 +1144,71 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B61">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B62">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B63">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B64">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B65">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B66">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B67">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B68">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B69">
         <v>5</v>
@@ -1201,15 +1216,15 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B70">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B71">
         <v>5</v>
@@ -1217,7 +1232,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B72">
         <v>8</v>
@@ -1225,23 +1240,23 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B73">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B74">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B75">
         <v>6</v>
@@ -1249,121 +1264,153 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B76">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B77">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B78">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B79">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B80">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B81">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B82">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B83">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B84">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B85">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B86">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B87">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B88">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B89">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B90">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>92</v>
+      </c>
+      <c r="B92">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>94</v>
+      </c>
+      <c r="B94">
         <v>5</v>
       </c>
     </row>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t>Cluster name</t>
   </si>
@@ -25,6 +25,12 @@
     <t>126 Racecourse Road Public Housing Tower Flemington</t>
   </si>
   <si>
+    <t>139 Highett St Apartment Complex Richmond</t>
+  </si>
+  <si>
+    <t>3175 The Bays Aged Care Facility Hastings</t>
+  </si>
+  <si>
     <t>3535 Opal Meadow Heights Aged Care Community Meadow Heights</t>
   </si>
   <si>
@@ -34,7 +40,7 @@
     <t>Al-Taqwa College Truganina</t>
   </si>
   <si>
-    <t>Apartment Complex 120 Racecourse Road North Melbourne</t>
+    <t>Allbright Manor Aged Care Croydon North Tier 1A</t>
   </si>
   <si>
     <t>Australia Post Distribution Centre Sunshine West</t>
@@ -64,12 +70,12 @@
     <t>Cardinia Lakes Early Learning Centre Pakenham</t>
   </si>
   <si>
-    <t>Carlton Finishing Pty. Ltd. Campbellfield</t>
-  </si>
-  <si>
     <t>Caroline Springs Police Station</t>
   </si>
   <si>
+    <t>Carton Finishing Pty. Ltd. Campbellfield</t>
+  </si>
+  <si>
     <t>Chemist Warehouse Campbellfield DC</t>
   </si>
   <si>
@@ -88,6 +94,9 @@
     <t>Coles Pakenham Place Shopping Centre</t>
   </si>
   <si>
+    <t>Coles Roxburgh Village Roxburgh Park</t>
+  </si>
+  <si>
     <t>Community Kids Bayswater Early Education Centre Bayswater North</t>
   </si>
   <si>
@@ -115,7 +124,7 @@
     <t>Disability Residence Life without Barriers Ashwood</t>
   </si>
   <si>
-    <t>Don Watson Coldstore Derrimutg</t>
+    <t>Don Watson Coldstore Derrimut</t>
   </si>
   <si>
     <t>Epworth Healthcare Epworth Richmond Emergency Department</t>
@@ -130,9 +139,6 @@
     <t>Fine Food Holdings Pty Ltd Dandenong South</t>
   </si>
   <si>
-    <t>Fitzroy St Precinct St Kilda</t>
-  </si>
-  <si>
     <t>Fonterra Manufacturing Workplace Campbellfield</t>
   </si>
   <si>
@@ -145,7 +151,7 @@
     <t>Goodstart Early Learning Altona</t>
   </si>
   <si>
-    <t>Green Leaves Early Leaning Cairnlea</t>
+    <t>Green Leaves Early Learning Cairnlea</t>
   </si>
   <si>
     <t>Green Leaves Early Learning Centre Highlands Craigieburn</t>
@@ -166,6 +172,9 @@
     <t>ISS Factory Level 1 Terminal 2 Melbourne Airport Tullamarine</t>
   </si>
   <si>
+    <t>Ibis Kingsgate Hotel Melbourne</t>
+  </si>
+  <si>
     <t>Industrial Galvanizers Valmont Coatings Campbellfield</t>
   </si>
   <si>
@@ -178,7 +187,7 @@
     <t>Kool Kidz Childcare Narre Warren</t>
   </si>
   <si>
-    <t>Lineage Logistics Laverton North</t>
+    <t>Lantmannen Unibake Australia Mordialloc</t>
   </si>
   <si>
     <t>Linfox Somerton National Distribution Centre Somerton</t>
@@ -298,7 +307,7 @@
     <t>Western Health Sunshine Hospital GEM Ward St Albans</t>
   </si>
   <si>
-    <t>Yarra Childcare Centre Truganina</t>
+    <t>Yara Childcare Centre Truganina</t>
   </si>
 </sst>
 </file>
@@ -656,7 +665,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B94"/>
+  <dimension ref="A1:B97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -683,7 +692,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -691,7 +700,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -699,7 +708,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -707,7 +716,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -715,7 +724,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -731,7 +740,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -739,7 +748,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -747,7 +756,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -755,7 +764,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -763,7 +772,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -771,7 +780,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -779,7 +788,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -787,7 +796,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -795,7 +804,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -803,7 +812,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -811,7 +820,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -819,7 +828,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -827,7 +836,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -835,7 +844,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -843,7 +852,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -851,7 +860,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -859,7 +868,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -867,7 +876,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -875,7 +884,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -883,7 +892,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -891,7 +900,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -899,7 +908,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -907,7 +916,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -915,7 +924,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -923,7 +932,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -931,7 +940,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -939,7 +948,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -947,7 +956,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -955,7 +964,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -963,7 +972,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -971,7 +980,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -979,7 +988,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -987,7 +996,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -995,7 +1004,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1003,7 +1012,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1011,7 +1020,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1027,7 +1036,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1035,7 +1044,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1043,7 +1052,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1059,7 +1068,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1067,7 +1076,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1083,7 +1092,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1099,7 +1108,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1107,7 +1116,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1115,7 +1124,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1123,7 +1132,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1131,7 +1140,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1139,7 +1148,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1147,7 +1156,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1155,7 +1164,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1163,7 +1172,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1171,7 +1180,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1179,7 +1188,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>49</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1187,7 +1196,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1195,7 +1204,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1203,7 +1212,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1211,7 +1220,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1219,7 +1228,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1227,7 +1236,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1235,7 +1244,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1243,7 +1252,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1251,7 +1260,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1259,7 +1268,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1267,7 +1276,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1275,7 +1284,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1283,7 +1292,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1291,7 +1300,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1299,7 +1308,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1307,7 +1316,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1315,7 +1324,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1331,7 +1340,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1339,7 +1348,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1347,7 +1356,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1355,7 +1364,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1363,7 +1372,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1371,7 +1380,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1379,7 +1388,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1387,7 +1396,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1395,7 +1404,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1403,7 +1412,7 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1411,6 +1420,30 @@
         <v>94</v>
       </c>
       <c r="B94">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97">
         <v>5</v>
       </c>
     </row>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>Cluster name</t>
   </si>
@@ -34,9 +34,6 @@
     <t>3535 Opal Meadow Heights Aged Care Community Meadow Heights</t>
   </si>
   <si>
-    <t>Al Haj Halal Meats Glenroy</t>
-  </si>
-  <si>
     <t>Al-Taqwa College Truganina</t>
   </si>
   <si>
@@ -76,18 +73,9 @@
     <t>Carton Finishing Pty. Ltd. Campbellfield</t>
   </si>
   <si>
-    <t>Chemist Warehouse Campbellfield DC</t>
-  </si>
-  <si>
     <t>Chemist Warehouse Fillo Drive Somerton</t>
   </si>
   <si>
-    <t>City of Wyndham Community</t>
-  </si>
-  <si>
-    <t>Coles Campbellfield Plaza Campbellfield</t>
-  </si>
-  <si>
     <t>Coles Coburg North Village</t>
   </si>
   <si>
@@ -100,9 +88,6 @@
     <t>Community Kids Bayswater Early Education Centre Bayswater North</t>
   </si>
   <si>
-    <t>Construction Site 1 Warde Street Footscray</t>
-  </si>
-  <si>
     <t>Construction Site Olea Apartment Caulfield North</t>
   </si>
   <si>
@@ -118,18 +103,9 @@
     <t>DayHab Rehabilitation Treatment Centre Ringwood East</t>
   </si>
   <si>
-    <t>Direct Freight Express Campbellfield</t>
-  </si>
-  <si>
     <t>Disability Residence Life without Barriers Ashwood</t>
   </si>
   <si>
-    <t>Don Watson Coldstore Derrimut</t>
-  </si>
-  <si>
-    <t>Epworth Healthcare Epworth Richmond Emergency Department</t>
-  </si>
-  <si>
     <t>Ermha365 Residential Disability Care Services Paperbark St Doveton</t>
   </si>
   <si>
@@ -151,9 +127,6 @@
     <t>Goodstart Early Learning Altona</t>
   </si>
   <si>
-    <t>Green Leaves Early Learning Cairnlea</t>
-  </si>
-  <si>
     <t>Green Leaves Early Learning Centre Highlands Craigieburn</t>
   </si>
   <si>
@@ -181,9 +154,6 @@
     <t>Inghams Enterprises Thomastown</t>
   </si>
   <si>
-    <t>Kippers Seafood Werribee</t>
-  </si>
-  <si>
     <t>Kool Kidz Childcare Narre Warren</t>
   </si>
   <si>
@@ -211,9 +181,6 @@
     <t>MyCentre Childcare Broadmeadows</t>
   </si>
   <si>
-    <t>National Gallery of Victoria Melbourne</t>
-  </si>
-  <si>
     <t>Nido Early School Ascot Vale</t>
   </si>
   <si>
@@ -232,9 +199,6 @@
     <t>Oporto Coolaroo</t>
   </si>
   <si>
-    <t>Oscar Romero Catholic Primary School Craigieburn</t>
-  </si>
-  <si>
     <t>Our Lady Help of Christian's Primary School Brunswick East</t>
   </si>
   <si>
@@ -253,21 +217,12 @@
     <t>Sacca's Fruit World Broadmeadows Central Shopping Centre</t>
   </si>
   <si>
-    <t>Sharpline Stainless Steel Coburg North</t>
-  </si>
-  <si>
     <t>St Margaret's Primary School OSHC Maribyrnong</t>
   </si>
   <si>
     <t>St Vincents Hospital Emergency Department Melbourne</t>
   </si>
   <si>
-    <t>Tek Foods Somerton</t>
-  </si>
-  <si>
-    <t>The Huntly-Goornong Rail Works</t>
-  </si>
-  <si>
     <t>The Royal Children's Hospital Melbourne Emergency Department Parkville Tier 1B</t>
   </si>
   <si>
@@ -305,9 +260,6 @@
   </si>
   <si>
     <t>Western Health Sunshine Hospital GEM Ward St Albans</t>
-  </si>
-  <si>
-    <t>Yara Childcare Centre Truganina</t>
   </si>
 </sst>
 </file>
@@ -665,7 +617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B97"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -684,7 +636,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -700,7 +652,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -708,7 +660,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -716,7 +668,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -724,7 +676,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -740,7 +692,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -748,7 +700,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -756,7 +708,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -772,7 +724,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -780,7 +732,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -788,7 +740,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -796,7 +748,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -812,7 +764,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -820,7 +772,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -828,7 +780,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -836,7 +788,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -844,7 +796,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -852,7 +804,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -860,7 +812,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -868,7 +820,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -876,7 +828,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -884,7 +836,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -892,7 +844,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -900,7 +852,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -908,7 +860,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -916,7 +868,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -924,7 +876,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -932,7 +884,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -940,7 +892,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -948,7 +900,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -956,7 +908,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -964,7 +916,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -972,7 +924,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -980,7 +932,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -988,7 +940,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -996,7 +948,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1004,7 +956,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1012,7 +964,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1020,7 +972,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1028,7 +980,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1036,7 +988,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1044,7 +996,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1052,7 +1004,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1060,7 +1012,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1068,7 +1020,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1076,7 +1028,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1084,7 +1036,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1092,7 +1044,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1100,7 +1052,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1108,7 +1060,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1116,7 +1068,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1124,7 +1076,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>6</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1132,7 +1084,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1140,7 +1092,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1148,7 +1100,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1164,7 +1116,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1180,7 +1132,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1196,7 +1148,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1204,7 +1156,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1212,7 +1164,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1220,7 +1172,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1228,7 +1180,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1236,7 +1188,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1244,7 +1196,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1252,7 +1204,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1260,7 +1212,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1276,7 +1228,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1284,7 +1236,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1292,7 +1244,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1300,7 +1252,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1308,7 +1260,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1316,135 +1268,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
-        <v>82</v>
-      </c>
-      <c r="B82">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="s">
-        <v>83</v>
-      </c>
-      <c r="B83">
         <v>6</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="s">
-        <v>84</v>
-      </c>
-      <c r="B84">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="s">
-        <v>85</v>
-      </c>
-      <c r="B85">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" t="s">
-        <v>86</v>
-      </c>
-      <c r="B86">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" t="s">
-        <v>87</v>
-      </c>
-      <c r="B87">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" t="s">
-        <v>88</v>
-      </c>
-      <c r="B88">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" t="s">
-        <v>89</v>
-      </c>
-      <c r="B89">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" t="s">
-        <v>90</v>
-      </c>
-      <c r="B90">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" t="s">
-        <v>91</v>
-      </c>
-      <c r="B91">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="s">
-        <v>92</v>
-      </c>
-      <c r="B92">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" t="s">
-        <v>93</v>
-      </c>
-      <c r="B93">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" t="s">
-        <v>94</v>
-      </c>
-      <c r="B94">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" t="s">
-        <v>95</v>
-      </c>
-      <c r="B95">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" t="s">
-        <v>96</v>
-      </c>
-      <c r="B96">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" t="s">
-        <v>97</v>
-      </c>
-      <c r="B97">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>Cluster name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>Baxter Foods Australia Campbellfield</t>
   </si>
   <si>
-    <t>CFMEU Melbourne Office</t>
-  </si>
-  <si>
     <t>CS Square Caroline Springs</t>
   </si>
   <si>
@@ -67,9 +64,6 @@
     <t>Cardinia Lakes Early Learning Centre Pakenham</t>
   </si>
   <si>
-    <t>Caroline Springs Police Station</t>
-  </si>
-  <si>
     <t>Carton Finishing Pty. Ltd. Campbellfield</t>
   </si>
   <si>
@@ -82,9 +76,6 @@
     <t>Coles Pakenham Place Shopping Centre</t>
   </si>
   <si>
-    <t>Coles Roxburgh Village Roxburgh Park</t>
-  </si>
-  <si>
     <t>Community Kids Bayswater Early Education Centre Bayswater North</t>
   </si>
   <si>
@@ -103,10 +94,10 @@
     <t>DayHab Rehabilitation Treatment Centre Ringwood East</t>
   </si>
   <si>
-    <t>Disability Residence Life without Barriers Ashwood</t>
-  </si>
-  <si>
-    <t>Ermha365 Residential Disability Care Services Paperbark St Doveton</t>
+    <t>Embracia Aged Care Reservoir Outbreak</t>
+  </si>
+  <si>
+    <t>Ermha365 Residential Disability Care Services Doveton</t>
   </si>
   <si>
     <t>FedEx Station Melbourne Airport</t>
@@ -136,15 +127,9 @@
     <t>HEI Schools Emerald Early Learning Centre Emerald</t>
   </si>
   <si>
-    <t>Hamilton Marino 236 Jasper Road McKinnon</t>
-  </si>
-  <si>
     <t>Hello Fresh Warehouse Ravenhall</t>
   </si>
   <si>
-    <t>ISS Factory Level 1 Terminal 2 Melbourne Airport Tullamarine</t>
-  </si>
-  <si>
     <t>Ibis Kingsgate Hotel Melbourne</t>
   </si>
   <si>
@@ -196,12 +181,6 @@
     <t>OnQ Plumbing and Excavations Craigieburn</t>
   </si>
   <si>
-    <t>Oporto Coolaroo</t>
-  </si>
-  <si>
-    <t>Our Lady Help of Christian's Primary School Brunswick East</t>
-  </si>
-  <si>
     <t>Pacific Meat Thomastown</t>
   </si>
   <si>
@@ -212,9 +191,6 @@
   </si>
   <si>
     <t>Richmond Quarter 261-271 Bridge Road Construction Site Richmond</t>
-  </si>
-  <si>
-    <t>Sacca's Fruit World Broadmeadows Central Shopping Centre</t>
   </si>
   <si>
     <t>St Margaret's Primary School OSHC Maribyrnong</t>
@@ -617,7 +593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B81"/>
+  <dimension ref="A1:B73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -636,7 +612,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -644,7 +620,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -652,7 +628,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -660,7 +636,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -676,7 +652,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -684,7 +660,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -692,7 +668,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -716,7 +692,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -724,7 +700,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -732,7 +708,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -740,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -748,7 +724,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -756,7 +732,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -764,7 +740,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -772,7 +748,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -780,7 +756,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -788,7 +764,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -796,7 +772,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -804,7 +780,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -812,7 +788,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -820,7 +796,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -828,7 +804,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -836,7 +812,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -844,7 +820,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -852,7 +828,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -860,7 +836,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -868,7 +844,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -876,7 +852,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -884,7 +860,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -892,7 +868,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -900,7 +876,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -908,7 +884,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -916,7 +892,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -924,7 +900,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -940,7 +916,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -948,7 +924,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -956,7 +932,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -964,7 +940,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -972,7 +948,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -980,7 +956,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -988,7 +964,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -996,7 +972,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1004,7 +980,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1020,7 +996,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1028,7 +1004,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1036,7 +1012,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>8</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1044,7 +1020,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1052,7 +1028,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1060,7 +1036,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1068,7 +1044,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1076,7 +1052,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>39</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1084,7 +1060,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1092,7 +1068,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1100,7 +1076,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1108,7 +1084,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1116,7 +1092,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1124,7 +1100,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1132,7 +1108,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1140,7 +1116,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1148,7 +1124,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1156,7 +1132,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1164,7 +1140,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1172,7 +1148,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1180,7 +1156,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1188,7 +1164,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1196,7 +1172,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1204,70 +1180,6 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
-        <v>74</v>
-      </c>
-      <c r="B74">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
-        <v>75</v>
-      </c>
-      <c r="B75">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
-        <v>76</v>
-      </c>
-      <c r="B76">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
-        <v>77</v>
-      </c>
-      <c r="B77">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
-        <v>78</v>
-      </c>
-      <c r="B78">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="s">
-        <v>79</v>
-      </c>
-      <c r="B79">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
-        <v>80</v>
-      </c>
-      <c r="B80">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" t="s">
-        <v>81</v>
-      </c>
-      <c r="B81">
         <v>6</v>
       </c>
     </row>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Cluster name</t>
   </si>
@@ -22,78 +22,30 @@
     <t>Active cases</t>
   </si>
   <si>
-    <t>126 Racecourse Road Public Housing Tower Flemington</t>
-  </si>
-  <si>
     <t>139 Highett St Apartment Complex Richmond</t>
   </si>
   <si>
     <t>3175 The Bays Aged Care Facility Hastings</t>
   </si>
   <si>
-    <t>3535 Opal Meadow Heights Aged Care Community Meadow Heights</t>
-  </si>
-  <si>
-    <t>Al-Taqwa College Truganina</t>
-  </si>
-  <si>
-    <t>Allbright Manor Aged Care Croydon North Tier 1A</t>
-  </si>
-  <si>
-    <t>Australia Post Distribution Centre Sunshine West</t>
-  </si>
-  <si>
     <t>Australian Lamb Colac East</t>
   </si>
   <si>
-    <t>Baker Bleu Caulfield North</t>
-  </si>
-  <si>
-    <t>Baxter Foods Australia Campbellfield</t>
-  </si>
-  <si>
     <t>CS Square Caroline Springs</t>
   </si>
   <si>
-    <t>Cafe Roco Dandenong</t>
-  </si>
-  <si>
-    <t>Campbellfield Ford Complex Vaccination Clinic Campbellfield</t>
-  </si>
-  <si>
-    <t>Cardinia Lakes Early Learning Centre Pakenham</t>
-  </si>
-  <si>
     <t>Carton Finishing Pty. Ltd. Campbellfield</t>
   </si>
   <si>
-    <t>Chemist Warehouse Fillo Drive Somerton</t>
-  </si>
-  <si>
-    <t>Coles Coburg North Village</t>
-  </si>
-  <si>
-    <t>Coles Pakenham Place Shopping Centre</t>
-  </si>
-  <si>
     <t>Community Kids Bayswater Early Education Centre Bayswater North</t>
   </si>
   <si>
-    <t>Construction Site Olea Apartment Caulfield North</t>
-  </si>
-  <si>
     <t>Costco Wholesale Epping</t>
   </si>
   <si>
     <t>Crusader Caravans Epping</t>
   </si>
   <si>
-    <t>Dandenong Police Station Dandenong</t>
-  </si>
-  <si>
-    <t>DayHab Rehabilitation Treatment Centre Ringwood East</t>
-  </si>
-  <si>
     <t>Embracia Aged Care Reservoir Outbreak</t>
   </si>
   <si>
@@ -106,66 +58,18 @@
     <t>Fine Food Holdings Pty Ltd Dandenong South</t>
   </si>
   <si>
-    <t>Fonterra Manufacturing Workplace Campbellfield</t>
-  </si>
-  <si>
     <t>General Foods Campbellfield</t>
   </si>
   <si>
-    <t>Gladstone Parade Early Learning &amp; Kinder Glenroy</t>
-  </si>
-  <si>
-    <t>Goodstart Early Learning Altona</t>
-  </si>
-  <si>
     <t>Green Leaves Early Learning Centre Highlands Craigieburn</t>
   </si>
   <si>
-    <t>Greenvale Primary School</t>
-  </si>
-  <si>
-    <t>HEI Schools Emerald Early Learning Centre Emerald</t>
-  </si>
-  <si>
-    <t>Hello Fresh Warehouse Ravenhall</t>
-  </si>
-  <si>
-    <t>Ibis Kingsgate Hotel Melbourne</t>
-  </si>
-  <si>
-    <t>Industrial Galvanizers Valmont Coatings Campbellfield</t>
-  </si>
-  <si>
-    <t>Inghams Enterprises Thomastown</t>
-  </si>
-  <si>
     <t>Kool Kidz Childcare Narre Warren</t>
   </si>
   <si>
     <t>Lantmannen Unibake Australia Mordialloc</t>
   </si>
   <si>
-    <t>Linfox Somerton National Distribution Centre Somerton</t>
-  </si>
-  <si>
-    <t>Mecca Distribution Centre Warehouse Melbourne Airport</t>
-  </si>
-  <si>
-    <t>Melbourne Assessment Prison West Melbourne</t>
-  </si>
-  <si>
-    <t>Melbourne Metropolitan Remand Centre Ravenhall</t>
-  </si>
-  <si>
-    <t>Melbourne West Police Station Docklands</t>
-  </si>
-  <si>
-    <t>Mill Park Police Station Mill Park</t>
-  </si>
-  <si>
-    <t>MyCentre Childcare Broadmeadows</t>
-  </si>
-  <si>
     <t>Nido Early School Ascot Vale</t>
   </si>
   <si>
@@ -178,21 +82,6 @@
     <t>Northern Health The Northern Hospital Epping</t>
   </si>
   <si>
-    <t>OnQ Plumbing and Excavations Craigieburn</t>
-  </si>
-  <si>
-    <t>Pacific Meat Thomastown</t>
-  </si>
-  <si>
-    <t>Private Residence Daycare Allumba Way Wollert</t>
-  </si>
-  <si>
-    <t>Ravenhall Correctional Centre Ravenhall</t>
-  </si>
-  <si>
-    <t>Richmond Quarter 261-271 Bridge Road Construction Site Richmond</t>
-  </si>
-  <si>
     <t>St Margaret's Primary School OSHC Maribyrnong</t>
   </si>
   <si>
@@ -202,24 +91,9 @@
     <t>The Royal Children's Hospital Melbourne Emergency Department Parkville Tier 1B</t>
   </si>
   <si>
-    <t>The Royal Melbourne Hospital Parkville</t>
-  </si>
-  <si>
-    <t>The Royal Melbourne Hospital Parkville Emergency Department</t>
-  </si>
-  <si>
-    <t>The Royal Melbourne Hospital Ward 6SE Parkville</t>
-  </si>
-  <si>
     <t>The Royal Talbot Rehabilitation Centre Kew</t>
   </si>
   <si>
-    <t>ThorwestenCabinets Pakenham</t>
-  </si>
-  <si>
-    <t>Truganina Early Learning Centre Truganina</t>
-  </si>
-  <si>
     <t>Visy Recycling Springvale</t>
   </si>
   <si>
@@ -233,9 +107,6 @@
   </si>
   <si>
     <t>Western Health Sunshine Hospital Emergency Department</t>
-  </si>
-  <si>
-    <t>Western Health Sunshine Hospital GEM Ward St Albans</t>
   </si>
 </sst>
 </file>
@@ -593,7 +464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B73"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -612,7 +483,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -620,7 +491,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -628,7 +499,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -636,7 +507,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -644,7 +515,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -652,7 +523,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -660,7 +531,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -668,7 +539,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -676,7 +547,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -684,7 +555,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -692,7 +563,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -700,7 +571,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -708,7 +579,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -716,7 +587,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -724,7 +595,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -732,7 +603,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -740,7 +611,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -748,7 +619,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -756,7 +627,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>17</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -764,7 +635,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -772,7 +643,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -780,7 +651,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -788,7 +659,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -796,7 +667,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -804,7 +675,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -812,7 +683,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -820,7 +691,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -836,351 +707,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41">
         <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
-        <v>62</v>
-      </c>
-      <c r="B62">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>63</v>
-      </c>
-      <c r="B63">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
-        <v>64</v>
-      </c>
-      <c r="B64">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>65</v>
-      </c>
-      <c r="B65">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>66</v>
-      </c>
-      <c r="B66">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>67</v>
-      </c>
-      <c r="B67">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>68</v>
-      </c>
-      <c r="B68">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
-        <v>69</v>
-      </c>
-      <c r="B69">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>70</v>
-      </c>
-      <c r="B70">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
-        <v>71</v>
-      </c>
-      <c r="B71">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
-        <v>72</v>
-      </c>
-      <c r="B72">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
-        <v>73</v>
-      </c>
-      <c r="B73">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Cluster name</t>
   </si>
@@ -28,48 +28,57 @@
     <t>3175 The Bays Aged Care Facility Hastings</t>
   </si>
   <si>
+    <t>3563 Embracia Aged Care Reservoir</t>
+  </si>
+  <si>
+    <t>Apartment Complex Fawkner</t>
+  </si>
+  <si>
     <t>Australian Lamb Colac East</t>
   </si>
   <si>
+    <t>Bread Solutions Braeside</t>
+  </si>
+  <si>
     <t>CS Square Caroline Springs</t>
   </si>
   <si>
     <t>Carton Finishing Pty. Ltd. Campbellfield</t>
   </si>
   <si>
+    <t>Cedar Meats Australia Brooklyn</t>
+  </si>
+  <si>
     <t>Community Kids Bayswater Early Education Centre Bayswater North</t>
   </si>
   <si>
     <t>Costco Wholesale Epping</t>
   </si>
   <si>
-    <t>Crusader Caravans Epping</t>
-  </si>
-  <si>
-    <t>Embracia Aged Care Reservoir Outbreak</t>
-  </si>
-  <si>
     <t>Ermha365 Residential Disability Care Services Doveton</t>
   </si>
   <si>
     <t>FedEx Station Melbourne Airport</t>
   </si>
   <si>
-    <t>Fine Food Holdings Pty Ltd Dandenong South</t>
-  </si>
-  <si>
-    <t>General Foods Campbellfield</t>
-  </si>
-  <si>
     <t>Green Leaves Early Learning Centre Highlands Craigieburn</t>
   </si>
   <si>
+    <t>Guardian Childcare Caulfield</t>
+  </si>
+  <si>
     <t>Kool Kidz Childcare Narre Warren</t>
   </si>
   <si>
     <t>Lantmannen Unibake Australia Mordialloc</t>
   </si>
   <si>
+    <t>Melbourne Assessment Prison West Melbourne</t>
+  </si>
+  <si>
+    <t>MyCentre Childcare Broadmeadows</t>
+  </si>
+  <si>
     <t>Nido Early School Ascot Vale</t>
   </si>
   <si>
@@ -82,6 +91,9 @@
     <t>Northern Health The Northern Hospital Epping</t>
   </si>
   <si>
+    <t>Social Gathering Warrnambool 28 September</t>
+  </si>
+  <si>
     <t>St Margaret's Primary School OSHC Maribyrnong</t>
   </si>
   <si>
@@ -91,7 +103,7 @@
     <t>The Royal Children's Hospital Melbourne Emergency Department Parkville Tier 1B</t>
   </si>
   <si>
-    <t>The Royal Talbot Rehabilitation Centre Kew</t>
+    <t>The Royal Talbot Rehabilitation Centre</t>
   </si>
   <si>
     <t>Visy Recycling Springvale</t>
@@ -464,7 +476,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -491,7 +503,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -499,7 +511,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -507,7 +519,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -515,7 +527,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -523,7 +535,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -531,7 +543,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -547,7 +559,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -555,7 +567,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -563,7 +575,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -579,7 +591,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -587,7 +599,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -595,7 +607,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -603,7 +615,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -611,7 +623,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -619,7 +631,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -627,7 +639,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>51</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -635,7 +647,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -643,7 +655,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -651,7 +663,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -659,7 +671,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -667,7 +679,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -675,7 +687,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -683,7 +695,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -691,7 +703,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -699,7 +711,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -707,7 +719,39 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>15</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Cluster name</t>
   </si>
@@ -22,22 +22,28 @@
     <t>Active cases</t>
   </si>
   <si>
+    <t>126 Racecourse Road Public Housing Tower Flemington</t>
+  </si>
+  <si>
     <t>139 Highett St Apartment Complex Richmond</t>
   </si>
   <si>
     <t>3175 The Bays Aged Care Facility Hastings</t>
   </si>
   <si>
-    <t>3563 Embracia Aged Care Reservoir</t>
-  </si>
-  <si>
-    <t>Apartment Complex Fawkner</t>
+    <t>3612 BlueCross Glengowrie Outbreak</t>
+  </si>
+  <si>
+    <t>3684 Homestyle Aged Care Langford Grange Cranbourne East Outbreak</t>
+  </si>
+  <si>
+    <t>4075 Ferndale Gardens Aged Care Services Bayswater North Outbreak</t>
   </si>
   <si>
     <t>Australian Lamb Colac East</t>
   </si>
   <si>
-    <t>Bread Solutions Braeside</t>
+    <t>Bread Solutions Braeside Outbreak</t>
   </si>
   <si>
     <t>CS Square Caroline Springs</t>
@@ -46,16 +52,13 @@
     <t>Carton Finishing Pty. Ltd. Campbellfield</t>
   </si>
   <si>
-    <t>Cedar Meats Australia Brooklyn</t>
+    <t>Cedar Meats Australia Brooklyn Outbreak</t>
   </si>
   <si>
     <t>Community Kids Bayswater Early Education Centre Bayswater North</t>
   </si>
   <si>
-    <t>Costco Wholesale Epping</t>
-  </si>
-  <si>
-    <t>Ermha365 Residential Disability Care Services Doveton</t>
+    <t>Embracia Aged Care Reservoir Outbreak</t>
   </si>
   <si>
     <t>FedEx Station Melbourne Airport</t>
@@ -64,7 +67,7 @@
     <t>Green Leaves Early Learning Centre Highlands Craigieburn</t>
   </si>
   <si>
-    <t>Guardian Childcare Caulfield</t>
+    <t>Guardian Childcare Caulfield Outbreak</t>
   </si>
   <si>
     <t>Kool Kidz Childcare Narre Warren</t>
@@ -73,12 +76,6 @@
     <t>Lantmannen Unibake Australia Mordialloc</t>
   </si>
   <si>
-    <t>Melbourne Assessment Prison West Melbourne</t>
-  </si>
-  <si>
-    <t>MyCentre Childcare Broadmeadows</t>
-  </si>
-  <si>
     <t>Nido Early School Ascot Vale</t>
   </si>
   <si>
@@ -91,31 +88,31 @@
     <t>Northern Health The Northern Hospital Epping</t>
   </si>
   <si>
-    <t>Social Gathering Warrnambool 28 September</t>
-  </si>
-  <si>
-    <t>St Margaret's Primary School OSHC Maribyrnong</t>
+    <t>Oceania Meat Processors Laverton North Outbreak</t>
+  </si>
+  <si>
+    <t>Pick It Up Fitness Mulgrave Outbreak</t>
+  </si>
+  <si>
+    <t>Social Gathering Warrnambool 28 Sep Outbreak</t>
   </si>
   <si>
     <t>St Vincents Hospital Emergency Department Melbourne</t>
   </si>
   <si>
+    <t>Target Distribution Centre Truganina Outbreak</t>
+  </si>
+  <si>
+    <t>The Robin Hood Inn Drouin West Outbreak</t>
+  </si>
+  <si>
     <t>The Royal Children's Hospital Melbourne Emergency Department Parkville Tier 1B</t>
   </si>
   <si>
-    <t>The Royal Talbot Rehabilitation Centre</t>
-  </si>
-  <si>
     <t>Visy Recycling Springvale</t>
   </si>
   <si>
-    <t>Wallaby Childcare Wollert</t>
-  </si>
-  <si>
     <t>Werribee Mercy Hospital Emergency Department</t>
-  </si>
-  <si>
-    <t>Western Health Footscray Hospital Emergency Department</t>
   </si>
   <si>
     <t>Western Health Sunshine Hospital Emergency Department</t>
@@ -476,7 +473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -503,7 +500,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -511,7 +508,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -527,7 +524,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -535,7 +532,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -543,7 +540,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -551,7 +548,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -559,7 +556,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -567,7 +564,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -575,7 +572,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -591,7 +588,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -599,7 +596,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -607,7 +604,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -615,7 +612,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -623,7 +620,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -631,7 +628,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -639,7 +636,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -647,7 +644,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -655,7 +652,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -663,7 +660,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -671,7 +668,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -679,7 +676,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -687,7 +684,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -695,7 +692,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -703,7 +700,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -711,7 +708,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -719,7 +716,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -727,7 +724,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -735,7 +732,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -743,15 +740,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Cluster name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>3175 The Bays Aged Care Facility Hastings</t>
   </si>
   <si>
+    <t>3600 Belvedere Age Care Noble Park Outbreak</t>
+  </si>
+  <si>
     <t>3612 BlueCross Glengowrie Outbreak</t>
   </si>
   <si>
@@ -46,16 +49,13 @@
     <t>Bread Solutions Braeside Outbreak</t>
   </si>
   <si>
-    <t>CS Square Caroline Springs</t>
-  </si>
-  <si>
-    <t>Carton Finishing Pty. Ltd. Campbellfield</t>
+    <t>CS Square Caroline Springs Outbreak</t>
   </si>
   <si>
     <t>Cedar Meats Australia Brooklyn Outbreak</t>
   </si>
   <si>
-    <t>Community Kids Bayswater Early Education Centre Bayswater North</t>
+    <t>Child's Play Early Learning Centre Tarneit</t>
   </si>
   <si>
     <t>Embracia Aged Care Reservoir Outbreak</t>
@@ -64,12 +64,12 @@
     <t>FedEx Station Melbourne Airport</t>
   </si>
   <si>
-    <t>Green Leaves Early Learning Centre Highlands Craigieburn</t>
-  </si>
-  <si>
     <t>Guardian Childcare Caulfield Outbreak</t>
   </si>
   <si>
+    <t>Inghams Enterprise Somerville Outbreak</t>
+  </si>
+  <si>
     <t>Kool Kidz Childcare Narre Warren</t>
   </si>
   <si>
@@ -94,6 +94,9 @@
     <t>Pick It Up Fitness Mulgrave Outbreak</t>
   </si>
   <si>
+    <t>Robin Hood Inn Drouin West Outbreak</t>
+  </si>
+  <si>
     <t>Social Gathering Warrnambool 28 Sep Outbreak</t>
   </si>
   <si>
@@ -103,10 +106,13 @@
     <t>Target Distribution Centre Truganina Outbreak</t>
   </si>
   <si>
-    <t>The Robin Hood Inn Drouin West Outbreak</t>
-  </si>
-  <si>
     <t>The Royal Children's Hospital Melbourne Emergency Department Parkville Tier 1B</t>
+  </si>
+  <si>
+    <t>The Toolshed Bar Private Event Noojee</t>
+  </si>
+  <si>
+    <t>Turosi Breakwater</t>
   </si>
   <si>
     <t>Visy Recycling Springvale</t>
@@ -473,7 +479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -500,7 +506,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -516,7 +522,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -524,7 +530,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -532,7 +538,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -540,7 +546,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -548,7 +554,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -556,7 +562,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -564,7 +570,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -596,7 +602,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -604,7 +610,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -612,7 +618,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -644,7 +650,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -652,7 +658,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -660,7 +666,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -668,7 +674,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -684,7 +690,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -692,7 +698,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -700,7 +706,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -708,7 +714,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -716,7 +722,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -724,7 +730,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -732,7 +738,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -740,7 +746,23 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>18</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Cluster name</t>
   </si>
@@ -22,9 +22,6 @@
     <t>Active cases</t>
   </si>
   <si>
-    <t>126 Racecourse Road Public Housing Tower Flemington</t>
-  </si>
-  <si>
     <t>139 Highett St Apartment Complex Richmond</t>
   </si>
   <si>
@@ -61,12 +58,12 @@
     <t>Embracia Aged Care Reservoir Outbreak</t>
   </si>
   <si>
-    <t>FedEx Station Melbourne Airport</t>
-  </si>
-  <si>
     <t>Guardian Childcare Caulfield Outbreak</t>
   </si>
   <si>
+    <t>Hello Fresh Warehouse Ravenhall</t>
+  </si>
+  <si>
     <t>Inghams Enterprise Somerville Outbreak</t>
   </si>
   <si>
@@ -76,10 +73,10 @@
     <t>Lantmannen Unibake Australia Mordialloc</t>
   </si>
   <si>
+    <t>Launch Housing City Edge Crisis Accommodation South Melbourne</t>
+  </si>
+  <si>
     <t>Nido Early School Ascot Vale</t>
-  </si>
-  <si>
-    <t>Nido Early School Glenroy</t>
   </si>
   <si>
     <t>Northern Health Northern Hospital Epping Emergency Department Tier 1B</t>
@@ -479,7 +476,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -498,7 +495,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -506,7 +503,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -514,7 +511,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -522,7 +519,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -530,7 +527,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -538,7 +535,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -546,7 +543,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -554,7 +551,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -562,7 +559,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -570,7 +567,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -586,7 +583,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -594,7 +591,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -602,7 +599,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -610,7 +607,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -618,7 +615,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -626,7 +623,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -634,7 +631,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -642,7 +639,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -650,7 +647,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -658,7 +655,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -666,7 +663,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -674,7 +671,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -682,7 +679,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>11</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -690,7 +687,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -698,7 +695,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -706,7 +703,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -714,7 +711,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -722,7 +719,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -738,7 +735,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -746,7 +743,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -754,14 +751,6 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35">
         <v>21</v>
       </c>
     </row>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Cluster name</t>
   </si>
@@ -40,7 +40,10 @@
     <t>4075 Ferndale Gardens Aged Care Services Bayswater North Outbreak</t>
   </si>
   <si>
-    <t>Australian Lamb Colac East</t>
+    <t>4518 Regis Aged Care Fawkner Outbreak</t>
+  </si>
+  <si>
+    <t>AW Window Transport Group Depot North Geelong Outbreak</t>
   </si>
   <si>
     <t>Bread Solutions Braeside Outbreak</t>
@@ -55,6 +58,9 @@
     <t>Child's Play Early Learning Centre Tarneit</t>
   </si>
   <si>
+    <t>Community Kids Pascoe Vale Early Education Centre Pascoe Vale Outbreak</t>
+  </si>
+  <si>
     <t>Embracia Aged Care Reservoir Outbreak</t>
   </si>
   <si>
@@ -92,9 +98,6 @@
   </si>
   <si>
     <t>Robin Hood Inn Drouin West Outbreak</t>
-  </si>
-  <si>
-    <t>Social Gathering Warrnambool 28 Sep Outbreak</t>
   </si>
   <si>
     <t>St Vincents Hospital Emergency Department Melbourne</t>
@@ -476,7 +479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -495,7 +498,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -503,7 +506,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -519,7 +522,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -527,7 +530,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -535,7 +538,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -551,7 +554,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -559,7 +562,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -567,7 +570,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -575,7 +578,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -583,7 +586,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -591,7 +594,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -599,7 +602,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -607,7 +610,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -615,7 +618,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -623,7 +626,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -631,7 +634,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -639,7 +642,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -647,7 +650,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -655,7 +658,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -663,7 +666,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -671,7 +674,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -679,7 +682,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -687,7 +690,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -703,7 +706,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -711,7 +714,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -719,7 +722,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -727,7 +730,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -735,7 +738,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -743,7 +746,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -751,6 +754,14 @@
         <v>34</v>
       </c>
       <c r="B34">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35">
         <v>21</v>
       </c>
     </row>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Cluster name</t>
   </si>
@@ -22,58 +22,61 @@
     <t>Active cases</t>
   </si>
   <si>
-    <t>139 Highett St Apartment Complex Richmond</t>
-  </si>
-  <si>
     <t>3175 The Bays Aged Care Facility Hastings</t>
   </si>
   <si>
-    <t>3600 Belvedere Age Care Noble Park Outbreak</t>
-  </si>
-  <si>
-    <t>3612 BlueCross Glengowrie Outbreak</t>
-  </si>
-  <si>
-    <t>3684 Homestyle Aged Care Langford Grange Cranbourne East Outbreak</t>
-  </si>
-  <si>
-    <t>4075 Ferndale Gardens Aged Care Services Bayswater North Outbreak</t>
-  </si>
-  <si>
-    <t>4518 Regis Aged Care Fawkner Outbreak</t>
-  </si>
-  <si>
-    <t>AW Window Transport Group Depot North Geelong Outbreak</t>
-  </si>
-  <si>
-    <t>Bread Solutions Braeside Outbreak</t>
-  </si>
-  <si>
-    <t>CS Square Caroline Springs Outbreak</t>
-  </si>
-  <si>
-    <t>Cedar Meats Australia Brooklyn Outbreak</t>
+    <t>3563 Embracia Aged Care Reservoir</t>
+  </si>
+  <si>
+    <t>3600 Belvedere Aged Care Noble Park</t>
+  </si>
+  <si>
+    <t>3612 BlueCross Glengowrie</t>
+  </si>
+  <si>
+    <t>3684 Homestyle Aged Care Langford Grange Cranbourne East</t>
+  </si>
+  <si>
+    <t>3980 Arcare Keysborough Aged Care Keysborough</t>
+  </si>
+  <si>
+    <t>4075 Ferndale Gardens Aged Care Services Bayswater North</t>
+  </si>
+  <si>
+    <t>4518 Regis Aged Care Fawkner</t>
+  </si>
+  <si>
+    <t>AW Window Transport Group Depot North Geelong</t>
+  </si>
+  <si>
+    <t>Allied Pinnacle Factory Altona North</t>
+  </si>
+  <si>
+    <t>Bread Solutions Braeside</t>
+  </si>
+  <si>
+    <t>CS Square Caroline Springs</t>
+  </si>
+  <si>
+    <t>Cedar Meats Australia Brooklyn</t>
   </si>
   <si>
     <t>Child's Play Early Learning Centre Tarneit</t>
   </si>
   <si>
-    <t>Community Kids Pascoe Vale Early Education Centre Pascoe Vale Outbreak</t>
-  </si>
-  <si>
-    <t>Embracia Aged Care Reservoir Outbreak</t>
-  </si>
-  <si>
-    <t>Guardian Childcare Caulfield Outbreak</t>
+    <t>Comfort Sleep Bedding Co Thomastown</t>
+  </si>
+  <si>
+    <t>Community Kids Pascoe Vale Early Education Centre Pascoe Vale</t>
+  </si>
+  <si>
+    <t>Guardian Childcare Caulfield</t>
   </si>
   <si>
     <t>Hello Fresh Warehouse Ravenhall</t>
   </si>
   <si>
-    <t>Inghams Enterprise Somerville Outbreak</t>
-  </si>
-  <si>
-    <t>Kool Kidz Childcare Narre Warren</t>
+    <t>Inghams Enterprises Somerville</t>
   </si>
   <si>
     <t>Lantmannen Unibake Australia Mordialloc</t>
@@ -82,7 +85,7 @@
     <t>Launch Housing City Edge Crisis Accommodation South Melbourne</t>
   </si>
   <si>
-    <t>Nido Early School Ascot Vale</t>
+    <t>Monash Health Kingston Centre South 5</t>
   </si>
   <si>
     <t>Northern Health Northern Hospital Epping Emergency Department Tier 1B</t>
@@ -91,22 +94,19 @@
     <t>Northern Health The Northern Hospital Epping</t>
   </si>
   <si>
-    <t>Oceania Meat Processors Laverton North Outbreak</t>
-  </si>
-  <si>
-    <t>Pick It Up Fitness Mulgrave Outbreak</t>
-  </si>
-  <si>
-    <t>Robin Hood Inn Drouin West Outbreak</t>
+    <t>Oceania Meat Processors Laverton North</t>
   </si>
   <si>
     <t>St Vincents Hospital Emergency Department Melbourne</t>
   </si>
   <si>
-    <t>Target Distribution Centre Truganina Outbreak</t>
-  </si>
-  <si>
-    <t>The Royal Children's Hospital Melbourne Emergency Department Parkville Tier 1B</t>
+    <t>Target Distribution Centre Truganina</t>
+  </si>
+  <si>
+    <t>The Robin Hood Inn Drouin West</t>
+  </si>
+  <si>
+    <t>The Royal Melbourne Hospital Parkville Emergency Department</t>
   </si>
   <si>
     <t>The Toolshed Bar Private Event Noojee</t>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>Werribee Mercy Hospital Emergency Department</t>
+  </si>
+  <si>
+    <t>Western Health Footscray Hospital Emergency Department</t>
   </si>
   <si>
     <t>Western Health Sunshine Hospital Emergency Department</t>
@@ -479,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -498,7 +501,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -506,7 +509,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -514,7 +517,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -522,7 +525,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -530,7 +533,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -538,7 +541,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -546,7 +549,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -554,7 +557,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -562,7 +565,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -570,7 +573,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -578,7 +581,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -586,7 +589,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -594,7 +597,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -602,7 +605,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -610,7 +613,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -618,7 +621,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -626,7 +629,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -634,7 +637,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -642,7 +645,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -650,7 +653,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -666,7 +669,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -674,7 +677,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -682,7 +685,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -690,7 +693,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -698,7 +701,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -706,7 +709,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -714,7 +717,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>19</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -722,7 +725,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -730,7 +733,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -754,7 +757,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -762,7 +765,15 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>21</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Cluster name</t>
   </si>
@@ -22,109 +22,124 @@
     <t>Active cases</t>
   </si>
   <si>
-    <t>3175 The Bays Aged Care Facility Hastings</t>
-  </si>
-  <si>
-    <t>3563 Embracia Aged Care Reservoir</t>
-  </si>
-  <si>
-    <t>3600 Belvedere Aged Care Noble Park</t>
-  </si>
-  <si>
-    <t>3612 BlueCross Glengowrie</t>
-  </si>
-  <si>
-    <t>3684 Homestyle Aged Care Langford Grange Cranbourne East</t>
-  </si>
-  <si>
-    <t>3980 Arcare Keysborough Aged Care Keysborough</t>
-  </si>
-  <si>
-    <t>4075 Ferndale Gardens Aged Care Services Bayswater North</t>
-  </si>
-  <si>
-    <t>4518 Regis Aged Care Fawkner</t>
-  </si>
-  <si>
-    <t>AW Window Transport Group Depot North Geelong</t>
-  </si>
-  <si>
-    <t>Allied Pinnacle Factory Altona North</t>
-  </si>
-  <si>
-    <t>Bread Solutions Braeside</t>
-  </si>
-  <si>
-    <t>CS Square Caroline Springs</t>
-  </si>
-  <si>
-    <t>Cedar Meats Australia Brooklyn</t>
-  </si>
-  <si>
-    <t>Child's Play Early Learning Centre Tarneit</t>
-  </si>
-  <si>
-    <t>Comfort Sleep Bedding Co Thomastown</t>
-  </si>
-  <si>
-    <t>Community Kids Pascoe Vale Early Education Centre Pascoe Vale</t>
-  </si>
-  <si>
-    <t>Guardian Childcare Caulfield</t>
-  </si>
-  <si>
-    <t>Hello Fresh Warehouse Ravenhall</t>
-  </si>
-  <si>
-    <t>Inghams Enterprises Somerville</t>
-  </si>
-  <si>
-    <t>Lantmannen Unibake Australia Mordialloc</t>
-  </si>
-  <si>
-    <t>Launch Housing City Edge Crisis Accommodation South Melbourne</t>
-  </si>
-  <si>
-    <t>Monash Health Kingston Centre South 5</t>
-  </si>
-  <si>
-    <t>Northern Health Northern Hospital Epping Emergency Department Tier 1B</t>
-  </si>
-  <si>
-    <t>Northern Health The Northern Hospital Epping</t>
-  </si>
-  <si>
-    <t>Oceania Meat Processors Laverton North</t>
-  </si>
-  <si>
-    <t>St Vincents Hospital Emergency Department Melbourne</t>
-  </si>
-  <si>
-    <t>Target Distribution Centre Truganina</t>
-  </si>
-  <si>
-    <t>The Robin Hood Inn Drouin West</t>
-  </si>
-  <si>
-    <t>The Royal Melbourne Hospital Parkville Emergency Department</t>
-  </si>
-  <si>
-    <t>The Toolshed Bar Private Event Noojee</t>
-  </si>
-  <si>
-    <t>Turosi Breakwater</t>
-  </si>
-  <si>
-    <t>Visy Recycling Springvale</t>
-  </si>
-  <si>
-    <t>Werribee Mercy Hospital Emergency Department</t>
-  </si>
-  <si>
-    <t>Western Health Footscray Hospital Emergency Department</t>
-  </si>
-  <si>
-    <t>Western Health Sunshine Hospital Emergency Department</t>
+    <t>3153 Sacred Heart Community St Kilda Tier 1B Outbreak</t>
+  </si>
+  <si>
+    <t>3175 The Bays Aged Care Facility Hastings Outbreak</t>
+  </si>
+  <si>
+    <t>3600 Belvedere Aged Care Noble Park Outbreak</t>
+  </si>
+  <si>
+    <t>3612 BlueCross Glengowrie Outbreak</t>
+  </si>
+  <si>
+    <t>3684 Homestyle Aged Care Langford Grange Cranbourne East Outbreak</t>
+  </si>
+  <si>
+    <t>3980 Arcare Keysborough Aged Care Keysborough Outbreak</t>
+  </si>
+  <si>
+    <t>4075 Ferndale Gardens Aged Care Services Bayswater North Outbreak</t>
+  </si>
+  <si>
+    <t>4518 Regis Aged Care Fawkner Outbreak</t>
+  </si>
+  <si>
+    <t>AW Window Transport Group Depot North Geelong Outbreak</t>
+  </si>
+  <si>
+    <t>Allied Pinnacle Factory Altona North Outbreak</t>
+  </si>
+  <si>
+    <t>Bespoke Childcare Dingley Village Outbreak</t>
+  </si>
+  <si>
+    <t>Bread Solutions Braeside Outbreak</t>
+  </si>
+  <si>
+    <t>CS Square Caroline Springs Outbreak</t>
+  </si>
+  <si>
+    <t>Child's Play Early Learning Centre Tarneit Outbreak</t>
+  </si>
+  <si>
+    <t>Community Kids Pascoe Vale Early Education Centre Pascoe Vale Outbreak</t>
+  </si>
+  <si>
+    <t>Essential Caravans Somerton Outbreak</t>
+  </si>
+  <si>
+    <t>Guardian Childcare Caulfield Outbreak</t>
+  </si>
+  <si>
+    <t>Hello Fresh Warehouse Ravenhall Outbreak</t>
+  </si>
+  <si>
+    <t>Inghams Enterprises Somerville Outbreak</t>
+  </si>
+  <si>
+    <t>Lantmannen Unibake Australia Mordialloc Outbreak</t>
+  </si>
+  <si>
+    <t>Launch Housing City Edge Crisis Accommodation South Melbourne Outbreak</t>
+  </si>
+  <si>
+    <t>MacKillop Family Services Residential Facility Glenroy Outbreak</t>
+  </si>
+  <si>
+    <t>Melbourne Assessment Prison West Melbourne Outbreak</t>
+  </si>
+  <si>
+    <t>Melbourne Youth Justice Centre Parkville Outbreak</t>
+  </si>
+  <si>
+    <t>Mildura Police Station Mildura Outbreak</t>
+  </si>
+  <si>
+    <t>Monash Health Kingston Centre South 5 Outbreak</t>
+  </si>
+  <si>
+    <t>Northern Health Northern Hospital Epping Emergency Department Tier 1B Outbreak</t>
+  </si>
+  <si>
+    <t>Northern Health The Northern Hospital Epping Outbreak</t>
+  </si>
+  <si>
+    <t>Oceania Meat Processors Laverton North Outbreak</t>
+  </si>
+  <si>
+    <t>Public Housing 140 Brunswick Street Fitzroy Outbreak</t>
+  </si>
+  <si>
+    <t>Shawlands Caravan Park Dandenong South Outbreak</t>
+  </si>
+  <si>
+    <t>St Vincents Hospital Emergency Department Melbourne Outbreak</t>
+  </si>
+  <si>
+    <t>Target Distribution Centre Truganina Outbreak</t>
+  </si>
+  <si>
+    <t>The Robin Hood Inn Drouin West Outbreak</t>
+  </si>
+  <si>
+    <t>The Toolshed Bar Private Event Noojee Outbreak</t>
+  </si>
+  <si>
+    <t>Turosi Breakwater Outbreak</t>
+  </si>
+  <si>
+    <t>Visy Recycling Springvale Outbreak</t>
+  </si>
+  <si>
+    <t>Werribee Mercy Hospital Emergency Department Outbreak</t>
+  </si>
+  <si>
+    <t>Western Health Footscray Hospital Emergency Department Outbreak</t>
+  </si>
+  <si>
+    <t>Western Health Sunshine Hospital Emergency Department Outbreak</t>
   </si>
 </sst>
 </file>
@@ -482,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,7 +516,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -509,7 +524,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -517,7 +532,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -533,7 +548,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -541,7 +556,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -557,7 +572,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -573,7 +588,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -581,7 +596,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -589,7 +604,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -597,7 +612,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -613,7 +628,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -621,7 +636,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -629,7 +644,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -653,7 +668,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -677,7 +692,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -685,7 +700,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -693,7 +708,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -701,7 +716,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -709,7 +724,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>17</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -717,7 +732,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>46</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -725,7 +740,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -733,7 +748,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -741,7 +756,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -749,7 +764,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -757,7 +772,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -765,7 +780,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>10</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -773,7 +788,47 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>22</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Cluster name</t>
   </si>
@@ -22,6 +22,9 @@
     <t>Active cases</t>
   </si>
   <si>
+    <t>139 Highett St Apartment Complex Richmond Outbreak</t>
+  </si>
+  <si>
     <t>3153 Sacred Heart Community St Kilda Tier 1B Outbreak</t>
   </si>
   <si>
@@ -88,21 +91,18 @@
     <t>MacKillop Family Services Residential Facility Glenroy Outbreak</t>
   </si>
   <si>
-    <t>Melbourne Assessment Prison West Melbourne Outbreak</t>
+    <t>Melbourne Custody Centre Melbourne Outbreak</t>
   </si>
   <si>
     <t>Melbourne Youth Justice Centre Parkville Outbreak</t>
   </si>
   <si>
-    <t>Mildura Police Station Mildura Outbreak</t>
+    <t>Metro Tunnel Shine Domain Site Albert Road Construction Site South Melbourne Outbreak</t>
   </si>
   <si>
     <t>Monash Health Kingston Centre South 5 Outbreak</t>
   </si>
   <si>
-    <t>Northern Health Northern Hospital Epping Emergency Department Tier 1B Outbreak</t>
-  </si>
-  <si>
     <t>Northern Health The Northern Hospital Epping Outbreak</t>
   </si>
   <si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Public Housing 140 Brunswick Street Fitzroy Outbreak</t>
+  </si>
+  <si>
+    <t>Public housing 33 Alfred Street North Melbourne Outbreak</t>
   </si>
   <si>
     <t>Shawlands Caravan Park Dandenong South Outbreak</t>
@@ -497,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,7 +519,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -524,7 +527,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -532,7 +535,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -540,7 +543,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -548,7 +551,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -556,7 +559,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -564,7 +567,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -572,7 +575,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -580,7 +583,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -588,7 +591,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -596,7 +599,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -604,7 +607,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -612,7 +615,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -628,7 +631,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -636,7 +639,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -644,7 +647,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -652,7 +655,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -660,7 +663,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -668,7 +671,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -676,7 +679,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -684,7 +687,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -692,7 +695,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -700,7 +703,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -724,7 +727,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -732,7 +735,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -748,7 +751,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -756,7 +759,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -764,7 +767,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -772,7 +775,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -780,7 +783,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>48</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -788,7 +791,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -796,7 +799,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -804,7 +807,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -812,7 +815,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -820,7 +823,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -828,6 +831,14 @@
         <v>41</v>
       </c>
       <c r="B41">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42">
         <v>24</v>
       </c>
     </row>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,135 +14,96 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
-  <si>
-    <t>Cluster name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+  <si>
+    <t>Cluster Name</t>
   </si>
   <si>
     <t>Active cases</t>
   </si>
   <si>
-    <t>139 Highett St Apartment Complex Richmond Outbreak</t>
-  </si>
-  <si>
-    <t>3153 Sacred Heart Community St Kilda Tier 1B Outbreak</t>
-  </si>
-  <si>
-    <t>3175 The Bays Aged Care Facility Hastings Outbreak</t>
-  </si>
-  <si>
-    <t>3600 Belvedere Aged Care Noble Park Outbreak</t>
-  </si>
-  <si>
-    <t>3612 BlueCross Glengowrie Outbreak</t>
-  </si>
-  <si>
-    <t>3684 Homestyle Aged Care Langford Grange Cranbourne East Outbreak</t>
-  </si>
-  <si>
-    <t>3980 Arcare Keysborough Aged Care Keysborough Outbreak</t>
-  </si>
-  <si>
-    <t>4075 Ferndale Gardens Aged Care Services Bayswater North Outbreak</t>
-  </si>
-  <si>
-    <t>4518 Regis Aged Care Fawkner Outbreak</t>
-  </si>
-  <si>
-    <t>AW Window Transport Group Depot North Geelong Outbreak</t>
-  </si>
-  <si>
-    <t>Allied Pinnacle Factory Altona North Outbreak</t>
-  </si>
-  <si>
-    <t>Bespoke Childcare Dingley Village Outbreak</t>
-  </si>
-  <si>
-    <t>Bread Solutions Braeside Outbreak</t>
-  </si>
-  <si>
-    <t>CS Square Caroline Springs Outbreak</t>
-  </si>
-  <si>
-    <t>Child's Play Early Learning Centre Tarneit Outbreak</t>
-  </si>
-  <si>
-    <t>Community Kids Pascoe Vale Early Education Centre Pascoe Vale Outbreak</t>
-  </si>
-  <si>
-    <t>Essential Caravans Somerton Outbreak</t>
-  </si>
-  <si>
-    <t>Guardian Childcare Caulfield Outbreak</t>
-  </si>
-  <si>
-    <t>Hello Fresh Warehouse Ravenhall Outbreak</t>
-  </si>
-  <si>
-    <t>Inghams Enterprises Somerville Outbreak</t>
-  </si>
-  <si>
-    <t>Lantmannen Unibake Australia Mordialloc Outbreak</t>
-  </si>
-  <si>
-    <t>Launch Housing City Edge Crisis Accommodation South Melbourne Outbreak</t>
-  </si>
-  <si>
-    <t>MacKillop Family Services Residential Facility Glenroy Outbreak</t>
-  </si>
-  <si>
-    <t>Melbourne Custody Centre Melbourne Outbreak</t>
-  </si>
-  <si>
-    <t>Melbourne Youth Justice Centre Parkville Outbreak</t>
-  </si>
-  <si>
-    <t>Metro Tunnel Shine Domain Site Albert Road Construction Site South Melbourne Outbreak</t>
-  </si>
-  <si>
-    <t>Monash Health Kingston Centre South 5 Outbreak</t>
-  </si>
-  <si>
-    <t>Northern Health The Northern Hospital Epping Outbreak</t>
-  </si>
-  <si>
-    <t>Oceania Meat Processors Laverton North Outbreak</t>
-  </si>
-  <si>
-    <t>Public Housing 140 Brunswick Street Fitzroy Outbreak</t>
-  </si>
-  <si>
-    <t>Public housing 33 Alfred Street North Melbourne Outbreak</t>
-  </si>
-  <si>
-    <t>Shawlands Caravan Park Dandenong South Outbreak</t>
-  </si>
-  <si>
-    <t>St Vincents Hospital Emergency Department Melbourne Outbreak</t>
-  </si>
-  <si>
-    <t>Target Distribution Centre Truganina Outbreak</t>
-  </si>
-  <si>
-    <t>The Robin Hood Inn Drouin West Outbreak</t>
-  </si>
-  <si>
-    <t>The Toolshed Bar Private Event Noojee Outbreak</t>
-  </si>
-  <si>
-    <t>Turosi Breakwater Outbreak</t>
-  </si>
-  <si>
-    <t>Visy Recycling Springvale Outbreak</t>
-  </si>
-  <si>
-    <t>Werribee Mercy Hospital Emergency Department Outbreak</t>
-  </si>
-  <si>
-    <t>Western Health Footscray Hospital Emergency Department Outbreak</t>
-  </si>
-  <si>
-    <t>Western Health Sunshine Hospital Emergency Department Outbreak</t>
+    <t>3153 Sacred Heart Community St Kilda Tier 1A</t>
+  </si>
+  <si>
+    <t>3600 Belvedere Aged Care Noble Park</t>
+  </si>
+  <si>
+    <t>3612 BlueCross Glengowrie</t>
+  </si>
+  <si>
+    <t>3684 Homestyle Aged Care Langford Grange Cranbourne East</t>
+  </si>
+  <si>
+    <t>3980 Arcare Keysborough Aged Care Keysborough</t>
+  </si>
+  <si>
+    <t>4075 Homestyle Aged Care Ferndale Gardens Aged Care Services Bayswater North</t>
+  </si>
+  <si>
+    <t>4518 Regis Aged Care Fawkner</t>
+  </si>
+  <si>
+    <t>Bespoke Childcare Dingley Village</t>
+  </si>
+  <si>
+    <t>Child's Play Early Learning Centre Tarneit</t>
+  </si>
+  <si>
+    <t>Community Kids Pascoe Vale Early Education Centre Pascoe Vale</t>
+  </si>
+  <si>
+    <t>Guardian Childcare Caulfield</t>
+  </si>
+  <si>
+    <t>Hello Fresh Warehouse Ravenhall</t>
+  </si>
+  <si>
+    <t>Inghams Enterprises Somerville</t>
+  </si>
+  <si>
+    <t>JBS Australia Brooklyn</t>
+  </si>
+  <si>
+    <t>Launch Housing City Edge Crisis Accommodation South Melbourne</t>
+  </si>
+  <si>
+    <t>MacKillop Family Services Residential Facility Glenroy</t>
+  </si>
+  <si>
+    <t>Melbourne Custody Centre Melbourne</t>
+  </si>
+  <si>
+    <t>Metro Tunnel Shine Domain Site Albert Road Construction Site South Melbourne</t>
+  </si>
+  <si>
+    <t>Northern Health The Northern Hospital Epping</t>
+  </si>
+  <si>
+    <t>Oceania Meat Processors Laverton North</t>
+  </si>
+  <si>
+    <t>Shawlands Caravan Park Dandenong South</t>
+  </si>
+  <si>
+    <t>St Vincents Hospital Emergency Department Melbourne</t>
+  </si>
+  <si>
+    <t>The Robin Hood Inn Drouin West</t>
+  </si>
+  <si>
+    <t>The Royal Children's Hospital Melbourne Emergency Department Parkville Tier 1B</t>
+  </si>
+  <si>
+    <t>The Royal Children's Hospital Parkville</t>
+  </si>
+  <si>
+    <t>The Toolshed Bar Private Event Noojee</t>
+  </si>
+  <si>
+    <t>Werribee Mercy Hospital Emergency Department</t>
+  </si>
+  <si>
+    <t>Western Health Sunshine Hospital Emergency Department</t>
   </si>
 </sst>
 </file>
@@ -500,7 +461,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,7 +480,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -527,7 +488,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -535,7 +496,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>13</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -543,7 +504,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -551,7 +512,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -559,7 +520,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -567,7 +528,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -575,7 +536,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -583,7 +544,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -591,7 +552,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -599,7 +560,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -607,7 +568,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -615,7 +576,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -623,7 +584,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -631,7 +592,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -639,7 +600,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -647,7 +608,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -655,7 +616,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -671,7 +632,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -679,7 +640,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -687,7 +648,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -695,7 +656,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>10</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -703,7 +664,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -727,7 +688,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -735,110 +696,6 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42">
         <v>24</v>
       </c>
     </row>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>Cluster Name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+  <si>
+    <t>Cluster</t>
   </si>
   <si>
     <t>Active cases</t>
@@ -34,6 +34,9 @@
     <t>3684 Homestyle Aged Care Langford Grange Cranbourne East</t>
   </si>
   <si>
+    <t>3824 Estia Health South Morang</t>
+  </si>
+  <si>
     <t>3980 Arcare Keysborough Aged Care Keysborough</t>
   </si>
   <si>
@@ -43,12 +46,12 @@
     <t>4518 Regis Aged Care Fawkner</t>
   </si>
   <si>
+    <t>ACFS Port Logistics Altona</t>
+  </si>
+  <si>
     <t>Bespoke Childcare Dingley Village</t>
   </si>
   <si>
-    <t>Child's Play Early Learning Centre Tarneit</t>
-  </si>
-  <si>
     <t>Community Kids Pascoe Vale Early Education Centre Pascoe Vale</t>
   </si>
   <si>
@@ -58,30 +61,21 @@
     <t>Hello Fresh Warehouse Ravenhall</t>
   </si>
   <si>
+    <t>Honeyeater Hairdressers Bendigo</t>
+  </si>
+  <si>
     <t>Inghams Enterprises Somerville</t>
   </si>
   <si>
     <t>JBS Australia Brooklyn</t>
   </si>
   <si>
-    <t>Launch Housing City Edge Crisis Accommodation South Melbourne</t>
-  </si>
-  <si>
-    <t>MacKillop Family Services Residential Facility Glenroy</t>
-  </si>
-  <si>
-    <t>Melbourne Custody Centre Melbourne</t>
-  </si>
-  <si>
     <t>Metro Tunnel Shine Domain Site Albert Road Construction Site South Melbourne</t>
   </si>
   <si>
     <t>Northern Health The Northern Hospital Epping</t>
   </si>
   <si>
-    <t>Oceania Meat Processors Laverton North</t>
-  </si>
-  <si>
     <t>Shawlands Caravan Park Dandenong South</t>
   </si>
   <si>
@@ -91,13 +85,13 @@
     <t>The Robin Hood Inn Drouin West</t>
   </si>
   <si>
-    <t>The Royal Children's Hospital Melbourne Emergency Department Parkville Tier 1B</t>
+    <t>The Royal Children's Hospital Melbourne Emergency Department Parkville Tier 1A</t>
   </si>
   <si>
     <t>The Royal Children's Hospital Parkville</t>
   </si>
   <si>
-    <t>The Toolshed Bar Private Event Noojee</t>
+    <t>Visy Recycling Springvale</t>
   </si>
   <si>
     <t>Werribee Mercy Hospital Emergency Department</t>
@@ -461,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -496,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -504,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -512,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -520,7 +514,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -528,7 +522,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -536,7 +530,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -544,7 +538,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -552,7 +546,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -560,7 +554,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -568,7 +562,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -576,7 +570,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -592,7 +586,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -608,7 +602,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -616,7 +610,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -632,7 +626,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -640,7 +634,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>17</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -648,7 +642,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -656,7 +650,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>48</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -664,7 +658,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -672,7 +666,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -680,23 +674,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t>Cluster</t>
-  </si>
-  <si>
-    <t>Active cases</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+  <si>
+    <t>Cluster name</t>
+  </si>
+  <si>
+    <t>Active Cases</t>
   </si>
   <si>
     <t>3153 Sacred Heart Community St Kilda Tier 1A</t>
@@ -31,6 +31,9 @@
     <t>3612 BlueCross Glengowrie</t>
   </si>
   <si>
+    <t>3652 Regis Aged Care Dandenong North</t>
+  </si>
+  <si>
     <t>3684 Homestyle Aged Care Langford Grange Cranbourne East</t>
   </si>
   <si>
@@ -40,9 +43,6 @@
     <t>3980 Arcare Keysborough Aged Care Keysborough</t>
   </si>
   <si>
-    <t>4075 Homestyle Aged Care Ferndale Gardens Aged Care Services Bayswater North</t>
-  </si>
-  <si>
     <t>4518 Regis Aged Care Fawkner</t>
   </si>
   <si>
@@ -55,7 +55,7 @@
     <t>Community Kids Pascoe Vale Early Education Centre Pascoe Vale</t>
   </si>
   <si>
-    <t>Guardian Childcare Caulfield</t>
+    <t>Elements Childcare Warralily Armstrong Creek</t>
   </si>
   <si>
     <t>Hello Fresh Warehouse Ravenhall</t>
@@ -70,9 +70,15 @@
     <t>JBS Australia Brooklyn</t>
   </si>
   <si>
+    <t>McQuinns Gym Bendigo</t>
+  </si>
+  <si>
     <t>Metro Tunnel Shine Domain Site Albert Road Construction Site South Melbourne</t>
   </si>
   <si>
+    <t>Nido Early School Wyndham Vale</t>
+  </si>
+  <si>
     <t>Northern Health The Northern Hospital Epping</t>
   </si>
   <si>
@@ -85,12 +91,6 @@
     <t>The Robin Hood Inn Drouin West</t>
   </si>
   <si>
-    <t>The Royal Children's Hospital Melbourne Emergency Department Parkville Tier 1A</t>
-  </si>
-  <si>
-    <t>The Royal Children's Hospital Parkville</t>
-  </si>
-  <si>
     <t>Visy Recycling Springvale</t>
   </si>
   <si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>Western Health Sunshine Hospital Emergency Department</t>
+  </si>
+  <si>
+    <t>Yarrabah School Aspendale</t>
   </si>
 </sst>
 </file>
@@ -455,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -482,7 +485,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -490,7 +493,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -498,7 +501,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -506,7 +509,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -514,7 +517,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -522,7 +525,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -570,7 +573,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -578,7 +581,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -586,7 +589,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -602,7 +605,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -610,7 +613,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -618,7 +621,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -626,7 +629,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -634,7 +637,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>49</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -642,7 +645,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -650,7 +653,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>11</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -666,7 +669,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -674,7 +677,15 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>22</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,93 +14,117 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Cluster name</t>
   </si>
   <si>
-    <t>Active Cases</t>
-  </si>
-  <si>
-    <t>3153 Sacred Heart Community St Kilda Tier 1A</t>
-  </si>
-  <si>
-    <t>3600 Belvedere Aged Care Noble Park</t>
-  </si>
-  <si>
-    <t>3612 BlueCross Glengowrie</t>
-  </si>
-  <si>
-    <t>3652 Regis Aged Care Dandenong North</t>
-  </si>
-  <si>
-    <t>3684 Homestyle Aged Care Langford Grange Cranbourne East</t>
-  </si>
-  <si>
-    <t>3824 Estia Health South Morang</t>
-  </si>
-  <si>
-    <t>3980 Arcare Keysborough Aged Care Keysborough</t>
-  </si>
-  <si>
-    <t>4518 Regis Aged Care Fawkner</t>
-  </si>
-  <si>
-    <t>ACFS Port Logistics Altona</t>
-  </si>
-  <si>
-    <t>Bespoke Childcare Dingley Village</t>
-  </si>
-  <si>
-    <t>Community Kids Pascoe Vale Early Education Centre Pascoe Vale</t>
-  </si>
-  <si>
-    <t>Elements Childcare Warralily Armstrong Creek</t>
-  </si>
-  <si>
-    <t>Hello Fresh Warehouse Ravenhall</t>
-  </si>
-  <si>
-    <t>Honeyeater Hairdressers Bendigo</t>
-  </si>
-  <si>
-    <t>Inghams Enterprises Somerville</t>
-  </si>
-  <si>
-    <t>JBS Australia Brooklyn</t>
-  </si>
-  <si>
-    <t>McQuinns Gym Bendigo</t>
-  </si>
-  <si>
-    <t>Metro Tunnel Shine Domain Site Albert Road Construction Site South Melbourne</t>
-  </si>
-  <si>
-    <t>Nido Early School Wyndham Vale</t>
-  </si>
-  <si>
-    <t>Northern Health The Northern Hospital Epping</t>
-  </si>
-  <si>
-    <t>Shawlands Caravan Park Dandenong South</t>
-  </si>
-  <si>
-    <t>St Vincents Hospital Emergency Department Melbourne</t>
-  </si>
-  <si>
-    <t>The Robin Hood Inn Drouin West</t>
-  </si>
-  <si>
-    <t>Visy Recycling Springvale</t>
-  </si>
-  <si>
-    <t>Werribee Mercy Hospital Emergency Department</t>
-  </si>
-  <si>
-    <t>Western Health Sunshine Hospital Emergency Department</t>
-  </si>
-  <si>
-    <t>Yarrabah School Aspendale</t>
+    <t>Active cases</t>
+  </si>
+  <si>
+    <t>139 Highett St Apartment Complex Richmond Outbreak</t>
+  </si>
+  <si>
+    <t>3153 Sacred Heart Community St Kilda Tier 1A Outbreak</t>
+  </si>
+  <si>
+    <t>3528 Ottoman Village Aged Care Broadmeadows Outbreak</t>
+  </si>
+  <si>
+    <t>3600 Belvedere Aged Care Noble Park Outbreak</t>
+  </si>
+  <si>
+    <t>3612 BlueCross Glengowrie Outbreak</t>
+  </si>
+  <si>
+    <t>3652 Regis Aged Care Dandenong North Outbreak</t>
+  </si>
+  <si>
+    <t>3684 Homestyle Aged Care Langford Grange Cranbourne East Outbreak</t>
+  </si>
+  <si>
+    <t>3824 Estia Health South Morang Outbreak</t>
+  </si>
+  <si>
+    <t>3980 Arcare Keysborough Aged Care Keysborough Outbreak</t>
+  </si>
+  <si>
+    <t>4518 Regis Aged Care Fawkner Outbreak</t>
+  </si>
+  <si>
+    <t>ACFS Port Logistics Altona Outbreak</t>
+  </si>
+  <si>
+    <t>Armstrong Creek School Armstrong Creek Outbreak</t>
+  </si>
+  <si>
+    <t>Aspect Autism Spectrum Australia Disability Service Heatherton Outbreak</t>
+  </si>
+  <si>
+    <t>Bespoke Childcare Dingley Village Outbreak</t>
+  </si>
+  <si>
+    <t>Clifton Hill Primary School Clifton Hill Outbreak</t>
+  </si>
+  <si>
+    <t>Community Kids Pascoe Vale Early Education Centre Pascoe Vale Outbreak</t>
+  </si>
+  <si>
+    <t>Elements Childcare Warralily Armstrong Creek Outbreak</t>
+  </si>
+  <si>
+    <t>Honeyeater Hairdressers Bendigo Outbreak</t>
+  </si>
+  <si>
+    <t>Inghams Enterprises Somerville Outbreak</t>
+  </si>
+  <si>
+    <t>JBS Australia Brooklyn Outbreak</t>
+  </si>
+  <si>
+    <t>Launch Housing City Edge Crisis Accommodation South Melbourne Outbreak</t>
+  </si>
+  <si>
+    <t>McQuinns Gym Bendigo Outbreak</t>
+  </si>
+  <si>
+    <t>Metcash Limited Distribution Centre Laverton North Outbreak</t>
+  </si>
+  <si>
+    <t>Metro Tunnel Shine Domain Site Albert Road Construction Site South Melbourne Outbreak</t>
+  </si>
+  <si>
+    <t>Nido Early School Wyndham Vale Outbreak</t>
+  </si>
+  <si>
+    <t>Northern Health The Northern Hospital Epping Outbreak</t>
+  </si>
+  <si>
+    <t>Shawlands Caravan Park Dandenong South Outbreak</t>
+  </si>
+  <si>
+    <t>St Vincents Hospital Emergency Department Melbourne Outbreak</t>
+  </si>
+  <si>
+    <t>TUROSI PTY LTD Thomastown Outbreak</t>
+  </si>
+  <si>
+    <t>The Robin Hood Inn Drouin West Outbreak</t>
+  </si>
+  <si>
+    <t>The Royal Children's Hospital Parkville Outbreak</t>
+  </si>
+  <si>
+    <t>Werribee Mercy Hospital Emergency Department Outbreak</t>
+  </si>
+  <si>
+    <t>Western Health Sunshine Hospital Emergency Department Outbreak</t>
+  </si>
+  <si>
+    <t>Yarrabah School Aspendale Outbreak</t>
+  </si>
+  <si>
+    <t>Zed Bar Albury Outbreak</t>
   </si>
 </sst>
 </file>
@@ -458,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -477,7 +501,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -485,7 +509,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -493,7 +517,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -501,7 +525,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -509,7 +533,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -517,7 +541,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -525,7 +549,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -533,7 +557,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -541,7 +565,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -549,7 +573,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -557,7 +581,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -565,7 +589,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -573,7 +597,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -581,7 +605,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -589,7 +613,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -597,7 +621,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -605,7 +629,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -613,7 +637,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -621,7 +645,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -629,7 +653,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -637,7 +661,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -645,7 +669,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -653,7 +677,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -669,7 +693,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -677,7 +701,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -685,7 +709,71 @@
         <v>28</v>
       </c>
       <c r="B28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32">
         <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,117 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Cluster name</t>
   </si>
   <si>
-    <t>Active cases</t>
-  </si>
-  <si>
-    <t>139 Highett St Apartment Complex Richmond Outbreak</t>
-  </si>
-  <si>
-    <t>3153 Sacred Heart Community St Kilda Tier 1A Outbreak</t>
-  </si>
-  <si>
-    <t>3528 Ottoman Village Aged Care Broadmeadows Outbreak</t>
-  </si>
-  <si>
-    <t>3600 Belvedere Aged Care Noble Park Outbreak</t>
-  </si>
-  <si>
-    <t>3612 BlueCross Glengowrie Outbreak</t>
-  </si>
-  <si>
-    <t>3652 Regis Aged Care Dandenong North Outbreak</t>
-  </si>
-  <si>
-    <t>3684 Homestyle Aged Care Langford Grange Cranbourne East Outbreak</t>
-  </si>
-  <si>
-    <t>3824 Estia Health South Morang Outbreak</t>
-  </si>
-  <si>
-    <t>3980 Arcare Keysborough Aged Care Keysborough Outbreak</t>
-  </si>
-  <si>
-    <t>4518 Regis Aged Care Fawkner Outbreak</t>
-  </si>
-  <si>
-    <t>ACFS Port Logistics Altona Outbreak</t>
-  </si>
-  <si>
-    <t>Armstrong Creek School Armstrong Creek Outbreak</t>
-  </si>
-  <si>
-    <t>Aspect Autism Spectrum Australia Disability Service Heatherton Outbreak</t>
-  </si>
-  <si>
-    <t>Bespoke Childcare Dingley Village Outbreak</t>
-  </si>
-  <si>
-    <t>Clifton Hill Primary School Clifton Hill Outbreak</t>
-  </si>
-  <si>
-    <t>Community Kids Pascoe Vale Early Education Centre Pascoe Vale Outbreak</t>
-  </si>
-  <si>
-    <t>Elements Childcare Warralily Armstrong Creek Outbreak</t>
-  </si>
-  <si>
-    <t>Honeyeater Hairdressers Bendigo Outbreak</t>
-  </si>
-  <si>
-    <t>Inghams Enterprises Somerville Outbreak</t>
-  </si>
-  <si>
-    <t>JBS Australia Brooklyn Outbreak</t>
-  </si>
-  <si>
-    <t>Launch Housing City Edge Crisis Accommodation South Melbourne Outbreak</t>
-  </si>
-  <si>
-    <t>McQuinns Gym Bendigo Outbreak</t>
-  </si>
-  <si>
-    <t>Metcash Limited Distribution Centre Laverton North Outbreak</t>
-  </si>
-  <si>
-    <t>Metro Tunnel Shine Domain Site Albert Road Construction Site South Melbourne Outbreak</t>
-  </si>
-  <si>
-    <t>Nido Early School Wyndham Vale Outbreak</t>
-  </si>
-  <si>
-    <t>Northern Health The Northern Hospital Epping Outbreak</t>
-  </si>
-  <si>
-    <t>Shawlands Caravan Park Dandenong South Outbreak</t>
-  </si>
-  <si>
-    <t>St Vincents Hospital Emergency Department Melbourne Outbreak</t>
-  </si>
-  <si>
-    <t>TUROSI PTY LTD Thomastown Outbreak</t>
-  </si>
-  <si>
-    <t>The Robin Hood Inn Drouin West Outbreak</t>
-  </si>
-  <si>
-    <t>The Royal Children's Hospital Parkville Outbreak</t>
-  </si>
-  <si>
-    <t>Werribee Mercy Hospital Emergency Department Outbreak</t>
-  </si>
-  <si>
-    <t>Western Health Sunshine Hospital Emergency Department Outbreak</t>
-  </si>
-  <si>
-    <t>Yarrabah School Aspendale Outbreak</t>
-  </si>
-  <si>
-    <t>Zed Bar Albury Outbreak</t>
+    <t>Active Cases</t>
+  </si>
+  <si>
+    <t>139 Highett St Apartment Complex Richmond</t>
+  </si>
+  <si>
+    <t>3153 Sacred Heart Community St Kilda Tier 1A</t>
+  </si>
+  <si>
+    <t>3528 Ottoman Village Aged Care Broadmeadows</t>
+  </si>
+  <si>
+    <t>3600 Belvedere Aged Care Noble Park</t>
+  </si>
+  <si>
+    <t>3612 BlueCross Glengowrie</t>
+  </si>
+  <si>
+    <t>3652 Regis Aged Care Dandenong North</t>
+  </si>
+  <si>
+    <t>3684 Homestyle Aged Care Langford Grange Cranbourne East</t>
+  </si>
+  <si>
+    <t>3824 Estia Health South Morang</t>
+  </si>
+  <si>
+    <t>3980 Arcare Keysborough Aged Care Keysborough</t>
+  </si>
+  <si>
+    <t>4518 Regis Aged Care Fawkner</t>
+  </si>
+  <si>
+    <t>ACFS Port Logistics Altona</t>
+  </si>
+  <si>
+    <t>Alfred Health The Alfred Hospital Melbourne</t>
+  </si>
+  <si>
+    <t>Armstrong Creek School Armstrong Creek</t>
+  </si>
+  <si>
+    <t>Aspect Autism Spectrum Australia Disability Service Heatherton</t>
+  </si>
+  <si>
+    <t>Bespoke Childcare Dingley Village</t>
+  </si>
+  <si>
+    <t>Clifton Hill Primary School Clifton Hill</t>
+  </si>
+  <si>
+    <t>Community Kids Pascoe Vale Early Education Centre Pascoe Vale</t>
+  </si>
+  <si>
+    <t>Elements Childcare Warralily Armstrong Creek</t>
+  </si>
+  <si>
+    <t>Hello Fresh Warehouse Ravenhall</t>
+  </si>
+  <si>
+    <t>Honeyeater Hairdressers Bendigo</t>
+  </si>
+  <si>
+    <t>Inghams Enterprises Somerville</t>
+  </si>
+  <si>
+    <t>JBS Australia Brooklyn</t>
+  </si>
+  <si>
+    <t>Lighthouse Christian College Cranbourne</t>
+  </si>
+  <si>
+    <t>McQuinns Gym Bendigo</t>
+  </si>
+  <si>
+    <t>Metcash Limited Distribution Centre Laverton North</t>
+  </si>
+  <si>
+    <t>Nido Early School Wyndham Vale</t>
+  </si>
+  <si>
+    <t>Northern Health The Northern Hospital Epping</t>
+  </si>
+  <si>
+    <t>Pelican Childcare Craigieburn</t>
+  </si>
+  <si>
+    <t>Shawlands Caravan Park Dandenong South</t>
+  </si>
+  <si>
+    <t>St Vincents Hospital Emergency Department Melbourne</t>
+  </si>
+  <si>
+    <t>St. Mary's Primary School Swan Hill</t>
+  </si>
+  <si>
+    <t>TUROSI PTY LTD Thomastown</t>
+  </si>
+  <si>
+    <t>The Robin Hood Inn Drouin West</t>
+  </si>
+  <si>
+    <t>The Royal Children's Hospital Parkville</t>
+  </si>
+  <si>
+    <t>Werribee Mercy Hospital Emergency Department</t>
+  </si>
+  <si>
+    <t>Western Health Sunshine Hospital Emergency Department</t>
+  </si>
+  <si>
+    <t>Yarrabah School Aspendale</t>
+  </si>
+  <si>
+    <t>Zed Bar Albury</t>
   </si>
 </sst>
 </file>
@@ -482,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,7 +510,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -517,7 +526,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -525,7 +534,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -533,7 +542,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -541,7 +550,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -549,7 +558,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -557,7 +566,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -565,7 +574,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -589,7 +598,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -597,7 +606,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -605,7 +614,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -621,7 +630,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -629,7 +638,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -637,7 +646,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -645,7 +654,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -653,7 +662,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -661,7 +670,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -669,7 +678,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -677,7 +686,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -685,7 +694,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -693,7 +702,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -709,7 +718,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -717,7 +726,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -725,7 +734,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -733,7 +742,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -741,7 +750,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -749,7 +758,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -757,7 +766,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -773,7 +782,31 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>12</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,21 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
-  <si>
-    <t>Cluster name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+  <si>
+    <t>Cluster</t>
   </si>
   <si>
     <t>Active Cases</t>
   </si>
   <si>
-    <t>139 Highett St Apartment Complex Richmond</t>
-  </si>
-  <si>
     <t>3153 Sacred Heart Community St Kilda Tier 1A</t>
   </si>
   <si>
-    <t>3528 Ottoman Village Aged Care Broadmeadows</t>
+    <t>3528 Ottoman Village Aged Care</t>
   </si>
   <si>
     <t>3600 Belvedere Aged Care Noble Park</t>
@@ -49,9 +46,6 @@
     <t>3980 Arcare Keysborough Aged Care Keysborough</t>
   </si>
   <si>
-    <t>4518 Regis Aged Care Fawkner</t>
-  </si>
-  <si>
     <t>ACFS Port Logistics Altona</t>
   </si>
   <si>
@@ -67,18 +61,27 @@
     <t>Bespoke Childcare Dingley Village</t>
   </si>
   <si>
+    <t>Bridgewood Primary School Officer</t>
+  </si>
+  <si>
+    <t>Catholic Regional College Melton</t>
+  </si>
+  <si>
     <t>Clifton Hill Primary School Clifton Hill</t>
   </si>
   <si>
-    <t>Community Kids Pascoe Vale Early Education Centre Pascoe Vale</t>
-  </si>
-  <si>
-    <t>Elements Childcare Warralily Armstrong Creek</t>
+    <t>Community Kids Pascoe Vale Early Education Centre Pascoe Vale South</t>
+  </si>
+  <si>
+    <t>Elements Childcare Warralily Armstrong</t>
   </si>
   <si>
     <t>Hello Fresh Warehouse Ravenhall</t>
   </si>
   <si>
+    <t>Highett St Apartment Complex Richmond</t>
+  </si>
+  <si>
     <t>Honeyeater Hairdressers Bendigo</t>
   </si>
   <si>
@@ -91,6 +94,9 @@
     <t>Lighthouse Christian College Cranbourne</t>
   </si>
   <si>
+    <t>Lowanna College Newborough</t>
+  </si>
+  <si>
     <t>McQuinns Gym Bendigo</t>
   </si>
   <si>
@@ -109,13 +115,13 @@
     <t>Shawlands Caravan Park Dandenong South</t>
   </si>
   <si>
+    <t>St Mary's Primary School Swan Hill</t>
+  </si>
+  <si>
     <t>St Vincents Hospital Emergency Department Melbourne</t>
   </si>
   <si>
-    <t>St. Mary's Primary School Swan Hill</t>
-  </si>
-  <si>
-    <t>TUROSI PTY LTD Thomastown</t>
+    <t>TUROSI PTY LTD Thomastown O</t>
   </si>
   <si>
     <t>The Robin Hood Inn Drouin West</t>
@@ -131,9 +137,6 @@
   </si>
   <si>
     <t>Yarrabah School Aspendale</t>
-  </si>
-  <si>
-    <t>Zed Bar Albury</t>
   </si>
 </sst>
 </file>
@@ -491,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -510,7 +513,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -518,7 +521,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -526,7 +529,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -534,7 +537,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -542,7 +545,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>49</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -550,7 +553,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -558,7 +561,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>15</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -566,7 +569,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -574,7 +577,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -582,7 +585,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -598,7 +601,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -606,7 +609,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -622,7 +625,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -630,7 +633,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -662,7 +665,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -670,7 +673,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -678,7 +681,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -686,7 +689,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -694,7 +697,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -702,7 +705,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -710,7 +713,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -718,7 +721,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -734,7 +737,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -742,7 +745,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -750,7 +753,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -766,7 +769,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -774,7 +777,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -782,7 +785,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -790,7 +793,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -798,7 +801,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>10</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -806,7 +809,15 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>13</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,18 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
-  <si>
-    <t>Cluster</t>
-  </si>
-  <si>
-    <t>Active Cases</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+  <si>
+    <t>Cluster name</t>
+  </si>
+  <si>
+    <t>Active cases</t>
   </si>
   <si>
     <t>3153 Sacred Heart Community St Kilda Tier 1A</t>
   </si>
   <si>
-    <t>3528 Ottoman Village Aged Care</t>
+    <t>3528 Ottoman Village Aged Care Broadmeadows</t>
   </si>
   <si>
     <t>3600 Belvedere Aged Care Noble Park</t>
@@ -46,6 +46,9 @@
     <t>3980 Arcare Keysborough Aged Care Keysborough</t>
   </si>
   <si>
+    <t>4518 Regis Aged Care Fawkner</t>
+  </si>
+  <si>
     <t>ACFS Port Logistics Altona</t>
   </si>
   <si>
@@ -58,25 +61,22 @@
     <t>Aspect Autism Spectrum Australia Disability Service Heatherton</t>
   </si>
   <si>
-    <t>Bespoke Childcare Dingley Village</t>
+    <t>Berwick Fields Primary School Berwick</t>
+  </si>
+  <si>
+    <t>Berwick Lodge Primary School Berwick</t>
   </si>
   <si>
     <t>Bridgewood Primary School Officer</t>
   </si>
   <si>
-    <t>Catholic Regional College Melton</t>
-  </si>
-  <si>
     <t>Clifton Hill Primary School Clifton Hill</t>
   </si>
   <si>
     <t>Community Kids Pascoe Vale Early Education Centre Pascoe Vale South</t>
   </si>
   <si>
-    <t>Elements Childcare Warralily Armstrong</t>
-  </si>
-  <si>
-    <t>Hello Fresh Warehouse Ravenhall</t>
+    <t>Elements Childcare Warralily Armstrong Creek</t>
   </si>
   <si>
     <t>Highett St Apartment Complex Richmond</t>
@@ -91,15 +91,24 @@
     <t>JBS Australia Brooklyn</t>
   </si>
   <si>
+    <t>Kmart Distribution Centre Truganina</t>
+  </si>
+  <si>
     <t>Lighthouse Christian College Cranbourne</t>
   </si>
   <si>
+    <t>Lilydale Motor Inn Lilydale</t>
+  </si>
+  <si>
     <t>Lowanna College Newborough</t>
   </si>
   <si>
     <t>McQuinns Gym Bendigo</t>
   </si>
   <si>
+    <t>Melbourne Metropolitan Remand Centre Ravenhall</t>
+  </si>
+  <si>
     <t>Metcash Limited Distribution Centre Laverton North</t>
   </si>
   <si>
@@ -121,13 +130,16 @@
     <t>St Vincents Hospital Emergency Department Melbourne</t>
   </si>
   <si>
-    <t>TUROSI PTY LTD Thomastown O</t>
+    <t>TUROSI PTY LTD Thomastown</t>
   </si>
   <si>
     <t>The Robin Hood Inn Drouin West</t>
   </si>
   <si>
     <t>The Royal Children's Hospital Parkville</t>
+  </si>
+  <si>
+    <t>Vizzarri Farms Koo Wee Rup</t>
   </si>
   <si>
     <t>Werribee Mercy Hospital Emergency Department</t>
@@ -494,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -529,7 +541,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -537,7 +549,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -545,7 +557,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -561,7 +573,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -569,7 +581,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -577,7 +589,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -585,7 +597,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -601,7 +613,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -617,7 +629,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -625,7 +637,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -633,7 +645,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -641,7 +653,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -649,7 +661,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -657,7 +669,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -681,7 +693,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -689,7 +701,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -697,7 +709,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -705,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -713,7 +725,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -721,7 +733,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -729,7 +741,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -737,7 +749,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -745,7 +757,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -753,7 +765,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -761,7 +773,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -769,7 +781,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -777,7 +789,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -785,7 +797,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -793,7 +805,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -801,7 +813,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -809,7 +821,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -817,6 +829,38 @@
         <v>40</v>
       </c>
       <c r="B40">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44">
         <v>11</v>
       </c>
     </row>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Cluster name</t>
   </si>
@@ -70,12 +70,18 @@
     <t>Bridgewood Primary School Officer</t>
   </si>
   <si>
+    <t>Bubup Womindjeka Family and Children's Centre Port Melbourne</t>
+  </si>
+  <si>
     <t>Clifton Hill Primary School Clifton Hill</t>
   </si>
   <si>
     <t>Community Kids Pascoe Vale Early Education Centre Pascoe Vale South</t>
   </si>
   <si>
+    <t>Dandenong North Primary School</t>
+  </si>
+  <si>
     <t>Elements Childcare Warralily Armstrong Creek</t>
   </si>
   <si>
@@ -85,6 +91,9 @@
     <t>Honeyeater Hairdressers Bendigo</t>
   </si>
   <si>
+    <t>Inghams Chicken Warehouse Lyndhurst</t>
+  </si>
+  <si>
     <t>Inghams Enterprises Somerville</t>
   </si>
   <si>
@@ -94,7 +103,7 @@
     <t>Kmart Distribution Centre Truganina</t>
   </si>
   <si>
-    <t>Lighthouse Christian College Cranbourne</t>
+    <t>Lighthouse Christian College</t>
   </si>
   <si>
     <t>Lilydale Motor Inn Lilydale</t>
@@ -106,18 +115,18 @@
     <t>McQuinns Gym Bendigo</t>
   </si>
   <si>
-    <t>Melbourne Metropolitan Remand Centre Ravenhall</t>
+    <t>Melbourne Alternative Place of Detention Carlton</t>
   </si>
   <si>
     <t>Metcash Limited Distribution Centre Laverton North</t>
   </si>
   <si>
+    <t>Monash Health Casey Hospital Emergency Department Tier 1B</t>
+  </si>
+  <si>
     <t>Nido Early School Wyndham Vale</t>
   </si>
   <si>
-    <t>Northern Health The Northern Hospital Epping</t>
-  </si>
-  <si>
     <t>Pelican Childcare Craigieburn</t>
   </si>
   <si>
@@ -146,9 +155,6 @@
   </si>
   <si>
     <t>Western Health Sunshine Hospital Emergency Department</t>
-  </si>
-  <si>
-    <t>Yarrabah School Aspendale</t>
   </si>
 </sst>
 </file>
@@ -506,7 +512,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -533,7 +539,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -541,7 +547,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -549,7 +555,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -573,7 +579,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -581,7 +587,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -589,7 +595,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -605,7 +611,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -613,7 +619,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -637,7 +643,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -645,7 +651,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -653,7 +659,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -661,7 +667,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -669,7 +675,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -677,7 +683,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -685,7 +691,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -693,7 +699,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -701,7 +707,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -709,7 +715,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -717,7 +723,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -725,7 +731,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -733,7 +739,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -741,7 +747,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -749,7 +755,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -757,7 +763,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -765,7 +771,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -773,7 +779,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -781,7 +787,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -797,7 +803,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -805,7 +811,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -829,7 +835,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -837,7 +843,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -845,7 +851,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -853,7 +859,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -861,7 +867,23 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>11</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
-  <si>
-    <t>Cluster name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+  <si>
+    <t>Cluster Name</t>
   </si>
   <si>
     <t>Active cases</t>
@@ -52,9 +52,6 @@
     <t>ACFS Port Logistics Altona</t>
   </si>
   <si>
-    <t>Alfred Health The Alfred Hospital Melbourne</t>
-  </si>
-  <si>
     <t>Armstrong Creek School Armstrong Creek</t>
   </si>
   <si>
@@ -115,15 +112,9 @@
     <t>McQuinns Gym Bendigo</t>
   </si>
   <si>
-    <t>Melbourne Alternative Place of Detention Carlton</t>
-  </si>
-  <si>
     <t>Metcash Limited Distribution Centre Laverton North</t>
   </si>
   <si>
-    <t>Monash Health Casey Hospital Emergency Department Tier 1B</t>
-  </si>
-  <si>
     <t>Nido Early School Wyndham Vale</t>
   </si>
   <si>
@@ -136,25 +127,13 @@
     <t>St Mary's Primary School Swan Hill</t>
   </si>
   <si>
-    <t>St Vincents Hospital Emergency Department Melbourne</t>
-  </si>
-  <si>
     <t>TUROSI PTY LTD Thomastown</t>
   </si>
   <si>
     <t>The Robin Hood Inn Drouin West</t>
   </si>
   <si>
-    <t>The Royal Children's Hospital Parkville</t>
-  </si>
-  <si>
     <t>Vizzarri Farms Koo Wee Rup</t>
-  </si>
-  <si>
-    <t>Werribee Mercy Hospital Emergency Department</t>
-  </si>
-  <si>
-    <t>Western Health Sunshine Hospital Emergency Department</t>
   </si>
 </sst>
 </file>
@@ -512,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -579,7 +558,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -611,7 +590,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -619,7 +598,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -627,7 +606,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -635,7 +614,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -643,7 +622,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -659,7 +638,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -667,7 +646,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -675,7 +654,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -683,7 +662,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -691,7 +670,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -699,7 +678,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -707,7 +686,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -715,7 +694,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -723,7 +702,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -731,7 +710,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -739,7 +718,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -747,7 +726,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -755,7 +734,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -763,7 +742,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -771,7 +750,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -779,7 +758,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -787,7 +766,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -795,7 +774,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -803,7 +782,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -819,7 +798,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -827,63 +806,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40">
         <v>26</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,14 +14,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
-  <si>
-    <t>Cluster Name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+  <si>
+    <t>Cluster name</t>
   </si>
   <si>
     <t>Active cases</t>
   </si>
   <si>
+    <t>139 Highett St Apartment Complex Richmond</t>
+  </si>
+  <si>
     <t>3153 Sacred Heart Community St Kilda Tier 1A</t>
   </si>
   <si>
@@ -52,6 +55,9 @@
     <t>ACFS Port Logistics Altona</t>
   </si>
   <si>
+    <t>Alfred Health The Alfred Hospital Melbourne</t>
+  </si>
+  <si>
     <t>Armstrong Creek School Armstrong Creek</t>
   </si>
   <si>
@@ -73,18 +79,12 @@
     <t>Clifton Hill Primary School Clifton Hill</t>
   </si>
   <si>
-    <t>Community Kids Pascoe Vale Early Education Centre Pascoe Vale South</t>
-  </si>
-  <si>
-    <t>Dandenong North Primary School</t>
+    <t>Dandenong North Primary School Dandenong</t>
   </si>
   <si>
     <t>Elements Childcare Warralily Armstrong Creek</t>
   </si>
   <si>
-    <t>Highett St Apartment Complex Richmond</t>
-  </si>
-  <si>
     <t>Honeyeater Hairdressers Bendigo</t>
   </si>
   <si>
@@ -97,10 +97,13 @@
     <t>JBS Australia Brooklyn</t>
   </si>
   <si>
+    <t>KingKids Early Learning Centre and Kindergarten Hallam</t>
+  </si>
+  <si>
     <t>Kmart Distribution Centre Truganina</t>
   </si>
   <si>
-    <t>Lighthouse Christian College</t>
+    <t>Lighthouse Christian College Cranbourne</t>
   </si>
   <si>
     <t>Lilydale Motor Inn Lilydale</t>
@@ -115,25 +118,43 @@
     <t>Metcash Limited Distribution Centre Laverton North</t>
   </si>
   <si>
+    <t>Monash Health Casey Hospital Emergency Department Tier 1B</t>
+  </si>
+  <si>
     <t>Nido Early School Wyndham Vale</t>
   </si>
   <si>
-    <t>Pelican Childcare Craigieburn</t>
-  </si>
-  <si>
-    <t>Shawlands Caravan Park Dandenong South</t>
+    <t>Pelican Childcare Cragieburn</t>
+  </si>
+  <si>
+    <t>Saint Augustines Primary School Wodonga</t>
   </si>
   <si>
     <t>St Mary's Primary School Swan Hill</t>
   </si>
   <si>
+    <t>St Vincents Hospital Emergency Department Melbourne</t>
+  </si>
+  <si>
     <t>TUROSI PTY LTD Thomastown</t>
   </si>
   <si>
-    <t>The Robin Hood Inn Drouin West</t>
+    <t>The Royal Children's Hospital Parkville</t>
   </si>
   <si>
     <t>Vizzarri Farms Koo Wee Rup</t>
+  </si>
+  <si>
+    <t>Werribee Mercy Hospital Emergency Department</t>
+  </si>
+  <si>
+    <t>Western Health Sunshine Hospital Emergency Department</t>
+  </si>
+  <si>
+    <t>Wodonga Cemetery Wodonga</t>
+  </si>
+  <si>
+    <t>Wodonga South Primary School Wodonga</t>
   </si>
 </sst>
 </file>
@@ -491,7 +512,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -510,7 +531,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -518,7 +539,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -526,7 +547,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -534,7 +555,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -542,7 +563,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -550,7 +571,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -558,7 +579,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>52</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -566,7 +587,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>23</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -574,7 +595,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -582,7 +603,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -590,7 +611,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -598,7 +619,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -606,23 +627,20 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15">
-        <v>17</v>
-      </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -630,7 +648,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -638,7 +656,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -646,7 +664,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -654,7 +672,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -662,7 +680,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -670,7 +688,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -678,7 +696,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -694,7 +712,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -710,7 +728,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -718,7 +736,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -726,7 +744,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -734,7 +752,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -742,7 +760,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -750,7 +768,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -758,7 +776,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -766,7 +784,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -774,7 +792,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -782,7 +800,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -790,7 +808,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -798,7 +816,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -806,7 +824,63 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>26</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Cluster name</t>
   </si>
@@ -22,6 +22,9 @@
     <t>Active cases</t>
   </si>
   <si>
+    <t>12 Sutton Street Apartment Complex North Melbourne</t>
+  </si>
+  <si>
     <t>139 Highett St Apartment Complex Richmond</t>
   </si>
   <si>
@@ -40,16 +43,10 @@
     <t>3652 Regis Aged Care Dandenong North</t>
   </si>
   <si>
-    <t>3684 Homestyle Aged Care Langford Grange Cranbourne East</t>
-  </si>
-  <si>
     <t>3824 Estia Health South Morang</t>
   </si>
   <si>
-    <t>3980 Arcare Keysborough Aged Care Keysborough</t>
-  </si>
-  <si>
-    <t>4518 Regis Aged Care Fawkner</t>
+    <t>3961 Heritage Water Gardens Aged Care FacilitySydenham</t>
   </si>
   <si>
     <t>ACFS Port Logistics Altona</t>
@@ -70,25 +67,19 @@
     <t>Berwick Lodge Primary School Berwick</t>
   </si>
   <si>
-    <t>Bridgewood Primary School Officer</t>
-  </si>
-  <si>
     <t>Bubup Womindjeka Family and Children's Centre Port Melbourne</t>
   </si>
   <si>
+    <t>CREST Children's Sanctuary Dandenong</t>
+  </si>
+  <si>
     <t>Clifton Hill Primary School Clifton Hill</t>
   </si>
   <si>
-    <t>Dandenong North Primary School Dandenong</t>
-  </si>
-  <si>
     <t>Elements Childcare Warralily Armstrong Creek</t>
   </si>
   <si>
-    <t>Honeyeater Hairdressers Bendigo</t>
-  </si>
-  <si>
-    <t>Inghams Chicken Warehouse Lyndhurst</t>
+    <t>Horace Petty Public Housing Estate</t>
   </si>
   <si>
     <t>Inghams Enterprises Somerville</t>
@@ -103,9 +94,6 @@
     <t>Kmart Distribution Centre Truganina</t>
   </si>
   <si>
-    <t>Lighthouse Christian College Cranbourne</t>
-  </si>
-  <si>
     <t>Lilydale Motor Inn Lilydale</t>
   </si>
   <si>
@@ -115,6 +103,9 @@
     <t>McQuinns Gym Bendigo</t>
   </si>
   <si>
+    <t>Melbourne Metropolitan Remand Centre Ravenhall</t>
+  </si>
+  <si>
     <t>Metcash Limited Distribution Centre Laverton North</t>
   </si>
   <si>
@@ -124,7 +115,7 @@
     <t>Nido Early School Wyndham Vale</t>
   </si>
   <si>
-    <t>Pelican Childcare Cragieburn</t>
+    <t>Rosewood Downs Special AccommodationHome Dandenong</t>
   </si>
   <si>
     <t>Saint Augustines Primary School Wodonga</t>
@@ -133,13 +124,19 @@
     <t>St Mary's Primary School Swan Hill</t>
   </si>
   <si>
+    <t>St Thereses Primary School Kennington</t>
+  </si>
+  <si>
     <t>St Vincents Hospital Emergency Department Melbourne</t>
   </si>
   <si>
+    <t>St. Brendans Catholic Primary School Lakes Entrance</t>
+  </si>
+  <si>
     <t>TUROSI PTY LTD Thomastown</t>
   </si>
   <si>
-    <t>The Royal Children's Hospital Parkville</t>
+    <t>The Royal Children's Hospital Melbourne Emergency Department Parkville Tier 1A</t>
   </si>
   <si>
     <t>Vizzarri Farms Koo Wee Rup</t>
@@ -148,13 +145,25 @@
     <t>Werribee Mercy Hospital Emergency Department</t>
   </si>
   <si>
+    <t>Werribee Mercy Hospital Werribee</t>
+  </si>
+  <si>
     <t>Western Health Sunshine Hospital Emergency Department</t>
   </si>
   <si>
     <t>Wodonga Cemetery Wodonga</t>
   </si>
   <si>
+    <t>Wodonga Senior Secondary College Wodonga</t>
+  </si>
+  <si>
     <t>Wodonga South Primary School Wodonga</t>
+  </si>
+  <si>
+    <t>Woodend Primary School Woodend</t>
+  </si>
+  <si>
+    <t>Yooralla Disability Residential Care AlfriedaStreet St Albans</t>
   </si>
 </sst>
 </file>
@@ -512,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +540,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -539,7 +548,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -547,7 +556,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -555,7 +564,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -563,7 +572,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -571,7 +580,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -579,7 +588,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -587,7 +596,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -595,7 +604,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -627,20 +636,23 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -648,7 +660,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -656,7 +668,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -664,7 +676,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -672,7 +684,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -680,7 +692,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -688,7 +700,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -696,7 +708,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -704,7 +716,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -712,7 +724,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -720,7 +732,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -728,7 +740,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -736,7 +748,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -744,7 +756,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -752,7 +764,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -760,7 +772,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -768,7 +780,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -776,7 +788,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -784,7 +796,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -792,7 +804,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -800,7 +812,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -808,7 +820,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -816,7 +828,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -824,7 +836,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -832,7 +844,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -840,7 +852,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -848,7 +860,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -856,7 +868,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -864,7 +876,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -872,7 +884,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -880,7 +892,31 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>12</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Cluster name</t>
   </si>
@@ -46,7 +46,7 @@
     <t>3824 Estia Health South Morang</t>
   </si>
   <si>
-    <t>3961 Heritage Water Gardens Aged Care FacilitySydenham</t>
+    <t>3961 Heritage Water Gardens Aged Care Facility Sydenham</t>
   </si>
   <si>
     <t>ACFS Port Logistics Altona</t>
@@ -61,6 +61,9 @@
     <t>Aspect Autism Spectrum Australia Disability Service Heatherton</t>
   </si>
   <si>
+    <t>Bacchus Marsh Grammar Maddingley Campus</t>
+  </si>
+  <si>
     <t>Berwick Fields Primary School Berwick</t>
   </si>
   <si>
@@ -73,15 +76,18 @@
     <t>CREST Children's Sanctuary Dandenong</t>
   </si>
   <si>
+    <t>Cheder Levi Yitzchok St Kilda</t>
+  </si>
+  <si>
     <t>Clifton Hill Primary School Clifton Hill</t>
   </si>
   <si>
+    <t>Dandenong North Primary School Dandenong</t>
+  </si>
+  <si>
     <t>Elements Childcare Warralily Armstrong Creek</t>
   </si>
   <si>
-    <t>Horace Petty Public Housing Estate</t>
-  </si>
-  <si>
     <t>Inghams Enterprises Somerville</t>
   </si>
   <si>
@@ -103,19 +109,31 @@
     <t>McQuinns Gym Bendigo</t>
   </si>
   <si>
-    <t>Melbourne Metropolitan Remand Centre Ravenhall</t>
-  </si>
-  <si>
     <t>Metcash Limited Distribution Centre Laverton North</t>
   </si>
   <si>
     <t>Monash Health Casey Hospital Emergency Department Tier 1B</t>
   </si>
   <si>
+    <t>Monash Health Dandenong Hospital Dandenong</t>
+  </si>
+  <si>
+    <t>Monash Health Dandenong Hospital Emergency Department Tier 1A</t>
+  </si>
+  <si>
     <t>Nido Early School Wyndham Vale</t>
   </si>
   <si>
-    <t>Rosewood Downs Special AccommodationHome Dandenong</t>
+    <t>Northern Bay College Wexford Campus Corio</t>
+  </si>
+  <si>
+    <t>Northern Health The Northern Hospital Epping</t>
+  </si>
+  <si>
+    <t>Oncall Group Australia Private Residence Chirnside Park</t>
+  </si>
+  <si>
+    <t>Rosewood Downs Special Accommodation Home Dandenong</t>
   </si>
   <si>
     <t>Saint Augustines Primary School Wodonga</t>
@@ -139,6 +157,9 @@
     <t>The Royal Children's Hospital Melbourne Emergency Department Parkville Tier 1A</t>
   </si>
   <si>
+    <t>The Royal Children's Hospital Parkville</t>
+  </si>
+  <si>
     <t>Vizzarri Farms Koo Wee Rup</t>
   </si>
   <si>
@@ -154,6 +175,9 @@
     <t>Wodonga Cemetery Wodonga</t>
   </si>
   <si>
+    <t>Wodonga Primary School Wodonga</t>
+  </si>
+  <si>
     <t>Wodonga Senior Secondary College Wodonga</t>
   </si>
   <si>
@@ -163,7 +187,7 @@
     <t>Woodend Primary School Woodend</t>
   </si>
   <si>
-    <t>Yooralla Disability Residential Care AlfriedaStreet St Albans</t>
+    <t>Yooralla Disability Residential Care St Albans</t>
   </si>
 </sst>
 </file>
@@ -521,7 +545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -588,7 +612,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -596,7 +620,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -620,7 +644,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -628,7 +652,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -644,7 +668,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -652,7 +676,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -660,7 +684,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -676,7 +700,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -684,7 +708,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -692,7 +716,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -708,7 +732,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -716,7 +740,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -724,7 +748,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -732,7 +756,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -740,7 +764,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -748,7 +772,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -756,7 +780,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -764,7 +788,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -772,7 +796,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -780,7 +804,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -788,7 +812,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -796,7 +820,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>10</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -804,7 +828,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -812,7 +836,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -820,7 +844,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -836,7 +860,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -844,7 +868,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -852,7 +876,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -860,7 +884,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -868,7 +892,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -876,7 +900,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -884,7 +908,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -892,7 +916,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -900,7 +924,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -908,7 +932,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -916,7 +940,71 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>11</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,180 +14,135 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
-  <si>
-    <t>Cluster name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+  <si>
+    <t>Cluster Name</t>
   </si>
   <si>
     <t>Active cases</t>
   </si>
   <si>
-    <t>12 Sutton Street Apartment Complex North Melbourne</t>
-  </si>
-  <si>
-    <t>139 Highett St Apartment Complex Richmond</t>
-  </si>
-  <si>
-    <t>3153 Sacred Heart Community St Kilda Tier 1A</t>
-  </si>
-  <si>
-    <t>3528 Ottoman Village Aged Care Broadmeadows</t>
-  </si>
-  <si>
-    <t>3600 Belvedere Aged Care Noble Park</t>
-  </si>
-  <si>
-    <t>3612 BlueCross Glengowrie</t>
-  </si>
-  <si>
-    <t>3652 Regis Aged Care Dandenong North</t>
-  </si>
-  <si>
-    <t>3824 Estia Health South Morang</t>
-  </si>
-  <si>
-    <t>3961 Heritage Water Gardens Aged Care Facility Sydenham</t>
-  </si>
-  <si>
-    <t>ACFS Port Logistics Altona</t>
-  </si>
-  <si>
-    <t>Alfred Health The Alfred Hospital Melbourne</t>
-  </si>
-  <si>
-    <t>Armstrong Creek School Armstrong Creek</t>
-  </si>
-  <si>
-    <t>Aspect Autism Spectrum Australia Disability Service Heatherton</t>
-  </si>
-  <si>
-    <t>Bacchus Marsh Grammar Maddingley Campus</t>
-  </si>
-  <si>
-    <t>Berwick Fields Primary School Berwick</t>
-  </si>
-  <si>
-    <t>Berwick Lodge Primary School Berwick</t>
-  </si>
-  <si>
-    <t>Bubup Womindjeka Family and Children's Centre Port Melbourne</t>
-  </si>
-  <si>
-    <t>CREST Children's Sanctuary Dandenong</t>
-  </si>
-  <si>
-    <t>Cheder Levi Yitzchok St Kilda</t>
-  </si>
-  <si>
-    <t>Clifton Hill Primary School Clifton Hill</t>
-  </si>
-  <si>
-    <t>Dandenong North Primary School Dandenong</t>
-  </si>
-  <si>
-    <t>Elements Childcare Warralily Armstrong Creek</t>
-  </si>
-  <si>
-    <t>Inghams Enterprises Somerville</t>
-  </si>
-  <si>
-    <t>JBS Australia Brooklyn</t>
-  </si>
-  <si>
-    <t>KingKids Early Learning Centre and Kindergarten Hallam</t>
-  </si>
-  <si>
-    <t>Kmart Distribution Centre Truganina</t>
-  </si>
-  <si>
-    <t>Lilydale Motor Inn Lilydale</t>
-  </si>
-  <si>
-    <t>Lowanna College Newborough</t>
-  </si>
-  <si>
-    <t>McQuinns Gym Bendigo</t>
-  </si>
-  <si>
-    <t>Metcash Limited Distribution Centre Laverton North</t>
-  </si>
-  <si>
-    <t>Monash Health Casey Hospital Emergency Department Tier 1B</t>
-  </si>
-  <si>
-    <t>Monash Health Dandenong Hospital Dandenong</t>
-  </si>
-  <si>
-    <t>Monash Health Dandenong Hospital Emergency Department Tier 1A</t>
-  </si>
-  <si>
-    <t>Nido Early School Wyndham Vale</t>
-  </si>
-  <si>
-    <t>Northern Bay College Wexford Campus Corio</t>
-  </si>
-  <si>
-    <t>Northern Health The Northern Hospital Epping</t>
-  </si>
-  <si>
-    <t>Oncall Group Australia Private Residence Chirnside Park</t>
-  </si>
-  <si>
-    <t>Rosewood Downs Special Accommodation Home Dandenong</t>
-  </si>
-  <si>
-    <t>Saint Augustines Primary School Wodonga</t>
-  </si>
-  <si>
-    <t>St Mary's Primary School Swan Hill</t>
-  </si>
-  <si>
-    <t>St Thereses Primary School Kennington</t>
-  </si>
-  <si>
-    <t>St Vincents Hospital Emergency Department Melbourne</t>
-  </si>
-  <si>
-    <t>St. Brendans Catholic Primary School Lakes Entrance</t>
-  </si>
-  <si>
-    <t>TUROSI PTY LTD Thomastown</t>
-  </si>
-  <si>
-    <t>The Royal Children's Hospital Melbourne Emergency Department Parkville Tier 1A</t>
-  </si>
-  <si>
-    <t>The Royal Children's Hospital Parkville</t>
-  </si>
-  <si>
-    <t>Vizzarri Farms Koo Wee Rup</t>
-  </si>
-  <si>
-    <t>Werribee Mercy Hospital Emergency Department</t>
-  </si>
-  <si>
-    <t>Werribee Mercy Hospital Werribee</t>
-  </si>
-  <si>
-    <t>Western Health Sunshine Hospital Emergency Department</t>
-  </si>
-  <si>
-    <t>Wodonga Cemetery Wodonga</t>
-  </si>
-  <si>
-    <t>Wodonga Primary School Wodonga</t>
-  </si>
-  <si>
-    <t>Wodonga Senior Secondary College Wodonga</t>
-  </si>
-  <si>
-    <t>Wodonga South Primary School Wodonga</t>
-  </si>
-  <si>
-    <t>Woodend Primary School Woodend</t>
-  </si>
-  <si>
-    <t>Yooralla Disability Residential Care St Albans</t>
+    <t>3528 Ottoman Village Aged Care Broadmeadows Outbreak</t>
+  </si>
+  <si>
+    <t>3652 Regis Aged Care Dandenong North Outbreak</t>
+  </si>
+  <si>
+    <t>3824 Estia Health South Morang Outbreak</t>
+  </si>
+  <si>
+    <t>3961 Heritage Water Gardens Aged Care Facility Sydenham Outbreak</t>
+  </si>
+  <si>
+    <t>Alfred Health The Alfred Hospital Melbourne Outbreak</t>
+  </si>
+  <si>
+    <t>Armstrong Creek School Armstrong Creek Outbreak</t>
+  </si>
+  <si>
+    <t>Berwick Fields Primary School Berwick Outbreak</t>
+  </si>
+  <si>
+    <t>Berwick Lodge Primary School Berwick Outbreak</t>
+  </si>
+  <si>
+    <t>Bubup Womindjeka Family and Children's Centre Port Melbourne Outbreak</t>
+  </si>
+  <si>
+    <t>CREST Children's Sanctuary Dandenong Outbreak</t>
+  </si>
+  <si>
+    <t>Clifton Hill Primary School Clifton Hill Outbreak</t>
+  </si>
+  <si>
+    <t>Dandenong North Primary School Dandenong Outbreak</t>
+  </si>
+  <si>
+    <t>Elements Childcare Warralily Armstrong Creek Outbreak</t>
+  </si>
+  <si>
+    <t>Hamlyn Views School Hamlyn Heights Outbreak</t>
+  </si>
+  <si>
+    <t>KingKids Early Learning Centre and Kindergarten Hallam Outbreak</t>
+  </si>
+  <si>
+    <t>Lilydale Motor Inn Lilydale Outbreak</t>
+  </si>
+  <si>
+    <t>Lowanna College Newborough Outbreak</t>
+  </si>
+  <si>
+    <t>McQuinns Gym Bendigo Outbreak</t>
+  </si>
+  <si>
+    <t>Melbourne Metropolitan Remand Centre Ravenhall Outbreak</t>
+  </si>
+  <si>
+    <t>Mercy Health Werribee Mercy Hospital Outbreak</t>
+  </si>
+  <si>
+    <t>Metcash Limited Distribution Centre Laverton North Outbreak</t>
+  </si>
+  <si>
+    <t>Monash Health Dandenong Hospital Dandenong Outbreak</t>
+  </si>
+  <si>
+    <t>Monash Health Dandenong Hospital Emergency Department Placeholder</t>
+  </si>
+  <si>
+    <t>Northern Bay College Wexford Campus Corio Outbreak</t>
+  </si>
+  <si>
+    <t>Rosewood Downs Special Accommodation Home Dandenong Outbreak</t>
+  </si>
+  <si>
+    <t>Saint Augustines Primary School Wodonga Outbreak</t>
+  </si>
+  <si>
+    <t>St Mary's Primary School Swan Hill Outbreak</t>
+  </si>
+  <si>
+    <t>St Thereses Primary School Kennington Outbreak</t>
+  </si>
+  <si>
+    <t>St Vincents Hospital Emergency Department Melbourne Outbreak</t>
+  </si>
+  <si>
+    <t>St. Brendans Catholic Primary School Lakes Entrance Outbreak</t>
+  </si>
+  <si>
+    <t>TUROSI PTY LTD Thomastown Outbreak</t>
+  </si>
+  <si>
+    <t>The Royal Children's Hospital Parkville Outbreak</t>
+  </si>
+  <si>
+    <t>Vizzarri Farms Koo Wee Rup Outbreak</t>
+  </si>
+  <si>
+    <t>Werribee Mercy Hospital Emergency Department Outbreak</t>
+  </si>
+  <si>
+    <t>Western Health Sunshine Hospital Emergency Department St Albans Outbreak</t>
+  </si>
+  <si>
+    <t>Wodonga Cemetery Wodonga Outbreak</t>
+  </si>
+  <si>
+    <t>Wodonga Primary School Wodonga Outbreak</t>
+  </si>
+  <si>
+    <t>Wodonga Senior Secondary College Wodonga Outbreak</t>
+  </si>
+  <si>
+    <t>Wodonga South Primary School Wodonga Outbreak</t>
+  </si>
+  <si>
+    <t>Woodend Primary School Woodend Outbreak</t>
+  </si>
+  <si>
+    <t>Yooralla Disability Residential Care Alfrieda Street St Albans Outbreak</t>
   </si>
 </sst>
 </file>
@@ -545,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,7 +519,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -572,7 +527,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -580,7 +535,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -588,7 +543,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -596,7 +551,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -604,7 +559,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -612,7 +567,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -620,7 +575,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>57</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -628,7 +583,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -644,7 +599,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -652,7 +607,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -660,7 +615,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -676,7 +631,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -684,7 +639,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -692,7 +647,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -700,7 +655,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -708,7 +663,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -716,7 +671,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -724,7 +679,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -732,7 +687,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -740,7 +695,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>10</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -748,7 +703,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -764,7 +719,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -772,7 +727,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -780,7 +735,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -788,7 +743,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -796,7 +751,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -804,7 +759,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -820,7 +775,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>76</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -828,7 +783,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -836,7 +791,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -844,7 +799,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>10</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -852,7 +807,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -860,7 +815,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -868,7 +823,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -876,7 +831,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -884,126 +839,6 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57">
         <v>12</v>
       </c>
     </row>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Cluster Name</t>
   </si>
@@ -34,12 +34,18 @@
     <t>3961 Heritage Water Gardens Aged Care Facility Sydenham Outbreak</t>
   </si>
   <si>
+    <t>Aintree Primary School Aintree</t>
+  </si>
+  <si>
     <t>Alfred Health The Alfred Hospital Melbourne Outbreak</t>
   </si>
   <si>
     <t>Armstrong Creek School Armstrong Creek Outbreak</t>
   </si>
   <si>
+    <t>Australian Meat Group Abattoir Dandenong South</t>
+  </si>
+  <si>
     <t>Berwick Fields Primary School Berwick Outbreak</t>
   </si>
   <si>
@@ -61,6 +67,9 @@
     <t>Elements Childcare Warralily Armstrong Creek Outbreak</t>
   </si>
   <si>
+    <t>G &amp; K OConnor PTY LTD Pakenham</t>
+  </si>
+  <si>
     <t>Hamlyn Views School Hamlyn Heights Outbreak</t>
   </si>
   <si>
@@ -76,9 +85,6 @@
     <t>McQuinns Gym Bendigo Outbreak</t>
   </si>
   <si>
-    <t>Melbourne Metropolitan Remand Centre Ravenhall Outbreak</t>
-  </si>
-  <si>
     <t>Mercy Health Werribee Mercy Hospital Outbreak</t>
   </si>
   <si>
@@ -115,6 +121,9 @@
     <t>TUROSI PTY LTD Thomastown Outbreak</t>
   </si>
   <si>
+    <t>The Royal Children's Hospital Melbourne Emergency Department Parkville Tier 1A</t>
+  </si>
+  <si>
     <t>The Royal Children's Hospital Parkville Outbreak</t>
   </si>
   <si>
@@ -140,6 +149,9 @@
   </si>
   <si>
     <t>Woodend Primary School Woodend Outbreak</t>
+  </si>
+  <si>
+    <t>Yallourn Power Station Yallourn</t>
   </si>
   <si>
     <t>Yooralla Disability Residential Care Alfrieda Street St Albans Outbreak</t>
@@ -500,7 +512,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -527,7 +539,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -535,7 +547,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -551,7 +563,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -559,7 +571,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -567,7 +579,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -575,7 +587,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -583,7 +595,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -591,7 +603,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -599,7 +611,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -607,7 +619,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -615,7 +627,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -631,7 +643,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -639,7 +651,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -647,7 +659,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -655,7 +667,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -663,7 +675,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -671,7 +683,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -679,7 +691,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -687,7 +699,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -695,7 +707,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>68</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -703,7 +715,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -711,7 +723,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>11</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -719,7 +731,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -727,7 +739,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -735,7 +747,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -743,7 +755,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -751,7 +763,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -759,7 +771,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -767,7 +779,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -775,7 +787,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -783,7 +795,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -791,7 +803,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -799,7 +811,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -807,7 +819,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -815,7 +827,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -823,7 +835,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -831,7 +843,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -839,7 +851,39 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>12</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -22,139 +22,139 @@
     <t>Active cases</t>
   </si>
   <si>
-    <t>3528 Ottoman Village Aged Care Broadmeadows Outbreak</t>
-  </si>
-  <si>
-    <t>3652 Regis Aged Care Dandenong North Outbreak</t>
-  </si>
-  <si>
-    <t>3824 Estia Health South Morang Outbreak</t>
-  </si>
-  <si>
-    <t>3961 Heritage Water Gardens Aged Care Facility Sydenham Outbreak</t>
+    <t>3528 Ottoman Village Aged Care Broadmeadows</t>
+  </si>
+  <si>
+    <t>3622 Olivet Care Aged Care Services Ringwood</t>
+  </si>
+  <si>
+    <t>3652 Regis Aged Care Dandenong North</t>
+  </si>
+  <si>
+    <t>3824 Estia Health South Morang</t>
+  </si>
+  <si>
+    <t>3961 Heritage Water Gardens Aged Care Facility Sydenham</t>
   </si>
   <si>
     <t>Aintree Primary School Aintree</t>
   </si>
   <si>
-    <t>Alfred Health The Alfred Hospital Melbourne Outbreak</t>
-  </si>
-  <si>
-    <t>Armstrong Creek School Armstrong Creek Outbreak</t>
+    <t>Armstrong Creek School Armstrong Creek</t>
   </si>
   <si>
     <t>Australian Meat Group Abattoir Dandenong South</t>
   </si>
   <si>
-    <t>Berwick Fields Primary School Berwick Outbreak</t>
-  </si>
-  <si>
-    <t>Berwick Lodge Primary School Berwick Outbreak</t>
-  </si>
-  <si>
-    <t>Bubup Womindjeka Family and Children's Centre Port Melbourne Outbreak</t>
-  </si>
-  <si>
-    <t>CREST Children's Sanctuary Dandenong Outbreak</t>
-  </si>
-  <si>
-    <t>Clifton Hill Primary School Clifton Hill Outbreak</t>
-  </si>
-  <si>
-    <t>Dandenong North Primary School Dandenong Outbreak</t>
-  </si>
-  <si>
-    <t>Elements Childcare Warralily Armstrong Creek Outbreak</t>
+    <t>Berwick Fields Primary School Berwick</t>
+  </si>
+  <si>
+    <t>Berwick Lodge Primary School Berwick</t>
+  </si>
+  <si>
+    <t>Bubup Womindjeka Family and Children's Centre Port Melbourne</t>
+  </si>
+  <si>
+    <t>CREST Children's Sanctuary Dandenong</t>
+  </si>
+  <si>
+    <t>Clifton Hill Primary School Clifton Hill</t>
+  </si>
+  <si>
+    <t>Dandenong North Primary School Dandenong</t>
+  </si>
+  <si>
+    <t>Elements Childcare Warralily Armstrong Creek</t>
   </si>
   <si>
     <t>G &amp; K OConnor PTY LTD Pakenham</t>
   </si>
   <si>
-    <t>Hamlyn Views School Hamlyn Heights Outbreak</t>
-  </si>
-  <si>
-    <t>KingKids Early Learning Centre and Kindergarten Hallam Outbreak</t>
-  </si>
-  <si>
-    <t>Lilydale Motor Inn Lilydale Outbreak</t>
-  </si>
-  <si>
-    <t>Lowanna College Newborough Outbreak</t>
-  </si>
-  <si>
-    <t>McQuinns Gym Bendigo Outbreak</t>
-  </si>
-  <si>
-    <t>Mercy Health Werribee Mercy Hospital Outbreak</t>
-  </si>
-  <si>
-    <t>Metcash Limited Distribution Centre Laverton North Outbreak</t>
-  </si>
-  <si>
-    <t>Monash Health Dandenong Hospital Dandenong Outbreak</t>
-  </si>
-  <si>
-    <t>Monash Health Dandenong Hospital Emergency Department Placeholder</t>
-  </si>
-  <si>
-    <t>Northern Bay College Wexford Campus Corio Outbreak</t>
-  </si>
-  <si>
-    <t>Rosewood Downs Special Accommodation Home Dandenong Outbreak</t>
-  </si>
-  <si>
-    <t>Saint Augustines Primary School Wodonga Outbreak</t>
-  </si>
-  <si>
-    <t>St Mary's Primary School Swan Hill Outbreak</t>
-  </si>
-  <si>
-    <t>St Thereses Primary School Kennington Outbreak</t>
-  </si>
-  <si>
-    <t>St Vincents Hospital Emergency Department Melbourne Outbreak</t>
-  </si>
-  <si>
-    <t>St. Brendans Catholic Primary School Lakes Entrance Outbreak</t>
-  </si>
-  <si>
-    <t>TUROSI PTY LTD Thomastown Outbreak</t>
-  </si>
-  <si>
-    <t>The Royal Children's Hospital Melbourne Emergency Department Parkville Tier 1A</t>
-  </si>
-  <si>
-    <t>The Royal Children's Hospital Parkville Outbreak</t>
-  </si>
-  <si>
-    <t>Vizzarri Farms Koo Wee Rup Outbreak</t>
-  </si>
-  <si>
-    <t>Werribee Mercy Hospital Emergency Department Outbreak</t>
-  </si>
-  <si>
-    <t>Western Health Sunshine Hospital Emergency Department St Albans Outbreak</t>
-  </si>
-  <si>
-    <t>Wodonga Cemetery Wodonga Outbreak</t>
-  </si>
-  <si>
-    <t>Wodonga Primary School Wodonga Outbreak</t>
-  </si>
-  <si>
-    <t>Wodonga Senior Secondary College Wodonga Outbreak</t>
-  </si>
-  <si>
-    <t>Wodonga South Primary School Wodonga Outbreak</t>
-  </si>
-  <si>
-    <t>Woodend Primary School Woodend Outbreak</t>
+    <t>Hamlyn Views School Hamlyn Heights</t>
+  </si>
+  <si>
+    <t>KingKids Early Learning Centre and Kindergarten Hallam</t>
+  </si>
+  <si>
+    <t>Lilydale Motor Inn Lilydale</t>
+  </si>
+  <si>
+    <t>Lowanna College Newborough</t>
+  </si>
+  <si>
+    <t>McQuinns Gym Bendigo</t>
+  </si>
+  <si>
+    <t>Metcash Limited Distribution Centre Laverton North</t>
+  </si>
+  <si>
+    <t>Monash Health Dandenong Hospital Dandenong</t>
+  </si>
+  <si>
+    <t>Morwell Park Primary School Morwell</t>
+  </si>
+  <si>
+    <t>Northern Bay College Wexford Campus Corio</t>
+  </si>
+  <si>
+    <t>Rosewood Downs Special Accommodation Home Dandenong</t>
+  </si>
+  <si>
+    <t>Saint Augustines Primary School Wodonga</t>
+  </si>
+  <si>
+    <t>Saint Monica's Primary School Wodonga</t>
+  </si>
+  <si>
+    <t>St Brendans Primary School Shepparton</t>
+  </si>
+  <si>
+    <t>St Mary's Primary School Swan Hill</t>
+  </si>
+  <si>
+    <t>St Thereses Primary School Kennington</t>
+  </si>
+  <si>
+    <t>St Vincents Hospital Emergency Department Melbourne</t>
+  </si>
+  <si>
+    <t>St. Brendans Catholic Primary School Lakes Entrance</t>
+  </si>
+  <si>
+    <t>TUROSI PTY LTD Thomastown</t>
+  </si>
+  <si>
+    <t>The Royal Children's Hospital Parkville</t>
+  </si>
+  <si>
+    <t>Vizzarri Farms Koo Wee Rup</t>
+  </si>
+  <si>
+    <t>Werribee Mercy Hospital Emergency Department</t>
+  </si>
+  <si>
+    <t>Western Health Sunshine Hospital Emergency Department St Albans</t>
+  </si>
+  <si>
+    <t>Wodonga Cemetery Wodonga</t>
+  </si>
+  <si>
+    <t>Wodonga Primary School Wodonga</t>
+  </si>
+  <si>
+    <t>Wodonga Senior Secondary College Wodonga</t>
+  </si>
+  <si>
+    <t>Wodonga South Primary School Wodonga</t>
+  </si>
+  <si>
+    <t>Woodend Primary School Woodend</t>
   </si>
   <si>
     <t>Yallourn Power Station Yallourn</t>
   </si>
   <si>
-    <t>Yooralla Disability Residential Care Alfrieda Street St Albans Outbreak</t>
+    <t>Yooralla Disability Residential Care Alfrieda Street St Albans</t>
   </si>
 </sst>
 </file>
@@ -539,7 +539,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -547,7 +547,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>56</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -555,7 +555,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -563,7 +563,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -571,7 +571,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -587,7 +587,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -595,7 +595,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -603,7 +603,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -691,7 +691,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -699,7 +699,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -707,7 +707,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -715,7 +715,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -723,7 +723,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>69</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -731,7 +731,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -739,7 +739,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -747,7 +747,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -755,7 +755,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -763,7 +763,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -771,7 +771,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -779,7 +779,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -787,7 +787,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -795,7 +795,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -811,7 +811,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -819,7 +819,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -827,7 +827,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -835,7 +835,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -843,7 +843,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -851,7 +851,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -859,7 +859,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -883,7 +883,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,14 +14,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
-  <si>
-    <t>Cluster Name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+  <si>
+    <t>Cluster name</t>
   </si>
   <si>
     <t>Active cases</t>
   </si>
   <si>
+    <t>3035 Campbell Place Aged Care Glen Waverley</t>
+  </si>
+  <si>
     <t>3528 Ottoman Village Aged Care Broadmeadows</t>
   </si>
   <si>
@@ -34,42 +37,24 @@
     <t>3824 Estia Health South Morang</t>
   </si>
   <si>
-    <t>3961 Heritage Water Gardens Aged Care Facility Sydenham</t>
+    <t>3961 Heritage Care Water Gardens Aged Care Facility Sydenham</t>
   </si>
   <si>
     <t>Aintree Primary School Aintree</t>
   </si>
   <si>
-    <t>Armstrong Creek School Armstrong Creek</t>
-  </si>
-  <si>
     <t>Australian Meat Group Abattoir Dandenong South</t>
   </si>
   <si>
-    <t>Berwick Fields Primary School Berwick</t>
-  </si>
-  <si>
     <t>Berwick Lodge Primary School Berwick</t>
   </si>
   <si>
-    <t>Bubup Womindjeka Family and Children's Centre Port Melbourne</t>
-  </si>
-  <si>
-    <t>CREST Children's Sanctuary Dandenong</t>
-  </si>
-  <si>
-    <t>Clifton Hill Primary School Clifton Hill</t>
-  </si>
-  <si>
     <t>Dandenong North Primary School Dandenong</t>
   </si>
   <si>
     <t>Elements Childcare Warralily Armstrong Creek</t>
   </si>
   <si>
-    <t>G &amp; K OConnor PTY LTD Pakenham</t>
-  </si>
-  <si>
     <t>Hamlyn Views School Hamlyn Heights</t>
   </si>
   <si>
@@ -82,31 +67,28 @@
     <t>Lowanna College Newborough</t>
   </si>
   <si>
-    <t>McQuinns Gym Bendigo</t>
-  </si>
-  <si>
-    <t>Metcash Limited Distribution Centre Laverton North</t>
-  </si>
-  <si>
-    <t>Monash Health Dandenong Hospital Dandenong</t>
+    <t>M.C. Herd Corio</t>
+  </si>
+  <si>
+    <t>Melbourne Alternative Place of Detention Carlton</t>
   </si>
   <si>
     <t>Morwell Park Primary School Morwell</t>
   </si>
   <si>
+    <t>Northern Bay College Goldsworthy 9-12 Campus Corio</t>
+  </si>
+  <si>
     <t>Northern Bay College Wexford Campus Corio</t>
   </si>
   <si>
-    <t>Rosewood Downs Special Accommodation Home Dandenong</t>
-  </si>
-  <si>
     <t>Saint Augustines Primary School Wodonga</t>
   </si>
   <si>
     <t>Saint Monica's Primary School Wodonga</t>
   </si>
   <si>
-    <t>St Brendans Primary School Shepparton</t>
+    <t>St Josephs Catholic Primary School Warragul</t>
   </si>
   <si>
     <t>St Mary's Primary School Swan Hill</t>
@@ -121,22 +103,16 @@
     <t>St. Brendans Catholic Primary School Lakes Entrance</t>
   </si>
   <si>
-    <t>TUROSI PTY LTD Thomastown</t>
-  </si>
-  <si>
     <t>The Royal Children's Hospital Parkville</t>
   </si>
   <si>
-    <t>Vizzarri Farms Koo Wee Rup</t>
-  </si>
-  <si>
     <t>Werribee Mercy Hospital Emergency Department</t>
   </si>
   <si>
     <t>Western Health Sunshine Hospital Emergency Department St Albans</t>
   </si>
   <si>
-    <t>Wodonga Cemetery Wodonga</t>
+    <t>Wodonga Cemetery Wodonga Outbreak</t>
   </si>
   <si>
     <t>Wodonga Primary School Wodonga</t>
@@ -512,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +507,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -539,7 +515,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -547,7 +523,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -555,7 +531,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -563,7 +539,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -571,7 +547,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -579,7 +555,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -587,7 +563,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -595,7 +571,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -603,7 +579,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -619,7 +595,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -627,7 +603,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -635,7 +611,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -643,7 +619,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -659,7 +635,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -667,7 +643,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -675,7 +651,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -683,7 +659,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -691,7 +667,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -715,28 +691,28 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28">
         <v>15</v>
@@ -744,145 +720,89 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38">
-        <v>42</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46">
         <v>12</v>
       </c>
     </row>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Cluster name</t>
   </si>
@@ -25,12 +25,18 @@
     <t>3035 Campbell Place Aged Care Glen Waverley</t>
   </si>
   <si>
+    <t>3364 Assisi Centre Aged Care Rosanna</t>
+  </si>
+  <si>
     <t>3528 Ottoman Village Aged Care Broadmeadows</t>
   </si>
   <si>
     <t>3622 Olivet Care Aged Care Services Ringwood</t>
   </si>
   <si>
+    <t>3633 Lifeview Emerald Glades Aged Care Emerald</t>
+  </si>
+  <si>
     <t>3652 Regis Aged Care Dandenong North</t>
   </si>
   <si>
@@ -46,10 +52,16 @@
     <t>Australian Meat Group Abattoir Dandenong South</t>
   </si>
   <si>
-    <t>Berwick Lodge Primary School Berwick</t>
-  </si>
-  <si>
-    <t>Dandenong North Primary School Dandenong</t>
+    <t>Bacchus Marsh Childcare and Kindergarten Centre Bacchus Marsh</t>
+  </si>
+  <si>
+    <t>Bandiana Primary School Bandiana</t>
+  </si>
+  <si>
+    <t>CREST Children's Sanctuary Dandenong</t>
+  </si>
+  <si>
+    <t>Dandenong South Primary School Dandenong</t>
   </si>
   <si>
     <t>Elements Childcare Warralily Armstrong Creek</t>
@@ -58,6 +70,9 @@
     <t>Hamlyn Views School Hamlyn Heights</t>
   </si>
   <si>
+    <t>Hippity Hop Childcare and Kindergarten Pakenham</t>
+  </si>
+  <si>
     <t>KingKids Early Learning Centre and Kindergarten Hallam</t>
   </si>
   <si>
@@ -67,12 +82,6 @@
     <t>Lowanna College Newborough</t>
   </si>
   <si>
-    <t>M.C. Herd Corio</t>
-  </si>
-  <si>
-    <t>Melbourne Alternative Place of Detention Carlton</t>
-  </si>
-  <si>
     <t>Morwell Park Primary School Morwell</t>
   </si>
   <si>
@@ -82,27 +91,33 @@
     <t>Northern Bay College Wexford Campus Corio</t>
   </si>
   <si>
-    <t>Saint Augustines Primary School Wodonga</t>
+    <t>Rosewood Downs Special Accommodation Home Dandenong</t>
   </si>
   <si>
     <t>Saint Monica's Primary School Wodonga</t>
   </si>
   <si>
+    <t>Smartie Pants Early Learning and Development Diamond Creek</t>
+  </si>
+  <si>
     <t>St Josephs Catholic Primary School Warragul</t>
   </si>
   <si>
     <t>St Mary's Primary School Swan Hill</t>
   </si>
   <si>
-    <t>St Thereses Primary School Kennington</t>
-  </si>
-  <si>
     <t>St Vincents Hospital Emergency Department Melbourne</t>
   </si>
   <si>
     <t>St. Brendans Catholic Primary School Lakes Entrance</t>
   </si>
   <si>
+    <t>Stockdale Road Primary School Traralgon</t>
+  </si>
+  <si>
+    <t>TUROSI PTY LTD Thomastown</t>
+  </si>
+  <si>
     <t>The Royal Children's Hospital Parkville</t>
   </si>
   <si>
@@ -112,7 +127,10 @@
     <t>Western Health Sunshine Hospital Emergency Department St Albans</t>
   </si>
   <si>
-    <t>Wodonga Cemetery Wodonga Outbreak</t>
+    <t>Willmott Park Primary School Craigieburn</t>
+  </si>
+  <si>
+    <t>Wodonga Cemetery Wodonga</t>
   </si>
   <si>
     <t>Wodonga Primary School Wodonga</t>
@@ -130,7 +148,7 @@
     <t>Yallourn Power Station Yallourn</t>
   </si>
   <si>
-    <t>Yooralla Disability Residential Care Alfrieda Street St Albans</t>
+    <t>Yooralla Disability Residential Care St Albans</t>
   </si>
 </sst>
 </file>
@@ -488,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -507,7 +525,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -515,7 +533,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -531,7 +549,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -539,7 +557,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -547,7 +565,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -555,7 +573,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -563,7 +581,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -571,7 +589,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -579,7 +597,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -587,7 +605,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -595,7 +613,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -611,7 +629,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -619,7 +637,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -627,7 +645,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -635,7 +653,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -643,7 +661,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -651,7 +669,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -659,7 +677,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -667,7 +685,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -675,7 +693,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -683,7 +701,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>10</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -691,119 +709,159 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31">
-        <v>37</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33">
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38">
         <v>37</v>
-      </c>
-      <c r="B38">
-        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39">
-        <v>12</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -46,6 +46,9 @@
     <t>3961 Heritage Care Water Gardens Aged Care Facility Sydenham</t>
   </si>
   <si>
+    <t>AG Industries Pty Ltd Thomastown</t>
+  </si>
+  <si>
     <t>Aintree Primary School Aintree</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>Bacchus Marsh Childcare and Kindergarten Centre Bacchus Marsh</t>
   </si>
   <si>
+    <t>Baden Powell College Tarneit</t>
+  </si>
+  <si>
     <t>Bandiana Primary School Bandiana</t>
   </si>
   <si>
@@ -64,24 +70,27 @@
     <t>Dandenong South Primary School Dandenong</t>
   </si>
   <si>
-    <t>Elements Childcare Warralily Armstrong Creek</t>
-  </si>
-  <si>
     <t>Hamlyn Views School Hamlyn Heights</t>
   </si>
   <si>
+    <t>Hazelwood North Primary School Hazelwood</t>
+  </si>
+  <si>
     <t>Hippity Hop Childcare and Kindergarten Pakenham</t>
   </si>
   <si>
-    <t>KingKids Early Learning Centre and Kindergarten Hallam</t>
-  </si>
-  <si>
     <t>Lilydale Motor Inn Lilydale</t>
   </si>
   <si>
     <t>Lowanna College Newborough</t>
   </si>
   <si>
+    <t>M.C. Herd Corio</t>
+  </si>
+  <si>
+    <t>Master Poultry Group West Footscray</t>
+  </si>
+  <si>
     <t>Morwell Park Primary School Morwell</t>
   </si>
   <si>
@@ -91,9 +100,15 @@
     <t>Northern Bay College Wexford Campus Corio</t>
   </si>
   <si>
+    <t>Oakleigh South Primary School Oakleigh South</t>
+  </si>
+  <si>
     <t>Rosewood Downs Special Accommodation Home Dandenong</t>
   </si>
   <si>
+    <t>Saint Augustines Primary School Wodonga</t>
+  </si>
+  <si>
     <t>Saint Monica's Primary School Wodonga</t>
   </si>
   <si>
@@ -106,9 +121,6 @@
     <t>St Mary's Primary School Swan Hill</t>
   </si>
   <si>
-    <t>St Vincents Hospital Emergency Department Melbourne</t>
-  </si>
-  <si>
     <t>St. Brendans Catholic Primary School Lakes Entrance</t>
   </si>
   <si>
@@ -116,18 +128,6 @@
   </si>
   <si>
     <t>TUROSI PTY LTD Thomastown</t>
-  </si>
-  <si>
-    <t>The Royal Children's Hospital Parkville</t>
-  </si>
-  <si>
-    <t>Werribee Mercy Hospital Emergency Department</t>
-  </si>
-  <si>
-    <t>Western Health Sunshine Hospital Emergency Department St Albans</t>
-  </si>
-  <si>
-    <t>Willmott Park Primary School Craigieburn</t>
   </si>
   <si>
     <t>Wodonga Cemetery Wodonga</t>
@@ -541,7 +541,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -565,7 +565,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -573,7 +573,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -581,7 +581,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -589,7 +589,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -597,7 +597,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -613,7 +613,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -621,7 +621,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -645,7 +645,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -653,7 +653,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -661,7 +661,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -677,7 +677,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -685,7 +685,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -693,7 +693,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -701,7 +701,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>51</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -709,7 +709,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -725,7 +725,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>10</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -733,7 +733,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -741,7 +741,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -749,7 +749,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -757,7 +757,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -765,7 +765,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -773,7 +773,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -789,7 +789,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -797,7 +797,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -813,7 +813,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -829,7 +829,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -837,7 +837,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -845,7 +845,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:2">

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
-  <si>
-    <t>Cluster name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+  <si>
+    <t>Cluster Name</t>
   </si>
   <si>
     <t>Active cases</t>
@@ -46,12 +46,15 @@
     <t>3961 Heritage Care Water Gardens Aged Care Facility Sydenham</t>
   </si>
   <si>
-    <t>AG Industries Pty Ltd Thomastown</t>
+    <t>AG Industries Pty Ltd Factory Thomastown</t>
   </si>
   <si>
     <t>Aintree Primary School Aintree</t>
   </si>
   <si>
+    <t>Athol Road Primary School Springvale South</t>
+  </si>
+  <si>
     <t>Australian Meat Group Abattoir Dandenong South</t>
   </si>
   <si>
@@ -73,12 +76,15 @@
     <t>Hamlyn Views School Hamlyn Heights</t>
   </si>
   <si>
-    <t>Hazelwood North Primary School Hazelwood</t>
+    <t>Hazelwood North Primary School Hazelwood North</t>
   </si>
   <si>
     <t>Hippity Hop Childcare and Kindergarten Pakenham</t>
   </si>
   <si>
+    <t>Life Church Mooroopna</t>
+  </si>
+  <si>
     <t>Lilydale Motor Inn Lilydale</t>
   </si>
   <si>
@@ -103,9 +109,6 @@
     <t>Oakleigh South Primary School Oakleigh South</t>
   </si>
   <si>
-    <t>Rosewood Downs Special Accommodation Home Dandenong</t>
-  </si>
-  <si>
     <t>Saint Augustines Primary School Wodonga</t>
   </si>
   <si>
@@ -115,24 +118,48 @@
     <t>Smartie Pants Early Learning and Development Diamond Creek</t>
   </si>
   <si>
+    <t>St Georges Road Primary School Shepparton</t>
+  </si>
+  <si>
     <t>St Josephs Catholic Primary School Warragul</t>
   </si>
   <si>
+    <t>St Josephs Primary School Quarry Hill</t>
+  </si>
+  <si>
     <t>St Mary's Primary School Swan Hill</t>
   </si>
   <si>
-    <t>St. Brendans Catholic Primary School Lakes Entrance</t>
+    <t>St Vincents Hospital Emergency Department Melbourne</t>
+  </si>
+  <si>
+    <t>St. Brendan's Catholic Primary School Lakes Entrance</t>
   </si>
   <si>
     <t>Stockdale Road Primary School Traralgon</t>
   </si>
   <si>
+    <t>Sunbury Primary School Sunbury</t>
+  </si>
+  <si>
     <t>TUROSI PTY LTD Thomastown</t>
   </si>
   <si>
+    <t>The Lake Primary School Cabarita</t>
+  </si>
+  <si>
+    <t>Werribee Mercy Hospital Emergency Department</t>
+  </si>
+  <si>
+    <t>Western Health Sunshine Hospital Emergency Department St Albans</t>
+  </si>
+  <si>
     <t>Wodonga Cemetery Wodonga</t>
   </si>
   <si>
+    <t>Wodonga Middle Years College Huon Campus Wodonga</t>
+  </si>
+  <si>
     <t>Wodonga Primary School Wodonga</t>
   </si>
   <si>
@@ -145,10 +172,7 @@
     <t>Woodend Primary School Woodend</t>
   </si>
   <si>
-    <t>Yallourn Power Station Yallourn</t>
-  </si>
-  <si>
-    <t>Yooralla Disability Residential Care St Albans</t>
+    <t>Yooralla Disability Residential Care Alfrieda Street St Albans</t>
   </si>
 </sst>
 </file>
@@ -506,7 +530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -549,7 +573,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -581,7 +605,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -605,7 +629,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -613,7 +637,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -621,7 +645,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -629,7 +653,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -637,7 +661,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -653,7 +677,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -661,7 +685,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -669,7 +693,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -701,7 +725,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -709,7 +733,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -717,7 +741,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -725,7 +749,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>54</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -733,7 +757,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -741,7 +765,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>14</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -749,7 +773,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -757,7 +781,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -765,7 +789,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -773,7 +797,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -781,7 +805,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -789,7 +813,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -797,7 +821,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -813,7 +837,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -821,7 +845,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -829,7 +853,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -837,7 +861,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>39</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -845,7 +869,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -853,7 +877,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -861,6 +885,70 @@
         <v>44</v>
       </c>
       <c r="B44">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52">
         <v>11</v>
       </c>
     </row>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Cluster Name</t>
   </si>
@@ -28,18 +28,12 @@
     <t>3364 Assisi Centre Aged Care Rosanna</t>
   </si>
   <si>
-    <t>3528 Ottoman Village Aged Care Broadmeadows</t>
-  </si>
-  <si>
     <t>3622 Olivet Care Aged Care Services Ringwood</t>
   </si>
   <si>
     <t>3633 Lifeview Emerald Glades Aged Care Emerald</t>
   </si>
   <si>
-    <t>3652 Regis Aged Care Dandenong North</t>
-  </si>
-  <si>
     <t>3824 Estia Health South Morang</t>
   </si>
   <si>
@@ -52,9 +46,6 @@
     <t>Aintree Primary School Aintree</t>
   </si>
   <si>
-    <t>Athol Road Primary School Springvale South</t>
-  </si>
-  <si>
     <t>Australian Meat Group Abattoir Dandenong South</t>
   </si>
   <si>
@@ -67,10 +58,10 @@
     <t>Bandiana Primary School Bandiana</t>
   </si>
   <si>
-    <t>CREST Children's Sanctuary Dandenong</t>
-  </si>
-  <si>
-    <t>Dandenong South Primary School Dandenong</t>
+    <t>Covenant College Bell Post Hill</t>
+  </si>
+  <si>
+    <t>Gladstone Park Secondary College 29 Oct Gladstone Park</t>
   </si>
   <si>
     <t>Hamlyn Views School Hamlyn Heights</t>
@@ -79,85 +70,70 @@
     <t>Hazelwood North Primary School Hazelwood North</t>
   </si>
   <si>
-    <t>Hippity Hop Childcare and Kindergarten Pakenham</t>
-  </si>
-  <si>
-    <t>Life Church Mooroopna</t>
-  </si>
-  <si>
-    <t>Lilydale Motor Inn Lilydale</t>
-  </si>
-  <si>
-    <t>Lowanna College Newborough</t>
-  </si>
-  <si>
     <t>M.C. Herd Corio</t>
   </si>
   <si>
-    <t>Master Poultry Group West Footscray</t>
+    <t>Master Poultry Group West Footscray Outbreak</t>
   </si>
   <si>
     <t>Morwell Park Primary School Morwell</t>
   </si>
   <si>
+    <t>Nido Early School Woodend</t>
+  </si>
+  <si>
     <t>Northern Bay College Goldsworthy 9-12 Campus Corio</t>
   </si>
   <si>
     <t>Northern Bay College Wexford Campus Corio</t>
   </si>
   <si>
+    <t>Northern Health Northern Hospital Epping Emergency Department Tier 1B</t>
+  </si>
+  <si>
+    <t>Northern Health The Northern Hospital Epping</t>
+  </si>
+  <si>
     <t>Oakleigh South Primary School Oakleigh South</t>
   </si>
   <si>
-    <t>Saint Augustines Primary School Wodonga</t>
-  </si>
-  <si>
-    <t>Saint Monica's Primary School Wodonga</t>
-  </si>
-  <si>
     <t>Smartie Pants Early Learning and Development Diamond Creek</t>
   </si>
   <si>
     <t>St Georges Road Primary School Shepparton</t>
   </si>
   <si>
+    <t>St Joseph's School Quarry Hill</t>
+  </si>
+  <si>
     <t>St Josephs Catholic Primary School Warragul</t>
   </si>
   <si>
-    <t>St Josephs Primary School Quarry Hill</t>
-  </si>
-  <si>
-    <t>St Mary's Primary School Swan Hill</t>
-  </si>
-  <si>
     <t>St Vincents Hospital Emergency Department Melbourne</t>
   </si>
   <si>
-    <t>St. Brendan's Catholic Primary School Lakes Entrance</t>
-  </si>
-  <si>
     <t>Stockdale Road Primary School Traralgon</t>
   </si>
   <si>
+    <t>Story House Early Learning Epping October</t>
+  </si>
+  <si>
     <t>Sunbury Primary School Sunbury</t>
   </si>
   <si>
     <t>TUROSI PTY LTD Thomastown</t>
   </si>
   <si>
+    <t>Templestowe Park Primary School Templestowe</t>
+  </si>
+  <si>
     <t>The Lake Primary School Cabarita</t>
   </si>
   <si>
     <t>Werribee Mercy Hospital Emergency Department</t>
   </si>
   <si>
-    <t>Western Health Sunshine Hospital Emergency Department St Albans</t>
-  </si>
-  <si>
     <t>Wodonga Cemetery Wodonga</t>
-  </si>
-  <si>
-    <t>Wodonga Middle Years College Huon Campus Wodonga</t>
   </si>
   <si>
     <t>Wodonga Primary School Wodonga</t>
@@ -530,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -557,7 +533,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -565,7 +541,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -581,7 +557,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -589,7 +565,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -597,7 +573,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -605,7 +581,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -613,7 +589,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -621,7 +597,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -629,7 +605,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -637,7 +613,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -645,7 +621,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -653,7 +629,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -669,7 +645,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -693,7 +669,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -709,7 +685,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -717,7 +693,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>10</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -725,7 +701,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -741,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -749,7 +725,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -757,7 +733,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -765,7 +741,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>55</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -773,7 +749,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -781,7 +757,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -789,7 +765,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -805,7 +781,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -813,7 +789,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -821,7 +797,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -829,7 +805,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -837,7 +813,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -845,7 +821,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -861,7 +837,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -869,7 +845,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -877,7 +853,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -885,71 +861,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47">
         <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Cluster Name</t>
   </si>
@@ -40,6 +40,9 @@
     <t>3961 Heritage Care Water Gardens Aged Care Facility Sydenham</t>
   </si>
   <si>
+    <t>4167 Royal Freemasons Centennial Lodge Wantirna South</t>
+  </si>
+  <si>
     <t>AG Industries Pty Ltd Factory Thomastown</t>
   </si>
   <si>
@@ -55,25 +58,31 @@
     <t>Baden Powell College Tarneit</t>
   </si>
   <si>
-    <t>Bandiana Primary School Bandiana</t>
-  </si>
-  <si>
     <t>Covenant College Bell Post Hill</t>
   </si>
   <si>
+    <t>Dandenong South Primary School Dandenong</t>
+  </si>
+  <si>
     <t>Gladstone Park Secondary College 29 Oct Gladstone Park</t>
   </si>
   <si>
+    <t>Hamlyn Banks Primary School Hamlyn Heights</t>
+  </si>
+  <si>
     <t>Hamlyn Views School Hamlyn Heights</t>
   </si>
   <si>
     <t>Hazelwood North Primary School Hazelwood North</t>
   </si>
   <si>
+    <t>Hippity Hop Childcare and Kindergarten Pakenham</t>
+  </si>
+  <si>
     <t>M.C. Herd Corio</t>
   </si>
   <si>
-    <t>Master Poultry Group West Footscray Outbreak</t>
+    <t>Master Poultry Group West Footscray</t>
   </si>
   <si>
     <t>Morwell Park Primary School Morwell</t>
@@ -97,6 +106,12 @@
     <t>Oakleigh South Primary School Oakleigh South</t>
   </si>
   <si>
+    <t>Our Lady's Catholic Primary School Wangaratta</t>
+  </si>
+  <si>
+    <t>Sirius College Ibrahim Dellal Campus Sunshine</t>
+  </si>
+  <si>
     <t>Smartie Pants Early Learning and Development Diamond Creek</t>
   </si>
   <si>
@@ -109,13 +124,16 @@
     <t>St Josephs Catholic Primary School Warragul</t>
   </si>
   <si>
+    <t>St Louis de Montfort's School Aspendale</t>
+  </si>
+  <si>
     <t>St Vincents Hospital Emergency Department Melbourne</t>
   </si>
   <si>
     <t>Stockdale Road Primary School Traralgon</t>
   </si>
   <si>
-    <t>Story House Early Learning Epping October</t>
+    <t>Story House Early Learning Epping</t>
   </si>
   <si>
     <t>Sunbury Primary School Sunbury</t>
@@ -148,7 +166,7 @@
     <t>Woodend Primary School Woodend</t>
   </si>
   <si>
-    <t>Yooralla Disability Residential Care Alfrieda Street St Albans</t>
+    <t>Wyndham Christian College Wyndham Vale</t>
   </si>
 </sst>
 </file>
@@ -506,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +543,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -557,7 +575,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -565,7 +583,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -573,7 +591,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -581,7 +599,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -589,7 +607,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -597,7 +615,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -605,7 +623,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -613,7 +631,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -621,7 +639,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -629,7 +647,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -637,7 +655,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -645,7 +663,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -661,7 +679,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -669,7 +687,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -685,7 +703,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -693,7 +711,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -701,7 +719,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -709,7 +727,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -717,7 +735,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -725,7 +743,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -733,7 +751,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -741,7 +759,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -757,7 +775,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -765,7 +783,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -773,7 +791,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -781,7 +799,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -789,7 +807,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -797,7 +815,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -805,7 +823,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -813,7 +831,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -821,7 +839,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -829,7 +847,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -837,7 +855,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -845,7 +863,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -853,7 +871,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -861,7 +879,55 @@
         <v>44</v>
       </c>
       <c r="B44">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45">
         <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
-  <si>
-    <t>Cluster Name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+  <si>
+    <t>Cluster name</t>
   </si>
   <si>
     <t>Active cases</t>
@@ -34,9 +34,6 @@
     <t>3633 Lifeview Emerald Glades Aged Care Emerald</t>
   </si>
   <si>
-    <t>3824 Estia Health South Morang</t>
-  </si>
-  <si>
     <t>3961 Heritage Care Water Gardens Aged Care Facility Sydenham</t>
   </si>
   <si>
@@ -58,13 +55,13 @@
     <t>Baden Powell College Tarneit</t>
   </si>
   <si>
+    <t>Bandiana Primary School Bandiana</t>
+  </si>
+  <si>
     <t>Covenant College Bell Post Hill</t>
   </si>
   <si>
-    <t>Dandenong South Primary School Dandenong</t>
-  </si>
-  <si>
-    <t>Gladstone Park Secondary College 29 Oct Gladstone Park</t>
+    <t>Gladstone Park Secondary College</t>
   </si>
   <si>
     <t>Hamlyn Banks Primary School Hamlyn Heights</t>
@@ -76,7 +73,10 @@
     <t>Hazelwood North Primary School Hazelwood North</t>
   </si>
   <si>
-    <t>Hippity Hop Childcare and Kindergarten Pakenham</t>
+    <t>Hippity Hop Childcare and KindergartenPakenham</t>
+  </si>
+  <si>
+    <t>Islamic College of Melbourne Tarneit Oct Nov</t>
   </si>
   <si>
     <t>M.C. Herd Corio</t>
@@ -100,21 +100,24 @@
     <t>Northern Health Northern Hospital Epping Emergency Department Tier 1B</t>
   </si>
   <si>
-    <t>Northern Health The Northern Hospital Epping</t>
-  </si>
-  <si>
     <t>Oakleigh South Primary School Oakleigh South</t>
   </si>
   <si>
     <t>Our Lady's Catholic Primary School Wangaratta</t>
   </si>
   <si>
+    <t>Rutherglen Motor Inn and Walkabout Motel Rutherglen</t>
+  </si>
+  <si>
     <t>Sirius College Ibrahim Dellal Campus Sunshine</t>
   </si>
   <si>
     <t>Smartie Pants Early Learning and Development Diamond Creek</t>
   </si>
   <si>
+    <t>St Brendans Primary School Shepparton</t>
+  </si>
+  <si>
     <t>St Georges Road Primary School Shepparton</t>
   </si>
   <si>
@@ -127,13 +130,16 @@
     <t>St Louis de Montfort's School Aspendale</t>
   </si>
   <si>
-    <t>St Vincents Hospital Emergency Department Melbourne</t>
+    <t>St Paul's Primary School Sunshine West</t>
+  </si>
+  <si>
+    <t>St Vincents Hospital Emergency DepartmentMelbourne</t>
   </si>
   <si>
     <t>Stockdale Road Primary School Traralgon</t>
   </si>
   <si>
-    <t>Story House Early Learning Epping</t>
+    <t>Story House Early Learning Epping October</t>
   </si>
   <si>
     <t>Sunbury Primary School Sunbury</t>
@@ -148,10 +154,16 @@
     <t>The Lake Primary School Cabarita</t>
   </si>
   <si>
+    <t>The Royal Children's Hospital MelbourneEmergency Department Parkville Tier 1A</t>
+  </si>
+  <si>
+    <t>Warragul Regional College Warragul</t>
+  </si>
+  <si>
     <t>Werribee Mercy Hospital Emergency Department</t>
   </si>
   <si>
-    <t>Wodonga Cemetery Wodonga</t>
+    <t>Western Health Sunshine Hospital Emergency Department St Albans</t>
   </si>
   <si>
     <t>Wodonga Primary School Wodonga</t>
@@ -524,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,7 +555,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -567,7 +579,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -575,7 +587,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -583,7 +595,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -591,7 +603,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -599,7 +611,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -607,7 +619,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -615,7 +627,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -623,7 +635,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -631,7 +643,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -639,7 +651,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -647,7 +659,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -655,7 +667,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -671,7 +683,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -679,7 +691,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -687,7 +699,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -711,7 +723,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -719,7 +731,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -735,7 +747,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -743,7 +755,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -751,7 +763,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -759,7 +771,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -767,7 +779,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -775,7 +787,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -791,7 +803,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -799,7 +811,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -807,7 +819,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -823,7 +835,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -831,7 +843,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -839,7 +851,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -847,7 +859,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -855,7 +867,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -863,7 +875,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -871,7 +883,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -879,7 +891,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -887,7 +899,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -895,7 +907,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -903,7 +915,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -911,7 +923,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -919,7 +931,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -927,6 +939,38 @@
         <v>50</v>
       </c>
       <c r="B50">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54">
         <v>14</v>
       </c>
     </row>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
-    <t>Cluster name</t>
+    <t>Cluster Name</t>
   </si>
   <si>
     <t>Active cases</t>
@@ -25,19 +25,13 @@
     <t>3035 Campbell Place Aged Care Glen Waverley</t>
   </si>
   <si>
-    <t>3364 Assisi Centre Aged Care Rosanna</t>
-  </si>
-  <si>
     <t>3622 Olivet Care Aged Care Services Ringwood</t>
   </si>
   <si>
-    <t>3633 Lifeview Emerald Glades Aged Care Emerald</t>
-  </si>
-  <si>
-    <t>3961 Heritage Care Water Gardens Aged Care Facility Sydenham</t>
-  </si>
-  <si>
-    <t>4167 Royal Freemasons Centennial Lodge Wantirna South</t>
+    <t>3961 Heritage Care Water Gardens Aged CareFacility Sydenham</t>
+  </si>
+  <si>
+    <t>4167 Royal Freemasons Centennial LodgeWantirna South</t>
   </si>
   <si>
     <t>AG Industries Pty Ltd Factory Thomastown</t>
@@ -46,10 +40,13 @@
     <t>Aintree Primary School Aintree</t>
   </si>
   <si>
-    <t>Australian Meat Group Abattoir Dandenong South</t>
-  </si>
-  <si>
-    <t>Bacchus Marsh Childcare and Kindergarten Centre Bacchus Marsh</t>
+    <t>Assisi Centre Aged Care Rosanna</t>
+  </si>
+  <si>
+    <t>Australian Meat Group Abattoir DandenongSouth</t>
+  </si>
+  <si>
+    <t>Bacchus Marsh Childcare and KindergartenCentre Bacchus Marsh</t>
   </si>
   <si>
     <t>Baden Powell College Tarneit</t>
@@ -61,25 +58,22 @@
     <t>Covenant College Bell Post Hill</t>
   </si>
   <si>
+    <t>Domestic Freight Vessel Siem AquamarineGeelong</t>
+  </si>
+  <si>
     <t>Gladstone Park Secondary College</t>
   </si>
   <si>
+    <t>Guardian Childcare &amp; Education Moorabbin</t>
+  </si>
+  <si>
     <t>Hamlyn Banks Primary School Hamlyn Heights</t>
   </si>
   <si>
-    <t>Hamlyn Views School Hamlyn Heights</t>
-  </si>
-  <si>
-    <t>Hazelwood North Primary School Hazelwood North</t>
-  </si>
-  <si>
-    <t>Hippity Hop Childcare and KindergartenPakenham</t>
-  </si>
-  <si>
-    <t>Islamic College of Melbourne Tarneit Oct Nov</t>
-  </si>
-  <si>
-    <t>M.C. Herd Corio</t>
+    <t>Hazelwood North Primary School HazelwoodNorth</t>
+  </si>
+  <si>
+    <t>Islamic College of Melbourne Tarneit</t>
   </si>
   <si>
     <t>Master Poultry Group West Footscray</t>
@@ -91,13 +85,16 @@
     <t>Nido Early School Woodend</t>
   </si>
   <si>
-    <t>Northern Bay College Goldsworthy 9-12 Campus Corio</t>
+    <t>Northern Bay College Goldsworthy 9-12 CampusCorio</t>
   </si>
   <si>
     <t>Northern Bay College Wexford Campus Corio</t>
   </si>
   <si>
-    <t>Northern Health Northern Hospital Epping Emergency Department Tier 1B</t>
+    <t>Northern Health Northern Hospital EppingEmergency Department</t>
+  </si>
+  <si>
+    <t>Northern Health The Northern Hospital Epping</t>
   </si>
   <si>
     <t>Oakleigh South Primary School Oakleigh South</t>
@@ -106,18 +103,24 @@
     <t>Our Lady's Catholic Primary School Wangaratta</t>
   </si>
   <si>
-    <t>Rutherglen Motor Inn and Walkabout Motel Rutherglen</t>
+    <t>Rutherglen Motor Inn and Walkabout MotelRutherglen</t>
   </si>
   <si>
     <t>Sirius College Ibrahim Dellal Campus Sunshine</t>
   </si>
   <si>
-    <t>Smartie Pants Early Learning and Development Diamond Creek</t>
+    <t>Sirius College Shepparton Campus Shepparton</t>
+  </si>
+  <si>
+    <t>Smartie Pants Early Learning and DevelopmentDiamond Creek</t>
   </si>
   <si>
     <t>St Brendans Primary School Shepparton</t>
   </si>
   <si>
+    <t>St Clare's Primary School Officer</t>
+  </si>
+  <si>
     <t>St Georges Road Primary School Shepparton</t>
   </si>
   <si>
@@ -139,7 +142,7 @@
     <t>Stockdale Road Primary School Traralgon</t>
   </si>
   <si>
-    <t>Story House Early Learning Epping October</t>
+    <t>Story House Early Learning Epping</t>
   </si>
   <si>
     <t>Sunbury Primary School Sunbury</t>
@@ -154,9 +157,6 @@
     <t>The Lake Primary School Cabarita</t>
   </si>
   <si>
-    <t>The Royal Children's Hospital MelbourneEmergency Department Parkville Tier 1A</t>
-  </si>
-  <si>
     <t>Warragul Regional College Warragul</t>
   </si>
   <si>
@@ -175,10 +175,10 @@
     <t>Wodonga South Primary School Wodonga</t>
   </si>
   <si>
-    <t>Woodend Primary School Woodend</t>
-  </si>
-  <si>
     <t>Wyndham Christian College Wyndham Vale</t>
+  </si>
+  <si>
+    <t>Yeshivah College St Kilda East</t>
   </si>
 </sst>
 </file>
@@ -555,7 +555,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -563,7 +563,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -571,7 +571,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -579,7 +579,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -587,7 +587,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -595,7 +595,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -603,7 +603,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -611,7 +611,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -619,7 +619,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -627,7 +627,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -635,7 +635,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -643,7 +643,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -651,7 +651,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -667,7 +667,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -675,7 +675,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -683,7 +683,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -691,7 +691,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -699,7 +699,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -707,7 +707,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>10</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -715,7 +715,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -723,7 +723,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -731,7 +731,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -739,7 +739,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -747,7 +747,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>53</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -755,7 +755,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -763,7 +763,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -771,7 +771,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -779,7 +779,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -787,7 +787,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -811,7 +811,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -819,7 +819,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -827,7 +827,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -835,7 +835,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -843,7 +843,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -851,7 +851,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -859,7 +859,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -867,7 +867,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -875,7 +875,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -891,7 +891,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -899,7 +899,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -907,7 +907,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -931,7 +931,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -939,7 +939,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -947,7 +947,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -955,7 +955,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -963,7 +963,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -971,7 +971,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,24 +14,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
-  <si>
-    <t>Cluster Name</t>
-  </si>
-  <si>
-    <t>Active cases</t>
-  </si>
-  <si>
-    <t>3035 Campbell Place Aged Care Glen Waverley</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+  <si>
+    <t>Cluster</t>
+  </si>
+  <si>
+    <t>Active Cases</t>
+  </si>
+  <si>
+    <t>3364 Assisi Centre Aged Care Rosanna</t>
   </si>
   <si>
     <t>3622 Olivet Care Aged Care Services Ringwood</t>
   </si>
   <si>
-    <t>3961 Heritage Care Water Gardens Aged CareFacility Sydenham</t>
-  </si>
-  <si>
-    <t>4167 Royal Freemasons Centennial LodgeWantirna South</t>
+    <t>3633 Lifeview Emerald Glades Aged Care Emerald</t>
+  </si>
+  <si>
+    <t>3961 Heritage Care Water Gardens Aged Care Facility Sydenham</t>
+  </si>
+  <si>
+    <t>4167 Royal Freemasons Centennial Lodge Wantirna South</t>
+  </si>
+  <si>
+    <t>4282 Villa Maria Catholic Homes (VMCH) Wantirna At-Home Aged Care Stud Road Wantirna</t>
   </si>
   <si>
     <t>AG Industries Pty Ltd Factory Thomastown</t>
@@ -40,28 +46,31 @@
     <t>Aintree Primary School Aintree</t>
   </si>
   <si>
-    <t>Assisi Centre Aged Care Rosanna</t>
-  </si>
-  <si>
-    <t>Australian Meat Group Abattoir DandenongSouth</t>
-  </si>
-  <si>
-    <t>Bacchus Marsh Childcare and KindergartenCentre Bacchus Marsh</t>
+    <t>Antonine College Cedar Campus Coburg</t>
+  </si>
+  <si>
+    <t>Australian Meat Group Abattoir Dandenong South</t>
+  </si>
+  <si>
+    <t>Bacchus Marsh Childcare and Kindergarten Centre Bacchus Marsh</t>
   </si>
   <si>
     <t>Baden Powell College Tarneit</t>
   </si>
   <si>
-    <t>Bandiana Primary School Bandiana</t>
-  </si>
-  <si>
     <t>Covenant College Bell Post Hill</t>
   </si>
   <si>
-    <t>Domestic Freight Vessel Siem AquamarineGeelong</t>
-  </si>
-  <si>
-    <t>Gladstone Park Secondary College</t>
+    <t>Darul Ulum College of Victoria Fawkner October</t>
+  </si>
+  <si>
+    <t>Domestic Freight Vessel Siem Aquamarine Geelong</t>
+  </si>
+  <si>
+    <t>Gilly's Early Learning Centre Balaclava</t>
+  </si>
+  <si>
+    <t>Gladstone Park Secondary College 29 Oct Gladstone Park</t>
   </si>
   <si>
     <t>Guardian Childcare &amp; Education Moorabbin</t>
@@ -70,28 +79,34 @@
     <t>Hamlyn Banks Primary School Hamlyn Heights</t>
   </si>
   <si>
-    <t>Hazelwood North Primary School HazelwoodNorth</t>
-  </si>
-  <si>
-    <t>Islamic College of Melbourne Tarneit</t>
+    <t>Hazelwood North Primary School Hazelwood North</t>
+  </si>
+  <si>
+    <t>Islamic College of Melbourne Tarneit Oct Nov</t>
+  </si>
+  <si>
+    <t>Lyndhurst Primary School Lyndhurst</t>
   </si>
   <si>
     <t>Master Poultry Group West Footscray</t>
   </si>
   <si>
+    <t>Melbourne Metropolitan Remand Centre Ravenhall</t>
+  </si>
+  <si>
     <t>Morwell Park Primary School Morwell</t>
   </si>
   <si>
     <t>Nido Early School Woodend</t>
   </si>
   <si>
-    <t>Northern Bay College Goldsworthy 9-12 CampusCorio</t>
+    <t>Northern Bay College Goldsworthy 9-12 Campus Corio</t>
   </si>
   <si>
     <t>Northern Bay College Wexford Campus Corio</t>
   </si>
   <si>
-    <t>Northern Health Northern Hospital EppingEmergency Department</t>
+    <t>Northern Health Northern Hospital Epping Emergency Department Tier 1B</t>
   </si>
   <si>
     <t>Northern Health The Northern Hospital Epping</t>
@@ -103,7 +118,7 @@
     <t>Our Lady's Catholic Primary School Wangaratta</t>
   </si>
   <si>
-    <t>Rutherglen Motor Inn and Walkabout MotelRutherglen</t>
+    <t>Rutherglen Motor Inn and Walkabout Motel Rutherglen</t>
   </si>
   <si>
     <t>Sirius College Ibrahim Dellal Campus Sunshine</t>
@@ -112,7 +127,7 @@
     <t>Sirius College Shepparton Campus Shepparton</t>
   </si>
   <si>
-    <t>Smartie Pants Early Learning and DevelopmentDiamond Creek</t>
+    <t>Smartie Pants Early Learning and Development Diamond Creek</t>
   </si>
   <si>
     <t>St Brendans Primary School Shepparton</t>
@@ -136,18 +151,21 @@
     <t>St Paul's Primary School Sunshine West</t>
   </si>
   <si>
-    <t>St Vincents Hospital Emergency DepartmentMelbourne</t>
+    <t>St Vincents Hospital Emergency Department Melbourne</t>
   </si>
   <si>
     <t>Stockdale Road Primary School Traralgon</t>
   </si>
   <si>
-    <t>Story House Early Learning Epping</t>
+    <t>Story House Early Learning Epping October</t>
   </si>
   <si>
     <t>Sunbury Primary School Sunbury</t>
   </si>
   <si>
+    <t>TLC Forest Lodge Residential Aged Care Frankston North</t>
+  </si>
+  <si>
     <t>TUROSI PTY LTD Thomastown</t>
   </si>
   <si>
@@ -157,6 +175,9 @@
     <t>The Lake Primary School Cabarita</t>
   </si>
   <si>
+    <t>Tucker Road Bentleigh Primary School Bentleigh</t>
+  </si>
+  <si>
     <t>Warragul Regional College Warragul</t>
   </si>
   <si>
@@ -167,9 +188,6 @@
   </si>
   <si>
     <t>Wodonga Primary School Wodonga</t>
-  </si>
-  <si>
-    <t>Wodonga Senior Secondary College Wodonga</t>
   </si>
   <si>
     <t>Wodonga South Primary School Wodonga</t>
@@ -536,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -555,7 +573,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -571,7 +589,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -579,7 +597,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -587,7 +605,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -595,7 +613,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -603,7 +621,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -611,7 +629,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -619,7 +637,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -627,7 +645,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -635,7 +653,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -643,7 +661,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -651,7 +669,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -659,7 +677,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -667,7 +685,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -675,7 +693,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -683,7 +701,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -691,7 +709,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -699,7 +717,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -707,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>58</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -715,7 +733,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -723,7 +741,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -731,7 +749,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>40</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -739,7 +757,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -747,7 +765,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>12</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -755,7 +773,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -763,7 +781,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -771,7 +789,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -779,7 +797,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -787,7 +805,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -795,7 +813,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -811,7 +829,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -819,7 +837,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -827,7 +845,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -835,7 +853,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -843,7 +861,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -859,7 +877,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -867,7 +885,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -875,7 +893,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -883,7 +901,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -891,7 +909,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -899,7 +917,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -907,7 +925,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -915,7 +933,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -923,7 +941,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -931,7 +949,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -939,7 +957,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -947,7 +965,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -955,7 +973,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -963,7 +981,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -971,7 +989,55 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>10</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
-  <si>
-    <t>Cluster</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+  <si>
+    <t>Cluster Name</t>
   </si>
   <si>
     <t>Active Cases</t>
@@ -25,12 +25,15 @@
     <t>3364 Assisi Centre Aged Care Rosanna</t>
   </si>
   <si>
-    <t>3622 Olivet Care Aged Care Services Ringwood</t>
+    <t>3376 Royal Freemasons Coppin Centre Melbourne</t>
   </si>
   <si>
     <t>3633 Lifeview Emerald Glades Aged Care Emerald</t>
   </si>
   <si>
+    <t>3825 TLC Forest Lodge Residential Aged Care Frankston North</t>
+  </si>
+  <si>
     <t>3961 Heritage Care Water Gardens Aged Care Facility Sydenham</t>
   </si>
   <si>
@@ -43,9 +46,6 @@
     <t>AG Industries Pty Ltd Factory Thomastown</t>
   </si>
   <si>
-    <t>Aintree Primary School Aintree</t>
-  </si>
-  <si>
     <t>Antonine College Cedar Campus Coburg</t>
   </si>
   <si>
@@ -58,10 +58,13 @@
     <t>Baden Powell College Tarneit</t>
   </si>
   <si>
+    <t>Chairo Christian School Pakenham Campus Pakenham</t>
+  </si>
+  <si>
     <t>Covenant College Bell Post Hill</t>
   </si>
   <si>
-    <t>Darul Ulum College of Victoria Fawkner October</t>
+    <t>Devon Meadows Primary School Devon Meadows</t>
   </si>
   <si>
     <t>Domestic Freight Vessel Siem Aquamarine Geelong</t>
@@ -79,6 +82,9 @@
     <t>Hamlyn Banks Primary School Hamlyn Heights</t>
   </si>
   <si>
+    <t>Hazel Glen College Doreen</t>
+  </si>
+  <si>
     <t>Hazelwood North Primary School Hazelwood North</t>
   </si>
   <si>
@@ -91,7 +97,7 @@
     <t>Master Poultry Group West Footscray</t>
   </si>
   <si>
-    <t>Melbourne Metropolitan Remand Centre Ravenhall</t>
+    <t>Minaret College Officer Campus Officer</t>
   </si>
   <si>
     <t>Morwell Park Primary School Morwell</t>
@@ -118,6 +124,9 @@
     <t>Our Lady's Catholic Primary School Wangaratta</t>
   </si>
   <si>
+    <t>Pentland Primary School</t>
+  </si>
+  <si>
     <t>Rutherglen Motor Inn and Walkabout Motel Rutherglen</t>
   </si>
   <si>
@@ -130,6 +139,12 @@
     <t>Smartie Pants Early Learning and Development Diamond Creek</t>
   </si>
   <si>
+    <t>Social Gathering Woodvale 30 Oct</t>
+  </si>
+  <si>
+    <t>Society Restaurant Melbourne</t>
+  </si>
+  <si>
     <t>St Brendans Primary School Shepparton</t>
   </si>
   <si>
@@ -154,6 +169,9 @@
     <t>St Vincents Hospital Emergency Department Melbourne</t>
   </si>
   <si>
+    <t>Stevensville Primary School St Albans</t>
+  </si>
+  <si>
     <t>Stockdale Road Primary School Traralgon</t>
   </si>
   <si>
@@ -163,9 +181,6 @@
     <t>Sunbury Primary School Sunbury</t>
   </si>
   <si>
-    <t>TLC Forest Lodge Residential Aged Care Frankston North</t>
-  </si>
-  <si>
     <t>TUROSI PTY LTD Thomastown</t>
   </si>
   <si>
@@ -173,6 +188,12 @@
   </si>
   <si>
     <t>The Lake Primary School Cabarita</t>
+  </si>
+  <si>
+    <t>The Royal Children's Hospital Melbourne Emergency Department Parkville</t>
+  </si>
+  <si>
+    <t>Top Yard Rooftop Melbourne</t>
   </si>
   <si>
     <t>Tucker Road Bentleigh Primary School Bentleigh</t>
@@ -554,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -573,7 +594,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -581,7 +602,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -597,7 +618,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -605,7 +626,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -613,7 +634,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -621,7 +642,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -629,7 +650,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -637,7 +658,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -653,7 +674,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -669,7 +690,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -677,7 +698,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -685,7 +706,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -701,7 +722,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -709,7 +730,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -717,7 +738,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -725,7 +746,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -733,7 +754,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -741,7 +762,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -749,7 +770,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -757,7 +778,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -765,7 +786,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>53</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -773,7 +794,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -781,7 +802,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>11</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -789,7 +810,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -797,7 +818,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -805,7 +826,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -813,7 +834,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -821,7 +842,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -829,7 +850,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -845,7 +866,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -853,7 +874,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -861,7 +882,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -869,7 +890,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -877,7 +898,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -885,7 +906,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -893,7 +914,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -901,7 +922,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -917,7 +938,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -925,7 +946,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -933,7 +954,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -941,7 +962,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -949,7 +970,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -957,7 +978,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -965,7 +986,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -973,7 +994,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -981,7 +1002,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -989,7 +1010,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -997,7 +1018,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1005,7 +1026,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1013,7 +1034,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1029,7 +1050,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1037,7 +1058,63 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>15</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>Cluster Name</t>
   </si>
@@ -28,6 +28,9 @@
     <t>3376 Royal Freemasons Coppin Centre Melbourne</t>
   </si>
   <si>
+    <t>3622 Olivet Care Aged Care Services Ringwood</t>
+  </si>
+  <si>
     <t>3633 Lifeview Emerald Glades Aged Care Emerald</t>
   </si>
   <si>
@@ -43,7 +46,7 @@
     <t>4282 Villa Maria Catholic Homes (VMCH) Wantirna At-Home Aged Care Stud Road Wantirna</t>
   </si>
   <si>
-    <t>AG Industries Pty Ltd Factory Thomastown</t>
+    <t>Alamanda K9 College Point Cook</t>
   </si>
   <si>
     <t>Antonine College Cedar Campus Coburg</t>
@@ -70,6 +73,9 @@
     <t>Domestic Freight Vessel Siem Aquamarine Geelong</t>
   </si>
   <si>
+    <t>Flemington Racecourse Flemington</t>
+  </si>
+  <si>
     <t>Gilly's Early Learning Centre Balaclava</t>
   </si>
   <si>
@@ -88,6 +94,9 @@
     <t>Hazelwood North Primary School Hazelwood North</t>
   </si>
   <si>
+    <t>Industries Pty Ltd Factory Thomastown</t>
+  </si>
+  <si>
     <t>Islamic College of Melbourne Tarneit Oct Nov</t>
   </si>
   <si>
@@ -103,12 +112,12 @@
     <t>Morwell Park Primary School Morwell</t>
   </si>
   <si>
+    <t>Narre Warren South P-12 College Narre Warren</t>
+  </si>
+  <si>
     <t>Nido Early School Woodend</t>
   </si>
   <si>
-    <t>Northern Bay College Goldsworthy 9-12 Campus Corio</t>
-  </si>
-  <si>
     <t>Northern Bay College Wexford Campus Corio</t>
   </si>
   <si>
@@ -121,10 +130,7 @@
     <t>Oakleigh South Primary School Oakleigh South</t>
   </si>
   <si>
-    <t>Our Lady's Catholic Primary School Wangaratta</t>
-  </si>
-  <si>
-    <t>Pentland Primary School</t>
+    <t>Pentland Primary School Darley</t>
   </si>
   <si>
     <t>Rutherglen Motor Inn and Walkabout Motel Rutherglen</t>
@@ -145,6 +151,9 @@
     <t>Society Restaurant Melbourne</t>
   </si>
   <si>
+    <t>St Ambrose Parish Primary School Woodend</t>
+  </si>
+  <si>
     <t>St Brendans Primary School Shepparton</t>
   </si>
   <si>
@@ -157,16 +166,13 @@
     <t>St Joseph's School Quarry Hill</t>
   </si>
   <si>
-    <t>St Josephs Catholic Primary School Warragul</t>
-  </si>
-  <si>
     <t>St Louis de Montfort's School Aspendale</t>
   </si>
   <si>
     <t>St Paul's Primary School Sunshine West</t>
   </si>
   <si>
-    <t>St Vincents Hospital Emergency Department Melbourne</t>
+    <t>St Vincents Hospital Melbourne Emergency Department Fitzroy</t>
   </si>
   <si>
     <t>Stevensville Primary School St Albans</t>
@@ -575,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:B69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -602,7 +608,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -610,7 +616,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -626,7 +632,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -642,7 +648,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -650,7 +656,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -658,7 +664,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -666,7 +672,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -674,7 +680,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -682,7 +688,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -690,7 +696,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -698,7 +704,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -706,7 +712,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -714,7 +720,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -730,7 +736,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -746,7 +752,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -754,7 +760,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -762,7 +768,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -770,7 +776,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -778,7 +784,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -786,7 +792,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -794,7 +800,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -802,7 +808,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>57</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -810,7 +816,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -818,7 +824,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -826,7 +832,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>31</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -834,7 +840,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -842,7 +848,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -850,7 +856,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -858,7 +864,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -866,7 +872,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -874,7 +880,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -890,7 +896,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -898,7 +904,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -906,7 +912,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -914,7 +920,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -922,7 +928,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -930,7 +936,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -938,7 +944,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -946,7 +952,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -954,7 +960,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -962,7 +968,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -970,7 +976,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -978,7 +984,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -986,7 +992,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -994,7 +1000,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1002,7 +1008,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1010,7 +1016,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1018,7 +1024,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1026,7 +1032,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1034,7 +1040,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1042,7 +1048,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1050,7 +1056,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1058,7 +1064,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1066,7 +1072,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1074,7 +1080,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1082,7 +1088,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1090,7 +1096,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1098,7 +1104,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1106,7 +1112,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1114,7 +1120,23 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>19</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>Cluster Name</t>
   </si>
@@ -31,9 +31,6 @@
     <t>3622 Olivet Care Aged Care Services Ringwood</t>
   </si>
   <si>
-    <t>3633 Lifeview Emerald Glades Aged Care Emerald</t>
-  </si>
-  <si>
     <t>3825 TLC Forest Lodge Residential Aged Care Frankston North</t>
   </si>
   <si>
@@ -46,33 +43,30 @@
     <t>4282 Villa Maria Catholic Homes (VMCH) Wantirna At-Home Aged Care Stud Road Wantirna</t>
   </si>
   <si>
+    <t>AG Industries Pty Ltd Factory Thomastown</t>
+  </si>
+  <si>
     <t>Alamanda K9 College Point Cook</t>
   </si>
   <si>
     <t>Antonine College Cedar Campus Coburg</t>
   </si>
   <si>
-    <t>Australian Meat Group Abattoir Dandenong South</t>
-  </si>
-  <si>
     <t>Bacchus Marsh Childcare and Kindergarten Centre Bacchus Marsh</t>
   </si>
   <si>
     <t>Baden Powell College Tarneit</t>
   </si>
   <si>
-    <t>Chairo Christian School Pakenham Campus Pakenham</t>
-  </si>
-  <si>
     <t>Covenant College Bell Post Hill</t>
   </si>
   <si>
+    <t>Dandenong South Primary School Dandenong</t>
+  </si>
+  <si>
     <t>Devon Meadows Primary School Devon Meadows</t>
   </si>
   <si>
-    <t>Domestic Freight Vessel Siem Aquamarine Geelong</t>
-  </si>
-  <si>
     <t>Flemington Racecourse Flemington</t>
   </si>
   <si>
@@ -94,9 +88,6 @@
     <t>Hazelwood North Primary School Hazelwood North</t>
   </si>
   <si>
-    <t>Industries Pty Ltd Factory Thomastown</t>
-  </si>
-  <si>
     <t>Islamic College of Melbourne Tarneit Oct Nov</t>
   </si>
   <si>
@@ -109,10 +100,10 @@
     <t>Minaret College Officer Campus Officer</t>
   </si>
   <si>
-    <t>Morwell Park Primary School Morwell</t>
-  </si>
-  <si>
-    <t>Narre Warren South P-12 College Narre Warren</t>
+    <t>Morwell Park Primary School Morwell Outbreak</t>
+  </si>
+  <si>
+    <t>Narre Warren South P-12 College Narre Warren South</t>
   </si>
   <si>
     <t>Nido Early School Woodend</t>
@@ -181,13 +172,7 @@
     <t>Stockdale Road Primary School Traralgon</t>
   </si>
   <si>
-    <t>Story House Early Learning Epping October</t>
-  </si>
-  <si>
-    <t>Sunbury Primary School Sunbury</t>
-  </si>
-  <si>
-    <t>TUROSI PTY LTD Thomastown</t>
+    <t>Supreme Caravans Manufacturing Campbellfield</t>
   </si>
   <si>
     <t>Templestowe Park Primary School Templestowe</t>
@@ -200,6 +185,9 @@
   </si>
   <si>
     <t>Top Yard Rooftop Melbourne</t>
+  </si>
+  <si>
+    <t>Truganina P-9 College Truganina</t>
   </si>
   <si>
     <t>Tucker Road Bentleigh Primary School Bentleigh</t>
@@ -581,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B69"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -608,7 +596,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -624,7 +612,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -632,7 +620,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -640,7 +628,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -648,7 +636,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -656,7 +644,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -664,7 +652,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -680,7 +668,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -688,7 +676,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -696,7 +684,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -704,7 +692,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -712,7 +700,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -728,7 +716,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -736,7 +724,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -744,7 +732,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -752,7 +740,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -760,7 +748,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -768,7 +756,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -776,7 +764,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -784,7 +772,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -792,7 +780,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -800,7 +788,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -808,7 +796,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -816,7 +804,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -832,7 +820,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -840,7 +828,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -848,7 +836,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -856,7 +844,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -864,7 +852,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -872,7 +860,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -880,7 +868,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -888,7 +876,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -896,7 +884,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -904,7 +892,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -912,7 +900,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -920,7 +908,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -936,7 +924,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -944,7 +932,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -952,7 +940,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -960,7 +948,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -968,7 +956,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -976,7 +964,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -984,7 +972,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -992,7 +980,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1000,7 +988,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1008,7 +996,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1016,7 +1004,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1024,7 +1012,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1032,7 +1020,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1048,7 +1036,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1056,7 +1044,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1064,7 +1052,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1072,7 +1060,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1080,7 +1068,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1088,7 +1076,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1096,7 +1084,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1104,39 +1092,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>66</v>
-      </c>
-      <c r="B66">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>67</v>
-      </c>
-      <c r="B67">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>68</v>
-      </c>
-      <c r="B68">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
-        <v>69</v>
-      </c>
-      <c r="B69">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
-  <si>
-    <t>Cluster Name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+  <si>
+    <t>Cluster</t>
   </si>
   <si>
     <t>Active Cases</t>
@@ -43,10 +43,19 @@
     <t>4282 Villa Maria Catholic Homes (VMCH) Wantirna At-Home Aged Care Stud Road Wantirna</t>
   </si>
   <si>
+    <t>45573 Narre Warren South P-12 College Narre Warren South</t>
+  </si>
+  <si>
+    <t>50567 Alamanda K9 College Point Cook</t>
+  </si>
+  <si>
+    <t>52912 Edgars Creek Primary School Wollert</t>
+  </si>
+  <si>
     <t>AG Industries Pty Ltd Factory Thomastown</t>
   </si>
   <si>
-    <t>Alamanda K9 College Point Cook</t>
+    <t>Adass Israel School Elsternwick</t>
   </si>
   <si>
     <t>Antonine College Cedar Campus Coburg</t>
@@ -58,6 +67,9 @@
     <t>Baden Powell College Tarneit</t>
   </si>
   <si>
+    <t>Collingwood College Abbotsford</t>
+  </si>
+  <si>
     <t>Covenant College Bell Post Hill</t>
   </si>
   <si>
@@ -73,21 +85,21 @@
     <t>Gilly's Early Learning Centre Balaclava</t>
   </si>
   <si>
-    <t>Gladstone Park Secondary College 29 Oct Gladstone Park</t>
-  </si>
-  <si>
     <t>Guardian Childcare &amp; Education Moorabbin</t>
   </si>
   <si>
-    <t>Hamlyn Banks Primary School Hamlyn Heights</t>
-  </si>
-  <si>
     <t>Hazel Glen College Doreen</t>
   </si>
   <si>
     <t>Hazelwood North Primary School Hazelwood North</t>
   </si>
   <si>
+    <t>Ilim College Dallas Main Campus Dallas Oct</t>
+  </si>
+  <si>
+    <t>Ilim College Glenroy Campus Hadfield</t>
+  </si>
+  <si>
     <t>Islamic College of Melbourne Tarneit Oct Nov</t>
   </si>
   <si>
@@ -100,15 +112,15 @@
     <t>Minaret College Officer Campus Officer</t>
   </si>
   <si>
-    <t>Morwell Park Primary School Morwell Outbreak</t>
-  </si>
-  <si>
-    <t>Narre Warren South P-12 College Narre Warren South</t>
+    <t>Morwell Park Primary School Morwell</t>
   </si>
   <si>
     <t>Nido Early School Woodend</t>
   </si>
   <si>
+    <t>Nio Early Learning Adventures Preston</t>
+  </si>
+  <si>
     <t>Northern Bay College Wexford Campus Corio</t>
   </si>
   <si>
@@ -145,9 +157,6 @@
     <t>St Ambrose Parish Primary School Woodend</t>
   </si>
   <si>
-    <t>St Brendans Primary School Shepparton</t>
-  </si>
-  <si>
     <t>St Clare's Primary School Officer</t>
   </si>
   <si>
@@ -203,9 +212,6 @@
   </si>
   <si>
     <t>Wodonga Primary School Wodonga</t>
-  </si>
-  <si>
-    <t>Wodonga South Primary School Wodonga</t>
   </si>
   <si>
     <t>Wyndham Christian College Wyndham Vale</t>
@@ -569,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B65"/>
+  <dimension ref="A1:B67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -596,7 +602,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -612,7 +618,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -620,7 +626,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -644,7 +650,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -652,7 +658,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -660,7 +666,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -668,7 +674,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -676,7 +682,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -684,7 +690,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -692,7 +698,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -700,7 +706,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -708,7 +714,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -716,7 +722,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -724,7 +730,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -732,7 +738,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -740,7 +746,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -748,7 +754,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -756,7 +762,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -764,7 +770,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -772,7 +778,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -780,7 +786,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -788,7 +794,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -796,7 +802,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -804,7 +810,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -828,7 +834,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>14</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -836,7 +842,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -844,7 +850,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -852,7 +858,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -860,7 +866,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -868,7 +874,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -876,7 +882,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -884,7 +890,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -892,7 +898,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -900,7 +906,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -908,7 +914,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -916,7 +922,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -924,7 +930,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -932,7 +938,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -940,7 +946,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -948,7 +954,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -964,7 +970,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -972,7 +978,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -980,7 +986,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -988,7 +994,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -996,7 +1002,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1004,7 +1010,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1012,7 +1018,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1020,7 +1026,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1028,7 +1034,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1036,7 +1042,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1044,7 +1050,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1052,7 +1058,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1060,7 +1066,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1068,7 +1074,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1076,7 +1082,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1084,7 +1090,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1092,7 +1098,23 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>23</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>Cluster</t>
   </si>
@@ -22,6 +22,9 @@
     <t>Active Cases</t>
   </si>
   <si>
+    <t>3323 Villa Maria Catholic Homes St Bernadette's Aged Care Sunshine North</t>
+  </si>
+  <si>
     <t>3364 Assisi Centre Aged Care Rosanna</t>
   </si>
   <si>
@@ -34,24 +37,36 @@
     <t>3825 TLC Forest Lodge Residential Aged Care Frankston North</t>
   </si>
   <si>
-    <t>3961 Heritage Care Water Gardens Aged Care Facility Sydenham</t>
+    <t>3961 Water Gardens Aged Care Sydenham Tier 1A</t>
   </si>
   <si>
     <t>4167 Royal Freemasons Centennial Lodge Wantirna South</t>
   </si>
   <si>
-    <t>4282 Villa Maria Catholic Homes (VMCH) Wantirna At-Home Aged Care Stud Road Wantirna</t>
+    <t>4282 Villa Maria Catholic Homes (VMCH) Wantirna At-Home Aged Care</t>
+  </si>
+  <si>
+    <t>45034 River Gum Primary School Hampton Park</t>
   </si>
   <si>
     <t>45573 Narre Warren South P-12 College Narre Warren South</t>
   </si>
   <si>
+    <t>45695 Sacred Heart Primary School Yarrawonga</t>
+  </si>
+  <si>
+    <t>50516 Ilim College Glenroy Campus Hadfield</t>
+  </si>
+  <si>
     <t>50567 Alamanda K9 College Point Cook</t>
   </si>
   <si>
     <t>52912 Edgars Creek Primary School Wollert</t>
   </si>
   <si>
+    <t>52985 Minaret College Springvale</t>
+  </si>
+  <si>
     <t>AG Industries Pty Ltd Factory Thomastown</t>
   </si>
   <si>
@@ -76,9 +91,18 @@
     <t>Dandenong South Primary School Dandenong</t>
   </si>
   <si>
+    <t>Darul Ulum College of Victoria Fawkner October</t>
+  </si>
+  <si>
+    <t>Derrimut Primary School Derrimut</t>
+  </si>
+  <si>
     <t>Devon Meadows Primary School Devon Meadows</t>
   </si>
   <si>
+    <t>Exford Primary School Exford</t>
+  </si>
+  <si>
     <t>Flemington Racecourse Flemington</t>
   </si>
   <si>
@@ -97,9 +121,6 @@
     <t>Ilim College Dallas Main Campus Dallas Oct</t>
   </si>
   <si>
-    <t>Ilim College Glenroy Campus Hadfield</t>
-  </si>
-  <si>
     <t>Islamic College of Melbourne Tarneit Oct Nov</t>
   </si>
   <si>
@@ -109,6 +130,9 @@
     <t>Master Poultry Group West Footscray</t>
   </si>
   <si>
+    <t>Middle Park Primary School Middle Park</t>
+  </si>
+  <si>
     <t>Minaret College Officer Campus Officer</t>
   </si>
   <si>
@@ -121,15 +145,6 @@
     <t>Nio Early Learning Adventures Preston</t>
   </si>
   <si>
-    <t>Northern Bay College Wexford Campus Corio</t>
-  </si>
-  <si>
-    <t>Northern Health Northern Hospital Epping Emergency Department Tier 1B</t>
-  </si>
-  <si>
-    <t>Northern Health The Northern Hospital Epping</t>
-  </si>
-  <si>
     <t>Oakleigh South Primary School Oakleigh South</t>
   </si>
   <si>
@@ -172,9 +187,6 @@
     <t>St Paul's Primary School Sunshine West</t>
   </si>
   <si>
-    <t>St Vincents Hospital Melbourne Emergency Department Fitzroy</t>
-  </si>
-  <si>
     <t>Stevensville Primary School St Albans</t>
   </si>
   <si>
@@ -190,9 +202,6 @@
     <t>The Lake Primary School Cabarita</t>
   </si>
   <si>
-    <t>The Royal Children's Hospital Melbourne Emergency Department Parkville</t>
-  </si>
-  <si>
     <t>Top Yard Rooftop Melbourne</t>
   </si>
   <si>
@@ -203,12 +212,6 @@
   </si>
   <si>
     <t>Warragul Regional College Warragul</t>
-  </si>
-  <si>
-    <t>Werribee Mercy Hospital Emergency Department</t>
-  </si>
-  <si>
-    <t>Western Health Sunshine Hospital Emergency Department St Albans</t>
   </si>
   <si>
     <t>Wodonga Primary School Wodonga</t>
@@ -575,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -594,7 +597,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -602,7 +605,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -610,7 +613,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -618,7 +621,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -626,7 +629,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -634,7 +637,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -642,7 +645,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -650,7 +653,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -658,7 +661,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -666,7 +669,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -674,7 +677,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -690,7 +693,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -698,7 +701,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -706,7 +709,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -714,7 +717,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -722,7 +725,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -730,7 +733,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -738,7 +741,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -746,7 +749,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -754,7 +757,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -762,7 +765,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -770,7 +773,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -778,7 +781,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -786,7 +789,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -794,7 +797,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -802,7 +805,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -810,7 +813,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -818,7 +821,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -826,7 +829,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -834,7 +837,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>60</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -842,7 +845,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -858,7 +861,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -866,7 +869,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -874,7 +877,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -890,7 +893,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -898,7 +901,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>22</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -906,7 +909,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -914,7 +917,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -922,7 +925,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -930,7 +933,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -938,7 +941,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -946,7 +949,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -954,7 +957,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -962,7 +965,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -970,7 +973,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -978,7 +981,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -986,7 +989,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -994,7 +997,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1002,7 +1005,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1010,7 +1013,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1018,7 +1021,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1026,7 +1029,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1034,7 +1037,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1042,7 +1045,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1050,7 +1053,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1058,7 +1061,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1066,7 +1069,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1074,7 +1077,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1082,7 +1085,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1090,7 +1093,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1098,7 +1101,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1106,7 +1109,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1114,6 +1117,14 @@
         <v>67</v>
       </c>
       <c r="B67">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68">
         <v>24</v>
       </c>
     </row>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Cluster</t>
   </si>
@@ -31,22 +31,19 @@
     <t>3376 Royal Freemasons Coppin Centre Melbourne</t>
   </si>
   <si>
-    <t>3622 Olivet Care Aged Care Services Ringwood</t>
+    <t>3653 Fronditha Thalpori St Albans Aged Care</t>
   </si>
   <si>
     <t>3825 TLC Forest Lodge Residential Aged Care Frankston North</t>
   </si>
   <si>
-    <t>3961 Water Gardens Aged Care Sydenham Tier 1A</t>
-  </si>
-  <si>
     <t>4167 Royal Freemasons Centennial Lodge Wantirna South</t>
   </si>
   <si>
-    <t>4282 Villa Maria Catholic Homes (VMCH) Wantirna At-Home Aged Care</t>
-  </si>
-  <si>
-    <t>45034 River Gum Primary School Hampton Park</t>
+    <t>44226 Boneo Primary School Boneo</t>
+  </si>
+  <si>
+    <t>44321 Maiden Gully Primary School Maiden Gully</t>
   </si>
   <si>
     <t>45573 Narre Warren South P-12 College Narre Warren South</t>
@@ -55,21 +52,24 @@
     <t>45695 Sacred Heart Primary School Yarrawonga</t>
   </si>
   <si>
+    <t>46322 Minaret College Officer Campus Officer</t>
+  </si>
+  <si>
     <t>50516 Ilim College Glenroy Campus Hadfield</t>
   </si>
   <si>
     <t>50567 Alamanda K9 College Point Cook</t>
   </si>
   <si>
+    <t>52380 Al Iman College Melton South</t>
+  </si>
+  <si>
     <t>52912 Edgars Creek Primary School Wollert</t>
   </si>
   <si>
     <t>52985 Minaret College Springvale</t>
   </si>
   <si>
-    <t>AG Industries Pty Ltd Factory Thomastown</t>
-  </si>
-  <si>
     <t>Adass Israel School Elsternwick</t>
   </si>
   <si>
@@ -79,15 +79,12 @@
     <t>Bacchus Marsh Childcare and Kindergarten Centre Bacchus Marsh</t>
   </si>
   <si>
-    <t>Baden Powell College Tarneit</t>
-  </si>
-  <si>
-    <t>Collingwood College Abbotsford</t>
-  </si>
-  <si>
     <t>Covenant College Bell Post Hill</t>
   </si>
   <si>
+    <t>Creekside K-9 College Caroline Springs</t>
+  </si>
+  <si>
     <t>Dandenong South Primary School Dandenong</t>
   </si>
   <si>
@@ -109,9 +106,6 @@
     <t>Gilly's Early Learning Centre Balaclava</t>
   </si>
   <si>
-    <t>Guardian Childcare &amp; Education Moorabbin</t>
-  </si>
-  <si>
     <t>Hazel Glen College Doreen</t>
   </si>
   <si>
@@ -127,27 +121,15 @@
     <t>Lyndhurst Primary School Lyndhurst</t>
   </si>
   <si>
-    <t>Master Poultry Group West Footscray</t>
-  </si>
-  <si>
     <t>Middle Park Primary School Middle Park</t>
   </si>
   <si>
-    <t>Minaret College Officer Campus Officer</t>
-  </si>
-  <si>
     <t>Morwell Park Primary School Morwell</t>
   </si>
   <si>
-    <t>Nido Early School Woodend</t>
-  </si>
-  <si>
     <t>Nio Early Learning Adventures Preston</t>
   </si>
   <si>
-    <t>Oakleigh South Primary School Oakleigh South</t>
-  </si>
-  <si>
     <t>Pentland Primary School Darley</t>
   </si>
   <si>
@@ -160,9 +142,6 @@
     <t>Sirius College Shepparton Campus Shepparton</t>
   </si>
   <si>
-    <t>Smartie Pants Early Learning and Development Diamond Creek</t>
-  </si>
-  <si>
     <t>Social Gathering Woodvale 30 Oct</t>
   </si>
   <si>
@@ -172,18 +151,9 @@
     <t>St Ambrose Parish Primary School Woodend</t>
   </si>
   <si>
-    <t>St Clare's Primary School Officer</t>
-  </si>
-  <si>
-    <t>St Georges Road Primary School Shepparton</t>
-  </si>
-  <si>
     <t>St Joseph's School Quarry Hill</t>
   </si>
   <si>
-    <t>St Louis de Montfort's School Aspendale</t>
-  </si>
-  <si>
     <t>St Paul's Primary School Sunshine West</t>
   </si>
   <si>
@@ -212,12 +182,6 @@
   </si>
   <si>
     <t>Warragul Regional College Warragul</t>
-  </si>
-  <si>
-    <t>Wodonga Primary School Wodonga</t>
-  </si>
-  <si>
-    <t>Wyndham Christian College Wyndham Vale</t>
   </si>
   <si>
     <t>Yeshivah College St Kilda East</t>
@@ -578,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -605,7 +569,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -613,7 +577,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -621,7 +585,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -629,7 +593,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -637,7 +601,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -645,7 +609,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -653,7 +617,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -661,7 +625,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -669,7 +633,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -677,7 +641,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -693,7 +657,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -701,7 +665,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -709,7 +673,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -717,7 +681,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -725,7 +689,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -733,7 +697,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -741,7 +705,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -749,7 +713,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -757,7 +721,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -765,7 +729,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -773,7 +737,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -781,7 +745,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -789,7 +753,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -797,7 +761,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -805,7 +769,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -813,7 +777,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -821,7 +785,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -829,7 +793,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -845,7 +809,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>23</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -853,7 +817,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -861,7 +825,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -869,7 +833,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>14</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -877,7 +841,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -885,7 +849,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -893,7 +857,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -901,7 +865,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>59</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -909,7 +873,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -917,7 +881,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -925,7 +889,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -941,7 +905,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -949,7 +913,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -957,7 +921,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -965,7 +929,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -973,7 +937,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>10</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -981,7 +945,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -997,7 +961,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1005,7 +969,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1013,7 +977,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1021,7 +985,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1029,102 +993,6 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
-        <v>62</v>
-      </c>
-      <c r="B62">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>63</v>
-      </c>
-      <c r="B63">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
-        <v>64</v>
-      </c>
-      <c r="B64">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>65</v>
-      </c>
-      <c r="B65">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>66</v>
-      </c>
-      <c r="B66">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>67</v>
-      </c>
-      <c r="B67">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>68</v>
-      </c>
-      <c r="B68">
         <v>24</v>
       </c>
     </row>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>Cluster</t>
   </si>
@@ -46,21 +46,42 @@
     <t>44321 Maiden Gully Primary School Maiden Gully</t>
   </si>
   <si>
+    <t>44852 Dandenong South Primary School Dandenong</t>
+  </si>
+  <si>
+    <t>45034 River Gum Primary School Hampton Park</t>
+  </si>
+  <si>
     <t>45573 Narre Warren South P-12 College Narre Warren South</t>
   </si>
   <si>
+    <t>45585 Mount Ridley College Craigieburn</t>
+  </si>
+  <si>
     <t>45695 Sacred Heart Primary School Yarrawonga</t>
   </si>
   <si>
+    <t>4574 Village Glen Aged Care Residences Mornington</t>
+  </si>
+  <si>
+    <t>45804 St Therese's School Essendon</t>
+  </si>
+  <si>
     <t>46322 Minaret College Officer Campus Officer</t>
   </si>
   <si>
+    <t>46390 Al Siraat College Epping</t>
+  </si>
+  <si>
     <t>50516 Ilim College Glenroy Campus Hadfield</t>
   </si>
   <si>
     <t>50567 Alamanda K9 College Point Cook</t>
   </si>
   <si>
+    <t>51478 Wyndham Vale Primary School Wyndham Vale</t>
+  </si>
+  <si>
     <t>52380 Al Iman College Melton South</t>
   </si>
   <si>
@@ -85,9 +106,6 @@
     <t>Creekside K-9 College Caroline Springs</t>
   </si>
   <si>
-    <t>Dandenong South Primary School Dandenong</t>
-  </si>
-  <si>
     <t>Darul Ulum College of Victoria Fawkner October</t>
   </si>
   <si>
@@ -97,6 +115,9 @@
     <t>Devon Meadows Primary School Devon Meadows</t>
   </si>
   <si>
+    <t>Drouin Primary School Drouin</t>
+  </si>
+  <si>
     <t>Exford Primary School Exford</t>
   </si>
   <si>
@@ -115,6 +136,9 @@
     <t>Ilim College Dallas Main Campus Dallas Oct</t>
   </si>
   <si>
+    <t>Ilim College Kiewa Campus Dallas</t>
+  </si>
+  <si>
     <t>Islamic College of Melbourne Tarneit Oct Nov</t>
   </si>
   <si>
@@ -149,9 +173,6 @@
   </si>
   <si>
     <t>St Ambrose Parish Primary School Woodend</t>
-  </si>
-  <si>
-    <t>St Joseph's School Quarry Hill</t>
   </si>
   <si>
     <t>St Paul's Primary School Sunshine West</t>
@@ -542,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:B63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -561,7 +582,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -577,7 +598,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -585,7 +606,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -601,7 +622,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -609,7 +630,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -625,7 +646,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -633,7 +654,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>42</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -641,7 +662,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -649,7 +670,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -657,7 +678,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>11</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -665,7 +686,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -673,7 +694,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -681,7 +702,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -689,7 +710,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -697,7 +718,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -705,7 +726,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -713,7 +734,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -721,7 +742,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -729,7 +750,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -737,7 +758,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -745,7 +766,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -761,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -769,7 +790,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -777,7 +798,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -785,7 +806,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -793,7 +814,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -801,7 +822,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -809,7 +830,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>55</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -817,7 +838,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -825,7 +846,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -833,7 +854,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>56</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -841,7 +862,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -849,7 +870,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -865,7 +886,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -873,7 +894,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>17</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -881,7 +902,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -889,7 +910,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -897,7 +918,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>12</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -905,7 +926,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -913,7 +934,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -921,7 +942,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -929,7 +950,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -937,7 +958,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -945,7 +966,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -953,7 +974,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -961,7 +982,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -969,7 +990,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -977,7 +998,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -985,7 +1006,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -993,6 +1014,62 @@
         <v>56</v>
       </c>
       <c r="B56">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63">
         <v>24</v>
       </c>
     </row>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -16,21 +16,21 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
-    <t>Cluster</t>
-  </si>
-  <si>
-    <t>Active Cases</t>
+    <t>Cluster Name</t>
+  </si>
+  <si>
+    <t>Active cases</t>
   </si>
   <si>
     <t>3323 Villa Maria Catholic Homes St Bernadette's Aged Care Sunshine North</t>
   </si>
   <si>
-    <t>3364 Assisi Centre Aged Care Rosanna</t>
-  </si>
-  <si>
     <t>3376 Royal Freemasons Coppin Centre Melbourne</t>
   </si>
   <si>
+    <t>3601 Baptcare Westhaven community</t>
+  </si>
+  <si>
     <t>3653 Fronditha Thalpori St Albans Aged Care</t>
   </si>
   <si>
@@ -43,6 +43,9 @@
     <t>44226 Boneo Primary School Boneo</t>
   </si>
   <si>
+    <t>44234 Lucknow Primary School</t>
+  </si>
+  <si>
     <t>44321 Maiden Gully Primary School Maiden Gully</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>45573 Narre Warren South P-12 College Narre Warren South</t>
   </si>
   <si>
+    <t>45580 Manor Lakes College Wyndham Vale</t>
+  </si>
+  <si>
     <t>45585 Mount Ridley College Craigieburn</t>
   </si>
   <si>
@@ -67,12 +73,21 @@
     <t>45804 St Therese's School Essendon</t>
   </si>
   <si>
+    <t>45809 St Finbar's Primary School Brighton East</t>
+  </si>
+  <si>
+    <t>46050 Our Lady's Catholic Primary School Craigieburn</t>
+  </si>
+  <si>
     <t>46322 Minaret College Officer Campus Officer</t>
   </si>
   <si>
     <t>46390 Al Siraat College Epping</t>
   </si>
   <si>
+    <t>50176 Meadows Primary School Broadmeadows</t>
+  </si>
+  <si>
     <t>50516 Ilim College Glenroy Campus Hadfield</t>
   </si>
   <si>
@@ -94,9 +109,6 @@
     <t>Adass Israel School Elsternwick</t>
   </si>
   <si>
-    <t>Antonine College Cedar Campus Coburg</t>
-  </si>
-  <si>
     <t>Bacchus Marsh Childcare and Kindergarten Centre Bacchus Marsh</t>
   </si>
   <si>
@@ -106,18 +118,9 @@
     <t>Creekside K-9 College Caroline Springs</t>
   </si>
   <si>
-    <t>Darul Ulum College of Victoria Fawkner October</t>
-  </si>
-  <si>
     <t>Derrimut Primary School Derrimut</t>
   </si>
   <si>
-    <t>Devon Meadows Primary School Devon Meadows</t>
-  </si>
-  <si>
-    <t>Drouin Primary School Drouin</t>
-  </si>
-  <si>
     <t>Exford Primary School Exford</t>
   </si>
   <si>
@@ -142,7 +145,7 @@
     <t>Islamic College of Melbourne Tarneit Oct Nov</t>
   </si>
   <si>
-    <t>Lyndhurst Primary School Lyndhurst</t>
+    <t>Lowanna College Newborough</t>
   </si>
   <si>
     <t>Middle Park Primary School Middle Park</t>
@@ -157,30 +160,24 @@
     <t>Pentland Primary School Darley</t>
   </si>
   <si>
-    <t>Rutherglen Motor Inn and Walkabout Motel Rutherglen</t>
-  </si>
-  <si>
     <t>Sirius College Ibrahim Dellal Campus Sunshine</t>
   </si>
   <si>
     <t>Sirius College Shepparton Campus Shepparton</t>
   </si>
   <si>
-    <t>Social Gathering Woodvale 30 Oct</t>
-  </si>
-  <si>
     <t>Society Restaurant Melbourne</t>
   </si>
   <si>
     <t>St Ambrose Parish Primary School Woodend</t>
   </si>
   <si>
+    <t>St Georges Road Primary School Shepparton</t>
+  </si>
+  <si>
     <t>St Paul's Primary School Sunshine West</t>
   </si>
   <si>
-    <t>Stevensville Primary School St Albans</t>
-  </si>
-  <si>
     <t>Stockdale Road Primary School Traralgon</t>
   </si>
   <si>
@@ -191,6 +188,9 @@
   </si>
   <si>
     <t>The Lake Primary School Cabarita</t>
+  </si>
+  <si>
+    <t>The Royal Children's Hospital Melbourne Emergency Department Parkville</t>
   </si>
   <si>
     <t>Top Yard Rooftop Melbourne</t>
@@ -590,7 +590,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -598,7 +598,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -606,7 +606,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -638,7 +638,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -646,7 +646,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -654,7 +654,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -662,7 +662,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -670,7 +670,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -678,7 +678,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>47</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -686,7 +686,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -694,7 +694,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>10</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -702,7 +702,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -710,7 +710,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -718,7 +718,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -726,7 +726,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -734,7 +734,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>10</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -742,7 +742,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -750,7 +750,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -758,7 +758,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -766,7 +766,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -790,7 +790,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -798,7 +798,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -806,7 +806,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -814,7 +814,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -822,7 +822,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -830,7 +830,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -838,7 +838,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -854,7 +854,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -862,7 +862,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -870,7 +870,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -886,7 +886,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -894,7 +894,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -902,7 +902,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>11</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -910,7 +910,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -918,7 +918,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>76</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -926,7 +926,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>19</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -934,7 +934,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -942,7 +942,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -950,7 +950,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -966,7 +966,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -974,7 +974,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -982,7 +982,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -990,7 +990,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -998,7 +998,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1006,7 +1006,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1014,7 +1014,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1022,7 +1022,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1030,7 +1030,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1038,7 +1038,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1070,7 +1070,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>Cluster Name</t>
   </si>
   <si>
-    <t>Active cases</t>
+    <t>Active Cases</t>
   </si>
   <si>
     <t>3323 Villa Maria Catholic Homes St Bernadette's Aged Care Sunshine North</t>
@@ -40,6 +40,12 @@
     <t>4167 Royal Freemasons Centennial Lodge Wantirna South</t>
   </si>
   <si>
+    <t>44054 Dromana Primary School Dromana</t>
+  </si>
+  <si>
+    <t>44121 Wallan Primary School Wallan</t>
+  </si>
+  <si>
     <t>44226 Boneo Primary School Boneo</t>
   </si>
   <si>
@@ -49,18 +55,24 @@
     <t>44321 Maiden Gully Primary School Maiden Gully</t>
   </si>
   <si>
+    <t>44395 Buln Buln Primary School</t>
+  </si>
+  <si>
     <t>44852 Dandenong South Primary School Dandenong</t>
   </si>
   <si>
+    <t>44978 Deer Park West Primary School Deer Park</t>
+  </si>
+  <si>
     <t>45034 River Gum Primary School Hampton Park</t>
   </si>
   <si>
+    <t>45158 Rowellyn Park Primary School Carrum Downs</t>
+  </si>
+  <si>
     <t>45573 Narre Warren South P-12 College Narre Warren South</t>
   </si>
   <si>
-    <t>45580 Manor Lakes College Wyndham Vale</t>
-  </si>
-  <si>
     <t>45585 Mount Ridley College Craigieburn</t>
   </si>
   <si>
@@ -82,6 +94,9 @@
     <t>46322 Minaret College Officer Campus Officer</t>
   </si>
   <si>
+    <t>46328 Ilim College Dallas Primary Campus Tier 1A Dallas</t>
+  </si>
+  <si>
     <t>46390 Al Siraat College Epping</t>
   </si>
   <si>
@@ -94,12 +109,15 @@
     <t>50567 Alamanda K9 College Point Cook</t>
   </si>
   <si>
-    <t>51478 Wyndham Vale Primary School Wyndham Vale</t>
+    <t>51478 Wyndham Vale Primary School Wyndham</t>
   </si>
   <si>
     <t>52380 Al Iman College Melton South</t>
   </si>
   <si>
+    <t>52786 Hume Anglican Grammar Donnybrook Campus</t>
+  </si>
+  <si>
     <t>52912 Edgars Creek Primary School Wollert</t>
   </si>
   <si>
@@ -109,9 +127,6 @@
     <t>Adass Israel School Elsternwick</t>
   </si>
   <si>
-    <t>Bacchus Marsh Childcare and Kindergarten Centre Bacchus Marsh</t>
-  </si>
-  <si>
     <t>Covenant College Bell Post Hill</t>
   </si>
   <si>
@@ -124,12 +139,6 @@
     <t>Exford Primary School Exford</t>
   </si>
   <si>
-    <t>Flemington Racecourse Flemington</t>
-  </si>
-  <si>
-    <t>Gilly's Early Learning Centre Balaclava</t>
-  </si>
-  <si>
     <t>Hazel Glen College Doreen</t>
   </si>
   <si>
@@ -142,16 +151,19 @@
     <t>Ilim College Kiewa Campus Dallas</t>
   </si>
   <si>
+    <t>InverlochKongwak Primary School</t>
+  </si>
+  <si>
     <t>Islamic College of Melbourne Tarneit Oct Nov</t>
   </si>
   <si>
-    <t>Lowanna College Newborough</t>
+    <t>Lavalla Catholic College St Pauls Campus Traralgon</t>
   </si>
   <si>
     <t>Middle Park Primary School Middle Park</t>
   </si>
   <si>
-    <t>Morwell Park Primary School Morwell</t>
+    <t>Morwell Park Primary School Morwell Outbreak</t>
   </si>
   <si>
     <t>Nio Early Learning Adventures Preston</t>
@@ -160,9 +172,6 @@
     <t>Pentland Primary School Darley</t>
   </si>
   <si>
-    <t>Sirius College Ibrahim Dellal Campus Sunshine</t>
-  </si>
-  <si>
     <t>Sirius College Shepparton Campus Shepparton</t>
   </si>
   <si>
@@ -184,15 +193,6 @@
     <t>Supreme Caravans Manufacturing Campbellfield</t>
   </si>
   <si>
-    <t>Templestowe Park Primary School Templestowe</t>
-  </si>
-  <si>
-    <t>The Lake Primary School Cabarita</t>
-  </si>
-  <si>
-    <t>The Royal Children's Hospital Melbourne Emergency Department Parkville</t>
-  </si>
-  <si>
     <t>Top Yard Rooftop Melbourne</t>
   </si>
   <si>
@@ -203,6 +203,9 @@
   </si>
   <si>
     <t>Warragul Regional College Warragul</t>
+  </si>
+  <si>
+    <t>Werribee Mercy Hospital Emergency Department</t>
   </si>
   <si>
     <t>Yeshivah College St Kilda East</t>
@@ -563,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B63"/>
+  <dimension ref="A1:B64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +585,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -590,7 +593,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -598,7 +601,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -606,7 +609,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -622,7 +625,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -630,7 +633,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -638,7 +641,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -646,7 +649,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -654,7 +657,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -670,7 +673,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -678,7 +681,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -686,7 +689,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -694,7 +697,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>53</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -702,7 +705,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -710,7 +713,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -718,7 +721,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -726,7 +729,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>13</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -734,7 +737,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -742,7 +745,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -750,7 +753,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -758,7 +761,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -766,7 +769,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -782,7 +785,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -798,7 +801,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -806,7 +809,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -814,7 +817,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -822,7 +825,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -830,7 +833,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -838,7 +841,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -854,7 +857,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -862,7 +865,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -870,7 +873,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -878,7 +881,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -886,7 +889,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -894,7 +897,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -902,7 +905,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>54</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -910,7 +913,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -918,7 +921,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -926,7 +929,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>80</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -934,7 +937,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -950,7 +953,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -958,7 +961,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -966,7 +969,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -974,7 +977,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -982,7 +985,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -990,7 +993,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -998,7 +1001,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1006,7 +1009,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>52</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1014,7 +1017,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1022,7 +1025,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1030,7 +1033,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1046,7 +1049,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1062,7 +1065,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1070,7 +1073,15 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>23</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Cluster Name</t>
   </si>
@@ -34,16 +34,10 @@
     <t>3653 Fronditha Thalpori St Albans Aged Care</t>
   </si>
   <si>
-    <t>3825 TLC Forest Lodge Residential Aged Care Frankston North</t>
-  </si>
-  <si>
-    <t>4167 Royal Freemasons Centennial Lodge Wantirna South</t>
-  </si>
-  <si>
-    <t>44054 Dromana Primary School Dromana</t>
-  </si>
-  <si>
-    <t>44121 Wallan Primary School Wallan</t>
+    <t>44121 Wallan Primary School Wallan Outbreak</t>
+  </si>
+  <si>
+    <t>44165 Greenvale Primary School</t>
   </si>
   <si>
     <t>44226 Boneo Primary School Boneo</t>
@@ -70,13 +64,16 @@
     <t>45158 Rowellyn Park Primary School Carrum Downs</t>
   </si>
   <si>
-    <t>45573 Narre Warren South P-12 College Narre Warren South</t>
+    <t>45161 Woodlands Primary School Langwarrin</t>
+  </si>
+  <si>
+    <t>45249 Creekside K-9 College Caroline Springs</t>
   </si>
   <si>
     <t>45585 Mount Ridley College Craigieburn</t>
   </si>
   <si>
-    <t>45695 Sacred Heart Primary School Yarrawonga</t>
+    <t>45695 Sacred Heart Primary School Yarrawonga Outbreak</t>
   </si>
   <si>
     <t>4574 Village Glen Aged Care Residences Mornington</t>
@@ -100,16 +97,7 @@
     <t>46390 Al Siraat College Epping</t>
   </si>
   <si>
-    <t>50176 Meadows Primary School Broadmeadows</t>
-  </si>
-  <si>
-    <t>50516 Ilim College Glenroy Campus Hadfield</t>
-  </si>
-  <si>
-    <t>50567 Alamanda K9 College Point Cook</t>
-  </si>
-  <si>
-    <t>51478 Wyndham Vale Primary School Wyndham</t>
+    <t>51478 Wyndham Vale Primary School Wyndham Vale</t>
   </si>
   <si>
     <t>52380 Al Iman College Melton South</t>
@@ -118,40 +106,16 @@
     <t>52786 Hume Anglican Grammar Donnybrook Campus</t>
   </si>
   <si>
-    <t>52912 Edgars Creek Primary School Wollert</t>
-  </si>
-  <si>
-    <t>52985 Minaret College Springvale</t>
-  </si>
-  <si>
     <t>Adass Israel School Elsternwick</t>
   </si>
   <si>
-    <t>Covenant College Bell Post Hill</t>
-  </si>
-  <si>
-    <t>Creekside K-9 College Caroline Springs</t>
-  </si>
-  <si>
-    <t>Derrimut Primary School Derrimut</t>
-  </si>
-  <si>
-    <t>Exford Primary School Exford</t>
-  </si>
-  <si>
-    <t>Hazel Glen College Doreen</t>
-  </si>
-  <si>
-    <t>Hazelwood North Primary School Hazelwood North</t>
-  </si>
-  <si>
     <t>Ilim College Dallas Main Campus Dallas Oct</t>
   </si>
   <si>
     <t>Ilim College Kiewa Campus Dallas</t>
   </si>
   <si>
-    <t>InverlochKongwak Primary School</t>
+    <t>Inverloch Primary School</t>
   </si>
   <si>
     <t>Islamic College of Melbourne Tarneit Oct Nov</t>
@@ -163,52 +127,13 @@
     <t>Middle Park Primary School Middle Park</t>
   </si>
   <si>
-    <t>Morwell Park Primary School Morwell Outbreak</t>
+    <t>Morwell Park Primary School Morwell</t>
   </si>
   <si>
     <t>Nio Early Learning Adventures Preston</t>
   </si>
   <si>
-    <t>Pentland Primary School Darley</t>
-  </si>
-  <si>
-    <t>Sirius College Shepparton Campus Shepparton</t>
-  </si>
-  <si>
-    <t>Society Restaurant Melbourne</t>
-  </si>
-  <si>
-    <t>St Ambrose Parish Primary School Woodend</t>
-  </si>
-  <si>
-    <t>St Georges Road Primary School Shepparton</t>
-  </si>
-  <si>
-    <t>St Paul's Primary School Sunshine West</t>
-  </si>
-  <si>
-    <t>Stockdale Road Primary School Traralgon</t>
-  </si>
-  <si>
     <t>Supreme Caravans Manufacturing Campbellfield</t>
-  </si>
-  <si>
-    <t>Top Yard Rooftop Melbourne</t>
-  </si>
-  <si>
-    <t>Truganina P-9 College Truganina</t>
-  </si>
-  <si>
-    <t>Tucker Road Bentleigh Primary School Bentleigh</t>
-  </si>
-  <si>
-    <t>Warragul Regional College Warragul</t>
-  </si>
-  <si>
-    <t>Werribee Mercy Hospital Emergency Department</t>
-  </si>
-  <si>
-    <t>Yeshivah College St Kilda East</t>
   </si>
 </sst>
 </file>
@@ -566,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -585,7 +510,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -593,7 +518,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -609,7 +534,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -617,7 +542,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -625,7 +550,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -641,7 +566,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -649,7 +574,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -657,7 +582,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -665,7 +590,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -681,7 +606,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -689,7 +614,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -697,7 +622,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -705,7 +630,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -713,7 +638,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -721,7 +646,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -729,7 +654,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -745,7 +670,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -753,7 +678,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -761,7 +686,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -769,7 +694,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -777,7 +702,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>10</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -785,7 +710,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>42</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -793,7 +718,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -801,7 +726,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -817,7 +742,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -825,7 +750,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -833,7 +758,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -841,7 +766,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -849,7 +774,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -857,7 +782,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -865,7 +790,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -873,7 +798,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -881,207 +806,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
-        <v>62</v>
-      </c>
-      <c r="B62">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>63</v>
-      </c>
-      <c r="B63">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
-        <v>64</v>
-      </c>
-      <c r="B64">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
-    <t>Cluster Name</t>
+    <t>Cluster</t>
   </si>
   <si>
     <t>Active Cases</t>
@@ -34,16 +34,13 @@
     <t>3653 Fronditha Thalpori St Albans Aged Care</t>
   </si>
   <si>
-    <t>44121 Wallan Primary School Wallan Outbreak</t>
+    <t>44121 Wallan Primary School Wallan</t>
   </si>
   <si>
     <t>44165 Greenvale Primary School</t>
   </si>
   <si>
-    <t>44226 Boneo Primary School Boneo</t>
-  </si>
-  <si>
-    <t>44234 Lucknow Primary School</t>
+    <t>44234 Lucknow Primary School Bairnsdale</t>
   </si>
   <si>
     <t>44321 Maiden Gully Primary School Maiden Gully</t>
@@ -52,10 +49,13 @@
     <t>44395 Buln Buln Primary School</t>
   </si>
   <si>
+    <t>44507 Inverloch Primary School</t>
+  </si>
+  <si>
     <t>44852 Dandenong South Primary School Dandenong</t>
   </si>
   <si>
-    <t>44978 Deer Park West Primary School Deer Park</t>
+    <t>44853 St Albans North Primary School</t>
   </si>
   <si>
     <t>45034 River Gum Primary School Hampton Park</t>
@@ -64,16 +64,13 @@
     <t>45158 Rowellyn Park Primary School Carrum Downs</t>
   </si>
   <si>
-    <t>45161 Woodlands Primary School Langwarrin</t>
-  </si>
-  <si>
     <t>45249 Creekside K-9 College Caroline Springs</t>
   </si>
   <si>
     <t>45585 Mount Ridley College Craigieburn</t>
   </si>
   <si>
-    <t>45695 Sacred Heart Primary School Yarrawonga Outbreak</t>
+    <t>45695 Sacred Heart Primary School Yarrawonga</t>
   </si>
   <si>
     <t>4574 Village Glen Aged Care Residences Mornington</t>
@@ -91,13 +88,16 @@
     <t>46322 Minaret College Officer Campus Officer</t>
   </si>
   <si>
-    <t>46328 Ilim College Dallas Primary Campus Tier 1A Dallas</t>
+    <t>46328 Ilim College Dallas Primary Campus Inverloch</t>
   </si>
   <si>
     <t>46390 Al Siraat College Epping</t>
   </si>
   <si>
-    <t>51478 Wyndham Vale Primary School Wyndham Vale</t>
+    <t>50689 St Mary of the Cross Catholic Primary School Point Cook</t>
+  </si>
+  <si>
+    <t>51525 Ilim College Kiewa Campus Dallas</t>
   </si>
   <si>
     <t>52380 Al Iman College Melton South</t>
@@ -109,21 +109,18 @@
     <t>Adass Israel School Elsternwick</t>
   </si>
   <si>
+    <t>Dandenong North Primary School Dandenong</t>
+  </si>
+  <si>
+    <t>Hampton Park Primary School Hampton Park</t>
+  </si>
+  <si>
     <t>Ilim College Dallas Main Campus Dallas Oct</t>
   </si>
   <si>
-    <t>Ilim College Kiewa Campus Dallas</t>
-  </si>
-  <si>
-    <t>Inverloch Primary School</t>
-  </si>
-  <si>
     <t>Islamic College of Melbourne Tarneit Oct Nov</t>
   </si>
   <si>
-    <t>Lavalla Catholic College St Pauls Campus Traralgon</t>
-  </si>
-  <si>
     <t>Middle Park Primary School Middle Park</t>
   </si>
   <si>
@@ -133,7 +130,10 @@
     <t>Nio Early Learning Adventures Preston</t>
   </si>
   <si>
-    <t>Supreme Caravans Manufacturing Campbellfield</t>
+    <t>Our Lady of the Southern Cross Primary School Manor Lakes</t>
+  </si>
+  <si>
+    <t>The Just Group Melbourne</t>
   </si>
 </sst>
 </file>
@@ -510,7 +510,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -518,7 +518,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -526,7 +526,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -534,7 +534,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -542,7 +542,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -550,7 +550,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -558,7 +558,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -566,7 +566,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -574,7 +574,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -582,7 +582,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -590,7 +590,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -606,7 +606,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -614,7 +614,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -622,7 +622,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -638,7 +638,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>14</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -646,7 +646,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -654,7 +654,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -670,7 +670,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -678,7 +678,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -686,7 +686,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -694,7 +694,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -702,7 +702,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -710,7 +710,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -742,7 +742,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -750,7 +750,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -758,7 +758,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -766,7 +766,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -782,7 +782,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -790,7 +790,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -798,7 +798,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -806,7 +806,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>37</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Cluster</t>
   </si>
@@ -52,18 +52,18 @@
     <t>44507 Inverloch Primary School</t>
   </si>
   <si>
-    <t>44852 Dandenong South Primary School Dandenong</t>
+    <t>44811 Dandenong North Primary School Dandenong</t>
   </si>
   <si>
     <t>44853 St Albans North Primary School</t>
   </si>
   <si>
-    <t>45034 River Gum Primary School Hampton Park</t>
-  </si>
-  <si>
     <t>45158 Rowellyn Park Primary School Carrum Downs</t>
   </si>
   <si>
+    <t>45161 Woodlands Primary School Langwarrin</t>
+  </si>
+  <si>
     <t>45249 Creekside K-9 College Caroline Springs</t>
   </si>
   <si>
@@ -76,15 +76,21 @@
     <t>4574 Village Glen Aged Care Residences Mornington</t>
   </si>
   <si>
-    <t>45804 St Therese's School Essendon</t>
-  </si>
-  <si>
     <t>45809 St Finbar's Primary School Brighton East</t>
   </si>
   <si>
+    <t>45967 St Clement of Rome School Bulleen</t>
+  </si>
+  <si>
+    <t>46037 Nazareth Catholic Primary School Grovedale</t>
+  </si>
+  <si>
     <t>46050 Our Lady's Catholic Primary School Craigieburn</t>
   </si>
   <si>
+    <t>46125 Our Lady of the Southern Cross Primary School Manor Lakes</t>
+  </si>
+  <si>
     <t>46322 Minaret College Officer Campus Officer</t>
   </si>
   <si>
@@ -94,24 +100,12 @@
     <t>46390 Al Siraat College Epping</t>
   </si>
   <si>
-    <t>50689 St Mary of the Cross Catholic Primary School Point Cook</t>
-  </si>
-  <si>
-    <t>51525 Ilim College Kiewa Campus Dallas</t>
-  </si>
-  <si>
     <t>52380 Al Iman College Melton South</t>
   </si>
   <si>
     <t>52786 Hume Anglican Grammar Donnybrook Campus</t>
   </si>
   <si>
-    <t>Adass Israel School Elsternwick</t>
-  </si>
-  <si>
-    <t>Dandenong North Primary School Dandenong</t>
-  </si>
-  <si>
     <t>Hampton Park Primary School Hampton Park</t>
   </si>
   <si>
@@ -121,19 +115,10 @@
     <t>Islamic College of Melbourne Tarneit Oct Nov</t>
   </si>
   <si>
-    <t>Middle Park Primary School Middle Park</t>
+    <t>Melton Willows Melton</t>
   </si>
   <si>
     <t>Morwell Park Primary School Morwell</t>
-  </si>
-  <si>
-    <t>Nio Early Learning Adventures Preston</t>
-  </si>
-  <si>
-    <t>Our Lady of the Southern Cross Primary School Manor Lakes</t>
-  </si>
-  <si>
-    <t>The Just Group Melbourne</t>
   </si>
 </sst>
 </file>
@@ -491,7 +476,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -510,7 +495,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -518,7 +503,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -526,7 +511,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -534,7 +519,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -550,7 +535,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -558,7 +543,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -574,7 +559,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -590,7 +575,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -598,7 +583,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -606,7 +591,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -614,7 +599,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -622,7 +607,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -630,7 +615,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -638,7 +623,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -646,7 +631,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -662,7 +647,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -670,7 +655,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -678,7 +663,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -686,7 +671,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -694,7 +679,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>45</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -702,7 +687,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -710,7 +695,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -718,7 +703,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -734,7 +719,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -742,7 +727,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -750,7 +735,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -758,7 +743,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -766,46 +751,6 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39">
         <v>10</v>
       </c>
     </row>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
-  <si>
-    <t>Cluster</t>
-  </si>
-  <si>
-    <t>Active Cases</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+  <si>
+    <t>Cluster Name</t>
+  </si>
+  <si>
+    <t>Active cases</t>
   </si>
   <si>
     <t>3323 Villa Maria Catholic Homes St Bernadette's Aged Care Sunshine North</t>
@@ -49,7 +49,7 @@
     <t>44395 Buln Buln Primary School</t>
   </si>
   <si>
-    <t>44507 Inverloch Primary School</t>
+    <t>44701 Hampton Park Primary School Hampton Park</t>
   </si>
   <si>
     <t>44811 Dandenong North Primary School Dandenong</t>
@@ -61,15 +61,9 @@
     <t>45158 Rowellyn Park Primary School Carrum Downs</t>
   </si>
   <si>
-    <t>45161 Woodlands Primary School Langwarrin</t>
-  </si>
-  <si>
     <t>45249 Creekside K-9 College Caroline Springs</t>
   </si>
   <si>
-    <t>45585 Mount Ridley College Craigieburn</t>
-  </si>
-  <si>
     <t>45695 Sacred Heart Primary School Yarrawonga</t>
   </si>
   <si>
@@ -79,6 +73,9 @@
     <t>45809 St Finbar's Primary School Brighton East</t>
   </si>
   <si>
+    <t>45812 St Mary's Primary School Hampton</t>
+  </si>
+  <si>
     <t>45967 St Clement of Rome School Bulleen</t>
   </si>
   <si>
@@ -91,28 +88,34 @@
     <t>46125 Our Lady of the Southern Cross Primary School Manor Lakes</t>
   </si>
   <si>
-    <t>46322 Minaret College Officer Campus Officer</t>
-  </si>
-  <si>
-    <t>46328 Ilim College Dallas Primary Campus Inverloch</t>
+    <t>46328 Ilim College Dallas Primary Campus Inverloch Cres Tier 1A Dallas</t>
   </si>
   <si>
     <t>46390 Al Siraat College Epping</t>
   </si>
   <si>
+    <t>50681 Broadmeadows Special Developmental School Broadmeadows</t>
+  </si>
+  <si>
     <t>52380 Al Iman College Melton South</t>
   </si>
   <si>
     <t>52786 Hume Anglican Grammar Donnybrook Campus</t>
   </si>
   <si>
-    <t>Hampton Park Primary School Hampton Park</t>
+    <t>Adass Israel School Elsternwick</t>
+  </si>
+  <si>
+    <t>Alfred Health Caulfield Hospital Caulfield</t>
   </si>
   <si>
     <t>Ilim College Dallas Main Campus Dallas Oct</t>
   </si>
   <si>
     <t>Islamic College of Melbourne Tarneit Oct Nov</t>
+  </si>
+  <si>
+    <t>John Henry Primary School Pakenham</t>
   </si>
   <si>
     <t>Melton Willows Melton</t>
@@ -476,7 +479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -511,7 +514,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -519,7 +522,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -527,7 +530,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -535,7 +538,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -543,7 +546,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -551,7 +554,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -559,7 +562,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -567,7 +570,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -575,7 +578,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -591,7 +594,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -599,7 +602,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -607,7 +610,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -615,7 +618,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -623,7 +626,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -631,7 +634,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -639,7 +642,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -647,7 +650,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -655,7 +658,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -663,7 +666,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -671,7 +674,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -679,7 +682,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>13</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -687,7 +690,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -695,7 +698,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -703,7 +706,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -711,7 +714,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -719,7 +722,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -727,7 +730,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -735,7 +738,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -751,6 +754,14 @@
         <v>34</v>
       </c>
       <c r="B34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35">
         <v>10</v>
       </c>
     </row>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Cluster Name</t>
   </si>
   <si>
-    <t>Active cases</t>
+    <t>Active Cases</t>
   </si>
   <si>
     <t>3323 Villa Maria Catholic Homes St Bernadette's Aged Care Sunshine North</t>
@@ -28,7 +28,7 @@
     <t>3376 Royal Freemasons Coppin Centre Melbourne</t>
   </si>
   <si>
-    <t>3601 Baptcare Westhaven community</t>
+    <t>3601 Baptcare Westhaven Community</t>
   </si>
   <si>
     <t>3653 Fronditha Thalpori St Albans Aged Care</t>
@@ -43,18 +43,24 @@
     <t>44234 Lucknow Primary School Bairnsdale</t>
   </si>
   <si>
-    <t>44321 Maiden Gully Primary School Maiden Gully</t>
-  </si>
-  <si>
     <t>44395 Buln Buln Primary School</t>
   </si>
   <si>
+    <t>44554 Korumburra Primary School</t>
+  </si>
+  <si>
+    <t>44667 Beaumaris Primary School Beaumaris</t>
+  </si>
+  <si>
     <t>44701 Hampton Park Primary School Hampton Park</t>
   </si>
   <si>
     <t>44811 Dandenong North Primary School Dandenong</t>
   </si>
   <si>
+    <t>44820 Bourchier Street Primary School Shepparton</t>
+  </si>
+  <si>
     <t>44853 St Albans North Primary School</t>
   </si>
   <si>
@@ -70,9 +76,6 @@
     <t>4574 Village Glen Aged Care Residences Mornington</t>
   </si>
   <si>
-    <t>45809 St Finbar's Primary School Brighton East</t>
-  </si>
-  <si>
     <t>45812 St Mary's Primary School Hampton</t>
   </si>
   <si>
@@ -88,7 +91,19 @@
     <t>46125 Our Lady of the Southern Cross Primary School Manor Lakes</t>
   </si>
   <si>
-    <t>46328 Ilim College Dallas Primary Campus Inverloch Cres Tier 1A Dallas</t>
+    <t>46140 Caulfield Grammar School Malvern Campus Glen Iris</t>
+  </si>
+  <si>
+    <t>46276 Hillcrest Christian College Clyde North</t>
+  </si>
+  <si>
+    <t>46322 Minaret College Officer Campus Officer</t>
+  </si>
+  <si>
+    <t>46328 Ilim College Dallas Main Campus Dallas</t>
+  </si>
+  <si>
+    <t>46328 Ilim College Dallas Primary Campus Inverloch</t>
   </si>
   <si>
     <t>46390 Al Siraat College Epping</t>
@@ -100,28 +115,22 @@
     <t>52380 Al Iman College Melton South</t>
   </si>
   <si>
+    <t>52473 John Henry Primary School Pakenham</t>
+  </si>
+  <si>
     <t>52786 Hume Anglican Grammar Donnybrook Campus</t>
   </si>
   <si>
     <t>Adass Israel School Elsternwick</t>
   </si>
   <si>
-    <t>Alfred Health Caulfield Hospital Caulfield</t>
-  </si>
-  <si>
-    <t>Ilim College Dallas Main Campus Dallas Oct</t>
-  </si>
-  <si>
-    <t>Islamic College of Melbourne Tarneit Oct Nov</t>
-  </si>
-  <si>
-    <t>John Henry Primary School Pakenham</t>
+    <t>Hamilton Country Music Festival Hamilton Golf Club Hamilton</t>
   </si>
   <si>
     <t>Melton Willows Melton</t>
   </si>
   <si>
-    <t>Morwell Park Primary School Morwell</t>
+    <t>Sirius College Shepparton Campus Shepparton</t>
   </si>
 </sst>
 </file>
@@ -479,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -498,7 +507,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -506,7 +515,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -514,7 +523,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -530,7 +539,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -538,7 +547,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -546,7 +555,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -554,7 +563,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -562,7 +571,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -570,7 +579,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -578,7 +587,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -586,7 +595,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -594,7 +603,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -602,7 +611,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -610,7 +619,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -618,7 +627,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -626,7 +635,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -634,7 +643,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -642,7 +651,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -650,7 +659,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -658,7 +667,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -666,7 +675,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -674,7 +683,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -682,7 +691,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>51</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -690,7 +699,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -698,7 +707,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -706,7 +715,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -714,7 +723,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -722,7 +731,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>13</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -730,7 +739,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -738,7 +747,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -746,7 +755,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -754,7 +763,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -763,6 +772,30 @@
       </c>
       <c r="B35">
         <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -19,7 +19,10 @@
     <t>Cluster Name</t>
   </si>
   <si>
-    <t>Active Cases</t>
+    <t>Activecases</t>
+  </si>
+  <si>
+    <t>202111 Holy Rosary Primary School White Hills</t>
   </si>
   <si>
     <t>3323 Villa Maria Catholic Homes St Bernadette's Aged Care Sunshine North</t>
@@ -28,7 +31,7 @@
     <t>3376 Royal Freemasons Coppin Centre Melbourne</t>
   </si>
   <si>
-    <t>3601 Baptcare Westhaven Community</t>
+    <t>3601 Baptcare Westhaven community outbreak</t>
   </si>
   <si>
     <t>3653 Fronditha Thalpori St Albans Aged Care</t>
@@ -46,15 +49,9 @@
     <t>44395 Buln Buln Primary School</t>
   </si>
   <si>
-    <t>44554 Korumburra Primary School</t>
-  </si>
-  <si>
     <t>44667 Beaumaris Primary School Beaumaris</t>
   </si>
   <si>
-    <t>44701 Hampton Park Primary School Hampton Park</t>
-  </si>
-  <si>
     <t>44811 Dandenong North Primary School Dandenong</t>
   </si>
   <si>
@@ -70,16 +67,13 @@
     <t>45249 Creekside K-9 College Caroline Springs</t>
   </si>
   <si>
-    <t>45695 Sacred Heart Primary School Yarrawonga</t>
-  </si>
-  <si>
     <t>4574 Village Glen Aged Care Residences Mornington</t>
   </si>
   <si>
     <t>45812 St Mary's Primary School Hampton</t>
   </si>
   <si>
-    <t>45967 St Clement of Rome School Bulleen</t>
+    <t>45836 St Joseph's Primary School Sorrento</t>
   </si>
   <si>
     <t>46037 Nazareth Catholic Primary School Grovedale</t>
@@ -88,27 +82,33 @@
     <t>46050 Our Lady's Catholic Primary School Craigieburn</t>
   </si>
   <si>
-    <t>46125 Our Lady of the Southern Cross Primary School Manor Lakes</t>
+    <t>46125 Our Lady of the Southern Cross PrimarySchool Manor Lakes Outbreak</t>
   </si>
   <si>
     <t>46140 Caulfield Grammar School Malvern Campus Glen Iris</t>
   </si>
   <si>
+    <t>46190 Haileybury Brighton East</t>
+  </si>
+  <si>
     <t>46276 Hillcrest Christian College Clyde North</t>
   </si>
   <si>
-    <t>46322 Minaret College Officer Campus Officer</t>
-  </si>
-  <si>
-    <t>46328 Ilim College Dallas Main Campus Dallas</t>
-  </si>
-  <si>
-    <t>46328 Ilim College Dallas Primary Campus Inverloch</t>
+    <t>46328 Ilim College Dallas Main Campus DallasOct</t>
+  </si>
+  <si>
+    <t>46328 Ilim College Dallas Primary Campus Inverloch Cres Tier 1A Dallas</t>
+  </si>
+  <si>
+    <t>46376 Yesodei HaTorah College Elwood</t>
   </si>
   <si>
     <t>46390 Al Siraat College Epping</t>
   </si>
   <si>
+    <t>50395 St Francis of Assisi Catholic Primary School Tarneit</t>
+  </si>
+  <si>
     <t>50681 Broadmeadows Special Developmental School Broadmeadows</t>
   </si>
   <si>
@@ -118,19 +118,19 @@
     <t>52473 John Henry Primary School Pakenham</t>
   </si>
   <si>
-    <t>52786 Hume Anglican Grammar Donnybrook Campus</t>
-  </si>
-  <si>
-    <t>Adass Israel School Elsternwick</t>
-  </si>
-  <si>
-    <t>Hamilton Country Music Festival Hamilton Golf Club Hamilton</t>
+    <t>Alfred Health Caulfield Hospital Caulfield</t>
+  </si>
+  <si>
+    <t>Hamilton Country Music Festival Hamilton GolfClub Hamilton</t>
   </si>
   <si>
     <t>Melton Willows Melton</t>
   </si>
   <si>
     <t>Sirius College Shepparton Campus Shepparton</t>
+  </si>
+  <si>
+    <t>The Sphinx Hotel North Geelong</t>
   </si>
 </sst>
 </file>
@@ -507,7 +507,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -515,7 +515,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -523,7 +523,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -531,7 +531,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -539,7 +539,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -547,7 +547,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -555,7 +555,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -563,7 +563,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -571,7 +571,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -587,7 +587,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -595,7 +595,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -603,7 +603,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -611,7 +611,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -627,7 +627,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -635,7 +635,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -643,7 +643,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -651,7 +651,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -659,7 +659,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -667,7 +667,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -675,7 +675,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>42</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -683,7 +683,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -691,7 +691,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -699,7 +699,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -707,7 +707,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -715,7 +715,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -723,7 +723,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>13</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -731,7 +731,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -739,7 +739,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -747,7 +747,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -755,7 +755,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -763,7 +763,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -771,7 +771,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -779,7 +779,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -795,7 +795,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Cluster Name</t>
   </si>
@@ -22,115 +22,124 @@
     <t>Activecases</t>
   </si>
   <si>
-    <t>202111 Holy Rosary Primary School White Hills</t>
-  </si>
-  <si>
-    <t>3323 Villa Maria Catholic Homes St Bernadette's Aged Care Sunshine North</t>
-  </si>
-  <si>
-    <t>3376 Royal Freemasons Coppin Centre Melbourne</t>
-  </si>
-  <si>
-    <t>3601 Baptcare Westhaven community outbreak</t>
-  </si>
-  <si>
-    <t>3653 Fronditha Thalpori St Albans Aged Care</t>
-  </si>
-  <si>
-    <t>44121 Wallan Primary School Wallan</t>
-  </si>
-  <si>
-    <t>44165 Greenvale Primary School</t>
-  </si>
-  <si>
-    <t>44234 Lucknow Primary School Bairnsdale</t>
-  </si>
-  <si>
-    <t>44395 Buln Buln Primary School</t>
-  </si>
-  <si>
-    <t>44667 Beaumaris Primary School Beaumaris</t>
-  </si>
-  <si>
-    <t>44811 Dandenong North Primary School Dandenong</t>
-  </si>
-  <si>
-    <t>44820 Bourchier Street Primary School Shepparton</t>
-  </si>
-  <si>
-    <t>44853 St Albans North Primary School</t>
-  </si>
-  <si>
-    <t>45158 Rowellyn Park Primary School Carrum Downs</t>
-  </si>
-  <si>
-    <t>45249 Creekside K-9 College Caroline Springs</t>
-  </si>
-  <si>
-    <t>4574 Village Glen Aged Care Residences Mornington</t>
-  </si>
-  <si>
-    <t>45812 St Mary's Primary School Hampton</t>
-  </si>
-  <si>
-    <t>45836 St Joseph's Primary School Sorrento</t>
-  </si>
-  <si>
-    <t>46037 Nazareth Catholic Primary School Grovedale</t>
-  </si>
-  <si>
-    <t>46050 Our Lady's Catholic Primary School Craigieburn</t>
-  </si>
-  <si>
-    <t>46125 Our Lady of the Southern Cross PrimarySchool Manor Lakes Outbreak</t>
-  </si>
-  <si>
-    <t>46140 Caulfield Grammar School Malvern Campus Glen Iris</t>
-  </si>
-  <si>
-    <t>46190 Haileybury Brighton East</t>
-  </si>
-  <si>
-    <t>46276 Hillcrest Christian College Clyde North</t>
-  </si>
-  <si>
-    <t>46328 Ilim College Dallas Main Campus DallasOct</t>
-  </si>
-  <si>
-    <t>46328 Ilim College Dallas Primary Campus Inverloch Cres Tier 1A Dallas</t>
-  </si>
-  <si>
-    <t>46376 Yesodei HaTorah College Elwood</t>
-  </si>
-  <si>
-    <t>46390 Al Siraat College Epping</t>
-  </si>
-  <si>
-    <t>50395 St Francis of Assisi Catholic Primary School Tarneit</t>
-  </si>
-  <si>
-    <t>50681 Broadmeadows Special Developmental School Broadmeadows</t>
-  </si>
-  <si>
-    <t>52380 Al Iman College Melton South</t>
-  </si>
-  <si>
-    <t>52473 John Henry Primary School Pakenham</t>
-  </si>
-  <si>
-    <t>Alfred Health Caulfield Hospital Caulfield</t>
-  </si>
-  <si>
-    <t>Hamilton Country Music Festival Hamilton GolfClub Hamilton</t>
-  </si>
-  <si>
-    <t>Melton Willows Melton</t>
-  </si>
-  <si>
-    <t>Sirius College Shepparton Campus Shepparton</t>
-  </si>
-  <si>
-    <t>The Sphinx Hotel North Geelong</t>
+    <t>202111 45784 Holy Rosary Primary SchoolWhite Hills Outbreak</t>
+  </si>
+  <si>
+    <t>3321 Rochester and Elmore District Health Service Yalunkan Aged Care Hostel RochesterOutbreak</t>
+  </si>
+  <si>
+    <t>3323 Villa Maria Catholic Homes St Bernadette's Aged Care Sunshine North Outbreak</t>
+  </si>
+  <si>
+    <t>3600 Belvedere Aged Care Noble Park Outbreak</t>
+  </si>
+  <si>
+    <t>3601 Baptcare Westhaven community Outbreak</t>
+  </si>
+  <si>
+    <t>3653 Fronditha Thalpori St Albans Aged Care Outbreak</t>
+  </si>
+  <si>
+    <t>44098 Stawell Primary School Outbreak</t>
+  </si>
+  <si>
+    <t>44121 Wallan Primary School Wallan Outbreak</t>
+  </si>
+  <si>
+    <t>44165 Greenvale Primary School Outbreak</t>
+  </si>
+  <si>
+    <t>44234 Lucknow Primary School Bairnsdale Outbreak</t>
+  </si>
+  <si>
+    <t>44495 Lakes Entrance Primary School Outbreak</t>
+  </si>
+  <si>
+    <t>44667 Beaumaris Primary School Beaumaris Outbreak</t>
+  </si>
+  <si>
+    <t>44811 Dandenong North Primary SchoolDandenong Outbreak</t>
+  </si>
+  <si>
+    <t>44853 St Albans North Primary School Outbreak</t>
+  </si>
+  <si>
+    <t>44865 Parktone Primary School Parkdale Outbreak</t>
+  </si>
+  <si>
+    <t>44891 Cranbourne Park Primary School Cranbourne Outbreak</t>
+  </si>
+  <si>
+    <t>45158 Rowellyn Park Primary School Carrum Downs Outbreak</t>
+  </si>
+  <si>
+    <t>45248 Brookside P-9 College Caroline Springs Outbreak</t>
+  </si>
+  <si>
+    <t>45249 Creekside K-9 College Caroline SpringsOutbreak</t>
+  </si>
+  <si>
+    <t>45569 Nhill College Nhill Outbreak</t>
+  </si>
+  <si>
+    <t>4574 Village Glen Aged Care Residences Mornington Outbreak</t>
+  </si>
+  <si>
+    <t>45836 St Joseph's Primary School Sorrento Outbreak</t>
+  </si>
+  <si>
+    <t>45967 St Clement of Rome School Bulleen Outbreak</t>
+  </si>
+  <si>
+    <t>46037 Nazareth Catholic Primary SchoolGrovedale Outbreak</t>
+  </si>
+  <si>
+    <t>46050 Our Lady's Catholic Primary School Craigieburn Outbreak</t>
+  </si>
+  <si>
+    <t>46125 Our Lady of the Southern Cross Primary School Manor Lakes Outbreak</t>
+  </si>
+  <si>
+    <t>46190 Haileybury Brighton East Outbreak</t>
+  </si>
+  <si>
+    <t>46215 Yeshivah primary College St Kilda East Outbreak</t>
+  </si>
+  <si>
+    <t>46276 Hillcrest Christian College Clyde NorthOutbreak</t>
+  </si>
+  <si>
+    <t>46328 Ilim College Dallas Main Campus Dallas Oct Outbreak</t>
+  </si>
+  <si>
+    <t>46376 Yesodei HaTorah College Elwood Outbreak</t>
+  </si>
+  <si>
+    <t>46390 Al Siraat College Epping Outbreak</t>
+  </si>
+  <si>
+    <t>50395 St Francis of Assisi Catholic PrimarySchool Tarneit Outbreak</t>
+  </si>
+  <si>
+    <t>50681 Broadmeadows Special Developmental School Broadmeadows Outbreak</t>
+  </si>
+  <si>
+    <t>52380 Al Iman College Melton South Outbreak</t>
+  </si>
+  <si>
+    <t>52473 John Henry Primary School PakenhamOutbreak</t>
+  </si>
+  <si>
+    <t>Adass Israel School Elsternwick Outbreak</t>
+  </si>
+  <si>
+    <t>Hamilton Country Music Festival Hamilton Golf Club Hamilton Outbreak</t>
+  </si>
+  <si>
+    <t>Melton Willows Melton Outbreak</t>
+  </si>
+  <si>
+    <t>St Brendans Primary School Shepparton Outbreak</t>
   </si>
 </sst>
 </file>
@@ -488,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -507,7 +516,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -515,7 +524,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -523,7 +532,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -531,7 +540,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -539,7 +548,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -547,7 +556,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -555,7 +564,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -563,7 +572,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -571,7 +580,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -579,7 +588,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -587,7 +596,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -595,7 +604,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -603,7 +612,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -611,7 +620,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -619,7 +628,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -627,7 +636,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -635,7 +644,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -643,7 +652,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -651,7 +660,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -659,7 +668,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -667,7 +676,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -675,7 +684,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -683,7 +692,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -691,7 +700,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -699,7 +708,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -707,7 +716,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -715,7 +724,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -723,7 +732,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -731,7 +740,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -739,7 +748,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -747,7 +756,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -755,7 +764,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -763,7 +772,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -771,7 +780,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -779,7 +788,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -787,7 +796,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -796,6 +805,30 @@
       </c>
       <c r="B38">
         <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,132 +14,144 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Cluster Name</t>
   </si>
   <si>
-    <t>Activecases</t>
-  </si>
-  <si>
-    <t>202111 45784 Holy Rosary Primary SchoolWhite Hills Outbreak</t>
-  </si>
-  <si>
-    <t>3321 Rochester and Elmore District Health Service Yalunkan Aged Care Hostel RochesterOutbreak</t>
-  </si>
-  <si>
-    <t>3323 Villa Maria Catholic Homes St Bernadette's Aged Care Sunshine North Outbreak</t>
-  </si>
-  <si>
-    <t>3600 Belvedere Aged Care Noble Park Outbreak</t>
-  </si>
-  <si>
-    <t>3601 Baptcare Westhaven community Outbreak</t>
-  </si>
-  <si>
-    <t>3653 Fronditha Thalpori St Albans Aged Care Outbreak</t>
-  </si>
-  <si>
-    <t>44098 Stawell Primary School Outbreak</t>
-  </si>
-  <si>
-    <t>44121 Wallan Primary School Wallan Outbreak</t>
-  </si>
-  <si>
-    <t>44165 Greenvale Primary School Outbreak</t>
-  </si>
-  <si>
-    <t>44234 Lucknow Primary School Bairnsdale Outbreak</t>
-  </si>
-  <si>
-    <t>44495 Lakes Entrance Primary School Outbreak</t>
-  </si>
-  <si>
-    <t>44667 Beaumaris Primary School Beaumaris Outbreak</t>
-  </si>
-  <si>
-    <t>44811 Dandenong North Primary SchoolDandenong Outbreak</t>
-  </si>
-  <si>
-    <t>44853 St Albans North Primary School Outbreak</t>
-  </si>
-  <si>
-    <t>44865 Parktone Primary School Parkdale Outbreak</t>
-  </si>
-  <si>
-    <t>44891 Cranbourne Park Primary School Cranbourne Outbreak</t>
-  </si>
-  <si>
-    <t>45158 Rowellyn Park Primary School Carrum Downs Outbreak</t>
-  </si>
-  <si>
-    <t>45248 Brookside P-9 College Caroline Springs Outbreak</t>
-  </si>
-  <si>
-    <t>45249 Creekside K-9 College Caroline SpringsOutbreak</t>
+    <t>Active cases</t>
+  </si>
+  <si>
+    <t>202111 45784 Holy Rosary Primary SchoolWhite Hills</t>
+  </si>
+  <si>
+    <t>3321 Rochester and Elmore District HealthService Yalunkan Aged Care Hostel Rochester</t>
+  </si>
+  <si>
+    <t>3323 Villa Maria Catholic Homes St Bernadette'sAged Care Sunshine North</t>
+  </si>
+  <si>
+    <t>3600 Belvedere Aged Care Noble Park</t>
+  </si>
+  <si>
+    <t>3601 Baptcare Westhaven community outbreak</t>
+  </si>
+  <si>
+    <t>3653 Fronditha Thalpori St Albans Aged Care</t>
+  </si>
+  <si>
+    <t>4257 BlueCross The Gables Camberwell</t>
+  </si>
+  <si>
+    <t>44098 Stawell Primary School</t>
+  </si>
+  <si>
+    <t>44121 Wallan Primary School Wallan</t>
+  </si>
+  <si>
+    <t>44165 Greenvale Primary School</t>
+  </si>
+  <si>
+    <t>44234 Lucknow Primary School Bairnsdale</t>
+  </si>
+  <si>
+    <t>44495 Lakes Entrance Primary School</t>
+  </si>
+  <si>
+    <t>44667 Beaumaris Primary School Beaumaris</t>
+  </si>
+  <si>
+    <t>44701 Hampton Park Primary School HamptonPark</t>
+  </si>
+  <si>
+    <t>44718 Parkdale Primary School Parkdale</t>
+  </si>
+  <si>
+    <t>44811 Dandenong North Primary SchoolDandenong</t>
+  </si>
+  <si>
+    <t>44853 St Albans North Primary School</t>
+  </si>
+  <si>
+    <t>44865 Parktone Primary School Parkdale</t>
+  </si>
+  <si>
+    <t>44891 Cranbourne Park Primary SchoolCranbourne</t>
+  </si>
+  <si>
+    <t>45158 Rowellyn Park Primary School CarrumDowns</t>
+  </si>
+  <si>
+    <t>45248 Brookside P-9 College Caroline Springs</t>
+  </si>
+  <si>
+    <t>45249 Creekside K-9 College Caroline Springs</t>
   </si>
   <si>
     <t>45569 Nhill College Nhill Outbreak</t>
   </si>
   <si>
-    <t>4574 Village Glen Aged Care Residences Mornington Outbreak</t>
-  </si>
-  <si>
-    <t>45836 St Joseph's Primary School Sorrento Outbreak</t>
-  </si>
-  <si>
-    <t>45967 St Clement of Rome School Bulleen Outbreak</t>
-  </si>
-  <si>
-    <t>46037 Nazareth Catholic Primary SchoolGrovedale Outbreak</t>
-  </si>
-  <si>
-    <t>46050 Our Lady's Catholic Primary School Craigieburn Outbreak</t>
-  </si>
-  <si>
-    <t>46125 Our Lady of the Southern Cross Primary School Manor Lakes Outbreak</t>
-  </si>
-  <si>
-    <t>46190 Haileybury Brighton East Outbreak</t>
-  </si>
-  <si>
-    <t>46215 Yeshivah primary College St Kilda East Outbreak</t>
-  </si>
-  <si>
-    <t>46276 Hillcrest Christian College Clyde NorthOutbreak</t>
-  </si>
-  <si>
-    <t>46328 Ilim College Dallas Main Campus Dallas Oct Outbreak</t>
-  </si>
-  <si>
-    <t>46376 Yesodei HaTorah College Elwood Outbreak</t>
-  </si>
-  <si>
-    <t>46390 Al Siraat College Epping Outbreak</t>
-  </si>
-  <si>
-    <t>50395 St Francis of Assisi Catholic PrimarySchool Tarneit Outbreak</t>
-  </si>
-  <si>
-    <t>50681 Broadmeadows Special Developmental School Broadmeadows Outbreak</t>
-  </si>
-  <si>
-    <t>52380 Al Iman College Melton South Outbreak</t>
-  </si>
-  <si>
-    <t>52473 John Henry Primary School PakenhamOutbreak</t>
-  </si>
-  <si>
-    <t>Adass Israel School Elsternwick Outbreak</t>
-  </si>
-  <si>
-    <t>Hamilton Country Music Festival Hamilton Golf Club Hamilton Outbreak</t>
-  </si>
-  <si>
-    <t>Melton Willows Melton Outbreak</t>
-  </si>
-  <si>
-    <t>St Brendans Primary School Shepparton Outbreak</t>
+    <t>45648 St Brendans Primary School Shepparton</t>
+  </si>
+  <si>
+    <t>4574 Village Glen Aged Care ResidencesMornington</t>
+  </si>
+  <si>
+    <t>45967 St Clement of Rome School Bulleen</t>
+  </si>
+  <si>
+    <t>46037 Nazareth Catholic Primary SchoolGrovedale</t>
+  </si>
+  <si>
+    <t>46050 Our Lady's Catholic Primary SchoolCraigieburn</t>
+  </si>
+  <si>
+    <t>46125 Our Lady of the Southern Cross PrimarySchool Manor Lakes</t>
+  </si>
+  <si>
+    <t>46190 Haileybury Brighton East</t>
+  </si>
+  <si>
+    <t>46215 Yeshivah Primary College St Kilda East</t>
+  </si>
+  <si>
+    <t>46276 Hillcrest Christian College Clyde North</t>
+  </si>
+  <si>
+    <t>46328 Ilim College Dallas Main Campus DallasOct</t>
+  </si>
+  <si>
+    <t>46376 Yesodei HaTorah College Elwood</t>
+  </si>
+  <si>
+    <t>50395 St Francis of Assisi Catholic PrimarySchool Tarneit</t>
+  </si>
+  <si>
+    <t>52380 Al Iman College Melton South</t>
+  </si>
+  <si>
+    <t>52473 John Henry Primary School Pakenham</t>
+  </si>
+  <si>
+    <t>Alfred Health Caulfield Hospital Caulfield</t>
+  </si>
+  <si>
+    <t>Camp Coolamatong Farm Camp BanksiaPeninsula</t>
+  </si>
+  <si>
+    <t>Escala NewQuay Construction Site DocklandsDrive Docklands</t>
+  </si>
+  <si>
+    <t>Gippsland and East Gippsland Aboriginal Co-Operative Bairnsdale</t>
+  </si>
+  <si>
+    <t>Hamilton Country Music Festival Hamilton GolfClub Hamilton</t>
+  </si>
+  <si>
+    <t>Melton Willows Melton</t>
+  </si>
+  <si>
+    <t>St Josephs Catholic Primary School Warragul</t>
   </si>
 </sst>
 </file>
@@ -497,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,7 +528,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -524,7 +536,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -532,7 +544,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -540,7 +552,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -548,7 +560,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -556,7 +568,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -564,7 +576,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -572,7 +584,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -580,7 +592,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -588,7 +600,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -596,7 +608,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -604,7 +616,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -612,7 +624,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -620,7 +632,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -628,7 +640,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -636,7 +648,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -644,7 +656,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -652,7 +664,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -660,7 +672,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -668,7 +680,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -676,7 +688,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -684,7 +696,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -692,7 +704,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -700,7 +712,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -708,7 +720,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -716,7 +728,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -724,7 +736,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -732,7 +744,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -740,7 +752,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -748,7 +760,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -756,7 +768,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -764,7 +776,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -772,7 +784,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -780,7 +792,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -788,7 +800,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -796,7 +808,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -804,7 +816,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -812,7 +824,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -820,7 +832,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -828,7 +840,39 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>12</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -19,22 +19,25 @@
     <t>Cluster Name</t>
   </si>
   <si>
-    <t>Active cases</t>
-  </si>
-  <si>
-    <t>202111 45784 Holy Rosary Primary SchoolWhite Hills</t>
-  </si>
-  <si>
-    <t>3321 Rochester and Elmore District HealthService Yalunkan Aged Care Hostel Rochester</t>
-  </si>
-  <si>
-    <t>3323 Villa Maria Catholic Homes St Bernadette'sAged Care Sunshine North</t>
+    <t>Active Cases</t>
+  </si>
+  <si>
+    <t>12 Ironbark Drive Sunbury</t>
+  </si>
+  <si>
+    <t>202111 45784 Holy Rosary Primary School White Hills</t>
+  </si>
+  <si>
+    <t>3321 Rochester and Elmore District Health Service Yalunkan Aged Care Hostel Rochester</t>
+  </si>
+  <si>
+    <t>3323 Villa Maria Catholic Homes St Bernadette's Aged Care Sunshine North</t>
   </si>
   <si>
     <t>3600 Belvedere Aged Care Noble Park</t>
   </si>
   <si>
-    <t>3601 Baptcare Westhaven community outbreak</t>
+    <t>3601 Baptcare Westhaven community</t>
   </si>
   <si>
     <t>3653 Fronditha Thalpori St Albans Aged Care</t>
@@ -61,25 +64,19 @@
     <t>44667 Beaumaris Primary School Beaumaris</t>
   </si>
   <si>
-    <t>44701 Hampton Park Primary School HamptonPark</t>
+    <t>44701 Hampton Park Primary School Hampton Park</t>
   </si>
   <si>
     <t>44718 Parkdale Primary School Parkdale</t>
   </si>
   <si>
-    <t>44811 Dandenong North Primary SchoolDandenong</t>
-  </si>
-  <si>
-    <t>44853 St Albans North Primary School</t>
+    <t>44811 Dandenong North Primary School Dandenong</t>
   </si>
   <si>
     <t>44865 Parktone Primary School Parkdale</t>
   </si>
   <si>
-    <t>44891 Cranbourne Park Primary SchoolCranbourne</t>
-  </si>
-  <si>
-    <t>45158 Rowellyn Park Primary School CarrumDowns</t>
+    <t>44891 Cranbourne Park Primary School Cranbourne</t>
   </si>
   <si>
     <t>45248 Brookside P-9 College Caroline Springs</t>
@@ -88,25 +85,31 @@
     <t>45249 Creekside K-9 College Caroline Springs</t>
   </si>
   <si>
-    <t>45569 Nhill College Nhill Outbreak</t>
+    <t>45267 Epping Views Primary School Epping</t>
+  </si>
+  <si>
+    <t>45569 Nhill College Nhill</t>
   </si>
   <si>
     <t>45648 St Brendans Primary School Shepparton</t>
   </si>
   <si>
-    <t>4574 Village Glen Aged Care ResidencesMornington</t>
+    <t>4574 Village Glen Aged Care Residences Mornington</t>
+  </si>
+  <si>
+    <t>45836 St Joseph's Primary School Sorrento</t>
   </si>
   <si>
     <t>45967 St Clement of Rome School Bulleen</t>
   </si>
   <si>
-    <t>46037 Nazareth Catholic Primary SchoolGrovedale</t>
-  </si>
-  <si>
-    <t>46050 Our Lady's Catholic Primary SchoolCraigieburn</t>
-  </si>
-  <si>
-    <t>46125 Our Lady of the Southern Cross PrimarySchool Manor Lakes</t>
+    <t>46037 Nazareth Catholic Primary School Grovedale</t>
+  </si>
+  <si>
+    <t>46050 Our Lady's Catholic Primary School Craigieburn</t>
+  </si>
+  <si>
+    <t>46125 Our Lady of the Southern Cross Primary School Manor Lakes</t>
   </si>
   <si>
     <t>46190 Haileybury Brighton East</t>
@@ -118,10 +121,7 @@
     <t>46276 Hillcrest Christian College Clyde North</t>
   </si>
   <si>
-    <t>46328 Ilim College Dallas Main Campus DallasOct</t>
-  </si>
-  <si>
-    <t>46376 Yesodei HaTorah College Elwood</t>
+    <t>46328 Ilim College Dallas Main Campus Dallas</t>
   </si>
   <si>
     <t>50395 St Francis of Assisi Catholic PrimarySchool Tarneit</t>
@@ -133,25 +133,25 @@
     <t>52473 John Henry Primary School Pakenham</t>
   </si>
   <si>
-    <t>Alfred Health Caulfield Hospital Caulfield</t>
-  </si>
-  <si>
-    <t>Camp Coolamatong Farm Camp BanksiaPeninsula</t>
-  </si>
-  <si>
-    <t>Escala NewQuay Construction Site DocklandsDrive Docklands</t>
+    <t>Camp Coolamatong Farm Camp Banksia Peninsula</t>
+  </si>
+  <si>
+    <t>Escala NewQuay Construction Site Docklands Drive Docklands</t>
   </si>
   <si>
     <t>Gippsland and East Gippsland Aboriginal Co-Operative Bairnsdale</t>
   </si>
   <si>
-    <t>Hamilton Country Music Festival Hamilton GolfClub Hamilton</t>
+    <t>Hamilton Country Music Festival Hamilton Golf Club Hamilton</t>
   </si>
   <si>
     <t>Melton Willows Melton</t>
   </si>
   <si>
     <t>St Josephs Catholic Primary School Warragul</t>
+  </si>
+  <si>
+    <t>Wagstaff Meat Processing Plant Cranbourne East</t>
   </si>
 </sst>
 </file>
@@ -528,7 +528,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -536,7 +536,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -544,7 +544,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -552,7 +552,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -560,7 +560,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -568,7 +568,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -576,7 +576,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -584,7 +584,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -600,7 +600,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -608,7 +608,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -616,7 +616,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -624,7 +624,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -632,7 +632,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -640,7 +640,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -648,7 +648,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -656,7 +656,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -664,7 +664,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -672,7 +672,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -680,7 +680,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -688,7 +688,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -696,7 +696,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -704,7 +704,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -712,7 +712,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -728,7 +728,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -736,7 +736,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -744,7 +744,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -752,7 +752,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -760,7 +760,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -768,7 +768,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -776,7 +776,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -784,7 +784,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -792,7 +792,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -800,7 +800,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -808,7 +808,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -816,7 +816,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -824,7 +824,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -832,7 +832,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -840,7 +840,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -848,7 +848,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -856,7 +856,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -872,7 +872,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,18 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Cluster Name</t>
   </si>
   <si>
-    <t>Active Cases</t>
-  </si>
-  <si>
-    <t>12 Ironbark Drive Sunbury</t>
-  </si>
-  <si>
-    <t>202111 45784 Holy Rosary Primary School White Hills</t>
+    <t>Active cases</t>
   </si>
   <si>
     <t>3321 Rochester and Elmore District Health Service Yalunkan Aged Care Hostel Rochester</t>
@@ -43,9 +37,15 @@
     <t>3653 Fronditha Thalpori St Albans Aged Care</t>
   </si>
   <si>
+    <t>3939 Bupa Aged Care Eastwood</t>
+  </si>
+  <si>
     <t>4257 BlueCross The Gables Camberwell</t>
   </si>
   <si>
+    <t>44087 Fitzroy Primary School Fitzroy</t>
+  </si>
+  <si>
     <t>44098 Stawell Primary School</t>
   </si>
   <si>
@@ -58,21 +58,18 @@
     <t>44234 Lucknow Primary School Bairnsdale</t>
   </si>
   <si>
-    <t>44495 Lakes Entrance Primary School</t>
-  </si>
-  <si>
     <t>44667 Beaumaris Primary School Beaumaris</t>
   </si>
   <si>
-    <t>44701 Hampton Park Primary School Hampton Park</t>
-  </si>
-  <si>
     <t>44718 Parkdale Primary School Parkdale</t>
   </si>
   <si>
     <t>44811 Dandenong North Primary School Dandenong</t>
   </si>
   <si>
+    <t>44812 Bairnsdale West Primary School</t>
+  </si>
+  <si>
     <t>44865 Parktone Primary School Parkdale</t>
   </si>
   <si>
@@ -88,7 +85,10 @@
     <t>45267 Epping Views Primary School Epping</t>
   </si>
   <si>
-    <t>45569 Nhill College Nhill</t>
+    <t>45518 Ashwood High School Ashwood</t>
+  </si>
+  <si>
+    <t>45569 Nhill College Nhill Outbreak</t>
   </si>
   <si>
     <t>45648 St Brendans Primary School Shepparton</t>
@@ -97,12 +97,12 @@
     <t>4574 Village Glen Aged Care Residences Mornington</t>
   </si>
   <si>
+    <t>45784 Holy Rosary Primary School White Hills</t>
+  </si>
+  <si>
     <t>45836 St Joseph's Primary School Sorrento</t>
   </si>
   <si>
-    <t>45967 St Clement of Rome School Bulleen</t>
-  </si>
-  <si>
     <t>46037 Nazareth Catholic Primary School Grovedale</t>
   </si>
   <si>
@@ -112,19 +112,13 @@
     <t>46125 Our Lady of the Southern Cross Primary School Manor Lakes</t>
   </si>
   <si>
-    <t>46190 Haileybury Brighton East</t>
-  </si>
-  <si>
-    <t>46215 Yeshivah Primary College St Kilda East</t>
-  </si>
-  <si>
     <t>46276 Hillcrest Christian College Clyde North</t>
   </si>
   <si>
-    <t>46328 Ilim College Dallas Main Campus Dallas</t>
-  </si>
-  <si>
-    <t>50395 St Francis of Assisi Catholic PrimarySchool Tarneit</t>
+    <t>46328 Ilim College Dallas Main Campus Dallas Oct</t>
+  </si>
+  <si>
+    <t>51529 Sirius College Primary School Dallas</t>
   </si>
   <si>
     <t>52380 Al Iman College Melton South</t>
@@ -133,25 +127,40 @@
     <t>52473 John Henry Primary School Pakenham</t>
   </si>
   <si>
+    <t>Alfred Health Caulfield Hospital Caulfield</t>
+  </si>
+  <si>
     <t>Camp Coolamatong Farm Camp Banksia Peninsula</t>
   </si>
   <si>
     <t>Escala NewQuay Construction Site Docklands Drive Docklands</t>
   </si>
   <si>
-    <t>Gippsland and East Gippsland Aboriginal Co-Operative Bairnsdale</t>
+    <t>Gippsland and East Gippsland Aboriginal Co- Operative Bairnsdale</t>
   </si>
   <si>
     <t>Hamilton Country Music Festival Hamilton Golf Club Hamilton</t>
   </si>
   <si>
+    <t>Hodges Real Estate Brighton</t>
+  </si>
+  <si>
     <t>Melton Willows Melton</t>
   </si>
   <si>
+    <t>Oakleigh Grammar Melbourne Private School Oakleigh</t>
+  </si>
+  <si>
     <t>St Josephs Catholic Primary School Warragul</t>
   </si>
   <si>
     <t>Wagstaff Meat Processing Plant Cranbourne East</t>
+  </si>
+  <si>
+    <t>Werribee Mercy Hospital Emergency Department</t>
+  </si>
+  <si>
+    <t>Western Health Sunshine Hospital Emergency Department St Albans</t>
   </si>
 </sst>
 </file>
@@ -509,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +537,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -536,7 +545,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -544,7 +553,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -552,7 +561,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -560,7 +569,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -568,7 +577,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -576,7 +585,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -584,7 +593,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -600,7 +609,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -608,7 +617,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -616,7 +625,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -624,7 +633,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -632,7 +641,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -640,7 +649,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -648,7 +657,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -656,7 +665,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -664,7 +673,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -672,7 +681,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -680,7 +689,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -688,7 +697,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -696,7 +705,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -704,7 +713,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -712,7 +721,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -720,7 +729,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -728,7 +737,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -744,7 +753,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -752,7 +761,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -768,7 +777,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -776,7 +785,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -784,7 +793,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -792,7 +801,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -800,7 +809,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -816,7 +825,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -824,7 +833,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -832,7 +841,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -840,7 +849,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -848,7 +857,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -864,7 +873,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -872,7 +881,31 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>23</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Cluster Name</t>
   </si>
@@ -34,12 +34,15 @@
     <t>3601 Baptcare Westhaven community</t>
   </si>
   <si>
-    <t>3653 Fronditha Thalpori St Albans Aged Care</t>
+    <t>3653 Fronditha Thalpori St Albans Aged</t>
   </si>
   <si>
     <t>3939 Bupa Aged Care Eastwood</t>
   </si>
   <si>
+    <t>3988 Kerala Manor Aged Care Diamond Creek</t>
+  </si>
+  <si>
     <t>4257 BlueCross The Gables Camberwell</t>
   </si>
   <si>
@@ -58,6 +61,12 @@
     <t>44234 Lucknow Primary School Bairnsdale</t>
   </si>
   <si>
+    <t>44444 Nar Nar Goon Primary School Nar Nar Goon</t>
+  </si>
+  <si>
+    <t>44630 Black Rock Primary School Black Rock</t>
+  </si>
+  <si>
     <t>44667 Beaumaris Primary School Beaumaris</t>
   </si>
   <si>
@@ -82,13 +91,13 @@
     <t>45249 Creekside K-9 College Caroline Springs</t>
   </si>
   <si>
-    <t>45267 Epping Views Primary School Epping</t>
+    <t>45267 Epping Views Primary School</t>
   </si>
   <si>
     <t>45518 Ashwood High School Ashwood</t>
   </si>
   <si>
-    <t>45569 Nhill College Nhill Outbreak</t>
+    <t>45569 Nhill College Nhill</t>
   </si>
   <si>
     <t>45648 St Brendans Primary School Shepparton</t>
@@ -100,25 +109,31 @@
     <t>45784 Holy Rosary Primary School White Hills</t>
   </si>
   <si>
-    <t>45836 St Joseph's Primary School Sorrento</t>
-  </si>
-  <si>
     <t>46037 Nazareth Catholic Primary School Grovedale</t>
   </si>
   <si>
     <t>46050 Our Lady's Catholic Primary School Craigieburn</t>
   </si>
   <si>
+    <t>46093 St Brendan's Primary School Somerville</t>
+  </si>
+  <si>
+    <t>46095 Bethany Catholic Primary School Werribee</t>
+  </si>
+  <si>
     <t>46125 Our Lady of the Southern Cross Primary School Manor Lakes</t>
   </si>
   <si>
     <t>46276 Hillcrest Christian College Clyde North</t>
   </si>
   <si>
-    <t>46328 Ilim College Dallas Main Campus Dallas Oct</t>
-  </si>
-  <si>
-    <t>51529 Sirius College Primary School Dallas</t>
+    <t>46328 Ilim College Inverloch Crescent Dallas</t>
+  </si>
+  <si>
+    <t>46390 Al Siraat College Epping</t>
+  </si>
+  <si>
+    <t>50584 St Mary of the Cross MacKillop Primary School Epping</t>
   </si>
   <si>
     <t>52380 Al Iman College Melton South</t>
@@ -127,30 +142,30 @@
     <t>52473 John Henry Primary School Pakenham</t>
   </si>
   <si>
-    <t>Alfred Health Caulfield Hospital Caulfield</t>
+    <t>Adass Israel School Elsternwick</t>
   </si>
   <si>
     <t>Camp Coolamatong Farm Camp Banksia Peninsula</t>
   </si>
   <si>
+    <t>Christ the Priest Primary School Caroline Springs</t>
+  </si>
+  <si>
     <t>Escala NewQuay Construction Site Docklands Drive Docklands</t>
   </si>
   <si>
-    <t>Gippsland and East Gippsland Aboriginal Co- Operative Bairnsdale</t>
-  </si>
-  <si>
     <t>Hamilton Country Music Festival Hamilton Golf Club Hamilton</t>
   </si>
   <si>
-    <t>Hodges Real Estate Brighton</t>
-  </si>
-  <si>
-    <t>Melton Willows Melton</t>
+    <t>Islamic College of Melbourne Tarneit Oct Nov</t>
   </si>
   <si>
     <t>Oakleigh Grammar Melbourne Private School Oakleigh</t>
   </si>
   <si>
+    <t>Social Gathering 20 November Sunbury</t>
+  </si>
+  <si>
     <t>St Josephs Catholic Primary School Warragul</t>
   </si>
   <si>
@@ -158,9 +173,6 @@
   </si>
   <si>
     <t>Werribee Mercy Hospital Emergency Department</t>
-  </si>
-  <si>
-    <t>Western Health Sunshine Hospital Emergency Department St Albans</t>
   </si>
 </sst>
 </file>
@@ -518,7 +530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,7 +549,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -545,7 +557,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -561,7 +573,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -577,7 +589,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -585,7 +597,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -593,7 +605,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -601,7 +613,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -609,7 +621,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -617,7 +629,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -625,7 +637,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -633,7 +645,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -641,7 +653,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -649,7 +661,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -657,7 +669,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -665,7 +677,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -673,7 +685,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -681,7 +693,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -689,7 +701,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -697,7 +709,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -705,7 +717,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -713,7 +725,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>37</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -721,7 +733,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -729,7 +741,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -737,7 +749,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -745,7 +757,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -753,7 +765,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -761,7 +773,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -769,7 +781,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -777,7 +789,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -785,7 +797,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -793,7 +805,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -801,7 +813,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -809,7 +821,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -817,7 +829,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -825,7 +837,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -833,7 +845,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -841,7 +853,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -849,7 +861,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -857,7 +869,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -865,7 +877,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -873,7 +885,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -881,7 +893,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -889,7 +901,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -897,7 +909,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -906,6 +918,38 @@
       </c>
       <c r="B48">
         <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,27 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Cluster Name</t>
   </si>
   <si>
-    <t>Active cases</t>
-  </si>
-  <si>
-    <t>3321 Rochester and Elmore District Health Service Yalunkan Aged Care Hostel Rochester</t>
-  </si>
-  <si>
-    <t>3323 Villa Maria Catholic Homes St Bernadette's Aged Care Sunshine North</t>
-  </si>
-  <si>
-    <t>3600 Belvedere Aged Care Noble Park</t>
+    <t>Activecases</t>
+  </si>
+  <si>
+    <t>3321 Rochester and Elmore District HealthService Yalunkan Aged Care Hostel Rochester</t>
+  </si>
+  <si>
+    <t>3323 Villa Maria Catholic Homes St Bernadette'sAged Care Sunshine North</t>
   </si>
   <si>
     <t>3601 Baptcare Westhaven community</t>
   </si>
   <si>
-    <t>3653 Fronditha Thalpori St Albans Aged</t>
+    <t>3653 Fronditha Thalpori St Albans Aged Care</t>
   </si>
   <si>
     <t>3939 Bupa Aged Care Eastwood</t>
@@ -46,6 +43,9 @@
     <t>4257 BlueCross The Gables Camberwell</t>
   </si>
   <si>
+    <t>4295 Hope Aged Care Sunshine West</t>
+  </si>
+  <si>
     <t>44087 Fitzroy Primary School Fitzroy</t>
   </si>
   <si>
@@ -61,19 +61,16 @@
     <t>44234 Lucknow Primary School Bairnsdale</t>
   </si>
   <si>
-    <t>44444 Nar Nar Goon Primary School Nar Nar Goon</t>
+    <t>44444 Nar Nar Goon Primary School Nar NarGoon</t>
   </si>
   <si>
     <t>44630 Black Rock Primary School Black Rock</t>
   </si>
   <si>
-    <t>44667 Beaumaris Primary School Beaumaris</t>
-  </si>
-  <si>
     <t>44718 Parkdale Primary School Parkdale</t>
   </si>
   <si>
-    <t>44811 Dandenong North Primary School Dandenong</t>
+    <t>44811 Dandenong North Primary SchoolDandenong</t>
   </si>
   <si>
     <t>44812 Bairnsdale West Primary School</t>
@@ -82,16 +79,13 @@
     <t>44865 Parktone Primary School Parkdale</t>
   </si>
   <si>
-    <t>44891 Cranbourne Park Primary School Cranbourne</t>
-  </si>
-  <si>
     <t>45248 Brookside P-9 College Caroline Springs</t>
   </si>
   <si>
     <t>45249 Creekside K-9 College Caroline Springs</t>
   </si>
   <si>
-    <t>45267 Epping Views Primary School</t>
+    <t>45267 Epping Views Primary School Epping</t>
   </si>
   <si>
     <t>45518 Ashwood High School Ashwood</t>
@@ -103,25 +97,31 @@
     <t>45648 St Brendans Primary School Shepparton</t>
   </si>
   <si>
-    <t>4574 Village Glen Aged Care Residences Mornington</t>
+    <t>4574 Village Glen Aged Care ResidencesMornington</t>
   </si>
   <si>
     <t>45784 Holy Rosary Primary School White Hills</t>
   </si>
   <si>
-    <t>46037 Nazareth Catholic Primary School Grovedale</t>
-  </si>
-  <si>
-    <t>46050 Our Lady's Catholic Primary School Craigieburn</t>
+    <t>45848 St Kevin's College ToorakGlendalough Campus Junior School</t>
+  </si>
+  <si>
+    <t>46037 Nazareth Catholic Primary SchoolGrovedale</t>
+  </si>
+  <si>
+    <t>46050 Our Lady's Catholic Primary SchoolCraigieburn</t>
   </si>
   <si>
     <t>46093 St Brendan's Primary School Somerville</t>
   </si>
   <si>
-    <t>46095 Bethany Catholic Primary School Werribee</t>
-  </si>
-  <si>
-    <t>46125 Our Lady of the Southern Cross Primary School Manor Lakes</t>
+    <t>46095 Bethany Catholic Primary SchoolWerribee</t>
+  </si>
+  <si>
+    <t>46125 Our Lady of the Southern Cross PrimarySchool Manor Lakes</t>
+  </si>
+  <si>
+    <t>46215 Yeshivah Primary College St Kilda East</t>
   </si>
   <si>
     <t>46276 Hillcrest Christian College Clyde North</t>
@@ -133,9 +133,6 @@
     <t>46390 Al Siraat College Epping</t>
   </si>
   <si>
-    <t>50584 St Mary of the Cross MacKillop Primary School Epping</t>
-  </si>
-  <si>
     <t>52380 Al Iman College Melton South</t>
   </si>
   <si>
@@ -145,22 +142,25 @@
     <t>Adass Israel School Elsternwick</t>
   </si>
   <si>
-    <t>Camp Coolamatong Farm Camp Banksia Peninsula</t>
+    <t>Camp Coolamatong Farm Camp BanksiaPeninsula</t>
   </si>
   <si>
     <t>Christ the Priest Primary School Caroline Springs</t>
   </si>
   <si>
-    <t>Escala NewQuay Construction Site Docklands Drive Docklands</t>
-  </si>
-  <si>
-    <t>Hamilton Country Music Festival Hamilton Golf Club Hamilton</t>
+    <t>Gippsland and East Gippsland Aboriginal Co-Operative Bairnsdale</t>
+  </si>
+  <si>
+    <t>Hamilton Country Music Festival Hamilton GolfClub Hamilton</t>
+  </si>
+  <si>
+    <t>Hodges Real Estate Brighton</t>
   </si>
   <si>
     <t>Islamic College of Melbourne Tarneit Oct Nov</t>
   </si>
   <si>
-    <t>Oakleigh Grammar Melbourne Private School Oakleigh</t>
+    <t>Oakleigh Grammar Melbourne Private SchoolOakleigh</t>
   </si>
   <si>
     <t>Social Gathering 20 November Sunbury</t>
@@ -169,10 +169,19 @@
     <t>St Josephs Catholic Primary School Warragul</t>
   </si>
   <si>
-    <t>Wagstaff Meat Processing Plant Cranbourne East</t>
+    <t>St. Francis of Assisi Primary School Mill Park</t>
+  </si>
+  <si>
+    <t>Wagstaff Meat Processing Plant CranbourneEast</t>
   </si>
   <si>
     <t>Werribee Mercy Hospital Emergency Department</t>
+  </si>
+  <si>
+    <t>Westdale Kindergarten Bairnsdale</t>
+  </si>
+  <si>
+    <t>Western Health Sunshine Hospital EmergencyDepartment St Albans</t>
   </si>
 </sst>
 </file>
@@ -530,7 +539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -573,7 +582,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -581,7 +590,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -589,7 +598,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -597,7 +606,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -605,7 +614,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -613,7 +622,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -629,7 +638,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -637,7 +646,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -645,7 +654,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -653,7 +662,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -661,7 +670,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -669,7 +678,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -677,7 +686,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -685,7 +694,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -693,7 +702,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -701,7 +710,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -725,7 +734,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -733,7 +742,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -741,7 +750,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -749,7 +758,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -757,7 +766,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -765,7 +774,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -773,7 +782,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -781,7 +790,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -789,7 +798,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -797,7 +806,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -805,7 +814,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -813,7 +822,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -821,7 +830,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -829,7 +838,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -837,7 +846,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -845,7 +854,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -853,7 +862,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -861,7 +870,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -869,7 +878,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -877,7 +886,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -885,7 +894,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -893,7 +902,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -901,7 +910,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -909,7 +918,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -917,7 +926,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -933,7 +942,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -941,7 +950,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -949,7 +958,31 @@
         <v>52</v>
       </c>
       <c r="B52">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53">
         <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,174 +14,168 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Cluster Name</t>
   </si>
   <si>
-    <t>Activecases</t>
-  </si>
-  <si>
-    <t>3321 Rochester and Elmore District HealthService Yalunkan Aged Care Hostel Rochester</t>
-  </si>
-  <si>
-    <t>3323 Villa Maria Catholic Homes St Bernadette'sAged Care Sunshine North</t>
-  </si>
-  <si>
-    <t>3601 Baptcare Westhaven community</t>
-  </si>
-  <si>
-    <t>3653 Fronditha Thalpori St Albans Aged Care</t>
-  </si>
-  <si>
-    <t>3939 Bupa Aged Care Eastwood</t>
-  </si>
-  <si>
-    <t>3988 Kerala Manor Aged Care Diamond Creek</t>
-  </si>
-  <si>
-    <t>4257 BlueCross The Gables Camberwell</t>
-  </si>
-  <si>
-    <t>4295 Hope Aged Care Sunshine West</t>
-  </si>
-  <si>
-    <t>44087 Fitzroy Primary School Fitzroy</t>
-  </si>
-  <si>
-    <t>44098 Stawell Primary School</t>
-  </si>
-  <si>
-    <t>44121 Wallan Primary School Wallan</t>
-  </si>
-  <si>
-    <t>44165 Greenvale Primary School</t>
-  </si>
-  <si>
-    <t>44234 Lucknow Primary School Bairnsdale</t>
-  </si>
-  <si>
-    <t>44444 Nar Nar Goon Primary School Nar NarGoon</t>
-  </si>
-  <si>
-    <t>44630 Black Rock Primary School Black Rock</t>
-  </si>
-  <si>
-    <t>44718 Parkdale Primary School Parkdale</t>
-  </si>
-  <si>
-    <t>44811 Dandenong North Primary SchoolDandenong</t>
-  </si>
-  <si>
-    <t>44812 Bairnsdale West Primary School</t>
-  </si>
-  <si>
-    <t>44865 Parktone Primary School Parkdale</t>
-  </si>
-  <si>
-    <t>45248 Brookside P-9 College Caroline Springs</t>
-  </si>
-  <si>
-    <t>45249 Creekside K-9 College Caroline Springs</t>
-  </si>
-  <si>
-    <t>45267 Epping Views Primary School Epping</t>
-  </si>
-  <si>
-    <t>45518 Ashwood High School Ashwood</t>
-  </si>
-  <si>
-    <t>45569 Nhill College Nhill</t>
-  </si>
-  <si>
-    <t>45648 St Brendans Primary School Shepparton</t>
-  </si>
-  <si>
-    <t>4574 Village Glen Aged Care ResidencesMornington</t>
-  </si>
-  <si>
-    <t>45784 Holy Rosary Primary School White Hills</t>
-  </si>
-  <si>
-    <t>45848 St Kevin's College ToorakGlendalough Campus Junior School</t>
-  </si>
-  <si>
-    <t>46037 Nazareth Catholic Primary SchoolGrovedale</t>
-  </si>
-  <si>
-    <t>46050 Our Lady's Catholic Primary SchoolCraigieburn</t>
-  </si>
-  <si>
-    <t>46093 St Brendan's Primary School Somerville</t>
-  </si>
-  <si>
-    <t>46095 Bethany Catholic Primary SchoolWerribee</t>
-  </si>
-  <si>
-    <t>46125 Our Lady of the Southern Cross PrimarySchool Manor Lakes</t>
-  </si>
-  <si>
-    <t>46215 Yeshivah Primary College St Kilda East</t>
-  </si>
-  <si>
-    <t>46276 Hillcrest Christian College Clyde North</t>
-  </si>
-  <si>
-    <t>46328 Ilim College Inverloch Crescent Dallas</t>
-  </si>
-  <si>
-    <t>46390 Al Siraat College Epping</t>
-  </si>
-  <si>
-    <t>52380 Al Iman College Melton South</t>
-  </si>
-  <si>
-    <t>52473 John Henry Primary School Pakenham</t>
-  </si>
-  <si>
-    <t>Adass Israel School Elsternwick</t>
-  </si>
-  <si>
-    <t>Camp Coolamatong Farm Camp BanksiaPeninsula</t>
+    <t>Active cases</t>
+  </si>
+  <si>
+    <t>Al Iman College Melton South</t>
+  </si>
+  <si>
+    <t>Al Siraat College Epping</t>
+  </si>
+  <si>
+    <t>Ashwood High School Ashwood</t>
+  </si>
+  <si>
+    <t>Bairnsdale West Primary School</t>
+  </si>
+  <si>
+    <t>Baptcare Westhaven community</t>
+  </si>
+  <si>
+    <t>Belvedere Aged Care Noble Park CLOSED</t>
+  </si>
+  <si>
+    <t>Bethany Catholic Primary School Werribee</t>
+  </si>
+  <si>
+    <t>Black Rock Primary School Black Rock</t>
+  </si>
+  <si>
+    <t>Blue Cross The Gables Camberwell</t>
+  </si>
+  <si>
+    <t>BlueCross Elly Kay Mordialloc</t>
+  </si>
+  <si>
+    <t>Brookside P-9 College Caroline Springs</t>
+  </si>
+  <si>
+    <t>Bupa Aged Care Eastwood</t>
+  </si>
+  <si>
+    <t>Camp Coolamatong Farm Camp Banksia Peninsula</t>
   </si>
   <si>
     <t>Christ the Priest Primary School Caroline Springs</t>
   </si>
   <si>
-    <t>Gippsland and East Gippsland Aboriginal Co-Operative Bairnsdale</t>
-  </si>
-  <si>
-    <t>Hamilton Country Music Festival Hamilton GolfClub Hamilton</t>
+    <t>Covenant College Bell Post Hill</t>
+  </si>
+  <si>
+    <t>Creekside K-9 College Caroline Springs</t>
+  </si>
+  <si>
+    <t>Dandenong North Primary School Dandenong</t>
+  </si>
+  <si>
+    <t>Epping Views Primary School Camp Cape Schanck</t>
+  </si>
+  <si>
+    <t>Epping Views Primary School Epping</t>
+  </si>
+  <si>
+    <t>Fitzroy Primary School Fitzroy</t>
+  </si>
+  <si>
+    <t>Fronditha Thalpori St Albans Aged Care</t>
+  </si>
+  <si>
+    <t>Hamilton Country Music Festival Hamilton Golf Club Hamilton</t>
   </si>
   <si>
     <t>Hodges Real Estate Brighton</t>
   </si>
   <si>
+    <t>Holy Rosary Primary School White Hills</t>
+  </si>
+  <si>
+    <t>Hope Aged Care Sunshine West</t>
+  </si>
+  <si>
     <t>Islamic College of Melbourne Tarneit Oct Nov</t>
   </si>
   <si>
-    <t>Oakleigh Grammar Melbourne Private SchoolOakleigh</t>
+    <t>Kerala Manor Aged Care Diamond Creek</t>
+  </si>
+  <si>
+    <t>Little Munchkins Childcare Centre Hillside Exposure Site</t>
+  </si>
+  <si>
+    <t>Lucknow Primary School Bairnsdale</t>
+  </si>
+  <si>
+    <t>Nar Nar Goon Primary School Nar Nar Goon</t>
+  </si>
+  <si>
+    <t>Nazareth Catholic Primary School Grovedale</t>
+  </si>
+  <si>
+    <t>Nhill College Nhill</t>
+  </si>
+  <si>
+    <t>Oakleigh Grammar Melbourne Private School Oakleigh</t>
+  </si>
+  <si>
+    <t>Our Lady of the Southern Cross Primary School Manor Lakes</t>
+  </si>
+  <si>
+    <t>Our Lady's Catholic Primary School Craigieburn</t>
+  </si>
+  <si>
+    <t>Parkdale Primary School Parkdale</t>
+  </si>
+  <si>
+    <t>Parktone Primary School Parkdale</t>
+  </si>
+  <si>
+    <t>Rochester and Elmore District Health Service Yalunkan Aged Care Hostel Rochester</t>
   </si>
   <si>
     <t>Social Gathering 20 November Sunbury</t>
   </si>
   <si>
+    <t>Springside Primary School Caroline Springs Nov</t>
+  </si>
+  <si>
+    <t>St Anne's Catholic Primary School Sunbury</t>
+  </si>
+  <si>
+    <t>St Brendan's Primary School Somerville</t>
+  </si>
+  <si>
+    <t>St Brendans Primary School Shepparton</t>
+  </si>
+  <si>
     <t>St Josephs Catholic Primary School Warragul</t>
   </si>
   <si>
-    <t>St. Francis of Assisi Primary School Mill Park</t>
-  </si>
-  <si>
-    <t>Wagstaff Meat Processing Plant CranbourneEast</t>
-  </si>
-  <si>
-    <t>Werribee Mercy Hospital Emergency Department</t>
-  </si>
-  <si>
-    <t>Westdale Kindergarten Bairnsdale</t>
-  </si>
-  <si>
-    <t>Western Health Sunshine Hospital EmergencyDepartment St Albans</t>
+    <t>St Kevin's College Toorak Glendalough Campus Junior School</t>
+  </si>
+  <si>
+    <t>St Mary of the Cross MacKillop Primary School Epping</t>
+  </si>
+  <si>
+    <t>St Mary's School Mooroopna</t>
+  </si>
+  <si>
+    <t>Stawell Primary School</t>
+  </si>
+  <si>
+    <t>Villa Maria Catholic Homes St Bernadette's Aged Care Sunshine North</t>
+  </si>
+  <si>
+    <t>Village Glen Aged Care Residences Mornington</t>
+  </si>
+  <si>
+    <t>Wagstaff Meat Processing Plant Cranbourne East</t>
+  </si>
+  <si>
+    <t>Willmott Park Primary School Craigieburn</t>
   </si>
 </sst>
 </file>
@@ -539,7 +533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -566,7 +560,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -582,7 +576,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -590,7 +584,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -598,7 +592,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -606,7 +600,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -614,7 +608,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -622,7 +616,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -630,7 +624,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -638,7 +632,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -646,7 +640,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -654,7 +648,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -662,7 +656,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -670,7 +664,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -678,7 +672,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -694,7 +688,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -702,7 +696,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -710,7 +704,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -718,7 +712,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -726,7 +720,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -734,7 +728,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -742,7 +736,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -750,7 +744,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -758,7 +752,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -766,7 +760,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -774,7 +768,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -782,7 +776,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -790,7 +784,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -798,7 +792,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -806,7 +800,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -814,7 +808,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -822,7 +816,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>10</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -830,7 +824,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -838,7 +832,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -846,7 +840,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -854,7 +848,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -862,7 +856,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -870,7 +864,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -878,7 +872,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -886,7 +880,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -894,7 +888,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -902,7 +896,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -910,7 +904,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -918,7 +912,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -926,7 +920,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -934,7 +928,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -942,7 +936,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -950,7 +944,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -958,7 +952,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -966,22 +960,6 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55">
         <v>10</v>
       </c>
     </row>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,126 +14,156 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Cluster Name</t>
   </si>
   <si>
-    <t>Active cases</t>
-  </si>
-  <si>
-    <t>Al Iman College Melton South</t>
-  </si>
-  <si>
-    <t>Al Siraat College Epping</t>
-  </si>
-  <si>
-    <t>Ashwood High School Ashwood</t>
-  </si>
-  <si>
-    <t>Bairnsdale West Primary School</t>
-  </si>
-  <si>
-    <t>Baptcare Westhaven community</t>
-  </si>
-  <si>
-    <t>Belvedere Aged Care Noble Park CLOSED</t>
-  </si>
-  <si>
-    <t>Bethany Catholic Primary School Werribee</t>
-  </si>
-  <si>
-    <t>Black Rock Primary School Black Rock</t>
-  </si>
-  <si>
-    <t>Blue Cross The Gables Camberwell</t>
-  </si>
-  <si>
-    <t>BlueCross Elly Kay Mordialloc</t>
-  </si>
-  <si>
-    <t>Brookside P-9 College Caroline Springs</t>
-  </si>
-  <si>
-    <t>Bupa Aged Care Eastwood</t>
-  </si>
-  <si>
-    <t>Camp Coolamatong Farm Camp Banksia Peninsula</t>
-  </si>
-  <si>
-    <t>Christ the Priest Primary School Caroline Springs</t>
+    <t>Activecases</t>
+  </si>
+  <si>
+    <t>3323 Villa Maria Catholic Homes St Bernadette'sAged Care Sunshine North</t>
+  </si>
+  <si>
+    <t>3398 BlueCross Elly Kay Mordialloc</t>
+  </si>
+  <si>
+    <t>3601 Baptcare Westhaven community</t>
+  </si>
+  <si>
+    <t>3653 Fronditha Thalpori St Albans Aged Care</t>
+  </si>
+  <si>
+    <t>3939 Bupa Aged Care Eastwood</t>
+  </si>
+  <si>
+    <t>3975 Aurrum Aged Care Brunswick West</t>
+  </si>
+  <si>
+    <t>3988 Kerala Manor Aged Care Diamond Creek</t>
+  </si>
+  <si>
+    <t>4257 BlueCross The Gables Camberwell</t>
+  </si>
+  <si>
+    <t>4295 Hope Aged Care Sunshine West</t>
+  </si>
+  <si>
+    <t>44087 Fitzroy Primary School Fitzroy</t>
+  </si>
+  <si>
+    <t>44098 Stawell Primary School</t>
+  </si>
+  <si>
+    <t>44234 Lucknow Primary School Bairnsdale</t>
+  </si>
+  <si>
+    <t>44444 Nar Nar Goon Primary School Nar NarGoon</t>
+  </si>
+  <si>
+    <t>44630 Black Rock Primary School Black Rock</t>
+  </si>
+  <si>
+    <t>44811 Dandenong North Primary SchoolDandenong</t>
+  </si>
+  <si>
+    <t>44812 Bairnsdale West Primary School</t>
+  </si>
+  <si>
+    <t>44865 Parktone Primary School Parkdale</t>
+  </si>
+  <si>
+    <t>44950 Templestowe Valley Primary SchoolTemplestowe Lower</t>
+  </si>
+  <si>
+    <t>45248 Brookside P-9 College Caroline Springs</t>
+  </si>
+  <si>
+    <t>45267 Epping Views Primary School Epping</t>
+  </si>
+  <si>
+    <t>45315 Red Hill Consolidated School Red Hill</t>
+  </si>
+  <si>
+    <t>45518 Ashwood High School Ashwood</t>
+  </si>
+  <si>
+    <t>45569 Nhill College Nhill</t>
+  </si>
+  <si>
+    <t>45585 Mount Ridley College Craigieburn</t>
+  </si>
+  <si>
+    <t>45648 St Brendans Primary School Shepparton</t>
+  </si>
+  <si>
+    <t>4574 Village Glen Aged Care ResidencesMornington</t>
+  </si>
+  <si>
+    <t>45784 Holy Rosary Primary School White Hills</t>
+  </si>
+  <si>
+    <t>45846 St Mary's School Mooroopna</t>
+  </si>
+  <si>
+    <t>45848 St Kevin's College ToorakGlendalough Campus Junior School</t>
+  </si>
+  <si>
+    <t>45950 St. Luke Primary School Lalor</t>
+  </si>
+  <si>
+    <t>46028 St Anne's Catholic Primary SchoolSunbury</t>
+  </si>
+  <si>
+    <t>46037 Nazareth Catholic Primary SchoolGrovedale</t>
+  </si>
+  <si>
+    <t>46050 Our Lady's Catholic Primary SchoolCraigieburn</t>
+  </si>
+  <si>
+    <t>46093 St Brendan's Primary School Somerville</t>
+  </si>
+  <si>
+    <t>46095 Bethany Catholic Primary SchoolWerribee</t>
+  </si>
+  <si>
+    <t>46105 Christ the Priest Primary School CarolineSprings</t>
+  </si>
+  <si>
+    <t>46125 Our Lady of the Southern Cross PrimarySchool Manor Lakes</t>
+  </si>
+  <si>
+    <t>46239 Gilson College Taylors Hill</t>
+  </si>
+  <si>
+    <t>46390 Al Siraat College Epping</t>
+  </si>
+  <si>
+    <t>50584 St Mary of the Cross MacKillop PrimarySchool Epping</t>
+  </si>
+  <si>
+    <t>Alfred Health The Alfred Hospital Melbourne</t>
+  </si>
+  <si>
+    <t>Camp Coolamatong Farm Camp BanksiaPeninsula</t>
   </si>
   <si>
     <t>Covenant College Bell Post Hill</t>
   </si>
   <si>
-    <t>Creekside K-9 College Caroline Springs</t>
-  </si>
-  <si>
-    <t>Dandenong North Primary School Dandenong</t>
-  </si>
-  <si>
-    <t>Epping Views Primary School Camp Cape Schanck</t>
-  </si>
-  <si>
-    <t>Epping Views Primary School Epping</t>
-  </si>
-  <si>
-    <t>Fitzroy Primary School Fitzroy</t>
-  </si>
-  <si>
-    <t>Fronditha Thalpori St Albans Aged Care</t>
-  </si>
-  <si>
-    <t>Hamilton Country Music Festival Hamilton Golf Club Hamilton</t>
-  </si>
-  <si>
-    <t>Hodges Real Estate Brighton</t>
-  </si>
-  <si>
-    <t>Holy Rosary Primary School White Hills</t>
-  </si>
-  <si>
-    <t>Hope Aged Care Sunshine West</t>
+    <t>Epping Views Primary School Camp CapeSchanck</t>
+  </si>
+  <si>
+    <t>Hamilton Country Music Festival Hamilton GolfClub Hamilton</t>
   </si>
   <si>
     <t>Islamic College of Melbourne Tarneit Oct Nov</t>
   </si>
   <si>
-    <t>Kerala Manor Aged Care Diamond Creek</t>
-  </si>
-  <si>
-    <t>Little Munchkins Childcare Centre Hillside Exposure Site</t>
-  </si>
-  <si>
-    <t>Lucknow Primary School Bairnsdale</t>
-  </si>
-  <si>
-    <t>Nar Nar Goon Primary School Nar Nar Goon</t>
-  </si>
-  <si>
-    <t>Nazareth Catholic Primary School Grovedale</t>
-  </si>
-  <si>
-    <t>Nhill College Nhill</t>
-  </si>
-  <si>
-    <t>Oakleigh Grammar Melbourne Private School Oakleigh</t>
-  </si>
-  <si>
-    <t>Our Lady of the Southern Cross Primary School Manor Lakes</t>
-  </si>
-  <si>
-    <t>Our Lady's Catholic Primary School Craigieburn</t>
-  </si>
-  <si>
-    <t>Parkdale Primary School Parkdale</t>
-  </si>
-  <si>
-    <t>Parktone Primary School Parkdale</t>
-  </si>
-  <si>
-    <t>Rochester and Elmore District Health Service Yalunkan Aged Care Hostel Rochester</t>
+    <t>Little Munchkins Childcare Centre Hillside</t>
+  </si>
+  <si>
+    <t>Oakleigh Grammar Melbourne Private SchoolOakleigh</t>
   </si>
   <si>
     <t>Social Gathering 20 November Sunbury</t>
@@ -142,40 +172,16 @@
     <t>Springside Primary School Caroline Springs Nov</t>
   </si>
   <si>
-    <t>St Anne's Catholic Primary School Sunbury</t>
-  </si>
-  <si>
-    <t>St Brendan's Primary School Somerville</t>
-  </si>
-  <si>
-    <t>St Brendans Primary School Shepparton</t>
-  </si>
-  <si>
     <t>St Josephs Catholic Primary School Warragul</t>
   </si>
   <si>
-    <t>St Kevin's College Toorak Glendalough Campus Junior School</t>
-  </si>
-  <si>
-    <t>St Mary of the Cross MacKillop Primary School Epping</t>
-  </si>
-  <si>
-    <t>St Mary's School Mooroopna</t>
-  </si>
-  <si>
-    <t>Stawell Primary School</t>
-  </si>
-  <si>
-    <t>Villa Maria Catholic Homes St Bernadette's Aged Care Sunshine North</t>
-  </si>
-  <si>
-    <t>Village Glen Aged Care Residences Mornington</t>
-  </si>
-  <si>
-    <t>Wagstaff Meat Processing Plant Cranbourne East</t>
-  </si>
-  <si>
-    <t>Willmott Park Primary School Craigieburn</t>
+    <t>Wagstaff Meat Processing Plant CranbourneEast</t>
+  </si>
+  <si>
+    <t>Werribee Mercy Hospital Emergency Department</t>
+  </si>
+  <si>
+    <t>Western Health Sunshine Hospital EmergencyDepartment St Albans</t>
   </si>
 </sst>
 </file>
@@ -533,7 +539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,7 +558,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -560,7 +566,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -568,7 +574,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -576,7 +582,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -584,7 +590,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -592,7 +598,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -600,7 +606,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -608,7 +614,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -616,7 +622,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -624,7 +630,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -640,7 +646,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -648,7 +654,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -656,7 +662,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -664,7 +670,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -680,7 +686,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -688,7 +694,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -696,7 +702,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -704,7 +710,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -712,7 +718,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -720,7 +726,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -728,7 +734,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -736,7 +742,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>47</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -744,7 +750,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -752,7 +758,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -760,7 +766,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -768,7 +774,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -776,7 +782,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -784,7 +790,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -792,7 +798,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -800,7 +806,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -808,7 +814,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -816,7 +822,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -824,7 +830,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -832,7 +838,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -840,7 +846,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -848,7 +854,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -856,7 +862,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -864,7 +870,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -872,7 +878,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -880,7 +886,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -888,7 +894,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -904,7 +910,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -912,7 +918,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -920,7 +926,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -936,7 +942,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -944,7 +950,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -952,7 +958,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -960,7 +966,23 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>10</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Cluster Name</t>
   </si>
@@ -58,6 +58,9 @@
     <t>44234 Lucknow Primary School Bairnsdale</t>
   </si>
   <si>
+    <t>44366 Lysterfield Primary School Lysterfield</t>
+  </si>
+  <si>
     <t>44444 Nar Nar Goon Primary School Nar NarGoon</t>
   </si>
   <si>
@@ -76,9 +79,15 @@
     <t>44950 Templestowe Valley Primary SchoolTemplestowe Lower</t>
   </si>
   <si>
+    <t>44982 Diamond Creek East Primary SchoolDiamond Creek</t>
+  </si>
+  <si>
     <t>45248 Brookside P-9 College Caroline Springs</t>
   </si>
   <si>
+    <t>45249 Creekside K-9 College Caroline Springs</t>
+  </si>
+  <si>
     <t>45267 Epping Views Primary School Epping</t>
   </si>
   <si>
@@ -106,7 +115,7 @@
     <t>45846 St Mary's School Mooroopna</t>
   </si>
   <si>
-    <t>45848 St Kevin's College ToorakGlendalough Campus Junior School</t>
+    <t>45848 St Kevin's College Toorak OutbreakGlendalough Campus Junior School</t>
   </si>
   <si>
     <t>45950 St. Luke Primary School Lalor</t>
@@ -115,12 +124,15 @@
     <t>46028 St Anne's Catholic Primary SchoolSunbury</t>
   </si>
   <si>
-    <t>46037 Nazareth Catholic Primary SchoolGrovedale</t>
+    <t>46037 Nazareth Catholic Primary SchoolGrovedal</t>
   </si>
   <si>
     <t>46050 Our Lady's Catholic Primary SchoolCraigieburn</t>
   </si>
   <si>
+    <t>46052 St. Francis of Assisi Primary School MillPark</t>
+  </si>
+  <si>
     <t>46093 St Brendan's Primary School Somerville</t>
   </si>
   <si>
@@ -142,10 +154,16 @@
     <t>50584 St Mary of the Cross MacKillop PrimarySchool Epping</t>
   </si>
   <si>
+    <t>51529 Sirius College Primary School Dallas</t>
+  </si>
+  <si>
     <t>Alfred Health The Alfred Hospital Melbourne</t>
   </si>
   <si>
     <t>Camp Coolamatong Farm Camp BanksiaPeninsula</t>
+  </si>
+  <si>
+    <t>Churchill North Primary School Churchill</t>
   </si>
   <si>
     <t>Covenant College Bell Post Hill</t>
@@ -539,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -566,7 +584,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -622,7 +640,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -630,7 +648,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -646,7 +664,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -654,7 +672,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -662,7 +680,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -670,7 +688,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -678,7 +696,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -686,7 +704,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -694,7 +712,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -702,7 +720,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -710,7 +728,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -718,7 +736,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -726,7 +744,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -734,7 +752,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -742,7 +760,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -750,7 +768,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -758,7 +776,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -766,7 +784,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -774,7 +792,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -782,7 +800,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -790,7 +808,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -798,7 +816,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -806,7 +824,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -814,7 +832,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -822,7 +840,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -830,7 +848,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -838,7 +856,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>39</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -846,7 +864,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -854,7 +872,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -862,7 +880,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -870,7 +888,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -878,7 +896,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -886,7 +904,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -894,7 +912,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -902,7 +920,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -910,7 +928,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -918,7 +936,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -926,7 +944,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -934,7 +952,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -942,7 +960,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -950,7 +968,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -958,7 +976,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -966,7 +984,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -974,7 +992,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -982,7 +1000,55 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>11</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,15 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
-  <si>
-    <t>Cluster Name</t>
-  </si>
-  <si>
-    <t>Activecases</t>
-  </si>
-  <si>
-    <t>3323 Villa Maria Catholic Homes St Bernadette'sAged Care Sunshine North</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+  <si>
+    <t>Cluster Names</t>
+  </si>
+  <si>
+    <t>Active Cases</t>
+  </si>
+  <si>
+    <t>3323 Villa Maria Catholic Homes St Bernadette's Aged Care Sunshine North</t>
   </si>
   <si>
     <t>3398 BlueCross Elly Kay Mordialloc</t>
@@ -34,9 +34,6 @@
     <t>3653 Fronditha Thalpori St Albans Aged Care</t>
   </si>
   <si>
-    <t>3939 Bupa Aged Care Eastwood</t>
-  </si>
-  <si>
     <t>3975 Aurrum Aged Care Brunswick West</t>
   </si>
   <si>
@@ -61,25 +58,28 @@
     <t>44366 Lysterfield Primary School Lysterfield</t>
   </si>
   <si>
-    <t>44444 Nar Nar Goon Primary School Nar NarGoon</t>
+    <t>44444 Nar Nar Goon Primary School Nar Nar Goon</t>
   </si>
   <si>
     <t>44630 Black Rock Primary School Black Rock</t>
   </si>
   <si>
-    <t>44811 Dandenong North Primary SchoolDandenong</t>
-  </si>
-  <si>
-    <t>44812 Bairnsdale West Primary School</t>
+    <t>44666 Gardenvale Primary School Senior School Campus Brighton East</t>
+  </si>
+  <si>
+    <t>44811 Dandenong North Primary School Dandenong</t>
   </si>
   <si>
     <t>44865 Parktone Primary School Parkdale</t>
   </si>
   <si>
-    <t>44950 Templestowe Valley Primary SchoolTemplestowe Lower</t>
-  </si>
-  <si>
-    <t>44982 Diamond Creek East Primary SchoolDiamond Creek</t>
+    <t>44950 Templestowe Valley Primary School Templestowe Lower</t>
+  </si>
+  <si>
+    <t>44982 Diamond Creek East Primary School Diamond Creek</t>
+  </si>
+  <si>
+    <t>45026 Churchill North Primary School Churchill</t>
   </si>
   <si>
     <t>45248 Brookside P-9 College Caroline Springs</t>
@@ -106,52 +106,67 @@
     <t>45648 St Brendans Primary School Shepparton</t>
   </si>
   <si>
-    <t>4574 Village Glen Aged Care ResidencesMornington</t>
+    <t>4574 Village Glen Aged Care Residences Mornington</t>
+  </si>
+  <si>
+    <t>45755 St Patricks Catholic Parish Primary School Mentone</t>
   </si>
   <si>
     <t>45784 Holy Rosary Primary School White Hills</t>
   </si>
   <si>
-    <t>45846 St Mary's School Mooroopna</t>
-  </si>
-  <si>
-    <t>45848 St Kevin's College Toorak OutbreakGlendalough Campus Junior School</t>
-  </si>
-  <si>
-    <t>45950 St. Luke Primary School Lalor</t>
-  </si>
-  <si>
-    <t>46028 St Anne's Catholic Primary SchoolSunbury</t>
-  </si>
-  <si>
-    <t>46037 Nazareth Catholic Primary SchoolGrovedal</t>
-  </si>
-  <si>
-    <t>46050 Our Lady's Catholic Primary SchoolCraigieburn</t>
-  </si>
-  <si>
-    <t>46052 St. Francis of Assisi Primary School MillPark</t>
+    <t>45846 St Mary's School Mooroopna Outbreak</t>
+  </si>
+  <si>
+    <t>45848 St Kevin's College Toorak Glendalough Campus Junior School</t>
+  </si>
+  <si>
+    <t>45912 St Bernadette's Catholic Primary School Sunshine North</t>
+  </si>
+  <si>
+    <t>45950 St Luke's Primary School Lalor</t>
+  </si>
+  <si>
+    <t>46028 St Anne's Catholic Primary School Sunbury</t>
+  </si>
+  <si>
+    <t>46037 Nazareth Catholic Primary School Grovedale</t>
+  </si>
+  <si>
+    <t>46050 Our Lady's Catholic Primary School Craigieburn</t>
+  </si>
+  <si>
+    <t>46052 St. Francis of Assisi Primary School Mill Park</t>
   </si>
   <si>
     <t>46093 St Brendan's Primary School Somerville</t>
   </si>
   <si>
-    <t>46095 Bethany Catholic Primary SchoolWerribee</t>
-  </si>
-  <si>
-    <t>46105 Christ the Priest Primary School CarolineSprings</t>
-  </si>
-  <si>
-    <t>46125 Our Lady of the Southern Cross PrimarySchool Manor Lakes</t>
+    <t>46095 Bethany Catholic Primary School Werribee</t>
+  </si>
+  <si>
+    <t>46105 Christ the Priest Primary School Caroline Springs</t>
+  </si>
+  <si>
+    <t>46117 Marymede Catholic College South Morang</t>
+  </si>
+  <si>
+    <t>46125 Our Lady of the Southern Cross Primary School Manor Lakes</t>
+  </si>
+  <si>
+    <t>46221 Bialik College Hawthorn Outbreak Site</t>
   </si>
   <si>
     <t>46239 Gilson College Taylors Hill</t>
   </si>
   <si>
+    <t>46287 Oakleigh Grammar Melbourne Private School Oakleigh</t>
+  </si>
+  <si>
     <t>46390 Al Siraat College Epping</t>
   </si>
   <si>
-    <t>50584 St Mary of the Cross MacKillop PrimarySchool Epping</t>
+    <t>50584 St Mary of the Cross MacKillop Primary School Epping</t>
   </si>
   <si>
     <t>51529 Sirius College Primary School Dallas</t>
@@ -160,46 +175,43 @@
     <t>Alfred Health The Alfred Hospital Melbourne</t>
   </si>
   <si>
-    <t>Camp Coolamatong Farm Camp BanksiaPeninsula</t>
-  </si>
-  <si>
-    <t>Churchill North Primary School Churchill</t>
-  </si>
-  <si>
     <t>Covenant College Bell Post Hill</t>
   </si>
   <si>
-    <t>Epping Views Primary School Camp CapeSchanck</t>
-  </si>
-  <si>
-    <t>Hamilton Country Music Festival Hamilton GolfClub Hamilton</t>
-  </si>
-  <si>
-    <t>Islamic College of Melbourne Tarneit Oct Nov</t>
+    <t>Epping Views Primary School Camp Cape Schanck</t>
+  </si>
+  <si>
+    <t>Hamilton Country Music Festival Hamilton Golf Club Hamilton</t>
+  </si>
+  <si>
+    <t>House Party 27 November Private Residence Brunswick West</t>
+  </si>
+  <si>
+    <t>Islamic College of Melbourne Tarneit</t>
   </si>
   <si>
     <t>Little Munchkins Childcare Centre Hillside</t>
   </si>
   <si>
-    <t>Oakleigh Grammar Melbourne Private SchoolOakleigh</t>
-  </si>
-  <si>
     <t>Social Gathering 20 November Sunbury</t>
   </si>
   <si>
-    <t>Springside Primary School Caroline Springs Nov</t>
+    <t>Springside Primary School Caroline Springs</t>
   </si>
   <si>
     <t>St Josephs Catholic Primary School Warragul</t>
   </si>
   <si>
-    <t>Wagstaff Meat Processing Plant CranbourneEast</t>
-  </si>
-  <si>
-    <t>Werribee Mercy Hospital Emergency Department</t>
-  </si>
-  <si>
-    <t>Western Health Sunshine Hospital EmergencyDepartment St Albans</t>
+    <t>St Vincents Hospital Melbourne Emergency Department Fitzroy</t>
+  </si>
+  <si>
+    <t>The Village Early Learning Centre Sandringham</t>
+  </si>
+  <si>
+    <t>Wagstaff Meat Processing Plant Cranbourne East</t>
+  </si>
+  <si>
+    <t>Western Health Sunshine Hospital Emergency Department St Albans</t>
   </si>
 </sst>
 </file>
@@ -557,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -584,7 +596,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -608,7 +620,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -624,7 +636,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -632,7 +644,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -640,7 +652,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -648,7 +660,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -656,7 +668,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -664,7 +676,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -672,7 +684,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -680,7 +692,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -688,7 +700,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -704,7 +716,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -712,7 +724,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>22</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -720,7 +732,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -728,7 +740,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -760,7 +772,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -792,7 +804,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -808,7 +820,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -816,7 +828,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -824,7 +836,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -832,7 +844,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -840,7 +852,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -848,7 +860,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -856,7 +868,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -864,7 +876,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -872,7 +884,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -880,7 +892,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -888,7 +900,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -896,7 +908,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -904,7 +916,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -912,7 +924,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -920,7 +932,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -936,7 +948,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -944,7 +956,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -952,7 +964,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -960,7 +972,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -968,7 +980,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -976,7 +988,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -984,7 +996,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -992,7 +1004,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1000,7 +1012,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1008,7 +1020,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1016,7 +1028,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1024,7 +1036,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1032,7 +1044,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1040,7 +1052,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1048,7 +1060,39 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>10</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
-  <si>
-    <t>Cluster Names</t>
-  </si>
-  <si>
-    <t>Active Cases</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+  <si>
+    <t>Cluster Name</t>
+  </si>
+  <si>
+    <t>Actives Cases</t>
   </si>
   <si>
     <t>3323 Villa Maria Catholic Homes St Bernadette's Aged Care Sunshine North</t>
@@ -34,6 +34,9 @@
     <t>3653 Fronditha Thalpori St Albans Aged Care</t>
   </si>
   <si>
+    <t>3939 Bupa Aged Care Eastwood</t>
+  </si>
+  <si>
     <t>3975 Aurrum Aged Care Brunswick West</t>
   </si>
   <si>
@@ -52,9 +55,6 @@
     <t>44098 Stawell Primary School</t>
   </si>
   <si>
-    <t>44234 Lucknow Primary School Bairnsdale</t>
-  </si>
-  <si>
     <t>44366 Lysterfield Primary School Lysterfield</t>
   </si>
   <si>
@@ -64,7 +64,7 @@
     <t>44630 Black Rock Primary School Black Rock</t>
   </si>
   <si>
-    <t>44666 Gardenvale Primary School Senior School Campus Brighton East</t>
+    <t>44666 Gardenvale Primary School Brighton East</t>
   </si>
   <si>
     <t>44811 Dandenong North Primary School Dandenong</t>
@@ -115,13 +115,16 @@
     <t>45784 Holy Rosary Primary School White Hills</t>
   </si>
   <si>
-    <t>45846 St Mary's School Mooroopna Outbreak</t>
+    <t>45810 Loreto Mandeville Hall Toorak</t>
+  </si>
+  <si>
+    <t>45846 St Mary's School Mooroopna</t>
   </si>
   <si>
     <t>45848 St Kevin's College Toorak Glendalough Campus Junior School</t>
   </si>
   <si>
-    <t>45912 St Bernadette's Catholic Primary School Sunshine North</t>
+    <t>45912 St Bernadette's Catholic Primary School Sunshine North Exposure Site</t>
   </si>
   <si>
     <t>45950 St Luke's Primary School Lalor</t>
@@ -148,13 +151,16 @@
     <t>46105 Christ the Priest Primary School Caroline Springs</t>
   </si>
   <si>
+    <t>46115 St Luke's Catholic Primary School Shepparton North</t>
+  </si>
+  <si>
     <t>46117 Marymede Catholic College South Morang</t>
   </si>
   <si>
     <t>46125 Our Lady of the Southern Cross Primary School Manor Lakes</t>
   </si>
   <si>
-    <t>46221 Bialik College Hawthorn Outbreak Site</t>
+    <t>46221 Bialik College Hawthorn</t>
   </si>
   <si>
     <t>46239 Gilson College Taylors Hill</t>
@@ -163,6 +169,9 @@
     <t>46287 Oakleigh Grammar Melbourne Private School Oakleigh</t>
   </si>
   <si>
+    <t>46328 Ilim College Inverloch Crescent Dallas</t>
+  </si>
+  <si>
     <t>46390 Al Siraat College Epping</t>
   </si>
   <si>
@@ -172,6 +181,9 @@
     <t>51529 Sirius College Primary School Dallas</t>
   </si>
   <si>
+    <t>Alfred Health Caulfield Hospital</t>
+  </si>
+  <si>
     <t>Alfred Health The Alfred Hospital Melbourne</t>
   </si>
   <si>
@@ -190,9 +202,6 @@
     <t>Islamic College of Melbourne Tarneit</t>
   </si>
   <si>
-    <t>Little Munchkins Childcare Centre Hillside</t>
-  </si>
-  <si>
     <t>Social Gathering 20 November Sunbury</t>
   </si>
   <si>
@@ -209,6 +218,9 @@
   </si>
   <si>
     <t>Wagstaff Meat Processing Plant Cranbourne East</t>
+  </si>
+  <si>
+    <t>Werribee Mercy Hospital Emergency Department</t>
   </si>
   <si>
     <t>Western Health Sunshine Hospital Emergency Department St Albans</t>
@@ -569,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B65"/>
+  <dimension ref="A1:B69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -596,7 +608,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -604,7 +616,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -612,7 +624,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -620,7 +632,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -628,7 +640,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -636,7 +648,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -644,7 +656,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -652,7 +664,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -660,7 +672,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -668,7 +680,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -676,7 +688,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -692,7 +704,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -700,7 +712,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -740,7 +752,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -748,7 +760,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -772,7 +784,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -796,7 +808,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -804,7 +816,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -820,7 +832,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -836,7 +848,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -844,7 +856,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -852,7 +864,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -860,7 +872,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -868,7 +880,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -876,7 +888,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -884,7 +896,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -892,7 +904,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -900,7 +912,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -908,7 +920,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -916,7 +928,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -924,7 +936,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -932,7 +944,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>37</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -948,7 +960,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -956,7 +968,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -964,7 +976,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -972,7 +984,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -980,7 +992,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -988,7 +1000,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -996,7 +1008,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1012,7 +1024,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1020,7 +1032,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1028,7 +1040,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1036,7 +1048,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1044,7 +1056,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1052,7 +1064,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1060,7 +1072,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1068,7 +1080,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1076,7 +1088,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1084,7 +1096,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1092,6 +1104,38 @@
         <v>65</v>
       </c>
       <c r="B65">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69">
         <v>11</v>
       </c>
     </row>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Cluster Name</t>
   </si>
   <si>
-    <t>Actives Cases</t>
+    <t>Active cases</t>
+  </si>
+  <si>
+    <t>21st Birthday Party 27 Nov Middels Drouin</t>
   </si>
   <si>
     <t>3323 Villa Maria Catholic Homes St Bernadette's Aged Care Sunshine North</t>
@@ -34,15 +37,9 @@
     <t>3653 Fronditha Thalpori St Albans Aged Care</t>
   </si>
   <si>
-    <t>3939 Bupa Aged Care Eastwood</t>
-  </si>
-  <si>
     <t>3975 Aurrum Aged Care Brunswick West</t>
   </si>
   <si>
-    <t>3988 Kerala Manor Aged Care Diamond Creek</t>
-  </si>
-  <si>
     <t>4257 BlueCross The Gables Camberwell</t>
   </si>
   <si>
@@ -52,27 +49,15 @@
     <t>44087 Fitzroy Primary School Fitzroy</t>
   </si>
   <si>
-    <t>44098 Stawell Primary School</t>
-  </si>
-  <si>
-    <t>44366 Lysterfield Primary School Lysterfield</t>
-  </si>
-  <si>
     <t>44444 Nar Nar Goon Primary School Nar Nar Goon</t>
   </si>
   <si>
-    <t>44630 Black Rock Primary School Black Rock</t>
-  </si>
-  <si>
-    <t>44666 Gardenvale Primary School Brighton East</t>
+    <t>44666 Gardenvale Primary School Senior School Campus Brighton Eas</t>
   </si>
   <si>
     <t>44811 Dandenong North Primary School Dandenong</t>
   </si>
   <si>
-    <t>44865 Parktone Primary School Parkdale</t>
-  </si>
-  <si>
     <t>44950 Templestowe Valley Primary School Templestowe Lower</t>
   </si>
   <si>
@@ -85,21 +70,12 @@
     <t>45248 Brookside P-9 College Caroline Springs</t>
   </si>
   <si>
-    <t>45249 Creekside K-9 College Caroline Springs</t>
-  </si>
-  <si>
     <t>45267 Epping Views Primary School Epping</t>
   </si>
   <si>
     <t>45315 Red Hill Consolidated School Red Hill</t>
   </si>
   <si>
-    <t>45518 Ashwood High School Ashwood</t>
-  </si>
-  <si>
-    <t>45569 Nhill College Nhill</t>
-  </si>
-  <si>
     <t>45585 Mount Ridley College Craigieburn</t>
   </si>
   <si>
@@ -112,42 +88,15 @@
     <t>45755 St Patricks Catholic Parish Primary School Mentone</t>
   </si>
   <si>
-    <t>45784 Holy Rosary Primary School White Hills</t>
-  </si>
-  <si>
-    <t>45810 Loreto Mandeville Hall Toorak</t>
-  </si>
-  <si>
     <t>45846 St Mary's School Mooroopna</t>
   </si>
   <si>
-    <t>45848 St Kevin's College Toorak Glendalough Campus Junior School</t>
-  </si>
-  <si>
-    <t>45912 St Bernadette's Catholic Primary School Sunshine North Exposure Site</t>
-  </si>
-  <si>
     <t>45950 St Luke's Primary School Lalor</t>
   </si>
   <si>
-    <t>46028 St Anne's Catholic Primary School Sunbury</t>
-  </si>
-  <si>
-    <t>46037 Nazareth Catholic Primary School Grovedale</t>
-  </si>
-  <si>
-    <t>46050 Our Lady's Catholic Primary School Craigieburn</t>
-  </si>
-  <si>
     <t>46052 St. Francis of Assisi Primary School Mill Park</t>
   </si>
   <si>
-    <t>46093 St Brendan's Primary School Somerville</t>
-  </si>
-  <si>
-    <t>46095 Bethany Catholic Primary School Werribee</t>
-  </si>
-  <si>
     <t>46105 Christ the Priest Primary School Caroline Springs</t>
   </si>
   <si>
@@ -157,9 +106,6 @@
     <t>46117 Marymede Catholic College South Morang</t>
   </si>
   <si>
-    <t>46125 Our Lady of the Southern Cross Primary School Manor Lakes</t>
-  </si>
-  <si>
     <t>46221 Bialik College Hawthorn</t>
   </si>
   <si>
@@ -169,46 +115,19 @@
     <t>46287 Oakleigh Grammar Melbourne Private School Oakleigh</t>
   </si>
   <si>
-    <t>46328 Ilim College Inverloch Crescent Dallas</t>
-  </si>
-  <si>
     <t>46390 Al Siraat College Epping</t>
   </si>
   <si>
-    <t>50584 St Mary of the Cross MacKillop Primary School Epping</t>
-  </si>
-  <si>
-    <t>51529 Sirius College Primary School Dallas</t>
-  </si>
-  <si>
-    <t>Alfred Health Caulfield Hospital</t>
-  </si>
-  <si>
-    <t>Alfred Health The Alfred Hospital Melbourne</t>
-  </si>
-  <si>
     <t>Covenant College Bell Post Hill</t>
   </si>
   <si>
-    <t>Epping Views Primary School Camp Cape Schanck</t>
-  </si>
-  <si>
-    <t>Hamilton Country Music Festival Hamilton Golf Club Hamilton</t>
-  </si>
-  <si>
     <t>House Party 27 November Private Residence Brunswick West</t>
   </si>
   <si>
-    <t>Islamic College of Melbourne Tarneit</t>
-  </si>
-  <si>
-    <t>Social Gathering 20 November Sunbury</t>
-  </si>
-  <si>
-    <t>Springside Primary School Caroline Springs</t>
-  </si>
-  <si>
-    <t>St Josephs Catholic Primary School Warragul</t>
+    <t>Islamic College of Melbourne Tarneit Oct Nov</t>
+  </si>
+  <si>
+    <t>Springside Primary School Caroline Springs Nov</t>
   </si>
   <si>
     <t>St Vincents Hospital Melbourne Emergency Department Fitzroy</t>
@@ -217,13 +136,10 @@
     <t>The Village Early Learning Centre Sandringham</t>
   </si>
   <si>
-    <t>Wagstaff Meat Processing Plant Cranbourne East</t>
+    <t>Torquay Hotel Torquay</t>
   </si>
   <si>
     <t>Werribee Mercy Hospital Emergency Department</t>
-  </si>
-  <si>
-    <t>Western Health Sunshine Hospital Emergency Department St Albans</t>
   </si>
 </sst>
 </file>
@@ -581,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B69"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,7 +516,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -608,7 +524,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -616,7 +532,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -624,7 +540,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -632,7 +548,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -640,7 +556,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -648,7 +564,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -656,7 +572,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -664,7 +580,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -672,7 +588,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -680,7 +596,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -688,7 +604,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -696,7 +612,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>18</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -704,7 +620,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -712,7 +628,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -720,7 +636,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -728,7 +644,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -736,7 +652,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -744,7 +660,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -752,7 +668,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -760,7 +676,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -768,7 +684,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -776,7 +692,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -784,7 +700,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -792,7 +708,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -800,7 +716,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -816,7 +732,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -824,7 +740,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -832,7 +748,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -840,7 +756,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -856,7 +772,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -864,7 +780,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -872,7 +788,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -880,7 +796,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -888,7 +804,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -896,7 +812,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -904,7 +820,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -912,231 +828,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45">
         <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
-        <v>62</v>
-      </c>
-      <c r="B62">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>63</v>
-      </c>
-      <c r="B63">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
-        <v>64</v>
-      </c>
-      <c r="B64">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>65</v>
-      </c>
-      <c r="B65">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>66</v>
-      </c>
-      <c r="B66">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>67</v>
-      </c>
-      <c r="B67">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>68</v>
-      </c>
-      <c r="B68">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
-        <v>69</v>
-      </c>
-      <c r="B69">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,24 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Cluster Name</t>
   </si>
   <si>
-    <t>Active cases</t>
+    <t>Activecases</t>
   </si>
   <si>
     <t>21st Birthday Party 27 Nov Middels Drouin</t>
   </si>
   <si>
-    <t>3323 Villa Maria Catholic Homes St Bernadette's Aged Care Sunshine North</t>
-  </si>
-  <si>
     <t>3398 BlueCross Elly Kay Mordialloc</t>
   </si>
   <si>
-    <t>3601 Baptcare Westhaven community</t>
+    <t>3601 Baptcare Westhaven community outbreak</t>
+  </si>
+  <si>
+    <t>3646 Mornington Bay Care Community MountMartha</t>
   </si>
   <si>
     <t>3653 Fronditha Thalpori St Albans Aged Care</t>
@@ -46,30 +46,30 @@
     <t>4295 Hope Aged Care Sunshine West</t>
   </si>
   <si>
-    <t>44087 Fitzroy Primary School Fitzroy</t>
-  </si>
-  <si>
-    <t>44444 Nar Nar Goon Primary School Nar Nar Goon</t>
-  </si>
-  <si>
-    <t>44666 Gardenvale Primary School Senior School Campus Brighton Eas</t>
-  </si>
-  <si>
-    <t>44811 Dandenong North Primary School Dandenong</t>
-  </si>
-  <si>
-    <t>44950 Templestowe Valley Primary School Templestowe Lower</t>
-  </si>
-  <si>
-    <t>44982 Diamond Creek East Primary School Diamond Creek</t>
-  </si>
-  <si>
-    <t>45026 Churchill North Primary School Churchill</t>
+    <t>44444 Nar Nar Goon Primary School Nar NarGoon</t>
+  </si>
+  <si>
+    <t>44666 Gardenvale Primary School Senior SchoolCampus Brighton East</t>
+  </si>
+  <si>
+    <t>44811 Dandenong North Primary SchoolDandenong</t>
+  </si>
+  <si>
+    <t>44950 Templestowe Valley Primary SchoolTemplestowe Lower</t>
+  </si>
+  <si>
+    <t>44979 Campbellfield Heights Primary SchoolCampbellfield</t>
+  </si>
+  <si>
+    <t>44982 Diamond Creek East Primary SchoolDiamond Creek</t>
   </si>
   <si>
     <t>45248 Brookside P-9 College Caroline Springs</t>
   </si>
   <si>
+    <t>45257 Roxburgh Rise Primary School RoxburghPark</t>
+  </si>
+  <si>
     <t>45267 Epping Views Primary School Epping</t>
   </si>
   <si>
@@ -82,28 +82,40 @@
     <t>45648 St Brendans Primary School Shepparton</t>
   </si>
   <si>
-    <t>4574 Village Glen Aged Care Residences Mornington</t>
-  </si>
-  <si>
-    <t>45755 St Patricks Catholic Parish Primary School Mentone</t>
+    <t>4574 Village Glen Aged Care ResidencesMornington</t>
+  </si>
+  <si>
+    <t>45755 St Patricks Catholic Parish PrimarySchool Mentone</t>
+  </si>
+  <si>
+    <t>45797 St John's Primary School Footscray</t>
   </si>
   <si>
     <t>45846 St Mary's School Mooroopna</t>
   </si>
   <si>
+    <t>45903 St Peter Chanel Deer Park</t>
+  </si>
+  <si>
     <t>45950 St Luke's Primary School Lalor</t>
   </si>
   <si>
-    <t>46052 St. Francis of Assisi Primary School Mill Park</t>
-  </si>
-  <si>
-    <t>46105 Christ the Priest Primary School Caroline Springs</t>
-  </si>
-  <si>
-    <t>46115 St Luke's Catholic Primary School Shepparton North</t>
-  </si>
-  <si>
-    <t>46117 Marymede Catholic College South Morang</t>
+    <t>46001 Good Shepherd Parish School WheelersHill</t>
+  </si>
+  <si>
+    <t>46052 St. Francis of Assisi Primary School MillPark</t>
+  </si>
+  <si>
+    <t>46105 Christ the Priest Primary School CarolineSprings</t>
+  </si>
+  <si>
+    <t>46115 St Luke's Catholic Primary SchoolShepparton North</t>
+  </si>
+  <si>
+    <t>46117 Marymede Catholic College SouthMorang</t>
+  </si>
+  <si>
+    <t>46125 Our Lady of the Southern Cross PrimarySchool Manor Lakes</t>
   </si>
   <si>
     <t>46221 Bialik College Hawthorn</t>
@@ -112,34 +124,25 @@
     <t>46239 Gilson College Taylors Hill</t>
   </si>
   <si>
-    <t>46287 Oakleigh Grammar Melbourne Private School Oakleigh</t>
-  </si>
-  <si>
-    <t>46390 Al Siraat College Epping</t>
+    <t>50279 Dallas Brooks Community Primary SchoolDallas</t>
+  </si>
+  <si>
+    <t>52476 Harvest Home Primary School Epping</t>
   </si>
   <si>
     <t>Covenant College Bell Post Hill</t>
   </si>
   <si>
-    <t>House Party 27 November Private Residence Brunswick West</t>
-  </si>
-  <si>
-    <t>Islamic College of Melbourne Tarneit Oct Nov</t>
+    <t>House Party 27 November Private ResidenceBrunswick West</t>
   </si>
   <si>
     <t>Springside Primary School Caroline Springs Nov</t>
   </si>
   <si>
-    <t>St Vincents Hospital Melbourne Emergency Department Fitzroy</t>
-  </si>
-  <si>
     <t>The Village Early Learning Centre Sandringham</t>
   </si>
   <si>
     <t>Torquay Hotel Torquay</t>
-  </si>
-  <si>
-    <t>Werribee Mercy Hospital Emergency Department</t>
   </si>
 </sst>
 </file>
@@ -497,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -524,7 +527,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -532,7 +535,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>41</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -540,7 +543,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -548,7 +551,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -564,7 +567,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -580,7 +583,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -588,7 +591,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -596,7 +599,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -604,7 +607,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>20</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -612,7 +615,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>71</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -620,7 +623,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -628,7 +631,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -636,7 +639,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -644,7 +647,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -652,7 +655,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -660,7 +663,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -668,7 +671,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -684,7 +687,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -692,7 +695,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -700,7 +703,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -708,7 +711,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -716,7 +719,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -724,7 +727,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -732,7 +735,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -740,7 +743,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -748,7 +751,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -764,7 +767,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -772,7 +775,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -780,7 +783,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -788,7 +791,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -796,7 +799,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -804,7 +807,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -812,7 +815,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -820,7 +823,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -828,7 +831,15 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>10</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Cluster Name</t>
   </si>
@@ -22,127 +22,130 @@
     <t>Activecases</t>
   </si>
   <si>
-    <t>21st Birthday Party 27 Nov Middels Drouin</t>
-  </si>
-  <si>
-    <t>3398 BlueCross Elly Kay Mordialloc</t>
-  </si>
-  <si>
-    <t>3601 Baptcare Westhaven community outbreak</t>
-  </si>
-  <si>
-    <t>3646 Mornington Bay Care Community MountMartha</t>
-  </si>
-  <si>
-    <t>3653 Fronditha Thalpori St Albans Aged Care</t>
-  </si>
-  <si>
-    <t>3975 Aurrum Aged Care Brunswick West</t>
-  </si>
-  <si>
-    <t>4257 BlueCross The Gables Camberwell</t>
-  </si>
-  <si>
-    <t>4295 Hope Aged Care Sunshine West</t>
-  </si>
-  <si>
-    <t>44444 Nar Nar Goon Primary School Nar NarGoon</t>
-  </si>
-  <si>
-    <t>44666 Gardenvale Primary School Senior SchoolCampus Brighton East</t>
-  </si>
-  <si>
-    <t>44811 Dandenong North Primary SchoolDandenong</t>
-  </si>
-  <si>
-    <t>44950 Templestowe Valley Primary SchoolTemplestowe Lower</t>
-  </si>
-  <si>
-    <t>44979 Campbellfield Heights Primary SchoolCampbellfield</t>
-  </si>
-  <si>
-    <t>44982 Diamond Creek East Primary SchoolDiamond Creek</t>
-  </si>
-  <si>
-    <t>45248 Brookside P-9 College Caroline Springs</t>
-  </si>
-  <si>
-    <t>45257 Roxburgh Rise Primary School RoxburghPark</t>
-  </si>
-  <si>
-    <t>45267 Epping Views Primary School Epping</t>
-  </si>
-  <si>
-    <t>45315 Red Hill Consolidated School Red Hill</t>
-  </si>
-  <si>
-    <t>45585 Mount Ridley College Craigieburn</t>
-  </si>
-  <si>
-    <t>45648 St Brendans Primary School Shepparton</t>
-  </si>
-  <si>
-    <t>4574 Village Glen Aged Care ResidencesMornington</t>
-  </si>
-  <si>
-    <t>45755 St Patricks Catholic Parish PrimarySchool Mentone</t>
-  </si>
-  <si>
-    <t>45797 St John's Primary School Footscray</t>
-  </si>
-  <si>
-    <t>45846 St Mary's School Mooroopna</t>
-  </si>
-  <si>
-    <t>45903 St Peter Chanel Deer Park</t>
-  </si>
-  <si>
-    <t>45950 St Luke's Primary School Lalor</t>
-  </si>
-  <si>
-    <t>46001 Good Shepherd Parish School WheelersHill</t>
-  </si>
-  <si>
-    <t>46052 St. Francis of Assisi Primary School MillPark</t>
-  </si>
-  <si>
-    <t>46105 Christ the Priest Primary School CarolineSprings</t>
-  </si>
-  <si>
-    <t>46115 St Luke's Catholic Primary SchoolShepparton North</t>
-  </si>
-  <si>
-    <t>46117 Marymede Catholic College SouthMorang</t>
-  </si>
-  <si>
-    <t>46125 Our Lady of the Southern Cross PrimarySchool Manor Lakes</t>
-  </si>
-  <si>
-    <t>46221 Bialik College Hawthorn</t>
-  </si>
-  <si>
-    <t>46239 Gilson College Taylors Hill</t>
-  </si>
-  <si>
-    <t>50279 Dallas Brooks Community Primary SchoolDallas</t>
-  </si>
-  <si>
-    <t>52476 Harvest Home Primary School Epping</t>
+    <t>Altona Primary School Altona</t>
+  </si>
+  <si>
+    <t>Aurrum Aged Care Brunswick West</t>
+  </si>
+  <si>
+    <t>Baptcare Westhaven community</t>
+  </si>
+  <si>
+    <t>Bialik College Hawthorn</t>
+  </si>
+  <si>
+    <t>BlueCross Elly Kay Mordialloc</t>
+  </si>
+  <si>
+    <t>BlueCross The Gables Camberwell</t>
+  </si>
+  <si>
+    <t>Brookside P-9 College Caroline Springs</t>
+  </si>
+  <si>
+    <t>Campbellfield Heights Primary School</t>
+  </si>
+  <si>
+    <t>Christ the Priest Primary School Caroline Springs</t>
+  </si>
+  <si>
+    <t>Coburg North Primary School Coburg</t>
   </si>
   <si>
     <t>Covenant College Bell Post Hill</t>
   </si>
   <si>
-    <t>House Party 27 November Private ResidenceBrunswick West</t>
+    <t>Dallas Brooks Community Primary School</t>
+  </si>
+  <si>
+    <t>Diamond Creek East Primary School</t>
+  </si>
+  <si>
+    <t>Epping Views Primary School Epping</t>
+  </si>
+  <si>
+    <t>Fronditha Thalpori St Albans Aged Care</t>
+  </si>
+  <si>
+    <t>Gardenvale Primary School Senior School Campus Brighton East</t>
+  </si>
+  <si>
+    <t>Gilson College Taylors Hill</t>
+  </si>
+  <si>
+    <t>Good Shepherd Parish School Wheelers Hill</t>
+  </si>
+  <si>
+    <t>Harvest Home Primary School Epping</t>
+  </si>
+  <si>
+    <t>Hope Aged Care Sunshine West</t>
+  </si>
+  <si>
+    <t>Marymede Catholic College South Morang</t>
+  </si>
+  <si>
+    <t>Mornington Bay Care Community Mount Martha</t>
+  </si>
+  <si>
+    <t>Mount Ridley College Craigieburn</t>
+  </si>
+  <si>
+    <t>North St Kilda Children's Centre St Kilda</t>
+  </si>
+  <si>
+    <t>Queen of Peace Parish Primary School Altona Meadows</t>
+  </si>
+  <si>
+    <t>Red Hill Consolidated School Red Hill</t>
+  </si>
+  <si>
+    <t>Roxburgh Rise Primary School Roxburgh Park</t>
   </si>
   <si>
     <t>Springside Primary School Caroline Springs Nov</t>
   </si>
   <si>
+    <t>St Augustine's Primary School Yarraville</t>
+  </si>
+  <si>
+    <t>St Brendans Primary School Shepparton</t>
+  </si>
+  <si>
+    <t>St John's Primary School Footscray</t>
+  </si>
+  <si>
+    <t>St Louis de Montfort's School Aspendale</t>
+  </si>
+  <si>
+    <t>St Luke's Catholic Primary School Shepparton North</t>
+  </si>
+  <si>
+    <t>St Luke's Primary School Lalor</t>
+  </si>
+  <si>
+    <t>St Mary's School Mooroopna</t>
+  </si>
+  <si>
+    <t>St Patricks Catholic Parish Primary School Mentone</t>
+  </si>
+  <si>
+    <t>St Peter Chanel Deer Park</t>
+  </si>
+  <si>
+    <t>St. Francis of Assisi Primary School Mill Park</t>
+  </si>
+  <si>
+    <t>Templestowe Valley Primary School</t>
+  </si>
+  <si>
     <t>The Village Early Learning Centre Sandringham</t>
   </si>
   <si>
     <t>Torquay Hotel Torquay</t>
+  </si>
+  <si>
+    <t>Village Glen Aged Care Residences Mornington</t>
   </si>
 </sst>
 </file>
@@ -500,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,7 +522,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -527,7 +530,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -543,7 +546,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -551,7 +554,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -559,7 +562,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -567,7 +570,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -575,7 +578,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -583,7 +586,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -591,7 +594,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -599,7 +602,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -607,7 +610,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>67</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -615,7 +618,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -623,7 +626,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -631,7 +634,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -639,7 +642,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -647,7 +650,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -655,7 +658,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -663,7 +666,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -671,7 +674,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -679,7 +682,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -687,7 +690,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -695,7 +698,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -703,7 +706,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -711,7 +714,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -719,7 +722,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -727,7 +730,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -735,7 +738,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -743,7 +746,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -751,7 +754,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -759,7 +762,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -767,7 +770,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -775,7 +778,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -783,7 +786,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -791,7 +794,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -799,7 +802,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -807,7 +810,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -815,7 +818,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -823,7 +826,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>44</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -831,7 +834,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -840,6 +843,14 @@
       </c>
       <c r="B42">
         <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,81 +14,120 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Cluster Name</t>
   </si>
   <si>
-    <t>Activecases</t>
-  </si>
-  <si>
-    <t>Altona Primary School Altona</t>
-  </si>
-  <si>
-    <t>Aurrum Aged Care Brunswick West</t>
-  </si>
-  <si>
-    <t>Baptcare Westhaven community</t>
-  </si>
-  <si>
-    <t>Bialik College Hawthorn</t>
-  </si>
-  <si>
-    <t>BlueCross Elly Kay Mordialloc</t>
-  </si>
-  <si>
-    <t>BlueCross The Gables Camberwell</t>
-  </si>
-  <si>
-    <t>Brookside P-9 College Caroline Springs</t>
-  </si>
-  <si>
-    <t>Campbellfield Heights Primary School</t>
-  </si>
-  <si>
-    <t>Christ the Priest Primary School Caroline Springs</t>
-  </si>
-  <si>
-    <t>Coburg North Primary School Coburg</t>
+    <t>Active cases</t>
+  </si>
+  <si>
+    <t>21st Birthday Party 27 Nov Middels Drouin</t>
+  </si>
+  <si>
+    <t>3398 BlueCross Elly Kay Mordialloc</t>
+  </si>
+  <si>
+    <t>3601 Baptcare Westhaven community</t>
+  </si>
+  <si>
+    <t>3646 Mornington Bay Care Community Mount Martha</t>
+  </si>
+  <si>
+    <t>3653 Fronditha Thalpori St Albans Aged Care</t>
+  </si>
+  <si>
+    <t>3975 Aurrum Aged Care Brunswick West</t>
+  </si>
+  <si>
+    <t>4257 BlueCross The Gables Camberwell</t>
+  </si>
+  <si>
+    <t>4295 Hope Aged Care Sunshine West</t>
+  </si>
+  <si>
+    <t>4314 Estia Health Ardeer</t>
+  </si>
+  <si>
+    <t>44666 Gardenvale Primary School Senior School Campus Brighton East</t>
+  </si>
+  <si>
+    <t>44761 Coburg North Primary School Coburg</t>
+  </si>
+  <si>
+    <t>44930 St Albans Heights Primary School Exposure Site</t>
+  </si>
+  <si>
+    <t>44950 Templestowe Valley Primary School Templestowe Lower</t>
+  </si>
+  <si>
+    <t>44979 Campbellfield Heights Primary School Campbellfield</t>
+  </si>
+  <si>
+    <t>44982 Diamond Creek East Primary School Diamond Creek</t>
+  </si>
+  <si>
+    <t>45248 Brookside P-9 College Caroline Springs</t>
+  </si>
+  <si>
+    <t>45257 Roxburgh Rise Primary School Roxburgh Park</t>
+  </si>
+  <si>
+    <t>45267 Epping Views Primary School Epping</t>
+  </si>
+  <si>
+    <t>45648 St Brendans Primary School Shepparton</t>
+  </si>
+  <si>
+    <t>45677 St. Peter's Primary School Bentleigh East</t>
+  </si>
+  <si>
+    <t>45708 St Augustine's Primary School Yarraville</t>
+  </si>
+  <si>
+    <t>4574 Village Glen Aged Care Residences Mornington</t>
+  </si>
+  <si>
+    <t>45755 St Patricks Catholic Parish Primary School Mentone</t>
+  </si>
+  <si>
+    <t>45797 St John's Primary School Footscray</t>
+  </si>
+  <si>
+    <t>45903 St Peter Chanel Deer Park</t>
+  </si>
+  <si>
+    <t>45950 St Luke's Primary School Lalor</t>
+  </si>
+  <si>
+    <t>46052 St. Francis of Assisi Primary School Mill Park</t>
+  </si>
+  <si>
+    <t>46105 Christ the Priest Primary School Caroline Springs</t>
+  </si>
+  <si>
+    <t>46115 St Luke's Catholic Primary School Shepparton North</t>
+  </si>
+  <si>
+    <t>46117 Marymede Catholic College South Morang</t>
+  </si>
+  <si>
+    <t>46221 Bialik College Hawthorn</t>
+  </si>
+  <si>
+    <t>52476 Harvest Home Primary School Epping</t>
+  </si>
+  <si>
+    <t>Buangor Primary School Buangor</t>
   </si>
   <si>
     <t>Covenant College Bell Post Hill</t>
   </si>
   <si>
-    <t>Dallas Brooks Community Primary School</t>
-  </si>
-  <si>
-    <t>Diamond Creek East Primary School</t>
-  </si>
-  <si>
-    <t>Epping Views Primary School Epping</t>
-  </si>
-  <si>
-    <t>Fronditha Thalpori St Albans Aged Care</t>
-  </si>
-  <si>
-    <t>Gardenvale Primary School Senior School Campus Brighton East</t>
-  </si>
-  <si>
-    <t>Gilson College Taylors Hill</t>
-  </si>
-  <si>
-    <t>Good Shepherd Parish School Wheelers Hill</t>
-  </si>
-  <si>
-    <t>Harvest Home Primary School Epping</t>
-  </si>
-  <si>
-    <t>Hope Aged Care Sunshine West</t>
-  </si>
-  <si>
-    <t>Marymede Catholic College South Morang</t>
-  </si>
-  <si>
-    <t>Mornington Bay Care Community Mount Martha</t>
-  </si>
-  <si>
-    <t>Mount Ridley College Craigieburn</t>
+    <t>House Party 27 November Private Residence Brunswick West</t>
+  </si>
+  <si>
+    <t>Kororoit Creek Primary School Burnside Heights Oct</t>
   </si>
   <si>
     <t>North St Kilda Children's Centre St Kilda</t>
@@ -97,55 +136,22 @@
     <t>Queen of Peace Parish Primary School Altona Meadows</t>
   </si>
   <si>
-    <t>Red Hill Consolidated School Red Hill</t>
-  </si>
-  <si>
-    <t>Roxburgh Rise Primary School Roxburgh Park</t>
+    <t>Rosebud Primary School Rosebud</t>
   </si>
   <si>
     <t>Springside Primary School Caroline Springs Nov</t>
   </si>
   <si>
-    <t>St Augustine's Primary School Yarraville</t>
-  </si>
-  <si>
-    <t>St Brendans Primary School Shepparton</t>
-  </si>
-  <si>
-    <t>St John's Primary School Footscray</t>
-  </si>
-  <si>
     <t>St Louis de Montfort's School Aspendale</t>
   </si>
   <si>
-    <t>St Luke's Catholic Primary School Shepparton North</t>
-  </si>
-  <si>
-    <t>St Luke's Primary School Lalor</t>
-  </si>
-  <si>
-    <t>St Mary's School Mooroopna</t>
-  </si>
-  <si>
-    <t>St Patricks Catholic Parish Primary School Mentone</t>
-  </si>
-  <si>
-    <t>St Peter Chanel Deer Park</t>
-  </si>
-  <si>
-    <t>St. Francis of Assisi Primary School Mill Park</t>
-  </si>
-  <si>
-    <t>Templestowe Valley Primary School</t>
+    <t>The Evelyn Hotel Fitzroy</t>
   </si>
   <si>
     <t>The Village Early Learning Centre Sandringham</t>
   </si>
   <si>
     <t>Torquay Hotel Torquay</t>
-  </si>
-  <si>
-    <t>Village Glen Aged Care Residences Mornington</t>
   </si>
 </sst>
 </file>
@@ -503,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,7 +528,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -530,7 +536,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -546,7 +552,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -554,7 +560,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -562,7 +568,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -570,7 +576,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -578,7 +584,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -586,7 +592,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -594,7 +600,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -602,7 +608,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -610,7 +616,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -618,7 +624,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -626,7 +632,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -634,7 +640,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -642,7 +648,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -650,7 +656,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -658,7 +664,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -666,7 +672,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -674,7 +680,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -682,7 +688,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -690,7 +696,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -698,7 +704,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -706,7 +712,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -722,7 +728,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -730,7 +736,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -738,7 +744,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>45</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -746,7 +752,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -754,7 +760,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -762,7 +768,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -770,7 +776,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -778,7 +784,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -786,7 +792,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -794,7 +800,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -810,7 +816,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -818,7 +824,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -826,7 +832,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>58</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -834,7 +840,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -842,7 +848,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -851,6 +857,22 @@
       </c>
       <c r="B43">
         <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,137 +14,143 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Cluster Name</t>
   </si>
   <si>
-    <t>Active cases</t>
-  </si>
-  <si>
-    <t>21st Birthday Party 27 Nov Middels Drouin</t>
-  </si>
-  <si>
-    <t>3398 BlueCross Elly Kay Mordialloc</t>
-  </si>
-  <si>
-    <t>3601 Baptcare Westhaven community</t>
-  </si>
-  <si>
-    <t>3646 Mornington Bay Care Community Mount Martha</t>
-  </si>
-  <si>
-    <t>3653 Fronditha Thalpori St Albans Aged Care</t>
-  </si>
-  <si>
-    <t>3975 Aurrum Aged Care Brunswick West</t>
-  </si>
-  <si>
-    <t>4257 BlueCross The Gables Camberwell</t>
-  </si>
-  <si>
-    <t>4295 Hope Aged Care Sunshine West</t>
-  </si>
-  <si>
-    <t>4314 Estia Health Ardeer</t>
-  </si>
-  <si>
-    <t>44666 Gardenvale Primary School Senior School Campus Brighton East</t>
-  </si>
-  <si>
-    <t>44761 Coburg North Primary School Coburg</t>
-  </si>
-  <si>
-    <t>44930 St Albans Heights Primary School Exposure Site</t>
-  </si>
-  <si>
-    <t>44950 Templestowe Valley Primary School Templestowe Lower</t>
-  </si>
-  <si>
-    <t>44979 Campbellfield Heights Primary School Campbellfield</t>
-  </si>
-  <si>
-    <t>44982 Diamond Creek East Primary School Diamond Creek</t>
-  </si>
-  <si>
-    <t>45248 Brookside P-9 College Caroline Springs</t>
-  </si>
-  <si>
-    <t>45257 Roxburgh Rise Primary School Roxburgh Park</t>
-  </si>
-  <si>
-    <t>45267 Epping Views Primary School Epping</t>
-  </si>
-  <si>
-    <t>45648 St Brendans Primary School Shepparton</t>
-  </si>
-  <si>
-    <t>45677 St. Peter's Primary School Bentleigh East</t>
-  </si>
-  <si>
-    <t>45708 St Augustine's Primary School Yarraville</t>
-  </si>
-  <si>
-    <t>4574 Village Glen Aged Care Residences Mornington</t>
-  </si>
-  <si>
-    <t>45755 St Patricks Catholic Parish Primary School Mentone</t>
-  </si>
-  <si>
-    <t>45797 St John's Primary School Footscray</t>
-  </si>
-  <si>
-    <t>45903 St Peter Chanel Deer Park</t>
-  </si>
-  <si>
-    <t>45950 St Luke's Primary School Lalor</t>
-  </si>
-  <si>
-    <t>46052 St. Francis of Assisi Primary School Mill Park</t>
-  </si>
-  <si>
-    <t>46105 Christ the Priest Primary School Caroline Springs</t>
-  </si>
-  <si>
-    <t>46115 St Luke's Catholic Primary School Shepparton North</t>
-  </si>
-  <si>
-    <t>46117 Marymede Catholic College South Morang</t>
-  </si>
-  <si>
-    <t>46221 Bialik College Hawthorn</t>
-  </si>
-  <si>
-    <t>52476 Harvest Home Primary School Epping</t>
-  </si>
-  <si>
-    <t>Buangor Primary School Buangor</t>
+    <t>Activecases</t>
+  </si>
+  <si>
+    <t>Aurrum Aged Care Brunswick West</t>
+  </si>
+  <si>
+    <t>Ballarat High School Lake Gardens</t>
+  </si>
+  <si>
+    <t>Baptcare Westhaven community</t>
+  </si>
+  <si>
+    <t>Bialik College Hawthorn</t>
+  </si>
+  <si>
+    <t>BlueCross Elly Kay Mordialloc</t>
+  </si>
+  <si>
+    <t>BlueCross The Gables Camberwell</t>
+  </si>
+  <si>
+    <t>Brookside P-9 College Caroline Springs</t>
+  </si>
+  <si>
+    <t>Buangor Primary School</t>
+  </si>
+  <si>
+    <t>Campbellfield Heights Primary School</t>
+  </si>
+  <si>
+    <t>Chairo Christian School Leongatha</t>
+  </si>
+  <si>
+    <t>Christ the Priest Primary School Caroline Springs</t>
+  </si>
+  <si>
+    <t>Coburg North Primary School</t>
   </si>
   <si>
     <t>Covenant College Bell Post Hill</t>
   </si>
   <si>
-    <t>House Party 27 November Private Residence Brunswick West</t>
-  </si>
-  <si>
-    <t>Kororoit Creek Primary School Burnside Heights Oct</t>
+    <t>Diamond Creek East Primary School</t>
+  </si>
+  <si>
+    <t>Epping Views Primary School</t>
+  </si>
+  <si>
+    <t>Estia Health Ardeer</t>
+  </si>
+  <si>
+    <t>Fronditha Thalpori St Albans Aged Care</t>
+  </si>
+  <si>
+    <t>Gardenvale Primary School Senior School Campus Brighton East</t>
+  </si>
+  <si>
+    <t>Harvest Home Primary School Epping</t>
+  </si>
+  <si>
+    <t>Hope Aged Care Sunshine West</t>
+  </si>
+  <si>
+    <t>Ilim College Inverloch Crescent Dallas</t>
+  </si>
+  <si>
+    <t>Kororoit Creek Primary School Burnside Heights</t>
+  </si>
+  <si>
+    <t>Mambourin Allara Deer Park</t>
+  </si>
+  <si>
+    <t>Marymede Catholic College South Morang</t>
+  </si>
+  <si>
+    <t>Mornington Bay Care Community Mount Martha</t>
+  </si>
+  <si>
+    <t>Mother of God Primary School Ardeer</t>
   </si>
   <si>
     <t>North St Kilda Children's Centre St Kilda</t>
   </si>
   <si>
-    <t>Queen of Peace Parish Primary School Altona Meadows</t>
-  </si>
-  <si>
-    <t>Rosebud Primary School Rosebud</t>
-  </si>
-  <si>
-    <t>Springside Primary School Caroline Springs Nov</t>
+    <t>Plenty Parklands Primary School Mill Park</t>
+  </si>
+  <si>
+    <t>Rosebud Primary School</t>
+  </si>
+  <si>
+    <t>Roxburgh Rise Primary School Roxburgh Park</t>
+  </si>
+  <si>
+    <t>Springside Primary School Caroline Springs</t>
+  </si>
+  <si>
+    <t>St Albans Heights Primary Schoo</t>
+  </si>
+  <si>
+    <t>St Augustine's Primary School Yarraville</t>
+  </si>
+  <si>
+    <t>St Brendans Primary School Shepparton</t>
+  </si>
+  <si>
+    <t>St John's Primary School Footscray</t>
   </si>
   <si>
     <t>St Louis de Montfort's School Aspendale</t>
   </si>
   <si>
+    <t>St Luke's Catholic Primary School Shepparton North</t>
+  </si>
+  <si>
+    <t>St Mary's Primary School Hampton</t>
+  </si>
+  <si>
+    <t>St Paul's Anglican Grammar School Warragul</t>
+  </si>
+  <si>
+    <t>St. Francis of Assisi Primary School Mill Park</t>
+  </si>
+  <si>
+    <t>St. Peter's Primary School Bentleigh East</t>
+  </si>
+  <si>
+    <t>St.Thomas Aquinas College Tynong</t>
+  </si>
+  <si>
+    <t>Templestowe Valley Primary School Templestowe Lower</t>
+  </si>
+  <si>
     <t>The Evelyn Hotel Fitzroy</t>
   </si>
   <si>
@@ -152,6 +158,9 @@
   </si>
   <si>
     <t>Torquay Hotel Torquay</t>
+  </si>
+  <si>
+    <t>Village Glen Aged Care Residences Mornington</t>
   </si>
 </sst>
 </file>
@@ -509,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -536,7 +545,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>42</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -544,7 +553,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -552,7 +561,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -560,7 +569,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -568,7 +577,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -576,7 +585,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -584,7 +593,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -592,7 +601,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -600,7 +609,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -616,7 +625,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -624,7 +633,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>50</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -632,7 +641,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -640,7 +649,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -648,7 +657,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -656,7 +665,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -664,7 +673,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -672,7 +681,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -680,7 +689,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -688,7 +697,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -696,7 +705,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -704,7 +713,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -712,7 +721,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -720,7 +729,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -728,7 +737,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -736,7 +745,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -744,7 +753,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -752,7 +761,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -760,7 +769,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -768,7 +777,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -776,7 +785,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -784,7 +793,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -792,7 +801,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -800,7 +809,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -808,7 +817,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -832,7 +841,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -840,7 +849,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -848,7 +857,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -864,7 +873,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -872,7 +881,31 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>27</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -19,148 +19,148 @@
     <t>Cluster Name</t>
   </si>
   <si>
-    <t>Activecases</t>
-  </si>
-  <si>
-    <t>Aurrum Aged Care Brunswick West</t>
-  </si>
-  <si>
-    <t>Ballarat High School Lake Gardens</t>
-  </si>
-  <si>
-    <t>Baptcare Westhaven community</t>
-  </si>
-  <si>
-    <t>Bialik College Hawthorn</t>
-  </si>
-  <si>
-    <t>BlueCross Elly Kay Mordialloc</t>
-  </si>
-  <si>
-    <t>BlueCross The Gables Camberwell</t>
-  </si>
-  <si>
-    <t>Brookside P-9 College Caroline Springs</t>
-  </si>
-  <si>
-    <t>Buangor Primary School</t>
-  </si>
-  <si>
-    <t>Campbellfield Heights Primary School</t>
-  </si>
-  <si>
-    <t>Chairo Christian School Leongatha</t>
-  </si>
-  <si>
-    <t>Christ the Priest Primary School Caroline Springs</t>
-  </si>
-  <si>
-    <t>Coburg North Primary School</t>
-  </si>
-  <si>
-    <t>Covenant College Bell Post Hill</t>
-  </si>
-  <si>
-    <t>Diamond Creek East Primary School</t>
-  </si>
-  <si>
-    <t>Epping Views Primary School</t>
-  </si>
-  <si>
-    <t>Estia Health Ardeer</t>
-  </si>
-  <si>
-    <t>Fronditha Thalpori St Albans Aged Care</t>
-  </si>
-  <si>
-    <t>Gardenvale Primary School Senior School Campus Brighton East</t>
-  </si>
-  <si>
-    <t>Harvest Home Primary School Epping</t>
-  </si>
-  <si>
-    <t>Hope Aged Care Sunshine West</t>
-  </si>
-  <si>
-    <t>Ilim College Inverloch Crescent Dallas</t>
+    <t>Active Cases</t>
+  </si>
+  <si>
+    <t>3398 BlueCross Elly Kay Mordialloc</t>
+  </si>
+  <si>
+    <t>3601 Baptcare Westhaven community</t>
+  </si>
+  <si>
+    <t>3646 Mornington Bay Care Community Mount Martha</t>
+  </si>
+  <si>
+    <t>3653 Fronditha Thalpori St Albans Aged Care</t>
+  </si>
+  <si>
+    <t>3975 Aurrum Aged Care Brunswick West</t>
+  </si>
+  <si>
+    <t>4257 BlueCross The Gables Camberwell</t>
+  </si>
+  <si>
+    <t>4295 Hope Aged Care Sunshine West</t>
+  </si>
+  <si>
+    <t>4314 Estia Health Ardeer</t>
+  </si>
+  <si>
+    <t>44304 Brighton Primary School Brighton</t>
+  </si>
+  <si>
+    <t>44380 Plenty Parklands Primary School Mill Park</t>
+  </si>
+  <si>
+    <t>44414 Buangor Primary School Buangor</t>
+  </si>
+  <si>
+    <t>44584 Badger Creek Primary School Badger Creek</t>
+  </si>
+  <si>
+    <t>44666 Gardenvale Primary School Senior School Campus Brighton East</t>
+  </si>
+  <si>
+    <t>44761 Coburg North Primary School Coburg</t>
+  </si>
+  <si>
+    <t>44828 Cheltenham East Primary School Cheltenham</t>
+  </si>
+  <si>
+    <t>44930 St Albans Heights Primary School</t>
+  </si>
+  <si>
+    <t>44950 Templestowe Valley Primary School Templestowe Lower</t>
+  </si>
+  <si>
+    <t>44979 Campbellfield Heights Primary School Campbellfield</t>
+  </si>
+  <si>
+    <t>45248 Brookside P-9 College Caroline Springs</t>
+  </si>
+  <si>
+    <t>45257 Roxburgh Rise Primary School Roxburgh Park</t>
+  </si>
+  <si>
+    <t>45265 Cranbourne Carlisle Primary School</t>
+  </si>
+  <si>
+    <t>45267 Epping Views Primary School Epping</t>
+  </si>
+  <si>
+    <t>45648 St Brendans Primary School Shepparton</t>
+  </si>
+  <si>
+    <t>45677 St. Peter's Primary School Bentleigh East</t>
+  </si>
+  <si>
+    <t>45708 St Augustine's Primary School Yarraville</t>
+  </si>
+  <si>
+    <t>45719 St Joseph's Primary School Numurkah</t>
+  </si>
+  <si>
+    <t>4574 Village Glen Aged Care Residences Mornington</t>
+  </si>
+  <si>
+    <t>45797 St John's Primary School Footscray</t>
+  </si>
+  <si>
+    <t>45812 St Mary's Primary School Hampton</t>
+  </si>
+  <si>
+    <t>45902 Mother of God Primary School Ardeer</t>
+  </si>
+  <si>
+    <t>45988 St Macartan's Parish Primary School</t>
+  </si>
+  <si>
+    <t>46052 St. Francis of Assisi Primary School Mill Park</t>
+  </si>
+  <si>
+    <t>46105 Christ the Priest Primary School Caroline Springs</t>
+  </si>
+  <si>
+    <t>46115 St Luke's Catholic Primary School Shepparton North</t>
+  </si>
+  <si>
+    <t>46221 Bialik College Hawthorn</t>
+  </si>
+  <si>
+    <t>46306 King's College Warrnambool</t>
+  </si>
+  <si>
+    <t>46328 Ilim College Inverloch Crescent Dallas</t>
+  </si>
+  <si>
+    <t>50722 Chairo Christian School Leongatha Campus Leongatha</t>
   </si>
   <si>
     <t>Kororoit Creek Primary School Burnside Heights</t>
   </si>
   <si>
-    <t>Mambourin Allara Deer Park</t>
-  </si>
-  <si>
-    <t>Marymede Catholic College South Morang</t>
-  </si>
-  <si>
-    <t>Mornington Bay Care Community Mount Martha</t>
-  </si>
-  <si>
-    <t>Mother of God Primary School Ardeer</t>
+    <t>Mambourin Enterprises Allara Deer Park</t>
   </si>
   <si>
     <t>North St Kilda Children's Centre St Kilda</t>
   </si>
   <si>
-    <t>Plenty Parklands Primary School Mill Park</t>
-  </si>
-  <si>
-    <t>Rosebud Primary School</t>
-  </si>
-  <si>
-    <t>Roxburgh Rise Primary School Roxburgh Park</t>
+    <t>Oakleigh South Primary School Oakleigh South</t>
+  </si>
+  <si>
+    <t>Rosebud Primary School Rosebud</t>
   </si>
   <si>
     <t>Springside Primary School Caroline Springs</t>
   </si>
   <si>
-    <t>St Albans Heights Primary Schoo</t>
-  </si>
-  <si>
-    <t>St Augustine's Primary School Yarraville</t>
-  </si>
-  <si>
-    <t>St Brendans Primary School Shepparton</t>
-  </si>
-  <si>
-    <t>St John's Primary School Footscray</t>
-  </si>
-  <si>
     <t>St Louis de Montfort's School Aspendale</t>
   </si>
   <si>
-    <t>St Luke's Catholic Primary School Shepparton North</t>
-  </si>
-  <si>
-    <t>St Mary's Primary School Hampton</t>
-  </si>
-  <si>
-    <t>St Paul's Anglican Grammar School Warragul</t>
-  </si>
-  <si>
-    <t>St. Francis of Assisi Primary School Mill Park</t>
-  </si>
-  <si>
-    <t>St. Peter's Primary School Bentleigh East</t>
-  </si>
-  <si>
-    <t>St.Thomas Aquinas College Tynong</t>
-  </si>
-  <si>
-    <t>Templestowe Valley Primary School Templestowe Lower</t>
-  </si>
-  <si>
-    <t>The Evelyn Hotel Fitzroy</t>
-  </si>
-  <si>
     <t>The Village Early Learning Centre Sandringham</t>
   </si>
   <si>
     <t>Torquay Hotel Torquay</t>
-  </si>
-  <si>
-    <t>Village Glen Aged Care Residences Mornington</t>
   </si>
 </sst>
 </file>
@@ -537,7 +537,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -545,7 +545,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -553,7 +553,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -561,7 +561,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -569,7 +569,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>37</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -585,7 +585,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -593,7 +593,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -601,7 +601,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -617,7 +617,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -625,7 +625,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -633,7 +633,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -641,7 +641,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -649,7 +649,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -665,7 +665,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -673,7 +673,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -681,7 +681,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -689,7 +689,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -705,7 +705,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -713,7 +713,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -721,7 +721,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -729,7 +729,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -745,7 +745,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -753,7 +753,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -761,7 +761,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -769,7 +769,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -777,7 +777,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -785,7 +785,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -801,7 +801,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -809,7 +809,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -817,7 +817,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -825,7 +825,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -833,7 +833,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -841,7 +841,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -849,7 +849,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -857,7 +857,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -865,7 +865,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -873,7 +873,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -881,7 +881,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -889,7 +889,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -897,7 +897,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -905,7 +905,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Cluster Name</t>
   </si>
@@ -25,6 +25,9 @@
     <t>3398 BlueCross Elly Kay Mordialloc</t>
   </si>
   <si>
+    <t>3564 Waverley Valley Aged Care Glen Waverley</t>
+  </si>
+  <si>
     <t>3601 Baptcare Westhaven community</t>
   </si>
   <si>
@@ -58,6 +61,9 @@
     <t>44584 Badger Creek Primary School Badger Creek</t>
   </si>
   <si>
+    <t>44593 Torquay P-6 College Torquay</t>
+  </si>
+  <si>
     <t>44666 Gardenvale Primary School Senior School Campus Brighton East</t>
   </si>
   <si>
@@ -70,22 +76,16 @@
     <t>44930 St Albans Heights Primary School</t>
   </si>
   <si>
-    <t>44950 Templestowe Valley Primary School Templestowe Lower</t>
-  </si>
-  <si>
     <t>44979 Campbellfield Heights Primary School Campbellfield</t>
   </si>
   <si>
     <t>45248 Brookside P-9 College Caroline Springs</t>
   </si>
   <si>
-    <t>45257 Roxburgh Rise Primary School Roxburgh Park</t>
-  </si>
-  <si>
     <t>45265 Cranbourne Carlisle Primary School</t>
   </si>
   <si>
-    <t>45267 Epping Views Primary School Epping</t>
+    <t>45350 Ballarat High School Lake Gardens</t>
   </si>
   <si>
     <t>45648 St Brendans Primary School Shepparton</t>
@@ -103,12 +103,6 @@
     <t>4574 Village Glen Aged Care Residences Mornington</t>
   </si>
   <si>
-    <t>45797 St John's Primary School Footscray</t>
-  </si>
-  <si>
-    <t>45812 St Mary's Primary School Hampton</t>
-  </si>
-  <si>
     <t>45902 Mother of God Primary School Ardeer</t>
   </si>
   <si>
@@ -118,13 +112,13 @@
     <t>46052 St. Francis of Assisi Primary School Mill Park</t>
   </si>
   <si>
-    <t>46105 Christ the Priest Primary School Caroline Springs</t>
-  </si>
-  <si>
     <t>46115 St Luke's Catholic Primary School Shepparton North</t>
   </si>
   <si>
-    <t>46221 Bialik College Hawthorn</t>
+    <t>46116 Saint Francis Of Assisi Primary School Baranduda</t>
+  </si>
+  <si>
+    <t>46277 St Paul's Anglican Grammar School Warragul</t>
   </si>
   <si>
     <t>46306 King's College Warrnambool</t>
@@ -154,10 +148,10 @@
     <t>Springside Primary School Caroline Springs</t>
   </si>
   <si>
+    <t>St Christophers Primary School Airport West</t>
+  </si>
+  <si>
     <t>St Louis de Montfort's School Aspendale</t>
-  </si>
-  <si>
-    <t>The Village Early Learning Centre Sandringham</t>
   </si>
   <si>
     <t>Torquay Hotel Torquay</t>
@@ -518,7 +512,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,7 +531,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -545,7 +539,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -553,7 +547,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -561,7 +555,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -569,7 +563,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -577,7 +571,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -585,7 +579,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -601,7 +595,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -609,7 +603,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -617,7 +611,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -625,7 +619,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -633,7 +627,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -641,7 +635,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -657,7 +651,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -665,7 +659,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -673,7 +667,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -681,7 +675,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -689,7 +683,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -705,7 +699,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -713,7 +707,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -721,7 +715,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -729,7 +723,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -737,7 +731,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -753,7 +747,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -761,7 +755,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -769,7 +763,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -777,7 +771,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -785,7 +779,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -793,7 +787,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -801,7 +795,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -809,7 +803,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -817,7 +811,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -825,7 +819,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -833,7 +827,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -841,7 +835,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -849,7 +843,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -857,7 +851,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -865,7 +859,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -873,7 +867,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -881,7 +875,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -889,22 +883,6 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48">
         <v>28</v>
       </c>
     </row>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -16,10 +16,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
-    <t>Cluster Name</t>
-  </si>
-  <si>
-    <t>Active Cases</t>
+    <t>Cluster name</t>
+  </si>
+  <si>
+    <t>Active cases</t>
   </si>
   <si>
     <t>3398 BlueCross Elly Kay Mordialloc</t>
@@ -34,6 +34,9 @@
     <t>3646 Mornington Bay Care Community Mount Martha</t>
   </si>
   <si>
+    <t>3647 Aurrum Aged Care Reservoir</t>
+  </si>
+  <si>
     <t>3653 Fronditha Thalpori St Albans Aged Care</t>
   </si>
   <si>
@@ -58,15 +61,15 @@
     <t>44414 Buangor Primary School Buangor</t>
   </si>
   <si>
+    <t>44490 Armadale Primary School Armadale</t>
+  </si>
+  <si>
     <t>44584 Badger Creek Primary School Badger Creek</t>
   </si>
   <si>
     <t>44593 Torquay P-6 College Torquay</t>
   </si>
   <si>
-    <t>44666 Gardenvale Primary School Senior School Campus Brighton East</t>
-  </si>
-  <si>
     <t>44761 Coburg North Primary School Coburg</t>
   </si>
   <si>
@@ -82,16 +85,7 @@
     <t>45248 Brookside P-9 College Caroline Springs</t>
   </si>
   <si>
-    <t>45265 Cranbourne Carlisle Primary School</t>
-  </si>
-  <si>
-    <t>45350 Ballarat High School Lake Gardens</t>
-  </si>
-  <si>
-    <t>45648 St Brendans Primary School Shepparton</t>
-  </si>
-  <si>
-    <t>45677 St. Peter's Primary School Bentleigh East</t>
+    <t>45257 Roxburgh Rise Primary School Roxburgh Park</t>
   </si>
   <si>
     <t>45708 St Augustine's Primary School Yarraville</t>
@@ -103,16 +97,19 @@
     <t>4574 Village Glen Aged Care Residences Mornington</t>
   </si>
   <si>
+    <t>45861 St Oliver Plunkett Primary School Pascoe Vale</t>
+  </si>
+  <si>
     <t>45902 Mother of God Primary School Ardeer</t>
   </si>
   <si>
+    <t>45975 St Thomas More Primary School Hadfield</t>
+  </si>
+  <si>
     <t>45988 St Macartan's Parish Primary School</t>
   </si>
   <si>
-    <t>46052 St. Francis of Assisi Primary School Mill Park</t>
-  </si>
-  <si>
-    <t>46115 St Luke's Catholic Primary School Shepparton North</t>
+    <t>46078 Corpus Christi Primary School Werribee</t>
   </si>
   <si>
     <t>46116 Saint Francis Of Assisi Primary School Baranduda</t>
@@ -124,13 +121,16 @@
     <t>46306 King's College Warrnambool</t>
   </si>
   <si>
-    <t>46328 Ilim College Inverloch Crescent Dallas</t>
-  </si>
-  <si>
     <t>50722 Chairo Christian School Leongatha Campus Leongatha</t>
   </si>
   <si>
-    <t>Kororoit Creek Primary School Burnside Heights</t>
+    <t>51529 Sirius College Primary School Dallas</t>
+  </si>
+  <si>
+    <t>Berwick Chase Primary School Berwick</t>
+  </si>
+  <si>
+    <t>Kororoit Creek Primary School Burnside Heights Oct-Dec</t>
   </si>
   <si>
     <t>Mambourin Enterprises Allara Deer Park</t>
@@ -145,7 +145,7 @@
     <t>Rosebud Primary School Rosebud</t>
   </si>
   <si>
-    <t>Springside Primary School Caroline Springs</t>
+    <t>Springside Primary School Caroline Springs Nov</t>
   </si>
   <si>
     <t>St Christophers Primary School Airport West</t>
@@ -539,7 +539,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -547,7 +547,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -555,7 +555,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -563,7 +563,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -571,7 +571,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -579,7 +579,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -595,7 +595,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -603,7 +603,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -611,7 +611,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -619,7 +619,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -627,7 +627,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -643,7 +643,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -651,7 +651,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -659,7 +659,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -667,7 +667,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -675,7 +675,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -683,7 +683,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -691,7 +691,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -699,7 +699,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -707,7 +707,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -715,7 +715,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -771,7 +771,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -779,7 +779,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -803,7 +803,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -811,7 +811,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -819,7 +819,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -827,7 +827,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -843,7 +843,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -851,7 +851,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -859,7 +859,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -867,7 +867,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -875,7 +875,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -883,7 +883,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
-  <si>
-    <t>Cluster name</t>
-  </si>
-  <si>
-    <t>Active cases</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+  <si>
+    <t>Cluster Name</t>
+  </si>
+  <si>
+    <t>Active Cases</t>
   </si>
   <si>
     <t>3398 BlueCross Elly Kay Mordialloc</t>
@@ -55,9 +55,6 @@
     <t>44304 Brighton Primary School Brighton</t>
   </si>
   <si>
-    <t>44380 Plenty Parklands Primary School Mill Park</t>
-  </si>
-  <si>
     <t>44414 Buangor Primary School Buangor</t>
   </si>
   <si>
@@ -70,6 +67,9 @@
     <t>44593 Torquay P-6 College Torquay</t>
   </si>
   <si>
+    <t>44620 Canterbury Primary School Canterbury</t>
+  </si>
+  <si>
     <t>44761 Coburg North Primary School Coburg</t>
   </si>
   <si>
@@ -82,13 +82,19 @@
     <t>44979 Campbellfield Heights Primary School Campbellfield</t>
   </si>
   <si>
+    <t>45013 Gladstone Views Primary School</t>
+  </si>
+  <si>
+    <t>45087 Milgate Primary School Doncaster East</t>
+  </si>
+  <si>
     <t>45248 Brookside P-9 College Caroline Springs</t>
   </si>
   <si>
     <t>45257 Roxburgh Rise Primary School Roxburgh Park</t>
   </si>
   <si>
-    <t>45708 St Augustine's Primary School Yarraville</t>
+    <t>45350 Ballarat High School Lake Gardens</t>
   </si>
   <si>
     <t>45719 St Joseph's Primary School Numurkah</t>
@@ -97,6 +103,12 @@
     <t>4574 Village Glen Aged Care Residences Mornington</t>
   </si>
   <si>
+    <t>45808 St Joseph's Catholic Primary School Chelsea</t>
+  </si>
+  <si>
+    <t>45858 St Bernard's Primary Coburg</t>
+  </si>
+  <si>
     <t>45861 St Oliver Plunkett Primary School Pascoe Vale</t>
   </si>
   <si>
@@ -112,40 +124,43 @@
     <t>46078 Corpus Christi Primary School Werribee</t>
   </si>
   <si>
-    <t>46116 Saint Francis Of Assisi Primary School Baranduda</t>
-  </si>
-  <si>
-    <t>46277 St Paul's Anglican Grammar School Warragul</t>
+    <t>46101 Emmaus Catholic Primary School Sydenham</t>
+  </si>
+  <si>
+    <t>46135 Wesley College Junior School St Kilda Road Melbourne</t>
+  </si>
+  <si>
+    <t>46208 Mount Scopus Memorial College Gandel Campus Burwood</t>
   </si>
   <si>
     <t>46306 King's College Warrnambool</t>
   </si>
   <si>
-    <t>50722 Chairo Christian School Leongatha Campus Leongatha</t>
-  </si>
-  <si>
     <t>51529 Sirius College Primary School Dallas</t>
   </si>
   <si>
     <t>Berwick Chase Primary School Berwick</t>
   </si>
   <si>
-    <t>Kororoit Creek Primary School Burnside Heights Oct-Dec</t>
+    <t>Brandon Park Primary School Wheelers Hill</t>
+  </si>
+  <si>
+    <t>Gladstone Views Primary School Gladstone Park</t>
+  </si>
+  <si>
+    <t>JBS Australia Brooklyn</t>
+  </si>
+  <si>
+    <t>Kororoit Creek Primary School Burnside Heights</t>
   </si>
   <si>
     <t>Mambourin Enterprises Allara Deer Park</t>
   </si>
   <si>
-    <t>North St Kilda Children's Centre St Kilda</t>
-  </si>
-  <si>
     <t>Oakleigh South Primary School Oakleigh South</t>
   </si>
   <si>
     <t>Rosebud Primary School Rosebud</t>
-  </si>
-  <si>
-    <t>Springside Primary School Caroline Springs Nov</t>
   </si>
   <si>
     <t>St Christophers Primary School Airport West</t>
@@ -512,7 +527,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +546,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -539,7 +554,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -587,7 +602,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -611,7 +626,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -619,7 +634,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -627,7 +642,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -635,7 +650,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -643,7 +658,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -651,7 +666,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -659,7 +674,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -675,7 +690,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -683,7 +698,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -691,7 +706,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -699,7 +714,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -707,7 +722,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -715,7 +730,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -731,7 +746,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -739,7 +754,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -755,7 +770,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -763,7 +778,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -771,7 +786,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -779,7 +794,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -787,7 +802,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -795,7 +810,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -803,7 +818,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -811,7 +826,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -819,7 +834,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -827,7 +842,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -835,7 +850,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -843,7 +858,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -851,7 +866,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -859,7 +874,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -875,7 +890,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -883,7 +898,47 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>20</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>Cluster Name</t>
   </si>
   <si>
-    <t>Active Cases</t>
+    <t>Active cases</t>
   </si>
   <si>
     <t>3398 BlueCross Elly Kay Mordialloc</t>
@@ -52,16 +52,22 @@
     <t>4314 Estia Health Ardeer</t>
   </si>
   <si>
+    <t>44095 Myrniong Primary School</t>
+  </si>
+  <si>
     <t>44304 Brighton Primary School Brighton</t>
   </si>
   <si>
     <t>44414 Buangor Primary School Buangor</t>
   </si>
   <si>
+    <t>44473 Longwarry Primary School</t>
+  </si>
+  <si>
     <t>44490 Armadale Primary School Armadale</t>
   </si>
   <si>
-    <t>44584 Badger Creek Primary School Badger Creek</t>
+    <t>44584 Badger Creek Primary School BadgerCreek</t>
   </si>
   <si>
     <t>44593 Torquay P-6 College Torquay</t>
@@ -70,16 +76,25 @@
     <t>44620 Canterbury Primary School Canterbury</t>
   </si>
   <si>
+    <t>44623 Brunswick North Primary School Brunswick West</t>
+  </si>
+  <si>
+    <t>44745 Briar Hill Primary School Briar Hill</t>
+  </si>
+  <si>
     <t>44761 Coburg North Primary School Coburg</t>
   </si>
   <si>
-    <t>44828 Cheltenham East Primary School Cheltenham</t>
+    <t>44799 Eastwood Primary School Ringwood East</t>
+  </si>
+  <si>
+    <t>44828 Cheltenham East Primary SchoolCheltenham</t>
   </si>
   <si>
     <t>44930 St Albans Heights Primary School</t>
   </si>
   <si>
-    <t>44979 Campbellfield Heights Primary School Campbellfield</t>
+    <t>44979 Campbellfield Heights Primary SchoolCampbellfield</t>
   </si>
   <si>
     <t>45013 Gladstone Views Primary School</t>
@@ -88,28 +103,31 @@
     <t>45087 Milgate Primary School Doncaster East</t>
   </si>
   <si>
-    <t>45248 Brookside P-9 College Caroline Springs</t>
-  </si>
-  <si>
-    <t>45257 Roxburgh Rise Primary School Roxburgh Park</t>
-  </si>
-  <si>
-    <t>45350 Ballarat High School Lake Gardens</t>
+    <t>45147 Maramba Primary School Narre Warren</t>
+  </si>
+  <si>
+    <t>45226 Glen Waverley South Primary SchoolGlen Waverley</t>
+  </si>
+  <si>
+    <t>45257 Roxburgh Rise Primary School RoxburghPark</t>
   </si>
   <si>
     <t>45719 St Joseph's Primary School Numurkah</t>
   </si>
   <si>
-    <t>4574 Village Glen Aged Care Residences Mornington</t>
-  </si>
-  <si>
-    <t>45808 St Joseph's Catholic Primary School Chelsea</t>
+    <t>4574 Village Glen Aged Care ResidencesMornington</t>
+  </si>
+  <si>
+    <t>45764 Our Lady Help of Christian's PrimarySchool Brunswick East</t>
+  </si>
+  <si>
+    <t>45808 St Joseph's Catholic Primary SchoolChelsea</t>
   </si>
   <si>
     <t>45858 St Bernard's Primary Coburg</t>
   </si>
   <si>
-    <t>45861 St Oliver Plunkett Primary School Pascoe Vale</t>
+    <t>45861 St Oliver Plunkett Primary School PascoeVale</t>
   </si>
   <si>
     <t>45902 Mother of God Primary School Ardeer</t>
@@ -121,21 +139,24 @@
     <t>45988 St Macartan's Parish Primary School</t>
   </si>
   <si>
+    <t>46074 St Justin's Catholic Primary SchoolWheelers Hill</t>
+  </si>
+  <si>
     <t>46078 Corpus Christi Primary School Werribee</t>
   </si>
   <si>
-    <t>46101 Emmaus Catholic Primary School Sydenham</t>
-  </si>
-  <si>
-    <t>46135 Wesley College Junior School St Kilda Road Melbourne</t>
-  </si>
-  <si>
-    <t>46208 Mount Scopus Memorial College Gandel Campus Burwood</t>
+    <t>46135 Wesley College Junior School St KildaRoad Melbourne</t>
+  </si>
+  <si>
+    <t>46208 Mount Scopus Memorial College GandelCampus Burwood</t>
   </si>
   <si>
     <t>46306 King's College Warrnambool</t>
   </si>
   <si>
+    <t>46327 Victory Christian College Strathdale</t>
+  </si>
+  <si>
     <t>51529 Sirius College Primary School Dallas</t>
   </si>
   <si>
@@ -151,7 +172,7 @@
     <t>JBS Australia Brooklyn</t>
   </si>
   <si>
-    <t>Kororoit Creek Primary School Burnside Heights</t>
+    <t>Kororoit Creek Primary School Burnside HeightsOct-Dec</t>
   </si>
   <si>
     <t>Mambourin Enterprises Allara Deer Park</t>
@@ -160,6 +181,9 @@
     <t>Oakleigh South Primary School Oakleigh South</t>
   </si>
   <si>
+    <t>PGL Camp Rumbug Foster North</t>
+  </si>
+  <si>
     <t>Rosebud Primary School Rosebud</t>
   </si>
   <si>
@@ -167,6 +191,9 @@
   </si>
   <si>
     <t>St Louis de Montfort's School Aspendale</t>
+  </si>
+  <si>
+    <t>Thomastown West Primary School Camp Doxa'sMalmsbury</t>
   </si>
   <si>
     <t>Torquay Hotel Torquay</t>
@@ -527,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -546,7 +573,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -554,7 +581,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -602,7 +629,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -626,7 +653,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -634,7 +661,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -642,7 +669,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -650,7 +677,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -658,7 +685,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -666,7 +693,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -674,7 +701,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -682,7 +709,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -690,7 +717,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -698,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -714,7 +741,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -722,7 +749,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -738,7 +765,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -746,7 +773,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -754,7 +781,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -762,7 +789,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -770,7 +797,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -778,7 +805,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -786,7 +813,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -794,7 +821,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -802,7 +829,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -810,7 +837,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -818,7 +845,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -834,7 +861,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -842,7 +869,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -850,7 +877,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -858,7 +885,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -866,7 +893,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -874,7 +901,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -890,7 +917,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -898,7 +925,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -906,7 +933,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -914,7 +941,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -922,7 +949,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -930,7 +957,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -938,7 +965,79 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>22</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,15 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Cluster Name</t>
   </si>
   <si>
-    <t>Active cases</t>
-  </si>
-  <si>
-    <t>3398 BlueCross Elly Kay Mordialloc</t>
+    <t>Activecases</t>
+  </si>
+  <si>
+    <t>3398 BlueCross Elly Kay Mordiallo</t>
   </si>
   <si>
     <t>3564 Waverley Valley Aged Care Glen Waverley</t>
@@ -61,15 +61,9 @@
     <t>44414 Buangor Primary School Buangor</t>
   </si>
   <si>
-    <t>44473 Longwarry Primary School</t>
-  </si>
-  <si>
     <t>44490 Armadale Primary School Armadale</t>
   </si>
   <si>
-    <t>44584 Badger Creek Primary School BadgerCreek</t>
-  </si>
-  <si>
     <t>44593 Torquay P-6 College Torquay</t>
   </si>
   <si>
@@ -88,13 +82,7 @@
     <t>44799 Eastwood Primary School Ringwood East</t>
   </si>
   <si>
-    <t>44828 Cheltenham East Primary SchoolCheltenham</t>
-  </si>
-  <si>
-    <t>44930 St Albans Heights Primary School</t>
-  </si>
-  <si>
-    <t>44979 Campbellfield Heights Primary SchoolCampbellfield</t>
+    <t>44828 Cheltenham East Primary School Cheltenham</t>
   </si>
   <si>
     <t>45013 Gladstone Views Primary School</t>
@@ -106,49 +94,49 @@
     <t>45147 Maramba Primary School Narre Warren</t>
   </si>
   <si>
-    <t>45226 Glen Waverley South Primary SchoolGlen Waverley</t>
-  </si>
-  <si>
-    <t>45257 Roxburgh Rise Primary School RoxburghPark</t>
+    <t>45226 Glen Waverley South Primary School Glen Waverley</t>
+  </si>
+  <si>
+    <t>45257 Roxburgh Rise Primary School Roxburgh Park</t>
+  </si>
+  <si>
+    <t>45305 Lockington Consolidated School</t>
   </si>
   <si>
     <t>45719 St Joseph's Primary School Numurkah</t>
   </si>
   <si>
-    <t>4574 Village Glen Aged Care ResidencesMornington</t>
-  </si>
-  <si>
-    <t>45764 Our Lady Help of Christian's PrimarySchool Brunswick East</t>
-  </si>
-  <si>
-    <t>45808 St Joseph's Catholic Primary SchoolChelsea</t>
+    <t>4574 Village Glen Aged Care Residences Mornington</t>
+  </si>
+  <si>
+    <t>45764 Our Lady Help of Christian's Primary School Brunswick East</t>
   </si>
   <si>
     <t>45858 St Bernard's Primary Coburg</t>
   </si>
   <si>
-    <t>45861 St Oliver Plunkett Primary School PascoeVale</t>
-  </si>
-  <si>
-    <t>45902 Mother of God Primary School Ardeer</t>
+    <t>45861 St Oliver Plunkett Primary School Pascoe Vale</t>
   </si>
   <si>
     <t>45975 St Thomas More Primary School Hadfield</t>
   </si>
   <si>
-    <t>45988 St Macartan's Parish Primary School</t>
-  </si>
-  <si>
-    <t>46074 St Justin's Catholic Primary SchoolWheelers Hill</t>
+    <t>46074 St Justin's Catholic Primary School Wheelers Hill</t>
   </si>
   <si>
     <t>46078 Corpus Christi Primary School Werribee</t>
   </si>
   <si>
-    <t>46135 Wesley College Junior School St KildaRoad Melbourne</t>
-  </si>
-  <si>
-    <t>46208 Mount Scopus Memorial College GandelCampus Burwood</t>
+    <t>46098 Good Samaritan Catholic Primary School Roxburgh Park</t>
+  </si>
+  <si>
+    <t>46101 Emmaus Catholic Primary School Sydenham</t>
+  </si>
+  <si>
+    <t>46135 Wesley College Junior School St Kilda Road</t>
+  </si>
+  <si>
+    <t>46208 Mount Scopus Memorial College Gandel Campus Burwood</t>
   </si>
   <si>
     <t>46306 King's College Warrnambool</t>
@@ -157,6 +145,9 @@
     <t>46327 Victory Christian College Strathdale</t>
   </si>
   <si>
+    <t>50279 Dallas Brooks Community Primary School</t>
+  </si>
+  <si>
     <t>51529 Sirius College Primary School Dallas</t>
   </si>
   <si>
@@ -166,18 +157,27 @@
     <t>Brandon Park Primary School Wheelers Hill</t>
   </si>
   <si>
+    <t>Confirmed Omicron Sircuit Bar Fitzroy</t>
+  </si>
+  <si>
+    <t>Confirmed Omicron Variant The Peel Hotel</t>
+  </si>
+  <si>
     <t>Gladstone Views Primary School Gladstone Park</t>
   </si>
   <si>
     <t>JBS Australia Brooklyn</t>
   </si>
   <si>
-    <t>Kororoit Creek Primary School Burnside HeightsOct-Dec</t>
+    <t>Kororoit Creek Primary School Burnside Heights</t>
   </si>
   <si>
     <t>Mambourin Enterprises Allara Deer Park</t>
   </si>
   <si>
+    <t>Mount View Primary School Glen Waverley</t>
+  </si>
+  <si>
     <t>Oakleigh South Primary School Oakleigh South</t>
   </si>
   <si>
@@ -190,10 +190,16 @@
     <t>St Christophers Primary School Airport West</t>
   </si>
   <si>
-    <t>St Louis de Montfort's School Aspendale</t>
-  </si>
-  <si>
-    <t>Thomastown West Primary School Camp Doxa'sMalmsbury</t>
+    <t>St Louis de Montfort's School AspendaleOutbreak</t>
+  </si>
+  <si>
+    <t>St Mary's Parish Primary School</t>
+  </si>
+  <si>
+    <t>StarTrack Tullamarine</t>
+  </si>
+  <si>
+    <t>Thomastown West Primary School Camp Doxa's Malmsbury</t>
   </si>
   <si>
     <t>Torquay Hotel Torquay</t>
@@ -554,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -597,7 +603,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -605,7 +611,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -621,7 +627,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -637,7 +643,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -645,7 +651,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -677,7 +683,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -685,7 +691,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -693,7 +699,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -701,7 +707,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -709,7 +715,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -717,7 +723,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -725,7 +731,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -733,7 +739,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -741,7 +747,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -757,7 +763,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -765,7 +771,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -773,7 +779,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -781,7 +787,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -789,7 +795,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -797,7 +803,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -813,7 +819,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -821,7 +827,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -829,7 +835,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -837,7 +843,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -845,7 +851,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -853,7 +859,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -861,7 +867,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -869,7 +875,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -877,7 +883,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -885,7 +891,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -893,7 +899,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -901,7 +907,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -909,7 +915,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -917,7 +923,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -925,7 +931,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -933,7 +939,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -941,7 +947,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -949,7 +955,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -957,7 +963,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -965,7 +971,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -973,7 +979,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -981,7 +987,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -989,7 +995,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1005,7 +1011,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1021,7 +1027,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1029,7 +1035,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1037,7 +1043,23 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>18</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,15 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>Cluster Name</t>
   </si>
   <si>
-    <t>Activecases</t>
-  </si>
-  <si>
-    <t>3398 BlueCross Elly Kay Mordiallo</t>
+    <t>Active cases</t>
+  </si>
+  <si>
+    <t>3398 BlueCross Elly Kay Mordialloc</t>
   </si>
   <si>
     <t>3564 Waverley Valley Aged Care Glen Waverley</t>
@@ -52,15 +52,12 @@
     <t>4314 Estia Health Ardeer</t>
   </si>
   <si>
-    <t>44095 Myrniong Primary School</t>
+    <t>44095 Myrniong Primary School Myrniong</t>
   </si>
   <si>
     <t>44304 Brighton Primary School Brighton</t>
   </si>
   <si>
-    <t>44414 Buangor Primary School Buangor</t>
-  </si>
-  <si>
     <t>44490 Armadale Primary School Armadale</t>
   </si>
   <si>
@@ -85,6 +82,9 @@
     <t>44828 Cheltenham East Primary School Cheltenham</t>
   </si>
   <si>
+    <t>44960 Thomastown West Primary School</t>
+  </si>
+  <si>
     <t>45013 Gladstone Views Primary School</t>
   </si>
   <si>
@@ -94,13 +94,16 @@
     <t>45147 Maramba Primary School Narre Warren</t>
   </si>
   <si>
+    <t>45168 Ranfurly Primary School Mildura</t>
+  </si>
+  <si>
     <t>45226 Glen Waverley South Primary School Glen Waverley</t>
   </si>
   <si>
     <t>45257 Roxburgh Rise Primary School Roxburgh Park</t>
   </si>
   <si>
-    <t>45305 Lockington Consolidated School</t>
+    <t>45305 Lockington Consolidated School Lockington</t>
   </si>
   <si>
     <t>45719 St Joseph's Primary School Numurkah</t>
@@ -109,6 +112,9 @@
     <t>4574 Village Glen Aged Care Residences Mornington</t>
   </si>
   <si>
+    <t>45757 Saint Joseph's Primary School Warragul</t>
+  </si>
+  <si>
     <t>45764 Our Lady Help of Christian's Primary School Brunswick East</t>
   </si>
   <si>
@@ -118,6 +124,9 @@
     <t>45861 St Oliver Plunkett Primary School Pascoe Vale</t>
   </si>
   <si>
+    <t>45958 Ave Maria College Aberfeldie Workplace</t>
+  </si>
+  <si>
     <t>45975 St Thomas More Primary School Hadfield</t>
   </si>
   <si>
@@ -127,13 +136,10 @@
     <t>46078 Corpus Christi Primary School Werribee</t>
   </si>
   <si>
-    <t>46098 Good Samaritan Catholic Primary School Roxburgh Park</t>
-  </si>
-  <si>
-    <t>46101 Emmaus Catholic Primary School Sydenham</t>
-  </si>
-  <si>
-    <t>46135 Wesley College Junior School St Kilda Road</t>
+    <t>46086 St Kevin's Primary School Hampton Park</t>
+  </si>
+  <si>
+    <t>46135 Wesley College Junior School St Kilda Road Melbourne</t>
   </si>
   <si>
     <t>46208 Mount Scopus Memorial College Gandel Campus Burwood</t>
@@ -145,22 +151,31 @@
     <t>46327 Victory Christian College Strathdale</t>
   </si>
   <si>
-    <t>50279 Dallas Brooks Community Primary School</t>
+    <t>50279 Dallas Brooks Community Primary School Dallas</t>
   </si>
   <si>
     <t>51529 Sirius College Primary School Dallas</t>
   </si>
   <si>
+    <t>52694 Pakenham Primary School Pakenham</t>
+  </si>
+  <si>
+    <t>Australian Radio Network Richmond</t>
+  </si>
+  <si>
     <t>Berwick Chase Primary School Berwick</t>
   </si>
   <si>
     <t>Brandon Park Primary School Wheelers Hill</t>
   </si>
   <si>
+    <t>Cardinia Waters Retirement Village Pakenham</t>
+  </si>
+  <si>
     <t>Confirmed Omicron Sircuit Bar Fitzroy</t>
   </si>
   <si>
-    <t>Confirmed Omicron Variant The Peel Hotel</t>
+    <t>Confirmed Omicron Variant The Peel Hotel Collingwood</t>
   </si>
   <si>
     <t>Gladstone Views Primary School Gladstone Park</t>
@@ -169,7 +184,7 @@
     <t>JBS Australia Brooklyn</t>
   </si>
   <si>
-    <t>Kororoit Creek Primary School Burnside Heights</t>
+    <t>Kororoit Creek Primary School Burnside Heights Oct-Dec</t>
   </si>
   <si>
     <t>Mambourin Enterprises Allara Deer Park</t>
@@ -190,9 +205,6 @@
     <t>St Christophers Primary School Airport West</t>
   </si>
   <si>
-    <t>St Louis de Montfort's School AspendaleOutbreak</t>
-  </si>
-  <si>
     <t>St Mary's Parish Primary School</t>
   </si>
   <si>
@@ -203,6 +215,9 @@
   </si>
   <si>
     <t>Torquay Hotel Torquay</t>
+  </si>
+  <si>
+    <t>V &amp; G construction site San Lorenzo Wine &amp; Dining</t>
   </si>
 </sst>
 </file>
@@ -560,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B62"/>
+  <dimension ref="A1:B67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -579,7 +594,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -627,7 +642,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -643,7 +658,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -651,7 +666,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -667,7 +682,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -675,7 +690,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -683,7 +698,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -691,7 +706,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -699,7 +714,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -707,7 +722,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -715,7 +730,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -723,7 +738,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -731,7 +746,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -739,7 +754,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -747,7 +762,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -755,7 +770,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -771,7 +786,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -779,7 +794,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -787,7 +802,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -795,7 +810,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -803,7 +818,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -811,7 +826,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -819,7 +834,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -827,7 +842,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -835,7 +850,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -843,7 +858,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -851,7 +866,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -859,7 +874,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -867,7 +882,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -875,7 +890,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -883,7 +898,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -891,7 +906,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -899,7 +914,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -907,7 +922,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -915,7 +930,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -923,7 +938,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -931,7 +946,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -939,7 +954,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -947,7 +962,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -955,7 +970,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -963,7 +978,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -971,7 +986,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -979,7 +994,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -987,7 +1002,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -995,7 +1010,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1003,7 +1018,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1011,7 +1026,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1019,7 +1034,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1027,7 +1042,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1035,7 +1050,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1043,7 +1058,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1051,7 +1066,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1059,7 +1074,47 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>17</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>Cluster Name</t>
   </si>
   <si>
-    <t>Active cases</t>
+    <t>Active Cases</t>
   </si>
   <si>
     <t>3398 BlueCross Elly Kay Mordialloc</t>
@@ -31,9 +31,6 @@
     <t>3601 Baptcare Westhaven community</t>
   </si>
   <si>
-    <t>3646 Mornington Bay Care Community Mount Martha</t>
-  </si>
-  <si>
     <t>3647 Aurrum Aged Care Reservoir</t>
   </si>
   <si>
@@ -58,6 +55,9 @@
     <t>44304 Brighton Primary School Brighton</t>
   </si>
   <si>
+    <t>44404 Castlemaine North Primary School Castlemaine</t>
+  </si>
+  <si>
     <t>44490 Armadale Primary School Armadale</t>
   </si>
   <si>
@@ -73,30 +73,24 @@
     <t>44745 Briar Hill Primary School Briar Hill</t>
   </si>
   <si>
-    <t>44761 Coburg North Primary School Coburg</t>
-  </si>
-  <si>
     <t>44799 Eastwood Primary School Ringwood East</t>
   </si>
   <si>
-    <t>44828 Cheltenham East Primary School Cheltenham</t>
-  </si>
-  <si>
     <t>44960 Thomastown West Primary School</t>
   </si>
   <si>
     <t>45013 Gladstone Views Primary School</t>
   </si>
   <si>
-    <t>45087 Milgate Primary School Doncaster East</t>
-  </si>
-  <si>
     <t>45147 Maramba Primary School Narre Warren</t>
   </si>
   <si>
     <t>45168 Ranfurly Primary School Mildura</t>
   </si>
   <si>
+    <t>45181 Courtenay Gardens Primary School Cranbourne North</t>
+  </si>
+  <si>
     <t>45226 Glen Waverley South Primary School Glen Waverley</t>
   </si>
   <si>
@@ -139,31 +133,37 @@
     <t>46086 St Kevin's Primary School Hampton Park</t>
   </si>
   <si>
+    <t>46104 Clairvaux Catholic School Belmont</t>
+  </si>
+  <si>
     <t>46135 Wesley College Junior School St Kilda Road Melbourne</t>
   </si>
   <si>
     <t>46208 Mount Scopus Memorial College Gandel Campus Burwood</t>
   </si>
   <si>
-    <t>46306 King's College Warrnambool</t>
-  </si>
-  <si>
     <t>46327 Victory Christian College Strathdale</t>
   </si>
   <si>
     <t>50279 Dallas Brooks Community Primary School Dallas</t>
   </si>
   <si>
+    <t>50584 St Mary of the Cross MacKillop Primary School Epping</t>
+  </si>
+  <si>
     <t>51529 Sirius College Primary School Dallas</t>
   </si>
   <si>
+    <t>52390 Our Lady of the Way Catholic Primary School Wallan</t>
+  </si>
+  <si>
     <t>52694 Pakenham Primary School Pakenham</t>
   </si>
   <si>
     <t>Australian Radio Network Richmond</t>
   </si>
   <si>
-    <t>Berwick Chase Primary School Berwick</t>
+    <t>Ballarat Freedom Protest</t>
   </si>
   <si>
     <t>Brandon Park Primary School Wheelers Hill</t>
@@ -172,6 +172,9 @@
     <t>Cardinia Waters Retirement Village Pakenham</t>
   </si>
   <si>
+    <t>Chisholm Road Prison Project Lara</t>
+  </si>
+  <si>
     <t>Confirmed Omicron Sircuit Bar Fitzroy</t>
   </si>
   <si>
@@ -181,18 +184,21 @@
     <t>Gladstone Views Primary School Gladstone Park</t>
   </si>
   <si>
+    <t>Goodstart Early Learning Preston</t>
+  </si>
+  <si>
+    <t>Greendale Hotel Greendale</t>
+  </si>
+  <si>
     <t>JBS Australia Brooklyn</t>
   </si>
   <si>
-    <t>Kororoit Creek Primary School Burnside Heights Oct-Dec</t>
+    <t>Kororoit Creek Primary School Burnside Heights</t>
   </si>
   <si>
     <t>Mambourin Enterprises Allara Deer Park</t>
   </si>
   <si>
-    <t>Mount View Primary School Glen Waverley</t>
-  </si>
-  <si>
     <t>Oakleigh South Primary School Oakleigh South</t>
   </si>
   <si>
@@ -208,13 +214,16 @@
     <t>St Mary's Parish Primary School</t>
   </si>
   <si>
+    <t>St Vincents Hospital Melbourne Emergency Department Fitzroy</t>
+  </si>
+  <si>
     <t>StarTrack Tullamarine</t>
   </si>
   <si>
+    <t>The George Lounge St Kilda</t>
+  </si>
+  <si>
     <t>Thomastown West Primary School Camp Doxa's Malmsbury</t>
-  </si>
-  <si>
-    <t>Torquay Hotel Torquay</t>
   </si>
   <si>
     <t>V &amp; G construction site San Lorenzo Wine &amp; Dining</t>
@@ -575,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -594,7 +603,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -602,7 +611,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -618,7 +627,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -626,7 +635,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -634,7 +643,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -642,7 +651,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -658,7 +667,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -666,7 +675,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -674,7 +683,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -682,7 +691,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -698,7 +707,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -730,7 +739,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -738,7 +747,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -746,7 +755,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -754,7 +763,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -762,7 +771,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -770,7 +779,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -778,7 +787,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -786,7 +795,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -794,7 +803,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -802,7 +811,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -810,7 +819,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -818,7 +827,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -834,7 +843,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -842,7 +851,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -850,7 +859,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -858,7 +867,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -866,7 +875,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -874,7 +883,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -882,7 +891,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -890,7 +899,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -898,7 +907,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -906,7 +915,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -914,7 +923,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -922,7 +931,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -930,7 +939,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -938,7 +947,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -946,7 +955,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -954,7 +963,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -970,7 +979,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -978,7 +987,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -986,7 +995,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -994,7 +1003,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1002,7 +1011,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1010,7 +1019,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1018,7 +1027,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1026,7 +1035,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1034,7 +1043,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1042,7 +1051,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1050,7 +1059,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1058,7 +1067,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>47</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1066,7 +1075,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1074,7 +1083,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>11</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1082,7 +1091,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1090,7 +1099,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1098,7 +1107,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1106,7 +1115,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1114,6 +1123,30 @@
         <v>67</v>
       </c>
       <c r="B67">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70">
         <v>14</v>
       </c>
     </row>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>Cluster Name</t>
   </si>
@@ -22,6 +22,9 @@
     <t>Active Cases</t>
   </si>
   <si>
+    <t>3376 Royal Freemasons Coppin Centre Melbourne</t>
+  </si>
+  <si>
     <t>3398 BlueCross Elly Kay Mordialloc</t>
   </si>
   <si>
@@ -73,6 +76,9 @@
     <t>44745 Briar Hill Primary School Briar Hill</t>
   </si>
   <si>
+    <t>44765 Strathmore Primary School Strathmore</t>
+  </si>
+  <si>
     <t>44799 Eastwood Primary School Ringwood East</t>
   </si>
   <si>
@@ -91,9 +97,6 @@
     <t>45181 Courtenay Gardens Primary School Cranbourne North</t>
   </si>
   <si>
-    <t>45226 Glen Waverley South Primary School Glen Waverley</t>
-  </si>
-  <si>
     <t>45257 Roxburgh Rise Primary School Roxburgh Park</t>
   </si>
   <si>
@@ -148,9 +151,6 @@
     <t>50279 Dallas Brooks Community Primary School Dallas</t>
   </si>
   <si>
-    <t>50584 St Mary of the Cross MacKillop Primary School Epping</t>
-  </si>
-  <si>
     <t>51529 Sirius College Primary School Dallas</t>
   </si>
   <si>
@@ -172,18 +172,12 @@
     <t>Cardinia Waters Retirement Village Pakenham</t>
   </si>
   <si>
-    <t>Chisholm Road Prison Project Lara</t>
-  </si>
-  <si>
     <t>Confirmed Omicron Sircuit Bar Fitzroy</t>
   </si>
   <si>
     <t>Confirmed Omicron Variant The Peel Hotel Collingwood</t>
   </si>
   <si>
-    <t>Gladstone Views Primary School Gladstone Park</t>
-  </si>
-  <si>
     <t>Goodstart Early Learning Preston</t>
   </si>
   <si>
@@ -196,9 +190,6 @@
     <t>Kororoit Creek Primary School Burnside Heights</t>
   </si>
   <si>
-    <t>Mambourin Enterprises Allara Deer Park</t>
-  </si>
-  <si>
     <t>Oakleigh South Primary School Oakleigh South</t>
   </si>
   <si>
@@ -208,7 +199,13 @@
     <t>Rosebud Primary School Rosebud</t>
   </si>
   <si>
-    <t>St Christophers Primary School Airport West</t>
+    <t>Social Gathering 11 Dec Windsor</t>
+  </si>
+  <si>
+    <t>St Brigid's Parish Primary School Mordialloc</t>
+  </si>
+  <si>
+    <t>St Clare's Primary School Officer</t>
   </si>
   <si>
     <t>St Mary's Parish Primary School</t>
@@ -584,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:B69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -603,7 +600,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -611,7 +608,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -627,7 +624,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -635,7 +632,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -643,7 +640,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -651,7 +648,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -667,7 +664,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -675,7 +672,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -683,7 +680,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -691,7 +688,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -699,7 +696,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>27</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -707,7 +704,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -715,7 +712,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -723,7 +720,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -731,7 +728,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -739,7 +736,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -747,7 +744,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -755,7 +752,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -763,7 +760,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -771,7 +768,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -779,7 +776,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -787,7 +784,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -795,7 +792,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -803,7 +800,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -811,7 +808,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -819,7 +816,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -827,7 +824,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -835,7 +832,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -843,7 +840,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -851,7 +848,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -859,7 +856,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -867,7 +864,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -875,7 +872,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -883,7 +880,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -891,7 +888,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -899,7 +896,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -915,7 +912,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -923,7 +920,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -931,7 +928,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -939,7 +936,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -947,7 +944,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -955,7 +952,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -963,7 +960,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -987,7 +984,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -995,7 +992,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1003,7 +1000,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1011,7 +1008,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1019,7 +1016,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1027,7 +1024,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1035,7 +1032,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1043,7 +1040,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1051,7 +1048,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1059,7 +1056,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>26</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1067,7 +1064,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1075,7 +1072,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1083,7 +1080,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1091,7 +1088,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1099,7 +1096,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1115,7 +1112,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1123,7 +1120,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1131,7 +1128,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1139,15 +1136,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>70</v>
-      </c>
-      <c r="B70">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,15 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>Cluster Name</t>
   </si>
   <si>
-    <t>Active Cases</t>
-  </si>
-  <si>
-    <t>3376 Royal Freemasons Coppin Centre Melbourne</t>
+    <t>Active cases</t>
   </si>
   <si>
     <t>3398 BlueCross Elly Kay Mordialloc</t>
@@ -55,22 +52,22 @@
     <t>44095 Myrniong Primary School Myrniong</t>
   </si>
   <si>
-    <t>44304 Brighton Primary School Brighton</t>
-  </si>
-  <si>
-    <t>44404 Castlemaine North Primary School Castlemaine</t>
+    <t>44404 Castlemaine North Primary SchoolCastlemaine</t>
   </si>
   <si>
     <t>44490 Armadale Primary School Armadale</t>
   </si>
   <si>
+    <t>44507 Inverloch Primary School Inverloch</t>
+  </si>
+  <si>
     <t>44593 Torquay P-6 College Torquay</t>
   </si>
   <si>
     <t>44620 Canterbury Primary School Canterbury</t>
   </si>
   <si>
-    <t>44623 Brunswick North Primary School Brunswick West</t>
+    <t>44623 Brunswick North West Primary SchoolBrunswick West</t>
   </si>
   <si>
     <t>44745 Briar Hill Primary School Briar Hill</t>
@@ -79,6 +76,9 @@
     <t>44765 Strathmore Primary School Strathmore</t>
   </si>
   <si>
+    <t>4479 Whittlesea Lodge Whittlesea</t>
+  </si>
+  <si>
     <t>44799 Eastwood Primary School Ringwood East</t>
   </si>
   <si>
@@ -94,40 +94,28 @@
     <t>45168 Ranfurly Primary School Mildura</t>
   </si>
   <si>
-    <t>45181 Courtenay Gardens Primary School Cranbourne North</t>
-  </si>
-  <si>
-    <t>45257 Roxburgh Rise Primary School Roxburgh Park</t>
-  </si>
-  <si>
-    <t>45305 Lockington Consolidated School Lockington</t>
-  </si>
-  <si>
-    <t>45719 St Joseph's Primary School Numurkah</t>
-  </si>
-  <si>
-    <t>4574 Village Glen Aged Care Residences Mornington</t>
+    <t>45257 Roxburgh Rise Primary School RoxburghPark</t>
+  </si>
+  <si>
+    <t>45305 Lockington Consolidated SchoolLockington</t>
+  </si>
+  <si>
+    <t>4574 Village Glen Aged Care ResidencesMornington</t>
   </si>
   <si>
     <t>45757 Saint Joseph's Primary School Warragul</t>
   </si>
   <si>
-    <t>45764 Our Lady Help of Christian's Primary School Brunswick East</t>
+    <t>45764 Our Lady Help of Christian's PrimarySchool Brunswick East</t>
   </si>
   <si>
     <t>45858 St Bernard's Primary Coburg</t>
   </si>
   <si>
-    <t>45861 St Oliver Plunkett Primary School Pascoe Vale</t>
-  </si>
-  <si>
     <t>45958 Ave Maria College Aberfeldie Workplace</t>
   </si>
   <si>
-    <t>45975 St Thomas More Primary School Hadfield</t>
-  </si>
-  <si>
-    <t>46074 St Justin's Catholic Primary School Wheelers Hill</t>
+    <t>46074 St Justin's Catholic Primary SchoolWheelers Hill</t>
   </si>
   <si>
     <t>46078 Corpus Christi Primary School Werribee</t>
@@ -136,25 +124,19 @@
     <t>46086 St Kevin's Primary School Hampton Park</t>
   </si>
   <si>
-    <t>46104 Clairvaux Catholic School Belmont</t>
-  </si>
-  <si>
-    <t>46135 Wesley College Junior School St Kilda Road Melbourne</t>
-  </si>
-  <si>
-    <t>46208 Mount Scopus Memorial College Gandel Campus Burwood</t>
+    <t>46104 Clairvaux Catholic School BelmontBelmont</t>
+  </si>
+  <si>
+    <t>46208 Mount Scopus Memorial College GandelCampus Burwood</t>
   </si>
   <si>
     <t>46327 Victory Christian College Strathdale</t>
   </si>
   <si>
-    <t>50279 Dallas Brooks Community Primary School Dallas</t>
-  </si>
-  <si>
-    <t>51529 Sirius College Primary School Dallas</t>
-  </si>
-  <si>
-    <t>52390 Our Lady of the Way Catholic Primary School Wallan</t>
+    <t>50279 Dallas Brooks Community Primary SchoolDallas</t>
+  </si>
+  <si>
+    <t>52390 Our Lady of the Way Catholic PrimarySchool Wallan</t>
   </si>
   <si>
     <t>52694 Pakenham Primary School Pakenham</t>
@@ -163,9 +145,6 @@
     <t>Australian Radio Network Richmond</t>
   </si>
   <si>
-    <t>Ballarat Freedom Protest</t>
-  </si>
-  <si>
     <t>Brandon Park Primary School Wheelers Hill</t>
   </si>
   <si>
@@ -175,7 +154,7 @@
     <t>Confirmed Omicron Sircuit Bar Fitzroy</t>
   </si>
   <si>
-    <t>Confirmed Omicron Variant The Peel Hotel Collingwood</t>
+    <t>Confirmed Omicron Variant The Peel HotelCollingwood</t>
   </si>
   <si>
     <t>Goodstart Early Learning Preston</t>
@@ -187,10 +166,7 @@
     <t>JBS Australia Brooklyn</t>
   </si>
   <si>
-    <t>Kororoit Creek Primary School Burnside Heights</t>
-  </si>
-  <si>
-    <t>Oakleigh South Primary School Oakleigh South</t>
+    <t>Kororoit Creek Primary School Burnside HeightsOct-Dec</t>
   </si>
   <si>
     <t>PGL Camp Rumbug Foster North</t>
@@ -202,16 +178,16 @@
     <t>Social Gathering 11 Dec Windsor</t>
   </si>
   <si>
+    <t>Social Gathering 11 December Fitzroy</t>
+  </si>
+  <si>
     <t>St Brigid's Parish Primary School Mordialloc</t>
   </si>
   <si>
-    <t>St Clare's Primary School Officer</t>
-  </si>
-  <si>
     <t>St Mary's Parish Primary School</t>
   </si>
   <si>
-    <t>St Vincents Hospital Melbourne Emergency Department Fitzroy</t>
+    <t>St Vincents Hospital Melbourne EmergencyDepartment Fitzroy</t>
   </si>
   <si>
     <t>StarTrack Tullamarine</t>
@@ -220,10 +196,7 @@
     <t>The George Lounge St Kilda</t>
   </si>
   <si>
-    <t>Thomastown West Primary School Camp Doxa's Malmsbury</t>
-  </si>
-  <si>
-    <t>V &amp; G construction site San Lorenzo Wine &amp; Dining</t>
+    <t>Thomastown West Primary School Camp Doxa'sMalmsbury</t>
   </si>
 </sst>
 </file>
@@ -581,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B69"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,7 +573,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -608,7 +581,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -624,7 +597,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -632,7 +605,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -640,7 +613,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -648,7 +621,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -656,7 +629,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -664,7 +637,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -672,7 +645,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -680,7 +653,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>13</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -688,7 +661,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -696,7 +669,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>49</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -704,7 +677,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -712,7 +685,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -720,7 +693,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -728,7 +701,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -736,7 +709,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -744,7 +717,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -752,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -760,7 +733,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -784,7 +757,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -800,7 +773,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -808,7 +781,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -816,7 +789,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -824,7 +797,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -832,7 +805,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -840,7 +813,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -848,7 +821,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -856,7 +829,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -864,7 +837,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -872,7 +845,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -880,7 +853,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -888,7 +861,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -896,7 +869,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -904,7 +877,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -912,7 +885,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -920,7 +893,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -928,7 +901,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -936,7 +909,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -944,7 +917,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -952,7 +925,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -960,7 +933,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -968,7 +941,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -976,7 +949,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -984,7 +957,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -992,7 +965,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>14</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1000,7 +973,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1008,7 +981,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1016,7 +989,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1024,7 +997,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1032,7 +1005,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1040,7 +1013,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1048,7 +1021,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1056,7 +1029,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1065,78 +1038,6 @@
       </c>
       <c r="B60">
         <v>19</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
-        <v>62</v>
-      </c>
-      <c r="B62">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>63</v>
-      </c>
-      <c r="B63">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
-        <v>64</v>
-      </c>
-      <c r="B64">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>65</v>
-      </c>
-      <c r="B65">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>66</v>
-      </c>
-      <c r="B66">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>67</v>
-      </c>
-      <c r="B67">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>68</v>
-      </c>
-      <c r="B68">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
-        <v>69</v>
-      </c>
-      <c r="B69">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>Cluster Name</t>
   </si>
   <si>
-    <t>Active cases</t>
+    <t>Active Cases</t>
   </si>
   <si>
     <t>3398 BlueCross Elly Kay Mordialloc</t>
@@ -52,7 +52,7 @@
     <t>44095 Myrniong Primary School Myrniong</t>
   </si>
   <si>
-    <t>44404 Castlemaine North Primary SchoolCastlemaine</t>
+    <t>44404 Castlemaine North Primary School Castlemaine</t>
   </si>
   <si>
     <t>44490 Armadale Primary School Armadale</t>
@@ -67,7 +67,10 @@
     <t>44620 Canterbury Primary School Canterbury</t>
   </si>
   <si>
-    <t>44623 Brunswick North West Primary SchoolBrunswick West</t>
+    <t>44623 Brunswick North West Primary School Brunswick West</t>
+  </si>
+  <si>
+    <t>44642 Irymple South Primary School Irymple South</t>
   </si>
   <si>
     <t>44745 Briar Hill Primary School Briar Hill</t>
@@ -82,6 +85,12 @@
     <t>44799 Eastwood Primary School Ringwood East</t>
   </si>
   <si>
+    <t>44855 Beverley Hills Primary School Doncaster East</t>
+  </si>
+  <si>
+    <t>44893 Greenhills Primary School Greensborough</t>
+  </si>
+  <si>
     <t>44960 Thomastown West Primary School</t>
   </si>
   <si>
@@ -94,19 +103,19 @@
     <t>45168 Ranfurly Primary School Mildura</t>
   </si>
   <si>
-    <t>45257 Roxburgh Rise Primary School RoxburghPark</t>
-  </si>
-  <si>
-    <t>45305 Lockington Consolidated SchoolLockington</t>
-  </si>
-  <si>
-    <t>4574 Village Glen Aged Care ResidencesMornington</t>
+    <t>45257 Roxburgh Rise Primary School Roxburgh Park</t>
+  </si>
+  <si>
+    <t>45305 Lockington Consolidated School Lockington</t>
+  </si>
+  <si>
+    <t>4574 Village Glen Aged Care Residences Mornington</t>
   </si>
   <si>
     <t>45757 Saint Joseph's Primary School Warragul</t>
   </si>
   <si>
-    <t>45764 Our Lady Help of Christian's PrimarySchool Brunswick East</t>
+    <t>45764 Our Lady Help of Christian's Primary School Brunswick East</t>
   </si>
   <si>
     <t>45858 St Bernard's Primary Coburg</t>
@@ -115,7 +124,7 @@
     <t>45958 Ave Maria College Aberfeldie Workplace</t>
   </si>
   <si>
-    <t>46074 St Justin's Catholic Primary SchoolWheelers Hill</t>
+    <t>46074 St Justin's Catholic Primary School Wheelers Hill</t>
   </si>
   <si>
     <t>46078 Corpus Christi Primary School Werribee</t>
@@ -124,49 +133,55 @@
     <t>46086 St Kevin's Primary School Hampton Park</t>
   </si>
   <si>
-    <t>46104 Clairvaux Catholic School BelmontBelmont</t>
-  </si>
-  <si>
-    <t>46208 Mount Scopus Memorial College GandelCampus Burwood</t>
+    <t>46208 Mount Scopus Memorial College Gandel Campus Burwood</t>
+  </si>
+  <si>
+    <t>46320 St Mary's Coptic Orthodox College Coolaroo</t>
   </si>
   <si>
     <t>46327 Victory Christian College Strathdale</t>
   </si>
   <si>
-    <t>50279 Dallas Brooks Community Primary SchoolDallas</t>
-  </si>
-  <si>
-    <t>52390 Our Lady of the Way Catholic PrimarySchool Wallan</t>
+    <t>50279 Dallas Brooks Community Primary School Dallas</t>
+  </si>
+  <si>
+    <t>50412 Geelong Grammar School Bostock House Campus Newtown</t>
+  </si>
+  <si>
+    <t>52390 Our Lady of the Way Catholic Primary School Wallan</t>
   </si>
   <si>
     <t>52694 Pakenham Primary School Pakenham</t>
   </si>
   <si>
+    <t>52777 Mirripoa Primary School Mount Duneed School Camp</t>
+  </si>
+  <si>
     <t>Australian Radio Network Richmond</t>
   </si>
   <si>
-    <t>Brandon Park Primary School Wheelers Hill</t>
-  </si>
-  <si>
     <t>Cardinia Waters Retirement Village Pakenham</t>
   </si>
   <si>
     <t>Confirmed Omicron Sircuit Bar Fitzroy</t>
   </si>
   <si>
-    <t>Confirmed Omicron Variant The Peel HotelCollingwood</t>
+    <t>Confirmed Omicron Variant The Peel Hotel Collingwood</t>
   </si>
   <si>
     <t>Goodstart Early Learning Preston</t>
   </si>
   <si>
+    <t>Green Gables Lodge Warburton</t>
+  </si>
+  <si>
     <t>Greendale Hotel Greendale</t>
   </si>
   <si>
     <t>JBS Australia Brooklyn</t>
   </si>
   <si>
-    <t>Kororoit Creek Primary School Burnside HeightsOct-Dec</t>
+    <t>Kororoit Creek Primary School Burnside Heights Oct-Dec</t>
   </si>
   <si>
     <t>PGL Camp Rumbug Foster North</t>
@@ -187,16 +202,13 @@
     <t>St Mary's Parish Primary School</t>
   </si>
   <si>
-    <t>St Vincents Hospital Melbourne EmergencyDepartment Fitzroy</t>
-  </si>
-  <si>
-    <t>StarTrack Tullamarine</t>
+    <t>StarTrack- Melbourne Tullamarine</t>
   </si>
   <si>
     <t>The George Lounge St Kilda</t>
   </si>
   <si>
-    <t>Thomastown West Primary School Camp Doxa'sMalmsbury</t>
+    <t>Thomastown West Primary School Camp Doxa's Malmsbury</t>
   </si>
 </sst>
 </file>
@@ -554,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -573,7 +585,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -581,7 +593,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -637,7 +649,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -645,7 +657,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -653,7 +665,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -661,7 +673,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -669,7 +681,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -677,7 +689,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -685,7 +697,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -693,7 +705,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -701,7 +713,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -709,7 +721,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -717,7 +729,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -725,7 +737,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -733,7 +745,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -741,7 +753,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>37</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -749,7 +761,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -757,7 +769,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -765,7 +777,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -773,7 +785,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -781,7 +793,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -789,7 +801,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -797,7 +809,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>11</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -805,7 +817,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -813,7 +825,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -821,7 +833,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -829,7 +841,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -837,7 +849,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -845,7 +857,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -853,7 +865,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -861,7 +873,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -869,7 +881,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -877,7 +889,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -885,7 +897,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -893,7 +905,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -901,7 +913,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -909,7 +921,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -917,7 +929,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -925,7 +937,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -933,7 +945,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -941,7 +953,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -949,7 +961,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -957,7 +969,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -965,7 +977,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>49</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -989,7 +1001,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>10</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -997,7 +1009,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1005,7 +1017,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1013,7 +1025,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1021,7 +1033,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1029,7 +1041,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1037,7 +1049,39 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>19</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,20 +14,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>Cluster Name</t>
   </si>
   <si>
-    <t>Active Cases</t>
+    <t>Active cases</t>
   </si>
   <si>
     <t>3398 BlueCross Elly Kay Mordialloc</t>
   </si>
   <si>
-    <t>3564 Waverley Valley Aged Care Glen Waverley</t>
-  </si>
-  <si>
     <t>3601 Baptcare Westhaven community</t>
   </si>
   <si>
@@ -64,19 +61,13 @@
     <t>44593 Torquay P-6 College Torquay</t>
   </si>
   <si>
-    <t>44620 Canterbury Primary School Canterbury</t>
-  </si>
-  <si>
-    <t>44623 Brunswick North West Primary School Brunswick West</t>
-  </si>
-  <si>
     <t>44642 Irymple South Primary School Irymple South</t>
   </si>
   <si>
     <t>44745 Briar Hill Primary School Briar Hill</t>
   </si>
   <si>
-    <t>44765 Strathmore Primary School Strathmore</t>
+    <t>44753 Brunswick North West Primary School Brunswick West</t>
   </si>
   <si>
     <t>4479 Whittlesea Lodge Whittlesea</t>
@@ -106,7 +97,7 @@
     <t>45257 Roxburgh Rise Primary School Roxburgh Park</t>
   </si>
   <si>
-    <t>45305 Lockington Consolidated School Lockington</t>
+    <t>45305 Lockington Consolidated SchoolLockington</t>
   </si>
   <si>
     <t>4574 Village Glen Aged Care Residences Mornington</t>
@@ -115,12 +106,12 @@
     <t>45757 Saint Joseph's Primary School Warragul</t>
   </si>
   <si>
-    <t>45764 Our Lady Help of Christian's Primary School Brunswick East</t>
-  </si>
-  <si>
     <t>45858 St Bernard's Primary Coburg</t>
   </si>
   <si>
+    <t>45901 St Mary's Parish Primary School</t>
+  </si>
+  <si>
     <t>45958 Ave Maria College Aberfeldie Workplace</t>
   </si>
   <si>
@@ -133,9 +124,6 @@
     <t>46086 St Kevin's Primary School Hampton Park</t>
   </si>
   <si>
-    <t>46208 Mount Scopus Memorial College Gandel Campus Burwood</t>
-  </si>
-  <si>
     <t>46320 St Mary's Coptic Orthodox College Coolaroo</t>
   </si>
   <si>
@@ -157,19 +145,16 @@
     <t>52777 Mirripoa Primary School Mount Duneed School Camp</t>
   </si>
   <si>
-    <t>Australian Radio Network Richmond</t>
-  </si>
-  <si>
     <t>Cardinia Waters Retirement Village Pakenham</t>
   </si>
   <si>
     <t>Confirmed Omicron Sircuit Bar Fitzroy</t>
   </si>
   <si>
-    <t>Confirmed Omicron Variant The Peel Hotel Collingwood</t>
-  </si>
-  <si>
-    <t>Goodstart Early Learning Preston</t>
+    <t>Confirmed Omicron Variant The Peel HotelCollingwood</t>
+  </si>
+  <si>
+    <t>Flight QF10 LHR to MEL via DRW 13 Dec</t>
   </si>
   <si>
     <t>Green Gables Lodge Warburton</t>
@@ -181,15 +166,15 @@
     <t>JBS Australia Brooklyn</t>
   </si>
   <si>
+    <t>Jackson's Hotel Age of Love Event Toorak</t>
+  </si>
+  <si>
     <t>Kororoit Creek Primary School Burnside Heights Oct-Dec</t>
   </si>
   <si>
     <t>PGL Camp Rumbug Foster North</t>
   </si>
   <si>
-    <t>Rosebud Primary School Rosebud</t>
-  </si>
-  <si>
     <t>Social Gathering 11 Dec Windsor</t>
   </si>
   <si>
@@ -199,7 +184,10 @@
     <t>St Brigid's Parish Primary School Mordialloc</t>
   </si>
   <si>
-    <t>St Mary's Parish Primary School</t>
+    <t>St Clare's Primary School Officer</t>
+  </si>
+  <si>
+    <t>St Vincents Hospital Melbourne Emergency Department Fitzroy</t>
   </si>
   <si>
     <t>StarTrack- Melbourne Tullamarine</t>
@@ -566,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -593,7 +581,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -601,7 +589,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -609,7 +597,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -617,7 +605,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -625,7 +613,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -633,7 +621,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -641,7 +629,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -649,7 +637,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -657,7 +645,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>17</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -665,7 +653,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>60</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -673,7 +661,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -681,7 +669,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -689,7 +677,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -697,7 +685,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -713,7 +701,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -721,7 +709,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -729,7 +717,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -745,7 +733,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -753,7 +741,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -761,7 +749,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -769,7 +757,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -777,7 +765,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -785,7 +773,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -793,7 +781,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -801,7 +789,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -809,7 +797,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -825,7 +813,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -841,7 +829,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -849,7 +837,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -857,7 +845,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -865,7 +853,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -873,7 +861,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -889,7 +877,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>10</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -897,7 +885,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -905,7 +893,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -913,7 +901,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -921,7 +909,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -929,7 +917,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -937,7 +925,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -945,7 +933,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -953,7 +941,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -961,7 +949,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -969,7 +957,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -977,7 +965,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -985,7 +973,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1001,7 +989,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1009,7 +997,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1017,7 +1005,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>48</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1025,7 +1013,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1033,7 +1021,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1041,7 +1029,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1049,39 +1037,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
-        <v>62</v>
-      </c>
-      <c r="B62">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>63</v>
-      </c>
-      <c r="B63">
         <v>16</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
-        <v>64</v>
-      </c>
-      <c r="B64">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Cluster Name</t>
   </si>
   <si>
-    <t>Active cases</t>
+    <t>Activecases</t>
   </si>
   <si>
     <t>3398 BlueCross Elly Kay Mordialloc</t>
@@ -49,10 +49,7 @@
     <t>44095 Myrniong Primary School Myrniong</t>
   </si>
   <si>
-    <t>44404 Castlemaine North Primary School Castlemaine</t>
-  </si>
-  <si>
-    <t>44490 Armadale Primary School Armadale</t>
+    <t>44404 Castlemaine North Primary SchoolCastlemaine</t>
   </si>
   <si>
     <t>44507 Inverloch Primary School Inverloch</t>
@@ -61,21 +58,15 @@
     <t>44593 Torquay P-6 College Torquay</t>
   </si>
   <si>
+    <t>44622 Grey Street Primary School Traralgon</t>
+  </si>
+  <si>
     <t>44642 Irymple South Primary School Irymple South</t>
   </si>
   <si>
-    <t>44745 Briar Hill Primary School Briar Hill</t>
-  </si>
-  <si>
-    <t>44753 Brunswick North West Primary School Brunswick West</t>
-  </si>
-  <si>
     <t>4479 Whittlesea Lodge Whittlesea</t>
   </si>
   <si>
-    <t>44799 Eastwood Primary School Ringwood East</t>
-  </si>
-  <si>
     <t>44855 Beverley Hills Primary School Doncaster East</t>
   </si>
   <si>
@@ -88,13 +79,7 @@
     <t>45013 Gladstone Views Primary School</t>
   </si>
   <si>
-    <t>45147 Maramba Primary School Narre Warren</t>
-  </si>
-  <si>
-    <t>45168 Ranfurly Primary School Mildura</t>
-  </si>
-  <si>
-    <t>45257 Roxburgh Rise Primary School Roxburgh Park</t>
+    <t>45168 Ranfurly Primary School</t>
   </si>
   <si>
     <t>45305 Lockington Consolidated SchoolLockington</t>
@@ -106,37 +91,13 @@
     <t>45757 Saint Joseph's Primary School Warragul</t>
   </si>
   <si>
-    <t>45858 St Bernard's Primary Coburg</t>
-  </si>
-  <si>
-    <t>45901 St Mary's Parish Primary School</t>
-  </si>
-  <si>
     <t>45958 Ave Maria College Aberfeldie Workplace</t>
   </si>
   <si>
-    <t>46074 St Justin's Catholic Primary School Wheelers Hill</t>
-  </si>
-  <si>
-    <t>46078 Corpus Christi Primary School Werribee</t>
-  </si>
-  <si>
-    <t>46086 St Kevin's Primary School Hampton Park</t>
-  </si>
-  <si>
-    <t>46320 St Mary's Coptic Orthodox College Coolaroo</t>
-  </si>
-  <si>
-    <t>46327 Victory Christian College Strathdale</t>
-  </si>
-  <si>
-    <t>50279 Dallas Brooks Community Primary School Dallas</t>
-  </si>
-  <si>
     <t>50412 Geelong Grammar School Bostock House Campus Newtown</t>
   </si>
   <si>
-    <t>52390 Our Lady of the Way Catholic Primary School Wallan</t>
+    <t>52390 Our Lady of the Way Catholic PrimarySchool Wallan</t>
   </si>
   <si>
     <t>52694 Pakenham Primary School Pakenham</t>
@@ -157,6 +118,9 @@
     <t>Flight QF10 LHR to MEL via DRW 13 Dec</t>
   </si>
   <si>
+    <t>Goodstart Early Learning Preston</t>
+  </si>
+  <si>
     <t>Green Gables Lodge Warburton</t>
   </si>
   <si>
@@ -169,9 +133,6 @@
     <t>Jackson's Hotel Age of Love Event Toorak</t>
   </si>
   <si>
-    <t>Kororoit Creek Primary School Burnside Heights Oct-Dec</t>
-  </si>
-  <si>
     <t>PGL Camp Rumbug Foster North</t>
   </si>
   <si>
@@ -193,10 +154,16 @@
     <t>StarTrack- Melbourne Tullamarine</t>
   </si>
   <si>
+    <t>Sunny Ridge Strawberry Farm Main Ridge</t>
+  </si>
+  <si>
     <t>The George Lounge St Kilda</t>
   </si>
   <si>
     <t>Thomastown West Primary School Camp Doxa's Malmsbury</t>
+  </si>
+  <si>
+    <t>Warbuton Lodge Warbuton</t>
   </si>
 </sst>
 </file>
@@ -554,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -573,7 +540,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -637,7 +604,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -645,7 +612,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -653,7 +620,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -661,7 +628,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -669,7 +636,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -693,7 +660,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -701,7 +668,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -709,7 +676,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -717,7 +684,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -725,7 +692,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -733,7 +700,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -741,7 +708,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -749,7 +716,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -757,7 +724,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -765,7 +732,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -773,7 +740,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -781,7 +748,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -789,7 +756,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -797,7 +764,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -805,7 +772,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -813,7 +780,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -821,7 +788,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -829,7 +796,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -837,7 +804,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -845,7 +812,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -853,7 +820,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -861,7 +828,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -869,7 +836,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -877,7 +844,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>49</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -885,7 +852,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -893,7 +860,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -901,7 +868,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -909,7 +876,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -925,7 +892,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -933,7 +900,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -941,7 +908,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -949,95 +916,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59">
         <v>15</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Cluster Name</t>
   </si>
   <si>
-    <t>Activecases</t>
+    <t>Active cases</t>
   </si>
   <si>
     <t>3398 BlueCross Elly Kay Mordialloc</t>
@@ -34,6 +34,9 @@
     <t>3653 Fronditha Thalpori St Albans Aged Care</t>
   </si>
   <si>
+    <t>3749 Rosebrook - McKenzie Aged CareRosebud</t>
+  </si>
+  <si>
     <t>3975 Aurrum Aged Care Brunswick West</t>
   </si>
   <si>
@@ -52,61 +55,37 @@
     <t>44404 Castlemaine North Primary SchoolCastlemaine</t>
   </si>
   <si>
-    <t>44507 Inverloch Primary School Inverloch</t>
-  </si>
-  <si>
     <t>44593 Torquay P-6 College Torquay</t>
   </si>
   <si>
     <t>44622 Grey Street Primary School Traralgon</t>
   </si>
   <si>
+    <t>44631 Mount Evelyn Primary School</t>
+  </si>
+  <si>
     <t>44642 Irymple South Primary School Irymple South</t>
   </si>
   <si>
     <t>4479 Whittlesea Lodge Whittlesea</t>
   </si>
   <si>
-    <t>44855 Beverley Hills Primary School Doncaster East</t>
-  </si>
-  <si>
     <t>44893 Greenhills Primary School Greensborough</t>
   </si>
   <si>
-    <t>44960 Thomastown West Primary School</t>
-  </si>
-  <si>
-    <t>45013 Gladstone Views Primary School</t>
-  </si>
-  <si>
-    <t>45168 Ranfurly Primary School</t>
-  </si>
-  <si>
-    <t>45305 Lockington Consolidated SchoolLockington</t>
-  </si>
-  <si>
-    <t>4574 Village Glen Aged Care Residences Mornington</t>
-  </si>
-  <si>
-    <t>45757 Saint Joseph's Primary School Warragul</t>
-  </si>
-  <si>
-    <t>45958 Ave Maria College Aberfeldie Workplace</t>
-  </si>
-  <si>
-    <t>50412 Geelong Grammar School Bostock House Campus Newtown</t>
+    <t>45168 Ranfurly Primary School Mildura</t>
+  </si>
+  <si>
+    <t>45275 Lalor Gardens Primary School Lalor</t>
+  </si>
+  <si>
+    <t>46320 St Mary's Coptic Orthodox CollegeCoolaroo</t>
   </si>
   <si>
     <t>52390 Our Lady of the Way Catholic PrimarySchool Wallan</t>
   </si>
   <si>
-    <t>52694 Pakenham Primary School Pakenham</t>
-  </si>
-  <si>
-    <t>52777 Mirripoa Primary School Mount Duneed School Camp</t>
-  </si>
-  <si>
-    <t>Cardinia Waters Retirement Village Pakenham</t>
+    <t>52777 Mirripoa Primary School Mount DuneedSchool Camp</t>
   </si>
   <si>
     <t>Confirmed Omicron Sircuit Bar Fitzroy</t>
@@ -115,12 +94,6 @@
     <t>Confirmed Omicron Variant The Peel HotelCollingwood</t>
   </si>
   <si>
-    <t>Flight QF10 LHR to MEL via DRW 13 Dec</t>
-  </si>
-  <si>
-    <t>Goodstart Early Learning Preston</t>
-  </si>
-  <si>
     <t>Green Gables Lodge Warburton</t>
   </si>
   <si>
@@ -130,7 +103,7 @@
     <t>JBS Australia Brooklyn</t>
   </si>
   <si>
-    <t>Jackson's Hotel Age of Love Event Toorak</t>
+    <t>Lockington Consolidated SchoolLockington</t>
   </si>
   <si>
     <t>PGL Camp Rumbug Foster North</t>
@@ -139,28 +112,19 @@
     <t>Social Gathering 11 Dec Windsor</t>
   </si>
   <si>
-    <t>Social Gathering 11 December Fitzroy</t>
-  </si>
-  <si>
     <t>St Brigid's Parish Primary School Mordialloc</t>
   </si>
   <si>
-    <t>St Clare's Primary School Officer</t>
-  </si>
-  <si>
-    <t>St Vincents Hospital Melbourne Emergency Department Fitzroy</t>
+    <t>St Pauls Cathedral</t>
+  </si>
+  <si>
+    <t>St Vincents Hospital Melbourne EmergencyDepartment Fitzroy</t>
+  </si>
+  <si>
+    <t>St. Vincent's Hospital Melbourne Fitzroy</t>
   </si>
   <si>
     <t>StarTrack- Melbourne Tullamarine</t>
-  </si>
-  <si>
-    <t>Sunny Ridge Strawberry Farm Main Ridge</t>
-  </si>
-  <si>
-    <t>The George Lounge St Kilda</t>
-  </si>
-  <si>
-    <t>Thomastown West Primary School Camp Doxa's Malmsbury</t>
   </si>
   <si>
     <t>Warbuton Lodge Warbuton</t>
@@ -521,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,7 +504,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -564,7 +528,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -572,7 +536,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -580,7 +544,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -588,7 +552,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -596,7 +560,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -604,7 +568,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -612,7 +576,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>65</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -620,7 +584,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -628,7 +592,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -644,7 +608,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -652,7 +616,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -660,7 +624,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -668,7 +632,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -676,7 +640,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -684,7 +648,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -692,7 +656,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>37</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -700,7 +664,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -708,7 +672,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -716,7 +680,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -724,7 +688,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -732,7 +696,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -740,7 +704,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>49</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -748,7 +712,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -756,7 +720,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -764,7 +728,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -772,7 +736,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -780,7 +744,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -788,7 +752,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -796,7 +760,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -804,7 +768,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -812,7 +776,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -820,103 +784,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42">
         <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Cluster Name</t>
   </si>
@@ -28,16 +28,13 @@
     <t>3601 Baptcare Westhaven community</t>
   </si>
   <si>
-    <t>3647 Aurrum Aged Care Reservoir</t>
-  </si>
-  <si>
     <t>3653 Fronditha Thalpori St Albans Aged Care</t>
   </si>
   <si>
-    <t>3749 Rosebrook - McKenzie Aged CareRosebud</t>
-  </si>
-  <si>
-    <t>3975 Aurrum Aged Care Brunswick West</t>
+    <t>3749 Rosebrook - McKenzie Aged Care Rosebud</t>
+  </si>
+  <si>
+    <t>3975 Aurrum Aged Care Brunswick</t>
   </si>
   <si>
     <t>4257 BlueCross The Gables Camberwell</t>
@@ -52,7 +49,7 @@
     <t>44095 Myrniong Primary School Myrniong</t>
   </si>
   <si>
-    <t>44404 Castlemaine North Primary SchoolCastlemaine</t>
+    <t>44404 Castlemaine North Primary School Castlemaine</t>
   </si>
   <si>
     <t>44593 Torquay P-6 College Torquay</t>
@@ -79,55 +76,46 @@
     <t>45275 Lalor Gardens Primary School Lalor</t>
   </si>
   <si>
-    <t>46320 St Mary's Coptic Orthodox CollegeCoolaroo</t>
-  </si>
-  <si>
-    <t>52390 Our Lady of the Way Catholic PrimarySchool Wallan</t>
-  </si>
-  <si>
-    <t>52777 Mirripoa Primary School Mount DuneedSchool Camp</t>
+    <t>45305 Lockington Consolidated School Lockington</t>
+  </si>
+  <si>
+    <t>52390 Our Lady of the Way Catholic Primary School Wallan</t>
+  </si>
+  <si>
+    <t>52777 Mirripoa Primary School Mount Duneed School Camp</t>
   </si>
   <si>
     <t>Confirmed Omicron Sircuit Bar Fitzroy</t>
   </si>
   <si>
-    <t>Confirmed Omicron Variant The Peel HotelCollingwood</t>
+    <t>Confirmed Omicron Variant The Peel Hotel Collingwood</t>
   </si>
   <si>
     <t>Green Gables Lodge Warburton</t>
   </si>
   <si>
-    <t>Greendale Hotel Greendale</t>
-  </si>
-  <si>
     <t>JBS Australia Brooklyn</t>
   </si>
   <si>
-    <t>Lockington Consolidated SchoolLockington</t>
-  </si>
-  <si>
     <t>PGL Camp Rumbug Foster North</t>
   </si>
   <si>
-    <t>Social Gathering 11 Dec Windsor</t>
-  </si>
-  <si>
     <t>St Brigid's Parish Primary School Mordialloc</t>
   </si>
   <si>
     <t>St Pauls Cathedral</t>
   </si>
   <si>
-    <t>St Vincents Hospital Melbourne EmergencyDepartment Fitzroy</t>
+    <t>St Vincents Hospital Melbourne Emergency Department Fitzroy</t>
   </si>
   <si>
     <t>St. Vincent's Hospital Melbourne Fitzroy</t>
   </si>
   <si>
-    <t>StarTrack- Melbourne Tullamarine</t>
-  </si>
-  <si>
-    <t>Warbuton Lodge Warbuton</t>
+    <t>Sunny Ridge Strawberry Farm Main Ridge</t>
+  </si>
+  <si>
+    <t>Warburton Lodge Warburton</t>
   </si>
 </sst>
 </file>
@@ -485,7 +473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -504,7 +492,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -520,7 +508,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -528,7 +516,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -544,7 +532,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -552,7 +540,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -560,7 +548,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -568,7 +556,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -576,7 +564,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -584,7 +572,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>61</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -592,7 +580,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -600,7 +588,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -608,7 +596,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -616,7 +604,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -624,7 +612,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -632,7 +620,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -640,7 +628,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -648,7 +636,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -656,7 +644,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>10</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -664,7 +652,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -672,7 +660,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -680,7 +668,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -688,7 +676,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -696,7 +684,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -704,7 +692,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -712,7 +700,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -720,7 +708,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -728,7 +716,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -736,7 +724,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -744,7 +732,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -752,38 +740,6 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37">
         <v>14</v>
       </c>
     </row>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t>Cluster Name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+  <si>
+    <t>Cluster name</t>
   </si>
   <si>
     <t>Active cases</t>
@@ -34,7 +34,7 @@
     <t>3749 Rosebrook - McKenzie Aged Care Rosebud</t>
   </si>
   <si>
-    <t>3975 Aurrum Aged Care Brunswick</t>
+    <t>3975 Aurrum Aged Care Brunswick West</t>
   </si>
   <si>
     <t>4257 BlueCross The Gables Camberwell</t>
@@ -52,24 +52,15 @@
     <t>44404 Castlemaine North Primary School Castlemaine</t>
   </si>
   <si>
-    <t>44593 Torquay P-6 College Torquay</t>
-  </si>
-  <si>
     <t>44622 Grey Street Primary School Traralgon</t>
   </si>
   <si>
-    <t>44631 Mount Evelyn Primary School</t>
-  </si>
-  <si>
     <t>44642 Irymple South Primary School Irymple South</t>
   </si>
   <si>
     <t>4479 Whittlesea Lodge Whittlesea</t>
   </si>
   <si>
-    <t>44893 Greenhills Primary School Greensborough</t>
-  </si>
-  <si>
     <t>45168 Ranfurly Primary School Mildura</t>
   </si>
   <si>
@@ -91,18 +82,15 @@
     <t>Confirmed Omicron Variant The Peel Hotel Collingwood</t>
   </si>
   <si>
+    <t>Feathertop Chalet Harrietville</t>
+  </si>
+  <si>
     <t>Green Gables Lodge Warburton</t>
   </si>
   <si>
-    <t>JBS Australia Brooklyn</t>
-  </si>
-  <si>
     <t>PGL Camp Rumbug Foster North</t>
   </si>
   <si>
-    <t>St Brigid's Parish Primary School Mordialloc</t>
-  </si>
-  <si>
     <t>St Pauls Cathedral</t>
   </si>
   <si>
@@ -110,12 +98,6 @@
   </si>
   <si>
     <t>St. Vincent's Hospital Melbourne Fitzroy</t>
-  </si>
-  <si>
-    <t>Sunny Ridge Strawberry Farm Main Ridge</t>
-  </si>
-  <si>
-    <t>Warburton Lodge Warburton</t>
   </si>
 </sst>
 </file>
@@ -473,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -492,7 +474,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -548,7 +530,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -556,7 +538,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -564,7 +546,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -572,7 +554,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -580,7 +562,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -588,7 +570,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -596,7 +578,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -604,7 +586,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -620,7 +602,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -628,7 +610,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -636,7 +618,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -644,7 +626,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -652,7 +634,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -660,7 +642,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -668,7 +650,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -676,7 +658,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -684,7 +666,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -692,55 +674,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t>Cluster name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <si>
+    <t>Cluster Name</t>
   </si>
   <si>
     <t>Active cases</t>
@@ -25,27 +25,9 @@
     <t>3398 BlueCross Elly Kay Mordialloc</t>
   </si>
   <si>
-    <t>3601 Baptcare Westhaven community</t>
-  </si>
-  <si>
-    <t>3653 Fronditha Thalpori St Albans Aged Care</t>
-  </si>
-  <si>
-    <t>3749 Rosebrook - McKenzie Aged Care Rosebud</t>
-  </si>
-  <si>
-    <t>3975 Aurrum Aged Care Brunswick West</t>
-  </si>
-  <si>
     <t>4257 BlueCross The Gables Camberwell</t>
   </si>
   <si>
-    <t>4295 Hope Aged Care Sunshine West</t>
-  </si>
-  <si>
-    <t>4314 Estia Health Ardeer</t>
-  </si>
-  <si>
     <t>44095 Myrniong Primary School Myrniong</t>
   </si>
   <si>
@@ -67,15 +49,15 @@
     <t>45275 Lalor Gardens Primary School Lalor</t>
   </si>
   <si>
-    <t>45305 Lockington Consolidated School Lockington</t>
-  </si>
-  <si>
     <t>52390 Our Lady of the Way Catholic Primary School Wallan</t>
   </si>
   <si>
     <t>52777 Mirripoa Primary School Mount Duneed School Camp</t>
   </si>
   <si>
+    <t>Alfred Health The Alfred Hospital Melbourne</t>
+  </si>
+  <si>
     <t>Confirmed Omicron Sircuit Bar Fitzroy</t>
   </si>
   <si>
@@ -88,9 +70,6 @@
     <t>Green Gables Lodge Warburton</t>
   </si>
   <si>
-    <t>PGL Camp Rumbug Foster North</t>
-  </si>
-  <si>
     <t>St Pauls Cathedral</t>
   </si>
   <si>
@@ -98,6 +77,12 @@
   </si>
   <si>
     <t>St. Vincent's Hospital Melbourne Fitzroy</t>
+  </si>
+  <si>
+    <t>Sunny Ridge Strawberry Farm Main Ridge</t>
+  </si>
+  <si>
+    <t>The Hatter and the Hare Bayswater</t>
   </si>
 </sst>
 </file>
@@ -455,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -474,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -482,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -490,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -498,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -506,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -514,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -522,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -546,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -554,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -562,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -570,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -578,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -586,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -594,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -602,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -610,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -618,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -626,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -634,47 +619,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -19,18 +19,18 @@
     <t>Cluster Name</t>
   </si>
   <si>
-    <t>Active cases</t>
+    <t>Activecases</t>
   </si>
   <si>
     <t>3398 BlueCross Elly Kay Mordialloc</t>
   </si>
   <si>
+    <t>3749 Rosebrook - McKenzie Aged Care Rosebud</t>
+  </si>
+  <si>
     <t>4257 BlueCross The Gables Camberwell</t>
   </si>
   <si>
-    <t>44095 Myrniong Primary School Myrniong</t>
-  </si>
-  <si>
     <t>44404 Castlemaine North Primary School Castlemaine</t>
   </si>
   <si>
@@ -67,9 +67,6 @@
     <t>Feathertop Chalet Harrietville</t>
   </si>
   <si>
-    <t>Green Gables Lodge Warburton</t>
-  </si>
-  <si>
     <t>St Pauls Cathedral</t>
   </si>
   <si>
@@ -79,10 +76,13 @@
     <t>St. Vincent's Hospital Melbourne Fitzroy</t>
   </si>
   <si>
-    <t>Sunny Ridge Strawberry Farm Main Ridge</t>
+    <t>The Emerson Rooftop Bar and Club South Yarra</t>
   </si>
   <si>
     <t>The Hatter and the Hare Bayswater</t>
+  </si>
+  <si>
+    <t>The Royal Children's Hospital Melbourne Emergency Department Parkville</t>
   </si>
 </sst>
 </file>
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>24</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>45</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -19,45 +19,33 @@
     <t>Cluster Name</t>
   </si>
   <si>
-    <t>Activecases</t>
+    <t>Active cases</t>
   </si>
   <si>
     <t>3398 BlueCross Elly Kay Mordialloc</t>
   </si>
   <si>
-    <t>3749 Rosebrook - McKenzie Aged Care Rosebud</t>
-  </si>
-  <si>
     <t>4257 BlueCross The Gables Camberwell</t>
   </si>
   <si>
     <t>44404 Castlemaine North Primary School Castlemaine</t>
   </si>
   <si>
-    <t>44622 Grey Street Primary School Traralgon</t>
-  </si>
-  <si>
-    <t>44642 Irymple South Primary School Irymple South</t>
-  </si>
-  <si>
     <t>4479 Whittlesea Lodge Whittlesea</t>
   </si>
   <si>
     <t>45168 Ranfurly Primary School Mildura</t>
   </si>
   <si>
-    <t>45275 Lalor Gardens Primary School Lalor</t>
-  </si>
-  <si>
-    <t>52390 Our Lady of the Way Catholic Primary School Wallan</t>
-  </si>
-  <si>
-    <t>52777 Mirripoa Primary School Mount Duneed School Camp</t>
+    <t>52777 Mirripoa Primary School Mount DuneedSchool Camp</t>
   </si>
   <si>
     <t>Alfred Health The Alfred Hospital Melbourne</t>
   </si>
   <si>
+    <t>Billboards The Venue Melbourne</t>
+  </si>
+  <si>
     <t>Confirmed Omicron Sircuit Bar Fitzroy</t>
   </si>
   <si>
@@ -67,6 +55,15 @@
     <t>Feathertop Chalet Harrietville</t>
   </si>
   <si>
+    <t>Melbourne Cricket Ground (MCG)</t>
+  </si>
+  <si>
+    <t>Monash Health Dandenong Hospital Dandenong</t>
+  </si>
+  <si>
+    <t>Ms Collins Melbourne</t>
+  </si>
+  <si>
     <t>St Pauls Cathedral</t>
   </si>
   <si>
@@ -83,6 +80,9 @@
   </si>
   <si>
     <t>The Royal Children's Hospital Melbourne Emergency Department Parkville</t>
+  </si>
+  <si>
+    <t>Western Health Sunshine Hospital Emergency Department St Albans</t>
   </si>
 </sst>
 </file>
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>18</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>62</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Cluster Name</t>
   </si>
@@ -22,37 +22,16 @@
     <t>Active cases</t>
   </si>
   <si>
-    <t>3398 BlueCross Elly Kay Mordialloc</t>
-  </si>
-  <si>
-    <t>4257 BlueCross The Gables Camberwell</t>
-  </si>
-  <si>
-    <t>44404 Castlemaine North Primary School Castlemaine</t>
-  </si>
-  <si>
-    <t>4479 Whittlesea Lodge Whittlesea</t>
-  </si>
-  <si>
-    <t>45168 Ranfurly Primary School Mildura</t>
-  </si>
-  <si>
-    <t>52777 Mirripoa Primary School Mount DuneedSchool Camp</t>
-  </si>
-  <si>
-    <t>Alfred Health The Alfred Hospital Melbourne</t>
-  </si>
-  <si>
     <t>Billboards The Venue Melbourne</t>
   </si>
   <si>
-    <t>Confirmed Omicron Sircuit Bar Fitzroy</t>
-  </si>
-  <si>
-    <t>Confirmed Omicron Variant The Peel Hotel Collingwood</t>
-  </si>
-  <si>
-    <t>Feathertop Chalet Harrietville</t>
+    <t>Costa Mushroom Farm Mernda</t>
+  </si>
+  <si>
+    <t>Crown Melbourne Southbank</t>
+  </si>
+  <si>
+    <t>Flanagans Border Inn Bacchus Marsh</t>
   </si>
   <si>
     <t>Melbourne Cricket Ground (MCG)</t>
@@ -64,7 +43,7 @@
     <t>Ms Collins Melbourne</t>
   </si>
   <si>
-    <t>St Pauls Cathedral</t>
+    <t>Rupert On Rupert Collingwood</t>
   </si>
   <si>
     <t>St Vincents Hospital Melbourne Emergency Department Fitzroy</t>
@@ -73,13 +52,7 @@
     <t>St. Vincent's Hospital Melbourne Fitzroy</t>
   </si>
   <si>
-    <t>The Emerson Rooftop Bar and Club South Yarra</t>
-  </si>
-  <si>
     <t>The Hatter and the Hare Bayswater</t>
-  </si>
-  <si>
-    <t>The Royal Children's Hospital Melbourne Emergency Department Parkville</t>
   </si>
   <si>
     <t>Western Health Sunshine Hospital Emergency Department St Albans</t>
@@ -440,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,7 +432,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -467,7 +440,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -475,7 +448,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -483,7 +456,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -491,7 +464,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -499,7 +472,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -507,7 +480,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -515,7 +488,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -523,7 +496,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -531,7 +504,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -539,7 +512,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -547,78 +520,6 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22">
         <v>12</v>
       </c>
     </row>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Cluster Name</t>
   </si>
@@ -22,18 +22,27 @@
     <t>Active cases</t>
   </si>
   <si>
-    <t>Billboards The Venue Melbourne</t>
+    <t>AFMH Farm Coomboona</t>
+  </si>
+  <si>
+    <t>Barwon Heads Hotel Barwon Heads</t>
+  </si>
+  <si>
+    <t>Confirmed Omicron Sircuit Bar Fitzroy</t>
+  </si>
+  <si>
+    <t>Confirmed Omicron Variant The Peel Hotel Collingwood</t>
   </si>
   <si>
     <t>Costa Mushroom Farm Mernda</t>
   </si>
   <si>
-    <t>Crown Melbourne Southbank</t>
-  </si>
-  <si>
     <t>Flanagans Border Inn Bacchus Marsh</t>
   </si>
   <si>
+    <t>Hurley's Bar and Bistro Hotel Kyabram</t>
+  </si>
+  <si>
     <t>Melbourne Cricket Ground (MCG)</t>
   </si>
   <si>
@@ -43,6 +52,9 @@
     <t>Ms Collins Melbourne</t>
   </si>
   <si>
+    <t>Northern Health Northern Hospital Epping</t>
+  </si>
+  <si>
     <t>Rupert On Rupert Collingwood</t>
   </si>
   <si>
@@ -52,10 +64,16 @@
     <t>St. Vincent's Hospital Melbourne Fitzroy</t>
   </si>
   <si>
-    <t>The Hatter and the Hare Bayswater</t>
+    <t>The Deck Shepparton</t>
+  </si>
+  <si>
+    <t>Werribee Mercy Hospital Emergency Department</t>
   </si>
   <si>
     <t>Western Health Sunshine Hospital Emergency Department St Albans</t>
+  </si>
+  <si>
+    <t>Wilson's Nightclub Horsham</t>
   </si>
 </sst>
 </file>
@@ -413,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,7 +450,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -440,7 +458,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -448,7 +466,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -456,7 +474,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -464,7 +482,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -480,7 +498,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -488,7 +506,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -496,7 +514,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -504,7 +522,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -512,7 +530,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -520,7 +538,55 @@
         <v>13</v>
       </c>
       <c r="B13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
         <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,15 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Cluster Name</t>
   </si>
   <si>
-    <t>Active cases</t>
-  </si>
-  <si>
-    <t>AFMH Farm Coomboona</t>
+    <t>Activecases</t>
+  </si>
+  <si>
+    <t>3641 Calvary The Regent Mount Waverley</t>
   </si>
   <si>
     <t>Barwon Heads Hotel Barwon Heads</t>
@@ -34,46 +34,22 @@
     <t>Confirmed Omicron Variant The Peel Hotel Collingwood</t>
   </si>
   <si>
-    <t>Costa Mushroom Farm Mernda</t>
-  </si>
-  <si>
-    <t>Flanagans Border Inn Bacchus Marsh</t>
-  </si>
-  <si>
-    <t>Hurley's Bar and Bistro Hotel Kyabram</t>
+    <t>Hotel Traralgon (Ryan's Hotel) Traralgon</t>
   </si>
   <si>
     <t>Melbourne Cricket Ground (MCG)</t>
   </si>
   <si>
-    <t>Monash Health Dandenong Hospital Dandenong</t>
-  </si>
-  <si>
-    <t>Ms Collins Melbourne</t>
-  </si>
-  <si>
-    <t>Northern Health Northern Hospital Epping</t>
-  </si>
-  <si>
-    <t>Rupert On Rupert Collingwood</t>
+    <t>Melbourne Stars Big Bash Cricket Team East Melbourne</t>
   </si>
   <si>
     <t>St Vincents Hospital Melbourne Emergency Department Fitzroy</t>
   </si>
   <si>
-    <t>St. Vincent's Hospital Melbourne Fitzroy</t>
-  </si>
-  <si>
-    <t>The Deck Shepparton</t>
-  </si>
-  <si>
     <t>Werribee Mercy Hospital Emergency Department</t>
   </si>
   <si>
     <t>Western Health Sunshine Hospital Emergency Department St Albans</t>
-  </si>
-  <si>
-    <t>Wilson's Nightclub Horsham</t>
   </si>
 </sst>
 </file>
@@ -431,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -450,7 +426,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -458,7 +434,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -466,7 +442,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -474,7 +450,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -490,7 +466,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -498,7 +474,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -506,7 +482,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>65</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -514,7 +490,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -522,71 +498,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
         <v>12</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Cluster Name</t>
   </si>
@@ -22,6 +22,9 @@
     <t>Activecases</t>
   </si>
   <si>
+    <t>3516 The Alexander Aged Care Centre</t>
+  </si>
+  <si>
     <t>3641 Calvary The Regent Mount Waverley</t>
   </si>
   <si>
@@ -34,16 +37,16 @@
     <t>Confirmed Omicron Variant The Peel Hotel Collingwood</t>
   </si>
   <si>
-    <t>Hotel Traralgon (Ryan's Hotel) Traralgon</t>
+    <t>Diamond Valley Pork and Baxters Pork Laverton North</t>
   </si>
   <si>
     <t>Melbourne Cricket Ground (MCG)</t>
   </si>
   <si>
-    <t>Melbourne Stars Big Bash Cricket Team East Melbourne</t>
-  </si>
-  <si>
-    <t>St Vincents Hospital Melbourne Emergency Department Fitzroy</t>
+    <t>Melbourne Stars Big Bash Cricket Team EastMelbourne</t>
+  </si>
+  <si>
+    <t>The Royal Children's Hospital Melbourne Emergency Department Parkville</t>
   </si>
   <si>
     <t>Werribee Mercy Hospital Emergency Department</t>
@@ -407,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,7 +429,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -434,7 +437,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -442,7 +445,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -450,7 +453,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -458,7 +461,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -466,7 +469,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>54</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -474,7 +477,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>24</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -482,7 +485,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -490,7 +493,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -498,7 +501,15 @@
         <v>11</v>
       </c>
       <c r="B11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
         <v>12</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Cluster Name</t>
   </si>
@@ -22,13 +22,7 @@
     <t>Activecases</t>
   </si>
   <si>
-    <t>3516 The Alexander Aged Care Centre</t>
-  </si>
-  <si>
-    <t>3641 Calvary The Regent Mount Waverley</t>
-  </si>
-  <si>
-    <t>Barwon Heads Hotel Barwon Heads</t>
+    <t>Beyond the City New Years Festival 30 to 31 January Melbourne</t>
   </si>
   <si>
     <t>Confirmed Omicron Sircuit Bar Fitzroy</t>
@@ -37,13 +31,7 @@
     <t>Confirmed Omicron Variant The Peel Hotel Collingwood</t>
   </si>
   <si>
-    <t>Diamond Valley Pork and Baxters Pork Laverton North</t>
-  </si>
-  <si>
     <t>Melbourne Cricket Ground (MCG)</t>
-  </si>
-  <si>
-    <t>Melbourne Stars Big Bash Cricket Team EastMelbourne</t>
   </si>
   <si>
     <t>The Royal Children's Hospital Melbourne Emergency Department Parkville</t>
@@ -410,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,7 +417,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -437,7 +425,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -445,7 +433,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -453,7 +441,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -461,7 +449,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -469,7 +457,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -477,38 +465,6 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
         <v>11</v>
       </c>
     </row>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Cluster Name</t>
   </si>
@@ -22,7 +22,13 @@
     <t>Activecases</t>
   </si>
   <si>
-    <t>Beyond the City New Years Festival 30 to 31 January Melbourne</t>
+    <t>3642 Fronditha Care Aged Care Clayton South</t>
+  </si>
+  <si>
+    <t>4314 Estia Health Altona Meadows</t>
+  </si>
+  <si>
+    <t>Beyond the City New Years Festival 30 to 31 Jan Melbourne</t>
   </si>
   <si>
     <t>Confirmed Omicron Sircuit Bar Fitzroy</t>
@@ -31,16 +37,13 @@
     <t>Confirmed Omicron Variant The Peel Hotel Collingwood</t>
   </si>
   <si>
-    <t>Melbourne Cricket Ground (MCG)</t>
+    <t>Novotel ibis Melbourne Central Melbourne</t>
   </si>
   <si>
     <t>The Royal Children's Hospital Melbourne Emergency Department Parkville</t>
   </si>
   <si>
     <t>Werribee Mercy Hospital Emergency Department</t>
-  </si>
-  <si>
-    <t>Western Health Sunshine Hospital Emergency Department St Albans</t>
   </si>
 </sst>
 </file>
@@ -398,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,7 +420,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -425,7 +428,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -433,7 +436,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -449,7 +452,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -457,7 +460,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -465,7 +468,15 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Cluster Name</t>
   </si>
   <si>
-    <t>Activecases</t>
+    <t>Active cases</t>
+  </si>
+  <si>
+    <t>3433 HammondCare Caulfield Village Aged Care</t>
   </si>
   <si>
     <t>3642 Fronditha Care Aged Care Clayton South</t>
@@ -37,13 +40,22 @@
     <t>Confirmed Omicron Variant The Peel Hotel Collingwood</t>
   </si>
   <si>
+    <t>Diamond Valley Pork and Baxters Pork Laverton North</t>
+  </si>
+  <si>
+    <t>Mercure Welcome Melbourne</t>
+  </si>
+  <si>
     <t>Novotel ibis Melbourne Central Melbourne</t>
   </si>
   <si>
-    <t>The Royal Children's Hospital Melbourne Emergency Department Parkville</t>
+    <t>Pullman Melbourne on Swanston Melbourne</t>
   </si>
   <si>
     <t>Werribee Mercy Hospital Emergency Department</t>
+  </si>
+  <si>
+    <t>Western Health Sunshine Hospital EmergencyDepartment St Albans</t>
   </si>
 </sst>
 </file>
@@ -401,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -420,7 +432,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>41</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -428,7 +440,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -436,7 +448,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -444,7 +456,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -452,7 +464,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -460,7 +472,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -468,7 +480,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -476,7 +488,39 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>14</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Cluster Name</t>
   </si>
@@ -22,9 +22,6 @@
     <t>Active cases</t>
   </si>
   <si>
-    <t>3433 HammondCare Caulfield Village Aged Care</t>
-  </si>
-  <si>
     <t>3642 Fronditha Care Aged Care Clayton South</t>
   </si>
   <si>
@@ -55,7 +52,7 @@
     <t>Werribee Mercy Hospital Emergency Department</t>
   </si>
   <si>
-    <t>Western Health Sunshine Hospital EmergencyDepartment St Albans</t>
+    <t>Western Health Sunshine Hospital Emergency Department St Albans</t>
   </si>
 </sst>
 </file>
@@ -413,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,7 +429,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -440,7 +437,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>41</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -448,7 +445,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -456,7 +453,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -464,7 +461,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -472,7 +469,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -480,7 +477,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -488,7 +485,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -496,7 +493,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -504,7 +501,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -512,14 +509,6 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
         <v>10</v>
       </c>
     </row>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,23 +14,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>Cluster Name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>Cluster name</t>
   </si>
   <si>
     <t>Active cases</t>
   </si>
   <si>
+    <t>3155 Westmont Aged Care Services Baranduda</t>
+  </si>
+  <si>
     <t>3642 Fronditha Care Aged Care Clayton South</t>
   </si>
   <si>
     <t>4314 Estia Health Altona Meadows</t>
   </si>
   <si>
-    <t>Beyond the City New Years Festival 30 to 31 Jan Melbourne</t>
-  </si>
-  <si>
     <t>Confirmed Omicron Sircuit Bar Fitzroy</t>
   </si>
   <si>
@@ -43,16 +43,10 @@
     <t>Mercure Welcome Melbourne</t>
   </si>
   <si>
-    <t>Novotel ibis Melbourne Central Melbourne</t>
-  </si>
-  <si>
     <t>Pullman Melbourne on Swanston Melbourne</t>
   </si>
   <si>
     <t>Werribee Mercy Hospital Emergency Department</t>
-  </si>
-  <si>
-    <t>Western Health Sunshine Hospital Emergency Department St Albans</t>
   </si>
 </sst>
 </file>
@@ -410,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,7 +423,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -437,7 +431,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -445,7 +439,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -453,7 +447,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -461,7 +455,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -469,7 +463,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -485,7 +479,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -493,23 +487,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Cluster name</t>
   </si>
@@ -25,9 +25,15 @@
     <t>3155 Westmont Aged Care Services Baranduda</t>
   </si>
   <si>
+    <t>3349 Maculata Place Shepparton Villages Aged Care Shepparton</t>
+  </si>
+  <si>
     <t>3642 Fronditha Care Aged Care Clayton South</t>
   </si>
   <si>
+    <t>3662 Regis Brighton</t>
+  </si>
+  <si>
     <t>4314 Estia Health Altona Meadows</t>
   </si>
   <si>
@@ -41,6 +47,9 @@
   </si>
   <si>
     <t>Mercure Welcome Melbourne</t>
+  </si>
+  <si>
+    <t>Novotel ibis Melbourne Central Melbourne</t>
   </si>
   <si>
     <t>Pullman Melbourne on Swanston Melbourne</t>
@@ -404,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -431,7 +440,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -439,7 +448,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -447,7 +456,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -455,7 +464,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -463,7 +472,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -471,7 +480,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -479,7 +488,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -487,7 +496,31 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>17</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0.xlsx
+++ b/vic-key-outbreaks_0.xlsx
@@ -14,27 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>Cluster name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>Cluster Name</t>
   </si>
   <si>
     <t>Active cases</t>
   </si>
   <si>
-    <t>3155 Westmont Aged Care Services Baranduda</t>
-  </si>
-  <si>
-    <t>3349 Maculata Place Shepparton Villages Aged Care Shepparton</t>
-  </si>
-  <si>
     <t>3642 Fronditha Care Aged Care Clayton South</t>
   </si>
   <si>
-    <t>3662 Regis Brighton</t>
-  </si>
-  <si>
-    <t>4314 Estia Health Altona Meadows</t>
+    <t>3652 Regis Aged Care Dandenong North</t>
+  </si>
+  <si>
+    <t>3662 Regis Brighton site</t>
+  </si>
+  <si>
+    <t>4535 Fronditha Care Thornbury</t>
   </si>
   <si>
     <t>Confirmed Omicron Sircuit Bar Fitzroy</t>
@@ -46,13 +43,7 @@
     <t>Diamond Valley Pork and Baxters Pork Laverton North</t>
   </si>
   <si>
-    <t>Mercure Welcome Melbourne</t>
-  </si>
-  <si>
-    <t>Novotel ibis Melbourne Central Melbourne</t>
-  </si>
-  <si>
-    <t>Pullman Melbourne on Swanston Melbourne</t>
+    <t>Midfield Meat International Warrnambool</t>
   </si>
   <si>
     <t>Werribee Mercy Hospital Emergency Department</t>
@@ -413,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -440,7 +431,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -448,7 +439,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -456,7 +447,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -472,7 +463,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -480,7 +471,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -488,7 +479,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -496,31 +487,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
         <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
